--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -166,6 +166,68 @@
         </r>
       </text>
     </comment>
+    <comment ref="J42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/5/19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/05/19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E49" authorId="0">
       <text>
         <r>
@@ -270,6 +332,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="I55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/05
+dinero que kelvin no entrego
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -482,7 +570,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +645,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1028,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V224"/>
+  <dimension ref="A1:AE224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1046,12 +1147,18 @@
     <col min="11" max="11" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="34"/>
+    <col min="15" max="15" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="34" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="34" customWidth="1"/>
+    <col min="18" max="18" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="34" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="34" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="34" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1">
+    <row r="1" spans="1:31" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1060,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="11" customFormat="1">
+    <row r="2" spans="1:31" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
@@ -1069,28 +1176,28 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1089564.4099999999</v>
+        <v>1088432.4399999997</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1">
+    <row r="3" spans="1:31" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>8431.4500000000044</v>
+        <v>11431.450000000004</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="18" customFormat="1">
+    <row r="4" spans="1:31" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>48</v>
@@ -1121,7 +1228,7 @@
         <v>-218.6</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="18" customFormat="1">
+    <row r="5" spans="1:31" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>47</v>
@@ -1137,14 +1244,14 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="18" customFormat="1">
+    <row r="6" spans="1:31" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>490.43000000000029</v>
+        <v>3490.4300000000003</v>
       </c>
       <c r="D6" s="17">
         <v>600.23</v>
@@ -1164,8 +1271,11 @@
       <c r="I6" s="18">
         <v>-51000</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" s="18" customFormat="1">
+      <c r="J6" s="18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="18" customFormat="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>49</v>
@@ -1187,28 +1297,28 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="13" customFormat="1">
+    <row r="8" spans="1:31" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>68326</v>
+        <v>16716</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="18" customFormat="1">
+    <row r="9" spans="1:31" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>4393</v>
+        <v>918</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -1238,15 +1348,30 @@
       <c r="M9" s="18">
         <v>-643</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" s="18" customFormat="1">
+      <c r="N9" s="18">
+        <v>-3445</v>
+      </c>
+      <c r="O9" s="18">
+        <v>-15</v>
+      </c>
+      <c r="P9" s="18">
+        <v>-40</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>-175</v>
+      </c>
+      <c r="R9" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>63933</v>
+        <v>15798</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -1305,15 +1430,42 @@
       <c r="V10" s="18">
         <v>6150</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" s="23" customFormat="1">
+      <c r="W10" s="18">
+        <v>12585</v>
+      </c>
+      <c r="X10" s="18">
+        <v>-66000</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>-10000</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>5095</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>-2175</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>20000</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>-15500</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>8060</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1012806.9599999998</v>
+        <v>1060284.9899999998</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -1321,14 +1473,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:22" s="18" customFormat="1">
+    <row r="12" spans="1:31" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>498264.24999999983</v>
+        <v>502742.27999999985</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -1363,15 +1515,30 @@
       <c r="N12" s="18">
         <v>5000</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" s="18" customFormat="1">
+      <c r="O12" s="18">
+        <v>-10279.379999999999</v>
+      </c>
+      <c r="P12" s="18">
+        <v>10000</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>-3894.97</v>
+      </c>
+      <c r="R12" s="18">
+        <v>15500</v>
+      </c>
+      <c r="S12" s="18">
+        <v>-6847.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>94704.48</v>
+        <v>137704.47999999998</v>
       </c>
       <c r="D13" s="17">
         <v>5704.48</v>
@@ -1382,8 +1549,14 @@
       <c r="F13" s="18">
         <v>51000</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" s="18" customFormat="1">
+      <c r="G13" s="18">
+        <v>63000</v>
+      </c>
+      <c r="H13" s="18">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>35</v>
@@ -1399,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="18" customFormat="1">
+    <row r="15" spans="1:31" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>37</v>
@@ -1418,7 +1591,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="18" customFormat="1">
+    <row r="16" spans="1:31" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>32</v>
@@ -1660,7 +1833,7 @@
       <c r="D32" s="17"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:9" s="13" customFormat="1">
+    <row r="33" spans="1:12" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -1673,7 +1846,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1">
+    <row r="34" spans="1:12" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>41</v>
@@ -1686,7 +1859,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1">
+    <row r="35" spans="1:12" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>40</v>
@@ -1697,7 +1870,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:9" s="13" customFormat="1">
+    <row r="36" spans="1:12" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -1706,11 +1879,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-93798.24</v>
+        <v>-98516.27</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1">
+    <row r="37" spans="1:12" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -1729,7 +1902,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1">
+    <row r="38" spans="1:12" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -1748,7 +1921,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1">
+    <row r="39" spans="1:12" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -1761,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1">
+    <row r="40" spans="1:12" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -1774,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1">
+    <row r="41" spans="1:12" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
@@ -1790,14 +1963,14 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1">
+    <row r="42" spans="1:12" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-23759.809999999998</v>
+        <v>-28477.839999999997</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -1817,8 +1990,17 @@
       <c r="I42" s="18">
         <v>-1408.42</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="18" customFormat="1">
+      <c r="J42" s="18">
+        <v>-2305.62</v>
+      </c>
+      <c r="K42" s="18">
+        <v>-1200.03</v>
+      </c>
+      <c r="L42" s="18">
+        <v>-1212.3800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -1834,7 +2016,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="13" customFormat="1">
+    <row r="44" spans="1:12" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>53</v>
       </c>
@@ -1843,11 +2025,11 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>7729.66</v>
+        <v>13579.66</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:12" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
@@ -1860,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1">
+    <row r="46" spans="1:12" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -1873,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:12" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -1886,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:12" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -1899,14 +2081,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="18" customFormat="1">
+    <row r="49" spans="1:14" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -1914,8 +2096,11 @@
       <c r="E49" s="18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" s="18" customFormat="1">
+      <c r="F49" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
@@ -1934,7 +2119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="18" customFormat="1">
+    <row r="51" spans="1:14" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -1947,27 +2132,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="18" customFormat="1">
+    <row r="52" spans="1:14" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" s="18" customFormat="1">
+      <c r="E52" s="18">
+        <v>40</v>
+      </c>
+      <c r="F52" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>1989.6</v>
+        <v>4961.6000000000004</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -1996,15 +2187,21 @@
       <c r="L53" s="18">
         <v>623</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" s="18" customFormat="1">
+      <c r="M53" s="18">
+        <v>2885</v>
+      </c>
+      <c r="N53" s="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>245</v>
+        <v>758</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -2024,15 +2221,27 @@
       <c r="I54" s="18">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" s="18" customFormat="1">
+      <c r="J54" s="18">
+        <v>395</v>
+      </c>
+      <c r="K54" s="18">
+        <v>15</v>
+      </c>
+      <c r="L54" s="18">
+        <v>40</v>
+      </c>
+      <c r="M54" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="16">
         <f>SUM(D55:ZZ55)</f>
-        <v>4108</v>
+        <v>6283</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="18">
@@ -2047,8 +2256,11 @@
       <c r="H55" s="18">
         <v>608</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="18" customFormat="1">
+      <c r="I55" s="18">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
@@ -2064,49 +2276,52 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="18" customFormat="1">
+    <row r="57" spans="1:14" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:12" s="18" customFormat="1">
+      <c r="E57" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:12" s="18" customFormat="1">
+    <row r="59" spans="1:14" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:12" s="18" customFormat="1">
+    <row r="60" spans="1:14" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:12" s="18" customFormat="1">
+    <row r="61" spans="1:14" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:12" s="18" customFormat="1">
+    <row r="62" spans="1:14" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:12" s="18" customFormat="1">
+    <row r="63" spans="1:14" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:12" s="18" customFormat="1">
+    <row r="64" spans="1:14" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -3084,7 +3299,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3115,7 +3330,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1089564.4099999999</v>
+        <v>1088432.4399999997</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3134,17 +3349,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-86068.58</v>
+        <v>-84936.61</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1089564.4099999999</v>
+        <v>1088432.4399999997</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1089564.4099999999</v>
+        <v>-1088432.44</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -20,6 +20,512 @@
     <author>Adelson</author>
   </authors>
   <commentList>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto comida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto impuesto banco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto de comida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cheque bono adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/19 cuota extracredito
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+08/05/19 para el completivo de la cuota del extracredito
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ups y papel rollo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 comision</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/05 para prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 ajuste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto del hogar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+desde bpd. Sobrante de los 10,000 para arreglar el carro.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto comida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto comida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+para prestamo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+fondo bhd inversion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cobrado por prestamo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pago de cuota de lala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Adelson:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pago de sueldo cobrador</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L10" authorId="0">
       <text>
         <r>
@@ -41,6 +547,510 @@
           </rPr>
           <t xml:space="preserve">
 sobro de pilloyo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+para prestamo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  capital cobrado por prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cobrado poe prestamo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+invertido y gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Adelson:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prestado 09/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cobrado por prestamo 09/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+08/05/19 para depositar en popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 para prestaar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  prestado desde 10 hasta el 11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  cobrado del 10 al 11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  sobrante en caja prestamo por durar 2 dias sin cuadrar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 para invertir en fondo bhd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  prestado desde 10 hasta el 11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  capital del 10 al 11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+para prestamo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/05 para prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 para invertir en fondo bhd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/19 capital bhd adelson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  sobrante en caja prestamo por durar 2 dias sin cuadrar</t>
         </r>
       </text>
     </comment>
@@ -226,6 +1236,89 @@
           </rPr>
           <t>Adelson:</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/05/19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/5/19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/05/19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  del  10 al 11
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="E49" authorId="0">
@@ -250,6 +1343,133 @@
           <t xml:space="preserve">
 gas carro 30/04/19
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cambio de cloche y soporte.
+--------------------------------------------
+1300 dos soportes.
+2000 mano obra cuevas
+1600 Disco clutch corolla ss 7A aison.
+2800 Plato friccion. SA 7A.
+1050 Collaring 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 comision popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 ajuste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/19  intereses extracredito.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/19   bhd leon adelson</t>
         </r>
       </text>
     </comment>
@@ -355,6 +1575,30 @@
 06/05
 dinero que kelvin no entrego
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ups y papel rollo</t>
         </r>
       </text>
     </comment>
@@ -1129,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE224"/>
+  <dimension ref="A1:AQ224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1148,17 +2392,30 @@
     <col min="12" max="13" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="34" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="34" customWidth="1"/>
     <col min="18" max="18" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="34" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="34" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="34" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="34"/>
+    <col min="19" max="19" width="9.85546875" style="34" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="11" style="34" customWidth="1"/>
+    <col min="22" max="23" width="9.7109375" style="34" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="34" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" style="34" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" style="34" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="34" customWidth="1"/>
+    <col min="31" max="31" width="8" style="34" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" style="34" customWidth="1"/>
+    <col min="33" max="33" width="11" style="34" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="34" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" style="34" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="34" customWidth="1"/>
+    <col min="37" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1">
+    <row r="1" spans="1:43" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1167,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="11" customFormat="1">
+    <row r="2" spans="1:43" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
@@ -1176,35 +2433,35 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1088432.4399999997</v>
+        <v>1082576.5299999998</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="13" customFormat="1">
+    <row r="3" spans="1:43" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>11431.450000000004</v>
+        <v>1723.9100000000044</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="18" customFormat="1">
+    <row r="4" spans="1:43" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>7835.61</v>
+        <v>539.84999999999764</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -1227,8 +2484,26 @@
       <c r="J4" s="18">
         <v>-218.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="18" customFormat="1">
+      <c r="K4" s="18">
+        <v>16281.65</v>
+      </c>
+      <c r="L4" s="18">
+        <v>-18000</v>
+      </c>
+      <c r="M4" s="18">
+        <v>-8460.4500000000007</v>
+      </c>
+      <c r="N4" s="18">
+        <v>5000</v>
+      </c>
+      <c r="O4" s="18">
+        <v>-2103</v>
+      </c>
+      <c r="P4" s="18">
+        <v>-13.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>47</v>
@@ -1244,14 +2519,14 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="18" customFormat="1">
+    <row r="6" spans="1:43" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>3490.4300000000003</v>
+        <v>1078.6500000000042</v>
       </c>
       <c r="D6" s="17">
         <v>600.23</v>
@@ -1274,8 +2549,30 @@
       <c r="J6" s="18">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" s="18" customFormat="1">
+      <c r="K6" s="18">
+        <v>-2538.16</v>
+      </c>
+      <c r="L6" s="18">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="18">
+        <v>-5000</v>
+      </c>
+      <c r="N6" s="18">
+        <v>-4873</v>
+      </c>
+      <c r="O6" s="18">
+        <v>35000</v>
+      </c>
+      <c r="P6" s="18">
+        <v>-35000</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>-0.62</f>
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="18" customFormat="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>49</v>
@@ -1297,28 +2594,28 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="13" customFormat="1">
+    <row r="8" spans="1:43" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>16716</v>
+        <v>12734</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="18" customFormat="1">
+    <row r="9" spans="1:43" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>918</v>
+        <v>2146</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -1363,15 +2660,30 @@
       <c r="R9" s="18">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="18" customFormat="1">
+      <c r="S9" s="18">
+        <v>-128</v>
+      </c>
+      <c r="T9" s="18">
+        <v>1150</v>
+      </c>
+      <c r="U9" s="18">
+        <v>-795</v>
+      </c>
+      <c r="V9" s="18">
+        <v>-249</v>
+      </c>
+      <c r="W9" s="18">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>15798</v>
+        <v>10588</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -1457,15 +2769,51 @@
       <c r="AE10" s="18">
         <v>-200</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="23" customFormat="1">
+      <c r="AF10" s="18">
+        <v>13390</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>-22000</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>-1150</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>-15500</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>11170</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>5000</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>-5000</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>35000</v>
+      </c>
+      <c r="AN10" s="18">
+        <v>-29000</v>
+      </c>
+      <c r="AO10" s="18">
+        <v>15450</v>
+      </c>
+      <c r="AP10" s="18">
+        <v>7430</v>
+      </c>
+      <c r="AQ10" s="18">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1060284.9899999998</v>
+        <v>1068118.6199999999</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -1473,14 +2821,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:31" s="18" customFormat="1">
+    <row r="12" spans="1:43" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>502742.27999999985</v>
+        <v>535575.90999999992</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -1530,15 +2878,33 @@
       <c r="S12" s="18">
         <v>-6847.62</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="18" customFormat="1">
+      <c r="T12" s="18">
+        <v>-12439.62</v>
+      </c>
+      <c r="U12" s="18">
+        <v>22000</v>
+      </c>
+      <c r="V12" s="18">
+        <v>15500</v>
+      </c>
+      <c r="W12" s="18">
+        <v>-9192.7099999999991</v>
+      </c>
+      <c r="X12" s="18">
+        <v>29000</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>-12034.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>137704.47999999998</v>
+        <v>112704.47999999998</v>
       </c>
       <c r="D13" s="17">
         <v>5704.48</v>
@@ -1555,8 +2921,17 @@
       <c r="H13" s="18">
         <v>-20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="18" customFormat="1">
+      <c r="I13" s="18">
+        <v>-10000</v>
+      </c>
+      <c r="J13" s="18">
+        <v>-35000</v>
+      </c>
+      <c r="K13" s="18">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>35</v>
@@ -1572,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="18" customFormat="1">
+    <row r="15" spans="1:43" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>37</v>
@@ -1591,7 +2966,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="18" customFormat="1">
+    <row r="16" spans="1:43" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>32</v>
@@ -1651,7 +3026,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-402299.18999999994</v>
+        <v>-396016.17</v>
       </c>
       <c r="D19" s="12">
         <f>D20</f>
@@ -1665,7 +3040,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C32)</f>
-        <v>-402299.18999999994</v>
+        <v>-396016.17</v>
       </c>
       <c r="D20" s="12">
         <f>SUM(D21:D32)</f>
@@ -1762,10 +3137,13 @@
       </c>
       <c r="C27" s="16">
         <f t="shared" si="2"/>
-        <v>-143268.76999999999</v>
+        <v>-138503.46</v>
       </c>
       <c r="D27" s="17">
         <v>-143268.76999999999</v>
+      </c>
+      <c r="E27" s="18">
+        <v>4765.3100000000004</v>
       </c>
       <c r="H27" s="26"/>
     </row>
@@ -1776,10 +3154,13 @@
       </c>
       <c r="C28" s="16">
         <f t="shared" si="2"/>
-        <v>-68538.570000000007</v>
+        <v>-67020.86</v>
       </c>
       <c r="D28" s="17">
         <v>-68538.570000000007</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1517.71</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="18" customFormat="1">
@@ -1833,7 +3214,7 @@
       <c r="D32" s="17"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:12" s="13" customFormat="1">
+    <row r="33" spans="1:15" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -1846,7 +3227,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:12" s="18" customFormat="1">
+    <row r="34" spans="1:15" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>41</v>
@@ -1859,7 +3240,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:12" s="18" customFormat="1">
+    <row r="35" spans="1:15" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>40</v>
@@ -1870,7 +3251,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:12" s="13" customFormat="1">
+    <row r="36" spans="1:15" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -1879,11 +3260,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-98516.27</v>
+        <v>-128571.55</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:12" s="18" customFormat="1">
+    <row r="37" spans="1:15" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -1902,7 +3283,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="18" customFormat="1">
+    <row r="38" spans="1:15" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -1921,7 +3302,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="18" customFormat="1">
+    <row r="39" spans="1:15" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -1934,27 +3315,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1">
+    <row r="40" spans="1:15" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-16281.65</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" s="18" customFormat="1">
+      <c r="E40" s="18">
+        <v>-16281.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-200</v>
+        <v>-7645</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -1962,15 +3346,21 @@
       <c r="E41" s="18">
         <v>-200</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" s="18" customFormat="1">
+      <c r="F41" s="18">
+        <v>-15</v>
+      </c>
+      <c r="G41" s="18">
+        <v>-7430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-28477.839999999997</v>
+        <v>-34806.47</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -1999,8 +3389,17 @@
       <c r="L42" s="18">
         <v>-1212.3800000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="18" customFormat="1">
+      <c r="M42" s="18">
+        <v>-950.38</v>
+      </c>
+      <c r="N42" s="18">
+        <v>-1977.29</v>
+      </c>
+      <c r="O42" s="18">
+        <v>-3400.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -2016,7 +3415,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="13" customFormat="1">
+    <row r="44" spans="1:15" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>53</v>
       </c>
@@ -2025,24 +3424,30 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>13579.66</v>
+        <v>35207.83</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:12" s="18" customFormat="1">
+    <row r="45" spans="1:15" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="16">
         <f>SUM(D45:AAA45)</f>
-        <v>0</v>
+        <v>4335</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" s="18" customFormat="1">
+      <c r="E45" s="18">
+        <v>45</v>
+      </c>
+      <c r="F45" s="18">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -2055,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="18" customFormat="1">
+    <row r="47" spans="1:15" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -2068,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="18" customFormat="1">
+    <row r="48" spans="1:15" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -2081,14 +3486,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="18" customFormat="1">
+    <row r="49" spans="1:18" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>1125</v>
+        <v>9950</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -2099,15 +3504,21 @@
       <c r="F49" s="18">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" s="18" customFormat="1">
+      <c r="G49" s="18">
+        <v>75</v>
+      </c>
+      <c r="H49" s="18">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="4"/>
-        <v>200.06</v>
+        <v>218.43</v>
       </c>
       <c r="D50" s="17">
         <v>0</v>
@@ -2118,21 +3529,36 @@
       <c r="F50" s="18">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" s="18" customFormat="1">
+      <c r="G50" s="18">
+        <v>3.79</v>
+      </c>
+      <c r="H50" s="18">
+        <v>13.96</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4711.8</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" s="18" customFormat="1">
+      <c r="E51" s="18">
+        <v>3695.14</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1016.66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -2151,14 +3577,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="18" customFormat="1">
+    <row r="53" spans="1:18" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>4961.6000000000004</v>
+        <v>5951.6</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -2193,15 +3619,27 @@
       <c r="N53" s="18">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" s="18" customFormat="1">
+      <c r="O53" s="18">
+        <v>108</v>
+      </c>
+      <c r="P53" s="18">
+        <v>270</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>583</v>
+      </c>
+      <c r="R53" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>758</v>
+        <v>998</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -2233,8 +3671,14 @@
       <c r="M54" s="18">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" s="18" customFormat="1">
+      <c r="N54" s="18">
+        <v>20</v>
+      </c>
+      <c r="O54" s="18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>61</v>
@@ -2260,14 +3704,14 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="18" customFormat="1">
+    <row r="56" spans="1:18" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" si="4"/>
-        <v>187</v>
+        <v>2695</v>
       </c>
       <c r="D56" s="17">
         <v>0</v>
@@ -2275,53 +3719,56 @@
       <c r="E56" s="18">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" s="18" customFormat="1">
+      <c r="F56" s="18">
+        <v>405</v>
+      </c>
+      <c r="G56" s="18">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="18" customFormat="1">
+    </row>
+    <row r="58" spans="1:18" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:14" s="18" customFormat="1">
+    <row r="59" spans="1:18" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:14" s="18" customFormat="1">
+    <row r="60" spans="1:18" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:14" s="18" customFormat="1">
+    <row r="61" spans="1:18" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:14" s="18" customFormat="1">
+    <row r="62" spans="1:18" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:14" s="18" customFormat="1">
+    <row r="63" spans="1:18" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:14" s="18" customFormat="1">
+    <row r="64" spans="1:18" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -3299,7 +4746,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3330,7 +4777,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1088432.4399999997</v>
+        <v>1082576.5299999998</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3340,7 +4787,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C33</f>
-        <v>-1003495.83</v>
+        <v>-997212.81</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3349,17 +4796,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-84936.61</v>
+        <v>-93363.72</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1088432.4399999997</v>
+        <v>1082576.5299999998</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1088432.44</v>
+        <v>-1090576.53</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3368,7 +4815,7 @@
       </c>
       <c r="D9" s="3">
         <f>C7+D7</f>
-        <v>0</v>
+        <v>-8000.0000000002328</v>
       </c>
     </row>
     <row r="10" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" tabRatio="318"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" tabRatio="318" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="contabilidad" sheetId="2" r:id="rId1"/>
@@ -214,6 +214,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 pila de alarma 150
+conpletivo de conbustibledel carro 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 pago cuota de lala gago</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O6" authorId="0">
       <text>
         <r>
@@ -286,6 +335,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 gasolina y gas del carro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 para pago cuota popular</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N9" authorId="0">
       <text>
         <r>
@@ -334,6 +431,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="X9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y9" authorId="0">
       <text>
         <r>
@@ -342,19 +463,91 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 gastos para retrovisor del carro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para areclo carro y medicamento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 compea de abanico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 para gasto</t>
         </r>
       </text>
     </comment>
@@ -646,6 +839,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+prestado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AH10" authorId="0">
       <text>
         <r>
@@ -862,6 +1079,222 @@
         </r>
       </text>
     </comment>
+    <comment ref="AR10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 prestado el 12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cobrado el 12/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para areglo carro y medicamento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 para compra de abanico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 pago cuota de lala gago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pestado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="X12" authorId="0">
       <text>
         <r>
@@ -910,6 +1343,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 prestado el 12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 capital </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -982,6 +1535,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="L13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 el bhd adelson</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0">
       <text>
         <r>
@@ -1038,19 +1615,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05  sobrante en caja prestamo por durar 2 dias sin cuadrar</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05</t>
         </r>
       </text>
     </comment>
@@ -1321,6 +1898,151 @@
         </r>
       </text>
     </comment>
+    <comment ref="P42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+licuadora y table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 corta una  y lapiz de colores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05:   ajuste sin partidad doble, para cuadrar la balanza.
+Estaba sobrando del lado credito</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E49" authorId="0">
       <text>
         <r>
@@ -1343,6 +2065,54 @@
           <t xml:space="preserve">
 gas carro 30/04/19
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pasaje</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/05 pasaje de acta de nacimiento</t>
         </r>
       </text>
     </comment>
@@ -1377,6 +2147,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="I49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11 gasolina pasola jeuri</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 gas y gasolina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 pila y completivo de combustible</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 gasto retrovisor del carro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 pasaje adel y areglo del carro parte abajo</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H50" authorId="0">
       <text>
         <r>
@@ -1470,6 +2360,30 @@
           </rPr>
           <t xml:space="preserve">
 12/05/19   bhd leon adelson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 medicamento del ninos </t>
         </r>
       </text>
     </comment>
@@ -1599,6 +2513,30 @@
           </rPr>
           <t xml:space="preserve">
 ups y papel rollo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 botada de basura</t>
         </r>
       </text>
     </comment>
@@ -1696,9 +2634,6 @@
     <t>Cxp Altice Internet (15)</t>
   </si>
   <si>
-    <t>Cxp Altice 200 min (los 30)</t>
-  </si>
-  <si>
     <t>Cxp Alquiler casa (30)</t>
   </si>
   <si>
@@ -1805,6 +2740,9 @@
   </si>
   <si>
     <t>Cxp prestamo bhd leon rosalis (15)  $3,600</t>
+  </si>
+  <si>
+    <t>Cxp Altice 200 min (los 30)  $</t>
   </si>
 </sst>
 </file>
@@ -2373,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ224"/>
+  <dimension ref="A1:AZ224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2405,7 +3343,7 @@
     <col min="27" max="27" width="9.5703125" style="34" customWidth="1"/>
     <col min="28" max="28" width="9.85546875" style="34" customWidth="1"/>
     <col min="29" max="29" width="10.28515625" style="34" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="34" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="34" customWidth="1"/>
     <col min="31" max="31" width="8" style="34" customWidth="1"/>
     <col min="32" max="32" width="9.7109375" style="34" customWidth="1"/>
     <col min="33" max="33" width="11" style="34" customWidth="1"/>
@@ -2415,7 +3353,7 @@
     <col min="37" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="6" customFormat="1">
+    <row r="1" spans="1:52" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2424,44 +3362,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1">
+    <row r="2" spans="1:52" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1082576.5299999998</v>
+        <v>1077452.1499999999</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="13" customFormat="1">
+    <row r="3" spans="1:52" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>1723.9100000000044</v>
+        <v>6528.9100000000044</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="18" customFormat="1">
+    <row r="4" spans="1:52" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>539.84999999999764</v>
+        <v>4244.8499999999976</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -2502,11 +3440,20 @@
       <c r="P4" s="18">
         <v>-13.96</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="18" customFormat="1">
+      <c r="Q4" s="18">
+        <v>-250</v>
+      </c>
+      <c r="R4" s="18">
+        <v>3000</v>
+      </c>
+      <c r="S4" s="18">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" ref="C5:C7" si="0">SUM(D5:AAA5)</f>
@@ -2519,14 +3466,14 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="18" customFormat="1">
+    <row r="6" spans="1:52" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>1078.6500000000042</v>
+        <v>2178.6500000000042</v>
       </c>
       <c r="D6" s="17">
         <v>600.23</v>
@@ -2571,11 +3518,20 @@
         <f>-0.62</f>
         <v>-0.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="18" customFormat="1">
+      <c r="R6" s="18">
+        <v>-900</v>
+      </c>
+      <c r="S6" s="18">
+        <v>5000</v>
+      </c>
+      <c r="T6" s="18">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" s="18" customFormat="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
@@ -2594,28 +3550,28 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="13" customFormat="1">
+    <row r="8" spans="1:52" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>12734</v>
+        <v>11099.95</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="18" customFormat="1">
+    <row r="9" spans="1:52" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2146</v>
+        <v>1891</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -2675,15 +3631,30 @@
       <c r="W9" s="18">
         <v>1250</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" s="18" customFormat="1">
+      <c r="X9" s="18">
+        <v>-715</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>-950</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>4500</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>-4090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>10588</v>
+        <v>9208.9500000000007</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -2805,15 +3776,42 @@
       <c r="AQ10" s="18">
         <v>-20000</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" s="23" customFormat="1">
+      <c r="AR10" s="18">
+        <v>-1500</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>1400</v>
+      </c>
+      <c r="AT10" s="18">
+        <v>-3000</v>
+      </c>
+      <c r="AU10" s="18">
+        <v>4255.95</v>
+      </c>
+      <c r="AV10" s="18">
+        <v>-4500</v>
+      </c>
+      <c r="AW10" s="18">
+        <v>3915</v>
+      </c>
+      <c r="AX10" s="18">
+        <v>-1000</v>
+      </c>
+      <c r="AY10" s="18">
+        <v>-955</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1068118.6199999999</v>
+        <v>1059823.2899999998</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -2821,14 +3819,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:43" s="18" customFormat="1">
+    <row r="12" spans="1:52" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>535575.90999999992</v>
+        <v>532280.57999999996</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -2896,15 +3894,30 @@
       <c r="Y12" s="18">
         <v>-12034.04</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" s="18" customFormat="1">
+      <c r="Z12" s="18">
+        <v>1500</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>-1125</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>-3487.64</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>-3182.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>112704.47999999998</v>
+        <v>107704.47999999998</v>
       </c>
       <c r="D13" s="17">
         <v>5704.48</v>
@@ -2930,11 +3943,14 @@
       <c r="K13" s="18">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" s="18" customFormat="1">
+      <c r="L13" s="18">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" si="1"/>
@@ -2947,10 +3963,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" s="18" customFormat="1">
+    <row r="15" spans="1:52" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="1"/>
@@ -2966,10 +3982,10 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="18" customFormat="1">
+    <row r="16" spans="1:52" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="1"/>
@@ -2985,7 +4001,7 @@
     <row r="17" spans="1:8" s="18" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="1"/>
@@ -3001,7 +4017,7 @@
     <row r="18" spans="1:8" s="18" customFormat="1">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
@@ -3019,14 +4035,14 @@
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-396016.17</v>
+        <v>-397252.02999999997</v>
       </c>
       <c r="D19" s="12">
         <f>D20</f>
@@ -3036,11 +4052,11 @@
     <row r="20" spans="1:8" s="13" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C32)</f>
-        <v>-396016.17</v>
+        <v>-397252.02999999997</v>
       </c>
       <c r="D20" s="12">
         <f>SUM(D21:D32)</f>
@@ -3054,15 +4070,19 @@
       </c>
       <c r="C21" s="16">
         <f>SUM(D21:AAA21)</f>
+        <v>-1235.8599999999999</v>
+      </c>
+      <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="25">
+        <v>-1235.8599999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="18" customFormat="1">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="16">
         <f t="shared" ref="C22:C32" si="2">SUM(D22:AAA22)</f>
@@ -3120,7 +4140,7 @@
     <row r="26" spans="1:8" s="18" customFormat="1">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="16">
         <f t="shared" si="2"/>
@@ -3133,7 +4153,7 @@
     <row r="27" spans="1:8" s="18" customFormat="1">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="16">
         <f t="shared" si="2"/>
@@ -3150,7 +4170,7 @@
     <row r="28" spans="1:8" s="18" customFormat="1">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="16">
         <f t="shared" si="2"/>
@@ -3166,7 +4186,7 @@
     <row r="29" spans="1:8" s="18" customFormat="1">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="16">
         <f t="shared" si="2"/>
@@ -3205,7 +4225,7 @@
     <row r="32" spans="1:8" s="18" customFormat="1">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C32" s="16">
         <f t="shared" si="2"/>
@@ -3214,12 +4234,12 @@
       <c r="D32" s="17"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:15" s="13" customFormat="1">
+    <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="9">
         <f>SUM(C34:C35)</f>
@@ -3227,10 +4247,10 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:15" s="18" customFormat="1">
+    <row r="34" spans="1:18" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="16">
         <v>-601196.64</v>
@@ -3240,10 +4260,10 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:15" s="18" customFormat="1">
+    <row r="35" spans="1:18" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="16">
         <f>SUM(D35:ZZ35)</f>
@@ -3251,20 +4271,20 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:15" s="13" customFormat="1">
+    <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-128571.55</v>
+        <v>-122922.17</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:15" s="18" customFormat="1">
+    <row r="37" spans="1:18" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -3283,7 +4303,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="18" customFormat="1">
+    <row r="38" spans="1:18" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -3302,7 +4322,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="18" customFormat="1">
+    <row r="39" spans="1:18" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -3315,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="18" customFormat="1">
+    <row r="40" spans="1:18" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -3331,14 +4351,14 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="18" customFormat="1">
+    <row r="41" spans="1:18" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-7645</v>
+        <v>-220</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -3350,17 +4370,17 @@
         <v>-15</v>
       </c>
       <c r="G41" s="18">
-        <v>-7430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="18" customFormat="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-34806.47</v>
+        <v>-36582.089999999997</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -3398,8 +4418,17 @@
       <c r="O42" s="18">
         <v>-3400.96</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" s="18" customFormat="1">
+      <c r="P42" s="18">
+        <v>-275</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>-768.31</v>
+      </c>
+      <c r="R42" s="18">
+        <v>-732.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -3415,27 +4444,27 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1">
+    <row r="44" spans="1:18" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>35207.83</v>
+        <v>43918.69</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:15" s="18" customFormat="1">
+    <row r="45" spans="1:18" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="16">
         <f>SUM(D45:AAA45)</f>
-        <v>4335</v>
+        <v>4400</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
@@ -3446,8 +4475,11 @@
       <c r="F45" s="18">
         <v>4290</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" s="18" customFormat="1">
+      <c r="G45" s="18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -3460,40 +4492,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="18" customFormat="1">
+    <row r="47" spans="1:18" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1235.8599999999999</v>
       </c>
       <c r="D47" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="18" customFormat="1">
+      <c r="E47" s="18">
+        <v>1235.8599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="D48" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" s="18" customFormat="1">
+      <c r="E48" s="18">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>9950</v>
+        <v>14455</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -3510,8 +4548,23 @@
       <c r="H49" s="18">
         <v>8750</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" s="18" customFormat="1">
+      <c r="I49" s="18">
+        <v>50</v>
+      </c>
+      <c r="J49" s="18">
+        <v>900</v>
+      </c>
+      <c r="K49" s="18">
+        <v>250</v>
+      </c>
+      <c r="L49" s="18">
+        <v>950</v>
+      </c>
+      <c r="M49" s="18">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
@@ -3539,7 +4592,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="18" customFormat="1">
+    <row r="51" spans="1:20" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -3558,14 +4611,14 @@
         <v>1016.66</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="18" customFormat="1">
+    <row r="52" spans="1:20" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>1630</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -3576,15 +4629,21 @@
       <c r="F52" s="18">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" s="18" customFormat="1">
+      <c r="G52" s="18">
+        <v>100</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>5951.6</v>
+        <v>6521.6</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -3631,15 +4690,21 @@
       <c r="R53" s="18">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="18" customFormat="1">
+      <c r="S53" s="18">
+        <v>550</v>
+      </c>
+      <c r="T53" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>998</v>
+        <v>1173</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -3677,11 +4742,17 @@
       <c r="O54" s="18">
         <v>220</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" s="18" customFormat="1">
+      <c r="P54" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="16">
         <f>SUM(D55:ZZ55)</f>
@@ -3704,14 +4775,14 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="18" customFormat="1">
+    <row r="56" spans="1:20" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" si="4"/>
-        <v>2695</v>
+        <v>2720</v>
       </c>
       <c r="D56" s="17">
         <v>0</v>
@@ -3725,50 +4796,53 @@
       <c r="G56" s="18">
         <v>2103</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" s="18" customFormat="1">
+      <c r="H56" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:18" s="18" customFormat="1">
+    <row r="58" spans="1:20" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:18" s="18" customFormat="1">
+    <row r="59" spans="1:20" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:18" s="18" customFormat="1">
+    <row r="60" spans="1:20" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:18" s="18" customFormat="1">
+    <row r="61" spans="1:20" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:18" s="18" customFormat="1">
+    <row r="62" spans="1:20" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:18" s="18" customFormat="1">
+    <row r="63" spans="1:20" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:18" s="18" customFormat="1">
+    <row r="64" spans="1:20" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -4745,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4757,7 +5831,7 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -4765,57 +5839,57 @@
     </row>
     <row r="3" spans="2:5">
       <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1082576.5299999998</v>
+        <v>1077452.1499999999</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C33</f>
-        <v>-997212.81</v>
+        <v>-998448.66999999993</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-93363.72</v>
+        <v>-79003.48</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1082576.5299999998</v>
+        <v>1077452.1499999999</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1090576.53</v>
+        <v>-1077452.1499999999</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3">
         <f>C7+D7</f>
-        <v>-8000.0000000002328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" tabRatio="318" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" tabRatio="318"/>
   </bookViews>
   <sheets>
     <sheet name="contabilidad" sheetId="2" r:id="rId1"/>
@@ -263,6 +263,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="T4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de internet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de cuota popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 gasto de comida adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de cuota yajaira</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O6" authorId="0">
       <text>
         <r>
@@ -548,6 +644,30 @@
           </rPr>
           <t xml:space="preserve">
 14/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 gasto de abanico y comida</t>
         </r>
       </text>
     </comment>
@@ -1271,6 +1391,150 @@
         </r>
       </text>
     </comment>
+    <comment ref="BA10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 se invirtieron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 sobraron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de cuota yajaira</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago romo a jeuri</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V12" authorId="0">
       <text>
         <r>
@@ -1463,6 +1727,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 invertido</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -1559,6 +1871,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="M13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0">
       <text>
         <r>
@@ -1628,6 +1988,30 @@
           </rPr>
           <t xml:space="preserve">
 14/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05</t>
         </r>
       </text>
     </comment>
@@ -1970,6 +2354,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="S42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F45" authorId="0">
       <text>
         <r>
@@ -2015,6 +2423,30 @@
           </rPr>
           <t xml:space="preserve">
 14/05 corta una  y lapiz de colores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 abanico</t>
         </r>
       </text>
     </comment>
@@ -2363,6 +2795,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 interes de popular</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H52" authorId="0">
       <text>
         <r>
@@ -2384,6 +2840,30 @@
           </rPr>
           <t xml:space="preserve">
 14/05 medicamento del ninos </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 romo del sabado 18</t>
         </r>
       </text>
     </comment>
@@ -3311,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ224"/>
+  <dimension ref="A1:BF224"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3343,17 +3823,37 @@
     <col min="27" max="27" width="9.5703125" style="34" customWidth="1"/>
     <col min="28" max="28" width="9.85546875" style="34" customWidth="1"/>
     <col min="29" max="29" width="10.28515625" style="34" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" style="34" customWidth="1"/>
-    <col min="31" max="31" width="8" style="34" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" style="34" customWidth="1"/>
+    <col min="30" max="31" width="10.42578125" style="34" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="34" customWidth="1"/>
     <col min="33" max="33" width="11" style="34" customWidth="1"/>
     <col min="34" max="34" width="9.85546875" style="34" customWidth="1"/>
     <col min="35" max="35" width="10.28515625" style="34" customWidth="1"/>
     <col min="36" max="36" width="9.7109375" style="34" customWidth="1"/>
-    <col min="37" max="16384" width="11.42578125" style="34"/>
+    <col min="37" max="37" width="9" style="34" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" style="34" customWidth="1"/>
+    <col min="39" max="39" width="10" style="34" customWidth="1"/>
+    <col min="40" max="40" width="10.42578125" style="34" customWidth="1"/>
+    <col min="41" max="41" width="10" style="34" customWidth="1"/>
+    <col min="42" max="42" width="9.42578125" style="34" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" style="34" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" style="34" customWidth="1"/>
+    <col min="45" max="45" width="10.28515625" style="34" customWidth="1"/>
+    <col min="46" max="46" width="10" style="34" customWidth="1"/>
+    <col min="47" max="47" width="9.85546875" style="34" customWidth="1"/>
+    <col min="48" max="48" width="10.42578125" style="34" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="34" customWidth="1"/>
+    <col min="50" max="51" width="9.5703125" style="34" customWidth="1"/>
+    <col min="52" max="52" width="5.85546875" style="34" customWidth="1"/>
+    <col min="53" max="53" width="10.42578125" style="34" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" style="34"/>
+    <col min="55" max="55" width="9.85546875" style="34" customWidth="1"/>
+    <col min="56" max="56" width="6.5703125" style="34" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" style="34"/>
+    <col min="58" max="58" width="9.7109375" style="34" customWidth="1"/>
+    <col min="59" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="6" customFormat="1">
+    <row r="1" spans="1:58" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -3362,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="11" customFormat="1">
+    <row r="2" spans="1:58" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3371,35 +3871,35 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1077452.1499999999</v>
+        <v>1074768.5699999998</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="13" customFormat="1">
+    <row r="3" spans="1:58" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>6528.9100000000044</v>
+        <v>11804.710000000005</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="18" customFormat="1">
+    <row r="4" spans="1:58" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>4244.8499999999976</v>
+        <v>3196.449999999998</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -3444,13 +3944,25 @@
         <v>-250</v>
       </c>
       <c r="R4" s="18">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="S4" s="18">
         <v>955</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" s="18" customFormat="1">
+      <c r="T4" s="18">
+        <v>-1235.8599999999999</v>
+      </c>
+      <c r="U4" s="18">
+        <v>-2613.92</v>
+      </c>
+      <c r="V4" s="18">
+        <v>-198.62</v>
+      </c>
+      <c r="W4" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -3466,14 +3978,14 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="18" customFormat="1">
+    <row r="6" spans="1:58" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>2178.6500000000042</v>
+        <v>1178.6500000000042</v>
       </c>
       <c r="D6" s="17">
         <v>600.23</v>
@@ -3525,17 +4037,17 @@
         <v>5000</v>
       </c>
       <c r="T6" s="18">
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" s="18" customFormat="1">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" s="18" customFormat="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>30.789999999999964</v>
+        <v>7354.99</v>
       </c>
       <c r="D7" s="17">
         <v>546.59</v>
@@ -3549,29 +4061,32 @@
       <c r="G7" s="18">
         <v>-40</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" s="13" customFormat="1">
+      <c r="H7" s="18">
+        <v>7324.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>11099.95</v>
+        <v>19309.95</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:52" s="18" customFormat="1">
+    <row r="9" spans="1:58" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>1891</v>
+        <v>836</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -3646,15 +4161,18 @@
       <c r="AB9" s="18">
         <v>-4090</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" s="18" customFormat="1">
+      <c r="AC9" s="18">
+        <v>-1055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>9208.9500000000007</v>
+        <v>18473.95</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -3803,15 +4321,33 @@
       <c r="AZ10" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:52" s="23" customFormat="1">
+      <c r="BA10" s="18">
+        <v>10000</v>
+      </c>
+      <c r="BB10" s="18">
+        <v>-13000</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>15795</v>
+      </c>
+      <c r="BD10" s="18">
+        <v>30</v>
+      </c>
+      <c r="BE10" s="18">
+        <v>-2000</v>
+      </c>
+      <c r="BF10" s="18">
+        <v>-1560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1059823.2899999998</v>
+        <v>1043653.9099999998</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -3819,14 +4355,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:52" s="18" customFormat="1">
+    <row r="12" spans="1:58" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>532280.57999999996</v>
+        <v>533435.39999999991</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -3909,15 +4445,21 @@
       <c r="AD12" s="18">
         <v>-3182.69</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" s="18" customFormat="1">
+      <c r="AE12" s="18">
+        <v>13000</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>-11845.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>107704.47999999998</v>
+        <v>97704.479999999981</v>
       </c>
       <c r="D13" s="17">
         <v>5704.48</v>
@@ -3946,8 +4488,11 @@
       <c r="L13" s="18">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="14" spans="1:52" s="18" customFormat="1">
+      <c r="M13" s="18">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -3963,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" s="18" customFormat="1">
+    <row r="15" spans="1:58" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -3982,7 +4527,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:52" s="18" customFormat="1">
+    <row r="16" spans="1:58" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
@@ -4021,7 +4566,7 @@
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
-        <v>14648.399999999998</v>
+        <v>7324.199999999998</v>
       </c>
       <c r="D18" s="17">
         <v>7324.2</v>
@@ -4030,6 +4575,9 @@
         <v>14648.4</v>
       </c>
       <c r="F18" s="18">
+        <v>-7324.2</v>
+      </c>
+      <c r="G18" s="18">
         <v>-7324.2</v>
       </c>
     </row>
@@ -4042,7 +4590,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-397252.02999999997</v>
+        <v>-395111.45999999996</v>
       </c>
       <c r="D19" s="12">
         <f>D20</f>
@@ -4056,7 +4604,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C32)</f>
-        <v>-397252.02999999997</v>
+        <v>-395111.45999999996</v>
       </c>
       <c r="D20" s="12">
         <f>SUM(D21:D32)</f>
@@ -4070,13 +4618,16 @@
       </c>
       <c r="C21" s="16">
         <f>SUM(D21:AAA21)</f>
-        <v>-1235.8599999999999</v>
+        <v>0</v>
       </c>
       <c r="D21" s="17">
         <v>0</v>
       </c>
       <c r="E21" s="25">
         <v>-1235.8599999999999</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1235.8599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="18" customFormat="1">
@@ -4144,10 +4695,13 @@
       </c>
       <c r="C26" s="16">
         <f t="shared" si="2"/>
-        <v>-73252</v>
+        <v>-72347.289999999994</v>
       </c>
       <c r="D26" s="17">
         <v>-73252</v>
+      </c>
+      <c r="E26" s="18">
+        <v>904.71</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="18" customFormat="1">
@@ -4234,7 +4788,7 @@
       <c r="D32" s="17"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:18" s="13" customFormat="1">
+    <row r="33" spans="1:19" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -4247,7 +4801,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:18" s="18" customFormat="1">
+    <row r="34" spans="1:19" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -4260,7 +4814,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:18" s="18" customFormat="1">
+    <row r="35" spans="1:19" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -4271,7 +4825,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:18" s="13" customFormat="1">
+    <row r="36" spans="1:19" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -4280,11 +4834,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-122922.17</v>
+        <v>-126901.99</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:18" s="18" customFormat="1">
+    <row r="37" spans="1:19" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -4303,7 +4857,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="18" customFormat="1">
+    <row r="38" spans="1:19" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -4322,7 +4876,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="18" customFormat="1">
+    <row r="39" spans="1:19" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -4335,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="18" customFormat="1">
+    <row r="40" spans="1:19" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -4351,14 +4905,14 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="18" customFormat="1">
+    <row r="41" spans="1:19" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-220</v>
+        <v>-250</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -4372,15 +4926,18 @@
       <c r="G41" s="18">
         <v>-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" s="18" customFormat="1">
+      <c r="H41" s="18">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-36582.089999999997</v>
+        <v>-40531.909999999996</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -4427,8 +4984,11 @@
       <c r="R42" s="18">
         <v>-732.31</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" s="18" customFormat="1">
+      <c r="S42" s="18">
+        <v>-3949.82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -4444,7 +5004,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="13" customFormat="1">
+    <row r="44" spans="1:19" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -4453,18 +5013,18 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>43918.69</v>
+        <v>48441.520000000004</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:18" s="18" customFormat="1">
+    <row r="45" spans="1:19" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="16">
         <f>SUM(D45:AAA45)</f>
-        <v>4400</v>
+        <v>5310</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
@@ -4478,8 +5038,11 @@
       <c r="G45" s="18">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" s="18" customFormat="1">
+      <c r="H45" s="18">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -4492,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="18" customFormat="1">
+    <row r="47" spans="1:19" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -4508,7 +5071,7 @@
         <v>1235.8599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="18" customFormat="1">
+    <row r="48" spans="1:19" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -4524,7 +5087,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="18" customFormat="1">
+    <row r="49" spans="1:22" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
@@ -4564,7 +5127,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="18" customFormat="1">
+    <row r="50" spans="1:22" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
@@ -4592,14 +5155,14 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="18" customFormat="1">
+    <row r="51" spans="1:22" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>4711.8</v>
+        <v>6421.01</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
@@ -4610,8 +5173,11 @@
       <c r="F51" s="18">
         <v>1016.66</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" s="18" customFormat="1">
+      <c r="G51" s="18">
+        <v>1709.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -4636,14 +5202,14 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="18" customFormat="1">
+    <row r="53" spans="1:22" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>6521.6</v>
+        <v>6800.22</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -4696,15 +5262,21 @@
       <c r="T53" s="18">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" s="18" customFormat="1">
+      <c r="U53" s="18">
+        <v>80</v>
+      </c>
+      <c r="V53" s="18">
+        <v>198.62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>1173</v>
+        <v>2798</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -4748,8 +5320,14 @@
       <c r="Q54" s="18">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" s="18" customFormat="1">
+      <c r="R54" s="18">
+        <v>65</v>
+      </c>
+      <c r="S54" s="18">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -4775,7 +5353,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="18" customFormat="1">
+    <row r="56" spans="1:22" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
@@ -4800,49 +5378,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="18" customFormat="1">
+    <row r="57" spans="1:22" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:20" s="18" customFormat="1">
+    <row r="58" spans="1:22" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:20" s="18" customFormat="1">
+    <row r="59" spans="1:22" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:20" s="18" customFormat="1">
+    <row r="60" spans="1:22" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:20" s="18" customFormat="1">
+    <row r="61" spans="1:22" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:20" s="18" customFormat="1">
+    <row r="62" spans="1:22" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:20" s="18" customFormat="1">
+    <row r="63" spans="1:22" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:20" s="18" customFormat="1">
+    <row r="64" spans="1:22" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -5819,7 +6397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5851,7 +6429,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1077452.1499999999</v>
+        <v>1074768.5699999998</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -5861,7 +6439,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C33</f>
-        <v>-998448.66999999993</v>
+        <v>-996308.1</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -5870,17 +6448,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-79003.48</v>
+        <v>-78460.47</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1077452.1499999999</v>
+        <v>1074768.5699999998</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1077452.1499999999</v>
+        <v>-1074768.57</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -28,16 +28,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 gasto comida</t>
@@ -52,16 +52,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 gasto impuesto banco</t>
@@ -76,16 +76,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 gasto de comida</t>
@@ -100,16 +100,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 cheque bono adel</t>
@@ -222,16 +222,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 13/05 pila de alarma 150
@@ -247,6 +247,438 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 pago cuota de lala gago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de internet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de cuota popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 gasto de comida adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de cuota yajaira</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/05 para prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 ajuste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 gasolina y gas del carro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 para pago cuota popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto del hogar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+desde bpd. Sobrante de los 10,000 para arreglar el carro.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 gastos para retrovisor del carro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para areclo carro y medicamento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 compea de abanico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 gasto de abanico y comida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t>Adelson:</t>
@@ -259,415 +691,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-14/05 pago cuota de lala gago</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 pago de internet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 pago de cuota popular</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 gasto de comida adel</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 pago de cuota yajaira</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-10/05 para prestamos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05  para prestar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05 ajuste</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 gasolina y gas del carro</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 para pago cuota popular</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-gasto del hogar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-desde bpd. Sobrante de los 10,000 para arreglar el carro.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 para gasto</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 gastos para retrovisor del carro</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 para areclo carro y medicamento</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 compea de abanico</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 para gasto</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 gasto de abanico y comida</t>
+15/05 gastos comida</t>
         </r>
       </text>
     </comment>
@@ -679,16 +703,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 gasto comida</t>
@@ -703,16 +727,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 gasto comida</t>
@@ -727,16 +751,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 para prestamo</t>
@@ -751,16 +775,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 fondo bhd inversion</t>
@@ -775,16 +799,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 cobrado por prestamo</t>
@@ -799,16 +823,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 pago de cuota de lala</t>
@@ -823,7 +847,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Adelson:
 </t>
@@ -871,16 +895,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 para prestamo</t>
@@ -967,16 +991,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 prestado</t>
@@ -1015,7 +1039,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Adelson:
 </t>
@@ -1039,6 +1063,510 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cobrado por prestamo 09/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+08/05/19 para depositar en popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 para prestaar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  prestado desde 10 hasta el 11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  cobrado del 10 al 11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  sobrante en caja prestamo por durar 2 dias sin cuadrar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 para invertir en fondo bhd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 prestado el 12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cobrado el 12/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 para areglo carro y medicamento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 para compra de abanico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 pago cuota de lala gago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 se invirtieron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 sobraron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago de cuota yajaira</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 pago romo a jeuri</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t>Adelson:</t>
@@ -1051,59 +1579,107 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-cobrado por prestamo 09/05</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-08/05/19 para depositar en popular</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05 para prestaar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN10" authorId="0">
+16/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/05 regalo a fella</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/05 sobrante</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1127,55 +1703,295 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05  cobrado del 10 al 11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05  sobrante en caja prestamo por durar 2 dias sin cuadrar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ10" authorId="0">
+    <comment ref="Y12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05  capital del 10 al 11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 prestado el 12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 capital </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 invertido</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+para prestamo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/05 para prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1199,7 +2015,175 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR10" authorId="0">
+    <comment ref="L13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 el bhd adelson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/19 capital bhd adelson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1219,799 +2203,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-13/05 prestado el 12</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-cobrado el 12/05</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 para prestar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AU10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 cobrado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 para areglo carro y medicamento</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 cobrado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 para compra de abanico</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AY10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 pago cuota de lala gago</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 para prestar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BB10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 se invirtieron</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 cobrado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 sobraron</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 pago de cuota yajaira</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 pago romo a jeuri</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-pestado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05  prestado desde 10 hasta el 11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05  capital del 10 al 11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 prestado el 12</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05 capital</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 prestado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05 capital</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 capital </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 invertido</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 capital</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-para prestamo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-10/05 para prestamos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05 para invertir en fondo bhd</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 el bhd adelson</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05 para prestar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05 capital</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05/19</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-12/05/19 capital bhd adelson</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05</t>
+16/05</t>
         </r>
       </text>
     </comment>
@@ -2145,16 +2337,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 05/5/19</t>
@@ -2169,16 +2361,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 06/05/19</t>
@@ -2193,16 +2385,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 07/05/19</t>
@@ -2217,16 +2409,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 08/5/19</t>
@@ -2241,16 +2433,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 09/05/19</t>
@@ -2290,6 +2482,102 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t>Adelson:</t>
@@ -2302,79 +2590,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-12/05</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-13/05</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-14/05</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-15/05</t>
+16/05</t>
         </r>
       </text>
     </comment>
@@ -2386,16 +2602,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 licuadora y table</t>
@@ -2410,16 +2626,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 14/05 corta una  y lapiz de colores</t>
@@ -2434,16 +2650,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 15/05 abanico</t>
@@ -2458,16 +2674,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 13/05:   ajuste sin partidad doble, para cuadrar la balanza.
@@ -2508,16 +2724,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 pasaje</t>
@@ -2532,16 +2748,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10/05 pasaje de acta de nacimiento</t>
@@ -2556,16 +2772,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 cambio de cloche y soporte.
@@ -2587,16 +2803,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 11 gasolina pasola jeuri</t>
@@ -2611,16 +2827,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 13/05 gas y gasolina</t>
@@ -2635,16 +2851,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 13/05 pila y completivo de combustible</t>
@@ -2659,16 +2875,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 13/05 gasto retrovisor del carro</t>
@@ -2683,16 +2899,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 14/05 pasaje adel y areglo del carro parte abajo</t>
@@ -2755,16 +2971,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 12/05/19  intereses extracredito.</t>
@@ -2779,16 +2995,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 12/05/19   bhd leon adelson</t>
@@ -2803,16 +3019,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 14/05 interes de popular</t>
@@ -2827,16 +3043,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 14/05 medicamento del ninos </t>
@@ -2851,16 +3067,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 15/05 romo del sabado 18</t>
@@ -2954,16 +3170,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 06/05
@@ -3004,6 +3220,30 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14/05 botada de basura</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t>Adelson:</t>
@@ -3016,7 +3256,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-14/05 botada de basura</t>
+16/05 regalo a fella</t>
         </r>
       </text>
     </comment>
@@ -3222,7 +3462,7 @@
     <t>Cxp prestamo bhd leon rosalis (15)  $3,600</t>
   </si>
   <si>
-    <t>Cxp Altice 200 min (los 30)  $</t>
+    <t>Cxp Altice 200 min (los 30)  $778.7</t>
   </si>
 </sst>
 </file>
@@ -3791,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF224"/>
+  <dimension ref="A1:BJ224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG10" sqref="BG10"/>
+      <selection activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3826,7 +4066,7 @@
     <col min="30" max="31" width="10.42578125" style="34" customWidth="1"/>
     <col min="32" max="32" width="11.140625" style="34" customWidth="1"/>
     <col min="33" max="33" width="11" style="34" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" style="34" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="34" customWidth="1"/>
     <col min="35" max="35" width="10.28515625" style="34" customWidth="1"/>
     <col min="36" max="36" width="9.7109375" style="34" customWidth="1"/>
     <col min="37" max="37" width="9" style="34" customWidth="1"/>
@@ -3842,18 +4082,23 @@
     <col min="47" max="47" width="9.85546875" style="34" customWidth="1"/>
     <col min="48" max="48" width="10.42578125" style="34" customWidth="1"/>
     <col min="49" max="49" width="9.140625" style="34" customWidth="1"/>
-    <col min="50" max="51" width="9.5703125" style="34" customWidth="1"/>
-    <col min="52" max="52" width="5.85546875" style="34" customWidth="1"/>
-    <col min="53" max="53" width="10.42578125" style="34" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="34"/>
+    <col min="50" max="50" width="9.42578125" style="34" customWidth="1"/>
+    <col min="51" max="51" width="7.85546875" style="34" customWidth="1"/>
+    <col min="52" max="52" width="5.7109375" style="34" customWidth="1"/>
+    <col min="53" max="53" width="9.7109375" style="34" customWidth="1"/>
+    <col min="54" max="54" width="10.5703125" style="34" customWidth="1"/>
     <col min="55" max="55" width="9.85546875" style="34" customWidth="1"/>
     <col min="56" max="56" width="6.5703125" style="34" customWidth="1"/>
-    <col min="57" max="57" width="11.42578125" style="34"/>
+    <col min="57" max="57" width="10.7109375" style="34" customWidth="1"/>
     <col min="58" max="58" width="9.7109375" style="34" customWidth="1"/>
-    <col min="59" max="16384" width="11.42578125" style="34"/>
+    <col min="59" max="59" width="9.85546875" style="34" customWidth="1"/>
+    <col min="60" max="60" width="9.7109375" style="34" customWidth="1"/>
+    <col min="61" max="61" width="8" style="34" customWidth="1"/>
+    <col min="62" max="62" width="7.42578125" style="34" customWidth="1"/>
+    <col min="63" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="6" customFormat="1">
+    <row r="1" spans="1:62" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -3862,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="11" customFormat="1">
+    <row r="2" spans="1:62" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3871,14 +4116,14 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1074768.5699999998</v>
+        <v>1079228.7899999998</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="13" customFormat="1">
+    <row r="3" spans="1:62" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
@@ -3892,7 +4137,7 @@
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:58" s="18" customFormat="1">
+    <row r="4" spans="1:62" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
@@ -3962,7 +4207,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:58" s="18" customFormat="1">
+    <row r="5" spans="1:62" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -3978,7 +4223,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:58" s="18" customFormat="1">
+    <row r="6" spans="1:62" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
@@ -4040,7 +4285,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="7" spans="1:58" s="18" customFormat="1">
+    <row r="7" spans="1:62" s="18" customFormat="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
@@ -4065,28 +4310,28 @@
         <v>7324.2</v>
       </c>
     </row>
-    <row r="8" spans="1:58" s="13" customFormat="1">
+    <row r="8" spans="1:62" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>19309.95</v>
+        <v>38142.949999999997</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:58" s="18" customFormat="1">
+    <row r="9" spans="1:62" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>836</v>
+        <v>574</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -4164,15 +4409,18 @@
       <c r="AC9" s="18">
         <v>-1055</v>
       </c>
-    </row>
-    <row r="10" spans="1:58" s="18" customFormat="1">
+      <c r="AD9" s="18">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>18473.95</v>
+        <v>37568.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -4339,15 +4587,27 @@
       <c r="BF10" s="18">
         <v>-1560</v>
       </c>
-    </row>
-    <row r="11" spans="1:58" s="23" customFormat="1">
+      <c r="BG10" s="18">
+        <v>-3000</v>
+      </c>
+      <c r="BH10" s="18">
+        <v>22495</v>
+      </c>
+      <c r="BI10" s="18">
+        <v>-500</v>
+      </c>
+      <c r="BJ10" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1043653.9099999998</v>
+        <v>1029281.1299999998</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -4355,14 +4615,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:58" s="18" customFormat="1">
+    <row r="12" spans="1:62" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>533435.39999999991</v>
+        <v>519062.61999999988</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -4451,8 +4711,14 @@
       <c r="AF12" s="18">
         <v>-11845.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:58" s="18" customFormat="1">
+      <c r="AG12" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>-17372.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
@@ -4492,7 +4758,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="14" spans="1:58" s="18" customFormat="1">
+    <row r="14" spans="1:62" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -4508,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58" s="18" customFormat="1">
+    <row r="15" spans="1:62" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -4527,7 +4793,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:58" s="18" customFormat="1">
+    <row r="16" spans="1:62" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
@@ -4590,7 +4856,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-395111.45999999996</v>
+        <v>-395890.16</v>
       </c>
       <c r="D19" s="12">
         <f>D20</f>
@@ -4604,7 +4870,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C32)</f>
-        <v>-395111.45999999996</v>
+        <v>-395890.16</v>
       </c>
       <c r="D20" s="12">
         <f>SUM(D21:D32)</f>
@@ -4783,12 +5049,15 @@
       </c>
       <c r="C32" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-778.7</v>
       </c>
       <c r="D32" s="17"/>
+      <c r="E32" s="18">
+        <v>-778.7</v>
+      </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:19" s="13" customFormat="1">
+    <row r="33" spans="1:20" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -4801,7 +5070,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:19" s="18" customFormat="1">
+    <row r="34" spans="1:20" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -4814,7 +5083,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:19" s="18" customFormat="1">
+    <row r="35" spans="1:20" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -4825,7 +5094,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:19" s="13" customFormat="1">
+    <row r="36" spans="1:20" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -4834,11 +5103,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-126901.99</v>
+        <v>-132124.21000000002</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:19" s="18" customFormat="1">
+    <row r="37" spans="1:20" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -4857,7 +5126,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="18" customFormat="1">
+    <row r="38" spans="1:20" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -4876,7 +5145,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="18" customFormat="1">
+    <row r="39" spans="1:20" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -4889,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="18" customFormat="1">
+    <row r="40" spans="1:20" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -4905,14 +5174,14 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="18" customFormat="1">
+    <row r="41" spans="1:20" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-250</v>
+        <v>-350</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -4929,15 +5198,18 @@
       <c r="H41" s="18">
         <v>-30</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" s="18" customFormat="1">
+      <c r="I41" s="18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-40531.909999999996</v>
+        <v>-45654.13</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -4987,8 +5259,11 @@
       <c r="S42" s="18">
         <v>-3949.82</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" s="18" customFormat="1">
+      <c r="T42" s="18">
+        <v>-5122.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -5004,7 +5279,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="13" customFormat="1">
+    <row r="44" spans="1:20" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -5013,11 +5288,11 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>48441.520000000004</v>
+        <v>49982.22</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:19" s="18" customFormat="1">
+    <row r="45" spans="1:20" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
@@ -5042,7 +5317,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="18" customFormat="1">
+    <row r="46" spans="1:20" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -5055,14 +5330,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="18" customFormat="1">
+    <row r="47" spans="1:20" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="4"/>
-        <v>1235.8599999999999</v>
+        <v>2014.56</v>
       </c>
       <c r="D47" s="17">
         <v>0</v>
@@ -5070,8 +5345,11 @@
       <c r="E47" s="18">
         <v>1235.8599999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" s="18" customFormat="1">
+      <c r="F47" s="18">
+        <v>778.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -5087,7 +5365,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="18" customFormat="1">
+    <row r="49" spans="1:23" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
@@ -5127,7 +5405,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="18" customFormat="1">
+    <row r="50" spans="1:23" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
@@ -5155,7 +5433,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="18" customFormat="1">
+    <row r="51" spans="1:23" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -5177,7 +5455,7 @@
         <v>1709.21</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="18" customFormat="1">
+    <row r="52" spans="1:23" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -5202,14 +5480,14 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="18" customFormat="1">
+    <row r="53" spans="1:23" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>6800.22</v>
+        <v>6957.22</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -5268,15 +5546,18 @@
       <c r="V53" s="18">
         <v>198.62</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" s="18" customFormat="1">
+      <c r="W53" s="18">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>2798</v>
+        <v>2903</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -5326,8 +5607,11 @@
       <c r="S54" s="18">
         <v>1560</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" s="18" customFormat="1">
+      <c r="T54" s="18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -5353,14 +5637,14 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="18" customFormat="1">
+    <row r="56" spans="1:23" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" si="4"/>
-        <v>2720</v>
+        <v>3220</v>
       </c>
       <c r="D56" s="17">
         <v>0</v>
@@ -5377,50 +5661,53 @@
       <c r="H56" s="18">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" s="18" customFormat="1">
+      <c r="I56" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:22" s="18" customFormat="1">
+    <row r="58" spans="1:23" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:22" s="18" customFormat="1">
+    <row r="59" spans="1:23" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:22" s="18" customFormat="1">
+    <row r="60" spans="1:23" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:22" s="18" customFormat="1">
+    <row r="61" spans="1:23" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:22" s="18" customFormat="1">
+    <row r="62" spans="1:23" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:22" s="18" customFormat="1">
+    <row r="63" spans="1:23" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:22" s="18" customFormat="1">
+    <row r="64" spans="1:23" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -6398,7 +6685,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6429,7 +6716,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1074768.5699999998</v>
+        <v>1079228.7899999998</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -6439,7 +6726,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C33</f>
-        <v>-996308.1</v>
+        <v>-997086.8</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -6448,17 +6735,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-78460.47</v>
+        <v>-82141.99000000002</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1074768.5699999998</v>
+        <v>1079228.7899999998</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1074768.57</v>
+        <v>-1079228.79</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -359,6 +359,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="X4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05
+n</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O6" authorId="0">
       <text>
         <r>
@@ -479,6 +504,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 pago de cuota  y impuesto y plastico bhd rosalis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 compra del hogar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N9" authorId="0">
       <text>
         <r>
@@ -692,6 +765,30 @@
           </rPr>
           <t xml:space="preserve">
 15/05 gastos comida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 gastos del hogar</t>
         </r>
       </text>
     </comment>
@@ -1655,6 +1752,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="BK10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Adelson
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>17/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05  faltante en cuadre</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V12" authorId="0">
       <text>
         <r>
@@ -1943,6 +2112,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 prestado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -2132,6 +2325,30 @@
           </rPr>
           <t xml:space="preserve">
 12/05/19 capital bhd adelson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 capital bhd rosalis</t>
         </r>
       </text>
     </comment>
@@ -2594,6 +2811,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="U42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F45" authorId="0">
       <text>
         <r>
@@ -2688,6 +2930,30 @@
           <t xml:space="preserve">
 13/05:   ajuste sin partidad doble, para cuadrar la balanza.
 Estaba sobrando del lado credito</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05   faltante en cuadre</t>
         </r>
       </text>
     </comment>
@@ -2915,6 +3181,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 pasaje rosalis super mercado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H50" authorId="0">
       <text>
         <r>
@@ -2963,6 +3253,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 plastico y impuesto bhd rosalis</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E51" authorId="0">
       <text>
         <r>
@@ -3032,6 +3346,30 @@
           </rPr>
           <t xml:space="preserve">
 14/05 interes de popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 bhd leon rosalis</t>
         </r>
       </text>
     </comment>
@@ -3472,7 +3810,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3560,6 +3898,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3679,7 +4025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3736,6 +4082,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4031,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ224"/>
+  <dimension ref="A1:BM224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ15" sqref="BJ15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4068,7 +4415,7 @@
     <col min="33" max="33" width="11" style="34" customWidth="1"/>
     <col min="34" max="34" width="11.140625" style="34" customWidth="1"/>
     <col min="35" max="35" width="10.28515625" style="34" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="34" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="34" customWidth="1"/>
     <col min="38" max="38" width="9.5703125" style="34" customWidth="1"/>
     <col min="39" max="39" width="10" style="34" customWidth="1"/>
@@ -4098,7 +4445,7 @@
     <col min="63" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="6" customFormat="1">
+    <row r="1" spans="1:65" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4107,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="11" customFormat="1">
+    <row r="2" spans="1:65" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -4116,35 +4463,35 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1079228.7899999998</v>
+        <v>1077726.5499999998</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="13" customFormat="1">
+    <row r="3" spans="1:65" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>11804.710000000005</v>
+        <v>7549.2000000000044</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="18" customFormat="1">
+    <row r="4" spans="1:65" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>3196.449999999998</v>
+        <v>5696.449999999998</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -4206,8 +4553,11 @@
       <c r="W4" s="18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:62" s="18" customFormat="1">
+      <c r="X4" s="18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -4223,7 +4573,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="18" customFormat="1">
+    <row r="6" spans="1:65" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
@@ -4285,14 +4635,14 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="7" spans="1:62" s="18" customFormat="1">
+    <row r="7" spans="1:65" s="18" customFormat="1" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>7354.99</v>
+        <v>599.47999999999956</v>
       </c>
       <c r="D7" s="17">
         <v>546.59</v>
@@ -4309,29 +4659,36 @@
       <c r="H7" s="18">
         <v>7324.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:62" s="13" customFormat="1">
+      <c r="I7" s="18">
+        <v>-3579.4</v>
+      </c>
+      <c r="J7" s="18">
+        <v>-3176.11</v>
+      </c>
+      <c r="BL7" s="36"/>
+    </row>
+    <row r="8" spans="1:65" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>38142.949999999997</v>
+        <v>36892.949999999997</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:62" s="18" customFormat="1">
+    <row r="9" spans="1:65" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>574</v>
+        <v>409</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -4412,15 +4769,18 @@
       <c r="AD9" s="18">
         <v>-262</v>
       </c>
-    </row>
-    <row r="10" spans="1:62" s="18" customFormat="1">
+      <c r="AE9" s="18">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>37568.949999999997</v>
+        <v>36483.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -4599,15 +4959,24 @@
       <c r="BJ10" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:62" s="23" customFormat="1">
+      <c r="BK10" s="18">
+        <v>-28000</v>
+      </c>
+      <c r="BL10" s="18">
+        <v>27815</v>
+      </c>
+      <c r="BM10" s="18">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1029281.1299999998</v>
+        <v>1033284.3999999998</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -4615,14 +4984,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:62" s="18" customFormat="1">
+    <row r="12" spans="1:65" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>519062.61999999988</v>
+        <v>525565.8899999999</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -4717,8 +5086,14 @@
       <c r="AH12" s="18">
         <v>-17372.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:62" s="18" customFormat="1">
+      <c r="AI12" s="18">
+        <v>28000</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>-21496.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
@@ -4758,7 +5133,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="14" spans="1:62" s="18" customFormat="1">
+    <row r="14" spans="1:65" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -4774,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:62" s="18" customFormat="1">
+    <row r="15" spans="1:65" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -4793,20 +5168,23 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:62" s="18" customFormat="1">
+    <row r="16" spans="1:65" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
       </c>
       <c r="E16" s="18">
         <v>2500</v>
+      </c>
+      <c r="F16" s="18">
+        <v>-2500</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="18" customFormat="1">
@@ -4856,7 +5234,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-395890.16</v>
+        <v>-393384.73</v>
       </c>
       <c r="D19" s="12">
         <f>D20</f>
@@ -4870,7 +5248,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C32)</f>
-        <v>-395890.16</v>
+        <v>-393384.73</v>
       </c>
       <c r="D20" s="12">
         <f>SUM(D21:D32)</f>
@@ -5010,10 +5388,13 @@
       </c>
       <c r="C29" s="16">
         <f t="shared" si="2"/>
-        <v>-65139.85</v>
+        <v>-62634.42</v>
       </c>
       <c r="D29" s="17">
         <v>-65139.85</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2505.4299999999998</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="18" customFormat="1">
@@ -5057,7 +5438,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="13" customFormat="1">
+    <row r="33" spans="1:21" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -5070,7 +5451,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:20" s="18" customFormat="1">
+    <row r="34" spans="1:21" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -5083,7 +5464,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1">
+    <row r="35" spans="1:21" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -5094,7 +5475,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:20" s="13" customFormat="1">
+    <row r="36" spans="1:21" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -5103,11 +5484,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-132124.21000000002</v>
+        <v>-138442.48000000001</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:20" s="18" customFormat="1">
+    <row r="37" spans="1:21" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -5126,7 +5507,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="18" customFormat="1">
+    <row r="38" spans="1:21" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -5145,7 +5526,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="18" customFormat="1">
+    <row r="39" spans="1:21" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -5158,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="18" customFormat="1">
+    <row r="40" spans="1:21" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -5174,7 +5555,7 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="18" customFormat="1">
+    <row r="41" spans="1:21" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
@@ -5202,14 +5583,14 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="18" customFormat="1">
+    <row r="42" spans="1:21" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-45654.13</v>
+        <v>-51972.399999999994</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -5262,8 +5643,11 @@
       <c r="T42" s="18">
         <v>-5122.22</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" s="18" customFormat="1">
+      <c r="U42" s="18">
+        <v>-6318.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -5279,7 +5663,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="13" customFormat="1">
+    <row r="44" spans="1:21" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -5288,11 +5672,11 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>49982.22</v>
+        <v>55297.299999999996</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:20" s="18" customFormat="1">
+    <row r="45" spans="1:21" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
@@ -5317,7 +5701,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1">
+    <row r="46" spans="1:21" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -5330,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="18" customFormat="1">
+    <row r="47" spans="1:21" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -5349,14 +5733,14 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="18" customFormat="1">
+    <row r="48" spans="1:21" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="4"/>
-        <v>570</v>
+        <v>1470</v>
       </c>
       <c r="D48" s="17">
         <v>0</v>
@@ -5364,15 +5748,18 @@
       <c r="E48" s="18">
         <v>570</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" s="18" customFormat="1">
+      <c r="F48" s="18">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>14455</v>
+        <v>14500</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -5404,15 +5791,18 @@
       <c r="M49" s="18">
         <v>2355</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" s="18" customFormat="1">
+      <c r="N49" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="4"/>
-        <v>218.43</v>
+        <v>263.73</v>
       </c>
       <c r="D50" s="17">
         <v>0</v>
@@ -5432,15 +5822,18 @@
       <c r="I50" s="18">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" s="18" customFormat="1">
+      <c r="J50" s="18">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>6421.01</v>
+        <v>7449.68</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
@@ -5454,8 +5847,11 @@
       <c r="G51" s="18">
         <v>1709.21</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" s="18" customFormat="1">
+      <c r="H51" s="18">
+        <v>1028.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -5480,14 +5876,14 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="18" customFormat="1">
+    <row r="53" spans="1:25" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>6957.22</v>
+        <v>10253.33</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -5549,8 +5945,14 @@
       <c r="W53" s="18">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" s="18" customFormat="1">
+      <c r="X53" s="18">
+        <v>3176.11</v>
+      </c>
+      <c r="Y53" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
@@ -5611,7 +6013,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="18" customFormat="1">
+    <row r="55" spans="1:25" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -5637,7 +6039,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="18" customFormat="1">
+    <row r="56" spans="1:25" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
@@ -5665,49 +6067,49 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="18" customFormat="1">
+    <row r="57" spans="1:25" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:23" s="18" customFormat="1">
+    <row r="58" spans="1:25" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:23" s="18" customFormat="1">
+    <row r="59" spans="1:25" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:23" s="18" customFormat="1">
+    <row r="60" spans="1:25" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:23" s="18" customFormat="1">
+    <row r="61" spans="1:25" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:23" s="18" customFormat="1">
+    <row r="62" spans="1:25" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:23" s="18" customFormat="1">
+    <row r="63" spans="1:25" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:23" s="18" customFormat="1">
+    <row r="64" spans="1:25" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -6685,7 +7087,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6716,7 +7118,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1079228.7899999998</v>
+        <v>1077726.5499999998</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -6726,7 +7128,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C33</f>
-        <v>-997086.8</v>
+        <v>-994581.37</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -6735,17 +7137,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-82141.99000000002</v>
+        <v>-83145.180000000022</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1079228.7899999998</v>
+        <v>1077726.5499999998</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1079228.79</v>
+        <v>-1077726.55</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -367,20 +367,68 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/05
-n</t>
+nector caro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 pago de cuota manuel y emmanuel via popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 pago impuesto popular</t>
         </r>
       </text>
     </comment>
@@ -512,16 +560,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/05 pago de cuota  y impuesto y plastico bhd rosalis</t>
@@ -752,16 +800,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 15/05 gastos comida</t>
@@ -789,6 +837,30 @@
           </rPr>
           <t xml:space="preserve">
 17/05 gastos del hogar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17/05 gasto de comida adel</t>
         </r>
       </text>
     </comment>
@@ -1664,16 +1736,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05 prestado</t>
@@ -1688,16 +1760,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05 cobrado</t>
@@ -1712,16 +1784,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05 regalo a fella</t>
@@ -1736,16 +1808,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05 sobrante</t>
@@ -1760,7 +1832,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Adelson
 </t>
@@ -1784,16 +1856,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/05 cobrado</t>
@@ -1824,6 +1896,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="BN10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 pago de cuota de manuel y emmanuel artura via banco popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 caja personal</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V12" authorId="0">
       <text>
         <r>
@@ -2072,16 +2240,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05 prestado</t>
@@ -2096,16 +2264,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05 capital</t>
@@ -2136,6 +2304,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -2336,16 +2552,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/05 capital bhd rosalis</t>
@@ -2408,16 +2624,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05</t>
@@ -2795,16 +3011,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05</t>
@@ -2819,20 +3035,44 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/05
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05</t>
         </r>
       </text>
     </comment>
@@ -3261,16 +3501,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/05 plastico y impuesto bhd rosalis</t>
@@ -3357,16 +3597,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/05 bhd leon rosalis</t>
@@ -3418,6 +3658,30 @@
           </rPr>
           <t xml:space="preserve">
 15/05 romo del sabado 18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/05 ninas</t>
         </r>
       </text>
     </comment>
@@ -3582,16 +3846,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 16/05 regalo a fella</t>
@@ -3810,7 +4074,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3885,19 +4149,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="singleAccounting"/>
@@ -4079,10 +4330,10 @@
     <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4378,10 +4629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM224"/>
+  <dimension ref="A1:BQ224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4416,8 +4667,8 @@
     <col min="34" max="34" width="11.140625" style="34" customWidth="1"/>
     <col min="35" max="35" width="10.28515625" style="34" customWidth="1"/>
     <col min="36" max="36" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9" style="34" customWidth="1"/>
-    <col min="38" max="38" width="9.5703125" style="34" customWidth="1"/>
+    <col min="37" max="37" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" style="34" customWidth="1"/>
     <col min="40" max="40" width="10.42578125" style="34" customWidth="1"/>
     <col min="41" max="41" width="10" style="34" customWidth="1"/>
@@ -4436,16 +4687,23 @@
     <col min="54" max="54" width="10.5703125" style="34" customWidth="1"/>
     <col min="55" max="55" width="9.85546875" style="34" customWidth="1"/>
     <col min="56" max="56" width="6.5703125" style="34" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" style="34" customWidth="1"/>
-    <col min="58" max="58" width="9.7109375" style="34" customWidth="1"/>
-    <col min="59" max="59" width="9.85546875" style="34" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" style="34" customWidth="1"/>
+    <col min="57" max="57" width="10" style="34" customWidth="1"/>
+    <col min="58" max="58" width="9.42578125" style="34" customWidth="1"/>
+    <col min="59" max="59" width="9.28515625" style="34" customWidth="1"/>
+    <col min="60" max="60" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="34" customWidth="1"/>
     <col min="62" max="62" width="7.42578125" style="34" customWidth="1"/>
-    <col min="63" max="16384" width="11.42578125" style="34"/>
+    <col min="63" max="63" width="11.140625" style="34" customWidth="1"/>
+    <col min="64" max="64" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.85546875" style="34" customWidth="1"/>
+    <col min="66" max="66" width="11.42578125" style="34"/>
+    <col min="67" max="67" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5703125" style="34" customWidth="1"/>
+    <col min="69" max="69" width="9.5703125" style="34" customWidth="1"/>
+    <col min="70" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="6" customFormat="1">
+    <row r="1" spans="1:69" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4454,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="11" customFormat="1">
+    <row r="2" spans="1:69" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -4463,35 +4721,35 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1077726.5499999998</v>
+        <v>1081401.46</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="13" customFormat="1">
+    <row r="3" spans="1:69" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>7549.2000000000044</v>
+        <v>9443.4300000000039</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="18" customFormat="1">
+    <row r="4" spans="1:69" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>5696.449999999998</v>
+        <v>7590.6799999999976</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -4556,8 +4814,14 @@
       <c r="X4" s="18">
         <v>2500</v>
       </c>
-    </row>
-    <row r="5" spans="1:65" s="18" customFormat="1">
+      <c r="Y4" s="18">
+        <v>1900</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>-5.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -4573,7 +4837,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="18" customFormat="1">
+    <row r="6" spans="1:69" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
@@ -4635,7 +4899,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="18" customFormat="1" ht="15">
+    <row r="7" spans="1:69" s="18" customFormat="1" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
@@ -4665,30 +4929,30 @@
       <c r="J7" s="18">
         <v>-3176.11</v>
       </c>
-      <c r="BL7" s="36"/>
-    </row>
-    <row r="8" spans="1:65" s="13" customFormat="1">
+      <c r="BL7" s="35"/>
+    </row>
+    <row r="8" spans="1:69" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>36892.949999999997</v>
+        <v>38712.949999999997</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="18" customFormat="1">
+    <row r="9" spans="1:69" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>409</v>
+        <v>2154</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -4772,15 +5036,21 @@
       <c r="AE9" s="18">
         <v>-165</v>
       </c>
-    </row>
-    <row r="10" spans="1:65" s="18" customFormat="1">
+      <c r="AF9" s="18">
+        <v>-255</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>36483.949999999997</v>
+        <v>36558.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -4968,15 +5238,27 @@
       <c r="BM10" s="18">
         <v>-900</v>
       </c>
-    </row>
-    <row r="11" spans="1:65" s="23" customFormat="1">
+      <c r="BN10" s="18">
+        <v>-10000</v>
+      </c>
+      <c r="BO10" s="18">
+        <v>13975</v>
+      </c>
+      <c r="BP10" s="18">
+        <v>-1900</v>
+      </c>
+      <c r="BQ10" s="18">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1033284.3999999998</v>
+        <v>1033245.0799999998</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -4984,14 +5266,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:65" s="18" customFormat="1">
+    <row r="12" spans="1:69" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>525565.8899999999</v>
+        <v>525526.56999999995</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -5092,8 +5374,14 @@
       <c r="AJ12" s="18">
         <v>-21496.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:65" s="18" customFormat="1">
+      <c r="AK12" s="18">
+        <v>10000</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>-10039.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
@@ -5133,7 +5421,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="18" customFormat="1">
+    <row r="14" spans="1:69" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -5149,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="18" customFormat="1">
+    <row r="15" spans="1:69" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -5168,7 +5456,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="18" customFormat="1">
+    <row r="16" spans="1:69" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
@@ -5438,7 +5726,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:21" s="13" customFormat="1">
+    <row r="33" spans="1:22" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -5451,7 +5739,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:21" s="18" customFormat="1">
+    <row r="34" spans="1:22" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -5464,7 +5752,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:21" s="18" customFormat="1">
+    <row r="35" spans="1:22" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -5475,7 +5763,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:21" s="13" customFormat="1">
+    <row r="36" spans="1:22" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -5484,11 +5772,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-138442.48000000001</v>
+        <v>-142378.16</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:21" s="18" customFormat="1">
+    <row r="37" spans="1:22" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -5507,7 +5795,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="18" customFormat="1">
+    <row r="38" spans="1:22" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -5526,7 +5814,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="18" customFormat="1">
+    <row r="39" spans="1:22" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -5539,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="18" customFormat="1">
+    <row r="40" spans="1:22" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -5555,7 +5843,7 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="18" customFormat="1">
+    <row r="41" spans="1:22" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
@@ -5583,14 +5871,14 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="18" customFormat="1">
+    <row r="42" spans="1:22" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-51972.399999999994</v>
+        <v>-55908.079999999994</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -5646,8 +5934,11 @@
       <c r="U42" s="18">
         <v>-6318.27</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" s="18" customFormat="1">
+      <c r="V42" s="18">
+        <v>-3935.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -5663,7 +5954,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="13" customFormat="1">
+    <row r="44" spans="1:22" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -5672,11 +5963,11 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>55297.299999999996</v>
+        <v>55558.07</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:21" s="18" customFormat="1">
+    <row r="45" spans="1:22" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
@@ -5701,7 +5992,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="18" customFormat="1">
+    <row r="46" spans="1:22" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -5714,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="18" customFormat="1">
+    <row r="47" spans="1:22" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -5733,7 +6024,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="18" customFormat="1">
+    <row r="48" spans="1:22" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -5752,7 +6043,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="18" customFormat="1">
+    <row r="49" spans="1:26" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
@@ -5795,14 +6086,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="18" customFormat="1">
+    <row r="50" spans="1:26" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="4"/>
-        <v>263.73</v>
+        <v>269.5</v>
       </c>
       <c r="D50" s="17">
         <v>0</v>
@@ -5825,8 +6116,11 @@
       <c r="J50" s="18">
         <v>45.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" s="18" customFormat="1">
+      <c r="K50" s="18">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -5851,7 +6145,7 @@
         <v>1028.67</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="18" customFormat="1">
+    <row r="52" spans="1:26" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -5876,14 +6170,14 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="18" customFormat="1">
+    <row r="53" spans="1:26" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>10253.33</v>
+        <v>10493.33</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -5951,15 +6245,18 @@
       <c r="Y53" s="18">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" s="18" customFormat="1">
+      <c r="Z53" s="18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>2903</v>
+        <v>2918</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -6012,8 +6309,11 @@
       <c r="T54" s="18">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" s="18" customFormat="1">
+      <c r="U54" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -6039,7 +6339,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="18" customFormat="1">
+    <row r="56" spans="1:26" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
@@ -6067,49 +6367,49 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="18" customFormat="1">
+    <row r="57" spans="1:26" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:25" s="18" customFormat="1">
+    <row r="58" spans="1:26" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:25" s="18" customFormat="1">
+    <row r="59" spans="1:26" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:25" s="18" customFormat="1">
+    <row r="60" spans="1:26" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:25" s="18" customFormat="1">
+    <row r="61" spans="1:26" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:25" s="18" customFormat="1">
+    <row r="62" spans="1:26" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:25" s="18" customFormat="1">
+    <row r="63" spans="1:26" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:25" s="18" customFormat="1">
+    <row r="64" spans="1:26" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -7097,12 +7397,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="3" spans="2:5">
       <c r="C3" s="2" t="s">
@@ -7118,7 +7418,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1077726.5499999998</v>
+        <v>1081401.46</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -7137,17 +7437,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-83145.180000000022</v>
+        <v>-86820.09</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1077726.5499999998</v>
+        <v>1081401.46</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1077726.55</v>
+        <v>-1081401.46</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -864,6 +864,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05 gasto </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20/05 comida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05 sobrilla y gas y habichuela</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05 gasto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0">
       <text>
         <r>
@@ -1992,6 +2112,222 @@
         </r>
       </text>
     </comment>
+    <comment ref="BR10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05 para inverntar con este valor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BW10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V12" authorId="0">
       <text>
         <r>
@@ -2352,6 +2688,150 @@
         </r>
       </text>
     </comment>
+    <comment ref="AM12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05 CAPITAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05 prestado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -2469,6 +2949,54 @@
           </rPr>
           <t xml:space="preserve">
 15/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05  para invertir en fondo bhd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 Para prestar</t>
         </r>
       </text>
     </comment>
@@ -3076,6 +3604,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="W42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F45" authorId="0">
       <text>
         <r>
@@ -3145,6 +3769,54 @@
           </rPr>
           <t xml:space="preserve">
 15/05 abanico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05 panti</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/05 sombrilla</t>
         </r>
       </text>
     </comment>
@@ -3445,6 +4117,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="O49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05 gas carro y pasaje rosalis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05 gasto carro</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H50" authorId="0">
       <text>
         <r>
@@ -3634,6 +4354,30 @@
           </rPr>
           <t xml:space="preserve">
 14/05 medicamento del ninos </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+22/05 pastiya</t>
         </r>
       </text>
     </comment>
@@ -3859,6 +4603,54 @@
           </rPr>
           <t xml:space="preserve">
 16/05 regalo a fella</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19/05 bota de basura</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+21/05 bota de basura</t>
         </r>
       </text>
     </comment>
@@ -4074,7 +4866,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4157,6 +4949,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4629,10 +5434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ224"/>
+  <dimension ref="A1:BZ224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4657,7 +5462,7 @@
     <col min="22" max="23" width="9.7109375" style="34" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.5703125" style="34" customWidth="1"/>
     <col min="28" max="28" width="9.85546875" style="34" customWidth="1"/>
     <col min="29" max="29" width="10.28515625" style="34" customWidth="1"/>
@@ -4671,10 +5476,10 @@
     <col min="38" max="38" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" style="34" customWidth="1"/>
     <col min="40" max="40" width="10.42578125" style="34" customWidth="1"/>
-    <col min="41" max="41" width="10" style="34" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.42578125" style="34" customWidth="1"/>
     <col min="43" max="43" width="10.5703125" style="34" customWidth="1"/>
-    <col min="44" max="44" width="9.28515625" style="34" customWidth="1"/>
+    <col min="44" max="44" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.28515625" style="34" customWidth="1"/>
     <col min="46" max="46" width="10" style="34" customWidth="1"/>
     <col min="47" max="47" width="9.85546875" style="34" customWidth="1"/>
@@ -4703,7 +5508,7 @@
     <col min="70" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="6" customFormat="1">
+    <row r="1" spans="1:78" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4712,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="11" customFormat="1">
+    <row r="2" spans="1:78" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -4721,14 +5526,14 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1081401.46</v>
+        <v>1085185.3999999999</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="13" customFormat="1">
+    <row r="3" spans="1:78" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
@@ -4742,7 +5547,7 @@
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="18" customFormat="1">
+    <row r="4" spans="1:78" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
@@ -4821,7 +5626,7 @@
         <v>-5.77</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="18" customFormat="1">
+    <row r="5" spans="1:78" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -4837,7 +5642,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="18" customFormat="1">
+    <row r="6" spans="1:78" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
@@ -4899,7 +5704,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="18" customFormat="1" ht="15">
+    <row r="7" spans="1:78" s="18" customFormat="1" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
@@ -4931,28 +5736,28 @@
       </c>
       <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:69" s="13" customFormat="1">
+    <row r="8" spans="1:78" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>38712.949999999997</v>
+        <v>17872.949999999997</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:69" s="18" customFormat="1">
+    <row r="9" spans="1:78" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2154</v>
+        <v>964</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -5042,15 +5847,30 @@
       <c r="AG9" s="18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:69" s="18" customFormat="1">
+      <c r="AH9" s="18">
+        <v>-535</v>
+      </c>
+      <c r="AI9" s="18">
+        <v>-180</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>-738</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>-737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>36558.949999999997</v>
+        <v>16908.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -5250,15 +6070,42 @@
       <c r="BQ10" s="18">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:69" s="23" customFormat="1">
+      <c r="BR10" s="18">
+        <v>4350</v>
+      </c>
+      <c r="BS10" s="18">
+        <v>-30000</v>
+      </c>
+      <c r="BT10" s="18">
+        <v>-3000</v>
+      </c>
+      <c r="BU10" s="18">
+        <v>14200</v>
+      </c>
+      <c r="BV10" s="18">
+        <v>4375</v>
+      </c>
+      <c r="BW10" s="18">
+        <v>-1000</v>
+      </c>
+      <c r="BX10" s="18">
+        <v>10000</v>
+      </c>
+      <c r="BY10" s="18">
+        <v>-28000</v>
+      </c>
+      <c r="BZ10" s="18">
+        <v>9425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1033245.0799999998</v>
+        <v>1057869.02</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -5266,14 +6113,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:69" s="18" customFormat="1">
+    <row r="12" spans="1:78" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>525526.56999999995</v>
+        <v>530150.51</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -5380,15 +6227,33 @@
       <c r="AL12" s="18">
         <v>-10039.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:69" s="18" customFormat="1">
+      <c r="AM12" s="18">
+        <v>-3603.33</v>
+      </c>
+      <c r="AN12" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AO12" s="18">
+        <v>-11393.28</v>
+      </c>
+      <c r="AP12" s="18">
+        <v>-3568.84</v>
+      </c>
+      <c r="AQ12" s="18">
+        <v>-7810.61</v>
+      </c>
+      <c r="AR12" s="18">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:78" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>97704.479999999981</v>
+        <v>117704.47999999998</v>
       </c>
       <c r="D13" s="17">
         <v>5704.48</v>
@@ -5420,8 +6285,14 @@
       <c r="M13" s="18">
         <v>-10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:69" s="18" customFormat="1">
+      <c r="N13" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O13" s="18">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:78" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -5437,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:69" s="18" customFormat="1">
+    <row r="15" spans="1:78" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -5456,7 +6327,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:69" s="18" customFormat="1">
+    <row r="16" spans="1:78" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
@@ -5726,7 +6597,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:22" s="13" customFormat="1">
+    <row r="33" spans="1:26" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -5739,7 +6610,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:22" s="18" customFormat="1">
+    <row r="34" spans="1:26" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -5752,7 +6623,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:22" s="18" customFormat="1">
+    <row r="35" spans="1:26" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -5763,7 +6634,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:22" s="13" customFormat="1">
+    <row r="36" spans="1:26" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -5772,11 +6643,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-142378.16</v>
+        <v>-148352.1</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:22" s="18" customFormat="1">
+    <row r="37" spans="1:26" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -5795,7 +6666,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="18" customFormat="1">
+    <row r="38" spans="1:26" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -5814,7 +6685,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="18" customFormat="1">
+    <row r="39" spans="1:26" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -5827,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="18" customFormat="1">
+    <row r="40" spans="1:26" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -5843,7 +6714,7 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="18" customFormat="1">
+    <row r="41" spans="1:26" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
@@ -5871,14 +6742,14 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="18" customFormat="1">
+    <row r="42" spans="1:26" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-55908.079999999994</v>
+        <v>-61882.02</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -5937,8 +6808,20 @@
       <c r="V42" s="18">
         <v>-3935.68</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" s="18" customFormat="1">
+      <c r="W42" s="18">
+        <v>-746.67</v>
+      </c>
+      <c r="X42" s="18">
+        <v>-2806.72</v>
+      </c>
+      <c r="Y42" s="18">
+        <v>-806.16</v>
+      </c>
+      <c r="Z42" s="18">
+        <v>-1614.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -5954,7 +6837,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="13" customFormat="1">
+    <row r="44" spans="1:26" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -5963,18 +6846,18 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>55558.07</v>
+        <v>57748.07</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:22" s="18" customFormat="1">
+    <row r="45" spans="1:26" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="16">
         <f>SUM(D45:AAA45)</f>
-        <v>5310</v>
+        <v>5535</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
@@ -5991,21 +6874,30 @@
       <c r="H45" s="18">
         <v>910</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" s="18" customFormat="1">
+      <c r="I45" s="18">
+        <v>100</v>
+      </c>
+      <c r="J45" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="16">
         <f t="shared" ref="C46:C56" si="4">SUM(D46:AAA46)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D46" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" s="18" customFormat="1">
+      <c r="E46" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -6024,7 +6916,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="18" customFormat="1">
+    <row r="48" spans="1:26" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -6043,14 +6935,14 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="18" customFormat="1">
+    <row r="49" spans="1:30" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>14500</v>
+        <v>15275</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -6085,8 +6977,14 @@
       <c r="N49" s="18">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" s="18" customFormat="1">
+      <c r="O49" s="18">
+        <v>525</v>
+      </c>
+      <c r="P49" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
@@ -6120,7 +7018,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="18" customFormat="1">
+    <row r="51" spans="1:30" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -6145,14 +7043,14 @@
         <v>1028.67</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="18" customFormat="1">
+    <row r="52" spans="1:30" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>1630</v>
+        <v>1750</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -6169,15 +7067,18 @@
       <c r="H52" s="18">
         <v>1465</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" s="18" customFormat="1">
+      <c r="I52" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>10493.33</v>
+        <v>11518.33</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -6248,8 +7149,20 @@
       <c r="Z53" s="18">
         <v>240</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" s="18" customFormat="1">
+      <c r="AA53" s="18">
+        <v>415</v>
+      </c>
+      <c r="AB53" s="18">
+        <v>180</v>
+      </c>
+      <c r="AC53" s="18">
+        <v>63</v>
+      </c>
+      <c r="AD53" s="18">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
@@ -6313,7 +7226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="18" customFormat="1">
+    <row r="55" spans="1:30" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -6339,14 +7252,14 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="18" customFormat="1">
+    <row r="56" spans="1:30" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" si="4"/>
-        <v>3220</v>
+        <v>3255</v>
       </c>
       <c r="D56" s="17">
         <v>0</v>
@@ -6366,50 +7279,56 @@
       <c r="I56" s="18">
         <v>500</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" s="18" customFormat="1">
+      <c r="J56" s="18">
+        <v>20</v>
+      </c>
+      <c r="K56" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:26" s="18" customFormat="1">
+    <row r="58" spans="1:30" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:26" s="18" customFormat="1">
+    <row r="59" spans="1:30" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:26" s="18" customFormat="1">
+    <row r="60" spans="1:30" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:26" s="18" customFormat="1">
+    <row r="61" spans="1:30" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:26" s="18" customFormat="1">
+    <row r="62" spans="1:30" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:26" s="18" customFormat="1">
+    <row r="63" spans="1:30" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:26" s="18" customFormat="1">
+    <row r="64" spans="1:30" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -7387,7 +8306,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7418,7 +8337,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1081401.46</v>
+        <v>1085185.3999999999</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -7437,17 +8356,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-86820.09</v>
+        <v>-90604.03</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1081401.46</v>
+        <v>1085185.3999999999</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1081401.46</v>
+        <v>-1085185.3999999999</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -432,6 +432,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 cargo impuesto popular</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O6" authorId="0">
       <text>
         <r>
@@ -600,6 +624,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 walper ninos</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N9" authorId="0">
       <text>
         <r>
@@ -981,6 +1029,78 @@
           </rPr>
           <t xml:space="preserve">
 22/05 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05gasto </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 gasto</t>
         </r>
       </text>
     </comment>
@@ -2328,6 +2448,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="CA10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CD10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V12" authorId="0">
       <text>
         <r>
@@ -2829,6 +3069,102 @@
           </rPr>
           <t xml:space="preserve">
 22/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24/05 capital</t>
         </r>
       </text>
     </comment>
@@ -3700,6 +4036,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24/05</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F45" authorId="0">
       <text>
         <r>
@@ -3817,6 +4201,54 @@
           </rPr>
           <t xml:space="preserve">
 20/05 sombrilla</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 walper ninos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 porta retracto</t>
         </r>
       </text>
     </comment>
@@ -4234,6 +4666,30 @@
           </rPr>
           <t xml:space="preserve">
 17/05 plastico y impuesto bhd rosalis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+23/05 cargo impuesto popular</t>
         </r>
       </text>
     </comment>
@@ -5434,10 +5890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BZ224"/>
+  <dimension ref="A1:CE224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5452,7 +5908,7 @@
     <col min="11" max="11" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="34" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="34" customWidth="1"/>
     <col min="18" max="18" width="10" style="34" bestFit="1" customWidth="1"/>
@@ -5462,28 +5918,29 @@
     <col min="22" max="23" width="9.7109375" style="34" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" style="34" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="34" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="34" customWidth="1"/>
     <col min="29" max="29" width="10.28515625" style="34" customWidth="1"/>
-    <col min="30" max="31" width="10.42578125" style="34" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="34" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" style="34" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="34" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" style="34" customWidth="1"/>
     <col min="33" max="33" width="11" style="34" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="34" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" style="34" customWidth="1"/>
     <col min="35" max="35" width="10.28515625" style="34" customWidth="1"/>
     <col min="36" max="36" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10" style="34" customWidth="1"/>
-    <col min="40" max="40" width="10.42578125" style="34" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" style="34" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="34" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" style="34" customWidth="1"/>
     <col min="42" max="42" width="9.42578125" style="34" customWidth="1"/>
     <col min="43" max="43" width="10.5703125" style="34" customWidth="1"/>
     <col min="44" max="44" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.28515625" style="34" customWidth="1"/>
-    <col min="46" max="46" width="10" style="34" customWidth="1"/>
-    <col min="47" max="47" width="9.85546875" style="34" customWidth="1"/>
-    <col min="48" max="48" width="10.42578125" style="34" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" style="34" customWidth="1"/>
+    <col min="46" max="46" width="10.5703125" style="34" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="34" customWidth="1"/>
+    <col min="48" max="48" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="9.140625" style="34" customWidth="1"/>
     <col min="50" max="50" width="9.42578125" style="34" customWidth="1"/>
     <col min="51" max="51" width="7.85546875" style="34" customWidth="1"/>
@@ -5504,11 +5961,23 @@
     <col min="66" max="66" width="11.42578125" style="34"/>
     <col min="67" max="67" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10.5703125" style="34" customWidth="1"/>
-    <col min="69" max="69" width="9.5703125" style="34" customWidth="1"/>
-    <col min="70" max="16384" width="11.42578125" style="34"/>
+    <col min="69" max="69" width="9.28515625" style="34" customWidth="1"/>
+    <col min="70" max="70" width="9.42578125" style="34" customWidth="1"/>
+    <col min="71" max="71" width="10.5703125" style="34" customWidth="1"/>
+    <col min="72" max="72" width="9.42578125" style="34" customWidth="1"/>
+    <col min="73" max="73" width="10.140625" style="34" customWidth="1"/>
+    <col min="74" max="74" width="9.140625" style="34" customWidth="1"/>
+    <col min="75" max="75" width="9.42578125" style="34" customWidth="1"/>
+    <col min="76" max="76" width="9.7109375" style="34" customWidth="1"/>
+    <col min="77" max="77" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.85546875" style="34" customWidth="1"/>
+    <col min="79" max="79" width="9.42578125" style="34" customWidth="1"/>
+    <col min="80" max="80" width="9.7109375" style="34" customWidth="1"/>
+    <col min="81" max="81" width="9.85546875" style="34" customWidth="1"/>
+    <col min="82" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="6" customFormat="1">
+    <row r="1" spans="1:83" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5517,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="11" customFormat="1">
+    <row r="2" spans="1:83" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -5526,35 +5995,35 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1085185.3999999999</v>
+        <v>1093662.7</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:78" s="13" customFormat="1">
+    <row r="3" spans="1:83" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>9443.4300000000039</v>
+        <v>9208.4300000000039</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:78" s="18" customFormat="1">
+    <row r="4" spans="1:83" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>7590.6799999999976</v>
+        <v>7535.6799999999976</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -5625,8 +6094,11 @@
       <c r="Z4" s="18">
         <v>-5.77</v>
       </c>
-    </row>
-    <row r="5" spans="1:78" s="18" customFormat="1">
+      <c r="AA4" s="18">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -5642,7 +6114,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:78" s="18" customFormat="1">
+    <row r="6" spans="1:83" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
@@ -5704,14 +6176,14 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="18" customFormat="1" ht="15">
+    <row r="7" spans="1:83" s="18" customFormat="1" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>599.47999999999956</v>
+        <v>419.47999999999956</v>
       </c>
       <c r="D7" s="17">
         <v>546.59</v>
@@ -5734,30 +6206,33 @@
       <c r="J7" s="18">
         <v>-3176.11</v>
       </c>
+      <c r="K7" s="18">
+        <v>-180</v>
+      </c>
       <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:78" s="13" customFormat="1">
+    <row r="8" spans="1:83" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>17872.949999999997</v>
+        <v>43381.95</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:78" s="18" customFormat="1">
+    <row r="9" spans="1:83" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>964</v>
+        <v>853</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -5862,15 +6337,24 @@
       <c r="AL9" s="18">
         <v>-737</v>
       </c>
-    </row>
-    <row r="10" spans="1:78" s="18" customFormat="1">
+      <c r="AM9" s="18">
+        <v>-354</v>
+      </c>
+      <c r="AN9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AO9" s="18">
+        <v>-757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>16908.949999999997</v>
+        <v>42528.95</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -6097,15 +6581,30 @@
       <c r="BZ10" s="18">
         <v>9425</v>
       </c>
-    </row>
-    <row r="11" spans="1:78" s="23" customFormat="1">
+      <c r="CA10" s="18">
+        <v>-7000</v>
+      </c>
+      <c r="CB10" s="18">
+        <v>18345</v>
+      </c>
+      <c r="CC10" s="18">
+        <v>-1000</v>
+      </c>
+      <c r="CD10" s="18">
+        <v>-18000</v>
+      </c>
+      <c r="CE10" s="18">
+        <v>33275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1057869.02</v>
+        <v>1041072.32</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -6113,14 +6612,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:78" s="18" customFormat="1">
+    <row r="12" spans="1:83" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>530150.51</v>
+        <v>513353.81000000006</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -6245,8 +6744,20 @@
       <c r="AR12" s="18">
         <v>28000</v>
       </c>
-    </row>
-    <row r="13" spans="1:78" s="18" customFormat="1">
+      <c r="AS12" s="18">
+        <v>7000</v>
+      </c>
+      <c r="AT12" s="18">
+        <v>-15955.48</v>
+      </c>
+      <c r="AU12" s="18">
+        <v>18000</v>
+      </c>
+      <c r="AV12" s="18">
+        <v>-25841.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:83" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
@@ -6292,7 +6803,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="14" spans="1:78" s="18" customFormat="1">
+    <row r="14" spans="1:83" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -6308,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" s="18" customFormat="1">
+    <row r="15" spans="1:83" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -6327,7 +6838,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:78" s="18" customFormat="1">
+    <row r="16" spans="1:83" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
@@ -6597,7 +7108,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:26" s="13" customFormat="1">
+    <row r="33" spans="1:28" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -6610,7 +7121,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:26" s="18" customFormat="1">
+    <row r="34" spans="1:28" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -6623,7 +7134,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:26" s="18" customFormat="1">
+    <row r="35" spans="1:28" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -6634,7 +7145,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:26" s="13" customFormat="1">
+    <row r="36" spans="1:28" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -6643,11 +7154,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-148352.1</v>
+        <v>-158175.40000000002</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:26" s="18" customFormat="1">
+    <row r="37" spans="1:28" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -6666,7 +7177,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="18" customFormat="1">
+    <row r="38" spans="1:28" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -6685,7 +7196,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="18" customFormat="1">
+    <row r="39" spans="1:28" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -6698,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="18" customFormat="1">
+    <row r="40" spans="1:28" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -6714,7 +7225,7 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="18" customFormat="1">
+    <row r="41" spans="1:28" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
@@ -6742,14 +7253,14 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="18" customFormat="1">
+    <row r="42" spans="1:28" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-61882.02</v>
+        <v>-71705.319999999992</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -6820,8 +7331,14 @@
       <c r="Z42" s="18">
         <v>-1614.39</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" s="18" customFormat="1">
+      <c r="AA42" s="18">
+        <v>-2389.52</v>
+      </c>
+      <c r="AB42" s="18">
+        <v>-7433.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -6837,7 +7354,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="13" customFormat="1">
+    <row r="44" spans="1:28" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -6846,18 +7363,18 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>57748.07</v>
+        <v>59094.07</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:26" s="18" customFormat="1">
+    <row r="45" spans="1:28" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="16">
         <f>SUM(D45:AAA45)</f>
-        <v>5535</v>
+        <v>5852</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
@@ -6880,8 +7397,14 @@
       <c r="J45" s="18">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" s="18" customFormat="1">
+      <c r="K45" s="18">
+        <v>180</v>
+      </c>
+      <c r="L45" s="18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -6897,7 +7420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="18" customFormat="1">
+    <row r="47" spans="1:28" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -6916,7 +7439,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="18" customFormat="1">
+    <row r="48" spans="1:28" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -6935,7 +7458,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="18" customFormat="1">
+    <row r="49" spans="1:32" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
@@ -6984,14 +7507,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="18" customFormat="1">
+    <row r="50" spans="1:32" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="4"/>
-        <v>269.5</v>
+        <v>324.5</v>
       </c>
       <c r="D50" s="17">
         <v>0</v>
@@ -7017,8 +7540,11 @@
       <c r="K50" s="18">
         <v>5.77</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" s="18" customFormat="1">
+      <c r="L50" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -7043,7 +7569,7 @@
         <v>1028.67</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="18" customFormat="1">
+    <row r="52" spans="1:32" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -7071,14 +7597,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="18" customFormat="1">
+    <row r="53" spans="1:32" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>11518.33</v>
+        <v>12332.33</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -7161,15 +7687,21 @@
       <c r="AD53" s="18">
         <v>367</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" s="18" customFormat="1">
+      <c r="AE53" s="18">
+        <v>304</v>
+      </c>
+      <c r="AF53" s="18">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>2918</v>
+        <v>3078</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -7225,8 +7757,14 @@
       <c r="U54" s="18">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" s="18" customFormat="1">
+      <c r="V54" s="18">
+        <v>50</v>
+      </c>
+      <c r="W54" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -7252,7 +7790,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="18" customFormat="1">
+    <row r="56" spans="1:32" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
@@ -7286,49 +7824,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:30" s="18" customFormat="1">
+    <row r="57" spans="1:32" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:30" s="18" customFormat="1">
+    <row r="58" spans="1:32" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:30" s="18" customFormat="1">
+    <row r="59" spans="1:32" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:30" s="18" customFormat="1">
+    <row r="60" spans="1:32" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:30" s="18" customFormat="1">
+    <row r="61" spans="1:32" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:30" s="18" customFormat="1">
+    <row r="62" spans="1:32" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:30" s="18" customFormat="1">
+    <row r="63" spans="1:32" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:30" s="18" customFormat="1">
+    <row r="64" spans="1:32" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -8337,7 +8875,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1085185.3999999999</v>
+        <v>1093662.7</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8356,17 +8894,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-90604.03</v>
+        <v>-99081.330000000016</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1085185.3999999999</v>
+        <v>1093662.7</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1085185.3999999999</v>
+        <v>-1093662.7</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -456,6 +456,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 gasto de cerveza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 pago de cuota de yajaira</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O6" authorId="0">
       <text>
         <r>
@@ -1101,6 +1149,78 @@
           </rPr>
           <t xml:space="preserve">
 25/05 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+26/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 gasto</t>
         </r>
       </text>
     </comment>
@@ -2568,6 +2688,174 @@
         </r>
       </text>
     </comment>
+    <comment ref="CF10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CG10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 y del 26/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+26/05 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CI10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CJ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CL10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 pago de la cuota de yajaira </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V12" authorId="0">
       <text>
         <r>
@@ -3168,6 +3456,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="AW12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 y del 26/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -3333,6 +3717,30 @@
           </rPr>
           <t xml:space="preserve">
 23/05 Para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 para prestar</t>
         </r>
       </text>
     </comment>
@@ -4081,6 +4489,54 @@
           </rPr>
           <t xml:space="preserve">
 24/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 y del 26/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05</t>
         </r>
       </text>
     </comment>
@@ -4885,6 +5341,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="X54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 piza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25/05 gasto cerveza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 actividad de la ninas</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E55" authorId="0">
       <text>
         <r>
@@ -5107,6 +5635,30 @@
           </rPr>
           <t xml:space="preserve">
 21/05 bota de basura</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+copia de cedula</t>
         </r>
       </text>
     </comment>
@@ -5890,10 +6442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE224"/>
+  <dimension ref="A1:CL224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:I27"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5941,10 +6493,10 @@
     <col min="46" max="46" width="10.5703125" style="34" customWidth="1"/>
     <col min="47" max="47" width="10.28515625" style="34" customWidth="1"/>
     <col min="48" max="48" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="34" customWidth="1"/>
+    <col min="49" max="49" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9.42578125" style="34" customWidth="1"/>
-    <col min="51" max="51" width="7.85546875" style="34" customWidth="1"/>
-    <col min="52" max="52" width="5.7109375" style="34" customWidth="1"/>
+    <col min="51" max="51" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10" style="34" customWidth="1"/>
     <col min="53" max="53" width="9.7109375" style="34" customWidth="1"/>
     <col min="54" max="54" width="10.5703125" style="34" customWidth="1"/>
     <col min="55" max="55" width="9.85546875" style="34" customWidth="1"/>
@@ -5973,11 +6525,19 @@
     <col min="78" max="78" width="8.85546875" style="34" customWidth="1"/>
     <col min="79" max="79" width="9.42578125" style="34" customWidth="1"/>
     <col min="80" max="80" width="9.7109375" style="34" customWidth="1"/>
-    <col min="81" max="81" width="9.85546875" style="34" customWidth="1"/>
-    <col min="82" max="16384" width="11.42578125" style="34"/>
+    <col min="81" max="81" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.42578125" style="34"/>
+    <col min="83" max="83" width="10.85546875" style="34" customWidth="1"/>
+    <col min="84" max="84" width="10.5703125" style="34" customWidth="1"/>
+    <col min="85" max="85" width="9" style="34" customWidth="1"/>
+    <col min="86" max="86" width="9.28515625" style="34" customWidth="1"/>
+    <col min="87" max="87" width="11.42578125" style="34"/>
+    <col min="88" max="88" width="10.140625" style="34" customWidth="1"/>
+    <col min="89" max="89" width="10.7109375" style="34" customWidth="1"/>
+    <col min="90" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="6" customFormat="1">
+    <row r="1" spans="1:90" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5986,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="11" customFormat="1">
+    <row r="2" spans="1:90" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -5995,35 +6555,35 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1093662.7</v>
+        <v>1093585.56</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="13" customFormat="1">
+    <row r="3" spans="1:90" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>9208.4300000000039</v>
+        <v>9115.4300000000039</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:83" s="18" customFormat="1">
+    <row r="4" spans="1:90" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>7535.6799999999976</v>
+        <v>7442.6799999999976</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -6097,8 +6657,14 @@
       <c r="AA4" s="18">
         <v>-55</v>
       </c>
-    </row>
-    <row r="5" spans="1:83" s="18" customFormat="1">
+      <c r="AB4" s="18">
+        <v>-1093</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:90" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -6114,7 +6680,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="6" spans="1:83" s="18" customFormat="1">
+    <row r="6" spans="1:90" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
@@ -6176,7 +6742,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="7" spans="1:83" s="18" customFormat="1" ht="15">
+    <row r="7" spans="1:90" s="18" customFormat="1" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
@@ -6211,28 +6777,28 @@
       </c>
       <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:83" s="13" customFormat="1">
+    <row r="8" spans="1:90" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>43381.95</v>
+        <v>44778.95</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:83" s="18" customFormat="1">
+    <row r="9" spans="1:90" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>853</v>
+        <v>1750</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -6346,15 +6912,24 @@
       <c r="AO9" s="18">
         <v>-757</v>
       </c>
-    </row>
-    <row r="10" spans="1:83" s="18" customFormat="1">
+      <c r="AP9" s="18">
+        <v>-765</v>
+      </c>
+      <c r="AQ9" s="18">
+        <v>2000</v>
+      </c>
+      <c r="AR9" s="18">
+        <v>-338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:90" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>42528.95</v>
+        <v>43028.95</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -6596,15 +7171,36 @@
       <c r="CE10" s="18">
         <v>33275</v>
       </c>
-    </row>
-    <row r="11" spans="1:83" s="23" customFormat="1">
+      <c r="CF10" s="18">
+        <v>-32000</v>
+      </c>
+      <c r="CG10" s="18">
+        <v>3550</v>
+      </c>
+      <c r="CH10" s="18">
+        <v>-2000</v>
+      </c>
+      <c r="CI10" s="18">
+        <v>-5500</v>
+      </c>
+      <c r="CJ10" s="18">
+        <v>7450</v>
+      </c>
+      <c r="CK10" s="18">
+        <v>30000</v>
+      </c>
+      <c r="CL10" s="18">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:90" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1041072.32</v>
+        <v>1039691.1799999999</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -6612,14 +7208,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:83" s="18" customFormat="1">
+    <row r="12" spans="1:90" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>513353.81000000006</v>
+        <v>541972.67000000004</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -6756,15 +7352,27 @@
       <c r="AV12" s="18">
         <v>-25841.22</v>
       </c>
-    </row>
-    <row r="13" spans="1:83" s="18" customFormat="1">
+      <c r="AW12" s="18">
+        <v>32000</v>
+      </c>
+      <c r="AX12" s="18">
+        <v>-2851.47</v>
+      </c>
+      <c r="AY12" s="18">
+        <v>5500</v>
+      </c>
+      <c r="AZ12" s="18">
+        <v>-6029.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:90" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>117704.47999999998</v>
+        <v>87704.479999999981</v>
       </c>
       <c r="D13" s="17">
         <v>5704.48</v>
@@ -6802,8 +7410,11 @@
       <c r="O13" s="18">
         <v>-10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:83" s="18" customFormat="1">
+      <c r="P13" s="18">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:90" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -6819,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:83" s="18" customFormat="1">
+    <row r="15" spans="1:90" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
@@ -6838,7 +7449,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="16" spans="1:83" s="18" customFormat="1">
+    <row r="16" spans="1:90" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
@@ -7108,7 +7719,7 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:28" s="13" customFormat="1">
+    <row r="33" spans="1:30" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -7121,7 +7732,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:28" s="18" customFormat="1">
+    <row r="34" spans="1:30" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -7134,7 +7745,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:28" s="18" customFormat="1">
+    <row r="35" spans="1:30" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -7145,7 +7756,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:28" s="13" customFormat="1">
+    <row r="36" spans="1:30" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -7154,11 +7765,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-158175.40000000002</v>
+        <v>-160294.26</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:28" s="18" customFormat="1">
+    <row r="37" spans="1:30" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -7177,7 +7788,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="18" customFormat="1">
+    <row r="38" spans="1:30" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -7196,7 +7807,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="18" customFormat="1">
+    <row r="39" spans="1:30" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -7209,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="18" customFormat="1">
+    <row r="40" spans="1:30" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -7225,7 +7836,7 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="18" customFormat="1">
+    <row r="41" spans="1:30" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
@@ -7253,14 +7864,14 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="18" customFormat="1">
+    <row r="42" spans="1:30" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-71705.319999999992</v>
+        <v>-73824.179999999993</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -7337,8 +7948,14 @@
       <c r="AB42" s="18">
         <v>-7433.78</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" s="18" customFormat="1">
+      <c r="AC42" s="18">
+        <v>-698.53</v>
+      </c>
+      <c r="AD42" s="18">
+        <v>-1420.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -7354,7 +7971,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="13" customFormat="1">
+    <row r="44" spans="1:30" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -7363,11 +7980,11 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>59094.07</v>
+        <v>61290.07</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:28" s="18" customFormat="1">
+    <row r="45" spans="1:30" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
@@ -7404,7 +8021,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="18" customFormat="1">
+    <row r="46" spans="1:30" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
@@ -7420,7 +8037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="18" customFormat="1">
+    <row r="47" spans="1:30" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -7439,7 +8056,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="18" customFormat="1">
+    <row r="48" spans="1:30" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -7458,7 +8075,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="18" customFormat="1">
+    <row r="49" spans="1:34" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
@@ -7507,7 +8124,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="18" customFormat="1">
+    <row r="50" spans="1:34" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
@@ -7544,7 +8161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="18" customFormat="1">
+    <row r="51" spans="1:34" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -7569,7 +8186,7 @@
         <v>1028.67</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="18" customFormat="1">
+    <row r="52" spans="1:34" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -7597,14 +8214,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="18" customFormat="1">
+    <row r="53" spans="1:34" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>12332.33</v>
+        <v>12940.33</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -7693,15 +8310,21 @@
       <c r="AF53" s="18">
         <v>510</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" s="18" customFormat="1">
+      <c r="AG53" s="18">
+        <v>345</v>
+      </c>
+      <c r="AH53" s="18">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>3078</v>
+        <v>4646</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -7763,8 +8386,17 @@
       <c r="W54" s="18">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" s="18" customFormat="1">
+      <c r="X54" s="18">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="18">
+        <v>1093</v>
+      </c>
+      <c r="Z54" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -7790,14 +8422,14 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="18" customFormat="1">
+    <row r="56" spans="1:34" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" si="4"/>
-        <v>3255</v>
+        <v>3275</v>
       </c>
       <c r="D56" s="17">
         <v>0</v>
@@ -7823,50 +8455,53 @@
       <c r="K56" s="18">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" s="18" customFormat="1">
+      <c r="L56" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:32" s="18" customFormat="1">
+    <row r="58" spans="1:34" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:32" s="18" customFormat="1">
+    <row r="59" spans="1:34" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:32" s="18" customFormat="1">
+    <row r="60" spans="1:34" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:32" s="18" customFormat="1">
+    <row r="61" spans="1:34" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:32" s="18" customFormat="1">
+    <row r="62" spans="1:34" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:32" s="18" customFormat="1">
+    <row r="63" spans="1:34" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:32" s="18" customFormat="1">
+    <row r="64" spans="1:34" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -8875,7 +9510,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1093662.7</v>
+        <v>1093585.56</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8894,17 +9529,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-99081.330000000016</v>
+        <v>-99004.19</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1093662.7</v>
+        <v>1093585.56</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1093662.7</v>
+        <v>-1093585.56</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -440,16 +440,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 cargo impuesto popular</t>
@@ -464,16 +464,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 gasto de cerveza</t>
@@ -488,22 +488,118 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 pago de cuota de yajaira</t>
         </r>
       </text>
     </comment>
+    <comment ref="AD4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 pago de minuto celular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 pago de cuota lala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 pago CG</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O6" authorId="0">
       <text>
         <r>
@@ -624,6 +720,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/08 GAS CARRO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 para pago de mecho y para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 pago de mecho</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I7" authorId="0">
       <text>
         <r>
@@ -680,16 +896,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 walper ninos</t>
@@ -1016,16 +1232,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05 sobrilla y gas y habichuela</t>
@@ -1040,16 +1256,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05 para gasto</t>
@@ -1064,16 +1280,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05 gasto</t>
@@ -1088,16 +1304,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05gasto </t>
@@ -1112,16 +1328,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 para gasto</t>
@@ -1136,16 +1352,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 gasto</t>
@@ -1160,16 +1376,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05</t>
@@ -1184,16 +1400,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 26/05 para gasto</t>
@@ -1208,19 +1424,91 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 gasto</t>
         </r>
       </text>
     </comment>
@@ -2456,16 +2744,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05 cobrado</t>
@@ -2480,16 +2768,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05 para gasto</t>
@@ -2504,16 +2792,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 para prestar</t>
@@ -2528,16 +2816,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05 prestado</t>
@@ -2552,16 +2840,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05 cobrado</t>
@@ -2576,16 +2864,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 prestado</t>
@@ -2600,16 +2888,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 cobrado</t>
@@ -2624,16 +2912,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 para gasto</t>
@@ -2648,16 +2936,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 24/05 prestado</t>
@@ -2672,16 +2960,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 24/05 cobrado</t>
@@ -2696,16 +2984,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 prestado</t>
@@ -2720,16 +3008,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 y del 26/05 cobrado</t>
@@ -2744,16 +3032,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 26/05 para gasto</t>
@@ -2768,16 +3056,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 prestado</t>
@@ -2792,16 +3080,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 cobrado</t>
@@ -2816,16 +3104,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 para prestar</t>
@@ -2840,22 +3128,358 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 pago de la cuota de yajaira </t>
         </r>
       </text>
     </comment>
+    <comment ref="CM10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 para invertir en fondo bhd leon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CN10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CO10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CP10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 pago de cuota lala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CQ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 para prestar bhd fondo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CR10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 Banco popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 para bino y copa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CT10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CU10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CW10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CX10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CY10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CZ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 sobrante en el cuadre</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V12" authorId="0">
       <text>
         <r>
@@ -3296,16 +3920,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05 capital</t>
@@ -3320,16 +3944,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05 capital</t>
@@ -3344,16 +3968,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05 prestado</t>
@@ -3368,16 +3992,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 prestado</t>
@@ -3392,16 +4016,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 capital</t>
@@ -3416,16 +4040,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 24/05 prestado</t>
@@ -3440,16 +4064,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 24/05 capital</t>
@@ -3464,16 +4088,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 prestado</t>
@@ -3488,16 +4112,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 y del 26/05 capital</t>
@@ -3512,16 +4136,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 prestado</t>
@@ -3536,22 +4160,166 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 capital</t>
         </r>
       </text>
     </comment>
+    <comment ref="BA12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -3704,16 +4472,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 Para prestar</t>
@@ -3728,22 +4496,94 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 para prestar</t>
         </r>
       </text>
     </comment>
+    <comment ref="Q13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+27/05 para invertir en fondo bhd leon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 PARA PRESTAR</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E26" authorId="0">
       <text>
         <r>
@@ -3909,6 +4749,30 @@
           </rPr>
           <t xml:space="preserve">
 16/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 sobrante en el cuadre</t>
         </r>
       </text>
     </comment>
@@ -4404,16 +5268,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05</t>
@@ -4428,16 +5292,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05</t>
@@ -4452,16 +5316,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05</t>
@@ -4476,16 +5340,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 24/05</t>
@@ -4500,16 +5364,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 y del 26/05</t>
@@ -4524,22 +5388,94 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05</t>
         </r>
       </text>
     </comment>
+    <comment ref="AE42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F45" authorId="0">
       <text>
         <r>
@@ -4644,16 +5580,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 20/05 sombrilla</t>
@@ -4668,16 +5604,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 walper ninos</t>
@@ -4692,19 +5628,43 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 porta retracto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 teipe</t>
         </r>
       </text>
     </comment>
@@ -5013,16 +5973,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05 gas carro y pasaje rosalis</t>
@@ -5037,22 +5997,70 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05 gasto carro</t>
         </r>
       </text>
     </comment>
+    <comment ref="Q49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 GAS CARRO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+28/05 limpia vidrio</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H50" authorId="0">
       <text>
         <r>
@@ -5133,16 +6141,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 23/05 cargo impuesto popular</t>
@@ -5277,22 +6285,46 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 22/05 pastiya</t>
         </r>
       </text>
     </comment>
+    <comment ref="AK53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 gas casa</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S54" authorId="0">
       <text>
         <r>
@@ -5349,16 +6381,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 piza</t>
@@ -5373,16 +6405,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25/05 gasto cerveza</t>
@@ -5397,19 +6429,67 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/05 actividad de la ninas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 bino y copa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 helado</t>
         </r>
       </text>
     </comment>
@@ -5622,16 +6702,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 21/05 bota de basura</t>
@@ -5646,19 +6726,67 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 copia de cedula</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29/05 amet por multa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30/05 bombillo</t>
         </r>
       </text>
     </comment>
@@ -5874,7 +7002,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5957,19 +7085,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6442,10 +7557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL224"/>
+  <dimension ref="A1:CZ224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6463,8 +7578,8 @@
     <col min="15" max="15" width="10.42578125" style="34" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="34" customWidth="1"/>
-    <col min="18" max="18" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="34" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="34" customWidth="1"/>
     <col min="20" max="20" width="10.7109375" style="34" customWidth="1"/>
     <col min="21" max="21" width="11" style="34" customWidth="1"/>
     <col min="22" max="23" width="9.7109375" style="34" customWidth="1"/>
@@ -6500,9 +7615,9 @@
     <col min="53" max="53" width="9.7109375" style="34" customWidth="1"/>
     <col min="54" max="54" width="10.5703125" style="34" customWidth="1"/>
     <col min="55" max="55" width="9.85546875" style="34" customWidth="1"/>
-    <col min="56" max="56" width="6.5703125" style="34" customWidth="1"/>
+    <col min="56" max="56" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="10" style="34" customWidth="1"/>
-    <col min="58" max="58" width="9.42578125" style="34" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" style="34" customWidth="1"/>
     <col min="59" max="59" width="9.28515625" style="34" customWidth="1"/>
     <col min="60" max="60" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="34" customWidth="1"/>
@@ -6531,13 +7646,28 @@
     <col min="84" max="84" width="10.5703125" style="34" customWidth="1"/>
     <col min="85" max="85" width="9" style="34" customWidth="1"/>
     <col min="86" max="86" width="9.28515625" style="34" customWidth="1"/>
-    <col min="87" max="87" width="11.42578125" style="34"/>
-    <col min="88" max="88" width="10.140625" style="34" customWidth="1"/>
-    <col min="89" max="89" width="10.7109375" style="34" customWidth="1"/>
-    <col min="90" max="16384" width="11.42578125" style="34"/>
+    <col min="87" max="87" width="10.5703125" style="34" customWidth="1"/>
+    <col min="88" max="88" width="9.42578125" style="34" customWidth="1"/>
+    <col min="89" max="89" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.28515625" style="34" customWidth="1"/>
+    <col min="91" max="91" width="10.42578125" style="34" customWidth="1"/>
+    <col min="92" max="92" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.5703125" style="34" customWidth="1"/>
+    <col min="94" max="94" width="9.7109375" style="34" customWidth="1"/>
+    <col min="95" max="95" width="10" style="34" customWidth="1"/>
+    <col min="96" max="96" width="9.7109375" style="34" customWidth="1"/>
+    <col min="97" max="97" width="8.28515625" style="34" customWidth="1"/>
+    <col min="98" max="98" width="10.5703125" style="34" customWidth="1"/>
+    <col min="99" max="99" width="9.7109375" style="34" customWidth="1"/>
+    <col min="100" max="100" width="9.85546875" style="34" customWidth="1"/>
+    <col min="101" max="101" width="10.28515625" style="34" customWidth="1"/>
+    <col min="102" max="102" width="10.5703125" style="34" customWidth="1"/>
+    <col min="103" max="103" width="9.7109375" style="34" customWidth="1"/>
+    <col min="104" max="104" width="8" style="34" customWidth="1"/>
+    <col min="105" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="6" customFormat="1">
+    <row r="1" spans="1:104" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -6546,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="11" customFormat="1">
+    <row r="2" spans="1:104" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -6555,35 +7685,35 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1093585.56</v>
+        <v>1041650.6499999999</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
         <v>1007395.8299999998</v>
       </c>
     </row>
-    <row r="3" spans="1:90" s="13" customFormat="1">
+    <row r="3" spans="1:104" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>9115.4300000000039</v>
+        <v>7926.5600000000031</v>
       </c>
       <c r="D3" s="12">
         <f>SUM(D4:D7)</f>
         <v>57081.71</v>
       </c>
     </row>
-    <row r="4" spans="1:90" s="18" customFormat="1">
+    <row r="4" spans="1:104" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>7442.6799999999976</v>
+        <v>6163.9799999999977</v>
       </c>
       <c r="D4" s="17">
         <v>4860.2699999999995</v>
@@ -6663,15 +7793,27 @@
       <c r="AC4" s="18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:90" s="18" customFormat="1">
+      <c r="AD4" s="18">
+        <v>-778.7</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>-5000</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:104" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" ref="C5:C7" si="0">SUM(D5:AAA5)</f>
-        <v>74.620000000002619</v>
+        <v>48.320000000006985</v>
       </c>
       <c r="D5" s="17">
         <v>51074.62</v>
@@ -6679,15 +7821,21 @@
       <c r="E5" s="18">
         <v>-51000</v>
       </c>
-    </row>
-    <row r="6" spans="1:90" s="18" customFormat="1">
+      <c r="F5" s="18">
+        <v>49189.83</v>
+      </c>
+      <c r="G5" s="18">
+        <v>-49216.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:104" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>1178.6500000000042</v>
+        <v>1294.7799999999988</v>
       </c>
       <c r="D6" s="17">
         <v>600.23</v>
@@ -6741,8 +7889,23 @@
       <c r="T6" s="18">
         <v>-4000</v>
       </c>
-    </row>
-    <row r="7" spans="1:90" s="18" customFormat="1" ht="15">
+      <c r="U6" s="18">
+        <v>-1000</v>
+      </c>
+      <c r="V6" s="18">
+        <v>49216.13</v>
+      </c>
+      <c r="W6" s="18">
+        <v>30000</v>
+      </c>
+      <c r="X6" s="18">
+        <v>-52100</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>-26000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" s="18" customFormat="1" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
@@ -6777,28 +7940,28 @@
       </c>
       <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:90" s="13" customFormat="1">
+    <row r="8" spans="1:104" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>44778.95</v>
+        <v>47067.95</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
         <v>48693</v>
       </c>
     </row>
-    <row r="9" spans="1:90" s="18" customFormat="1">
+    <row r="9" spans="1:104" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>1750</v>
+        <v>739</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
@@ -6921,15 +8084,27 @@
       <c r="AR9" s="18">
         <v>-338</v>
       </c>
-    </row>
-    <row r="10" spans="1:90" s="18" customFormat="1">
+      <c r="AS9" s="18">
+        <v>-318</v>
+      </c>
+      <c r="AT9" s="18">
+        <v>-1419</v>
+      </c>
+      <c r="AU9" s="18">
+        <v>2000</v>
+      </c>
+      <c r="AV9" s="18">
+        <v>-1274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:104" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>43028.95</v>
+        <v>46328.95</v>
       </c>
       <c r="D10" s="17">
         <v>48693</v>
@@ -7192,15 +8367,57 @@
       <c r="CL10" s="18">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:90" s="23" customFormat="1">
+      <c r="CM10" s="18">
+        <v>-36000</v>
+      </c>
+      <c r="CN10" s="18">
+        <v>-6000</v>
+      </c>
+      <c r="CO10" s="18">
+        <v>3450</v>
+      </c>
+      <c r="CP10" s="18">
+        <v>-1000</v>
+      </c>
+      <c r="CQ10" s="18">
+        <v>15000</v>
+      </c>
+      <c r="CR10" s="18">
+        <v>5000</v>
+      </c>
+      <c r="CS10" s="18">
+        <v>-400</v>
+      </c>
+      <c r="CT10" s="18">
+        <v>-16000</v>
+      </c>
+      <c r="CU10" s="18">
+        <v>13725</v>
+      </c>
+      <c r="CV10" s="18">
+        <v>-2000</v>
+      </c>
+      <c r="CW10" s="18">
+        <v>26000</v>
+      </c>
+      <c r="CX10" s="18">
+        <v>-14000</v>
+      </c>
+      <c r="CY10" s="18">
+        <v>15425</v>
+      </c>
+      <c r="CZ10" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:104" s="23" customFormat="1">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1039691.1799999999</v>
+        <v>986656.1399999999</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -7208,14 +8425,14 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:90" s="18" customFormat="1">
+    <row r="12" spans="1:104" s="18" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>541972.67000000004</v>
+        <v>550627.46</v>
       </c>
       <c r="D12" s="17">
         <v>535092.43999999994</v>
@@ -7364,15 +8581,33 @@
       <c r="AZ12" s="18">
         <v>-6029.67</v>
       </c>
-    </row>
-    <row r="13" spans="1:90" s="18" customFormat="1">
+      <c r="BA12" s="18">
+        <v>6000</v>
+      </c>
+      <c r="BB12" s="18">
+        <v>-2737</v>
+      </c>
+      <c r="BC12" s="18">
+        <v>16000</v>
+      </c>
+      <c r="BD12" s="18">
+        <v>-12746.16</v>
+      </c>
+      <c r="BE12" s="18">
+        <v>14000</v>
+      </c>
+      <c r="BF12" s="18">
+        <v>-11862.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:104" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>87704.479999999981</v>
+        <v>78704.479999999981</v>
       </c>
       <c r="D13" s="17">
         <v>5704.48</v>
@@ -7413,8 +8648,17 @@
       <c r="P13" s="18">
         <v>-30000</v>
       </c>
-    </row>
-    <row r="14" spans="1:90" s="18" customFormat="1">
+      <c r="Q13" s="18">
+        <v>36000</v>
+      </c>
+      <c r="R13" s="18">
+        <v>-15000</v>
+      </c>
+      <c r="S13" s="18">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:104" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>34</v>
@@ -7430,14 +8674,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:90" s="18" customFormat="1">
+    <row r="15" spans="1:104" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D15" s="17">
         <v>3500</v>
@@ -7448,8 +8692,11 @@
       <c r="F15" s="18">
         <v>-3500</v>
       </c>
-    </row>
-    <row r="16" spans="1:90" s="18" customFormat="1">
+      <c r="G15" s="18">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:104" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>31</v>
@@ -7475,13 +8722,16 @@
       </c>
       <c r="C17" s="16">
         <f t="shared" si="1"/>
-        <v>49189.83</v>
+        <v>0</v>
       </c>
       <c r="D17" s="17">
         <v>0</v>
       </c>
       <c r="E17" s="18">
         <v>49189.83</v>
+      </c>
+      <c r="F17" s="18">
+        <v>-49189.83</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="18" customFormat="1">
@@ -7515,7 +8765,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-393384.73</v>
+        <v>-340506.02999999997</v>
       </c>
       <c r="D19" s="12">
         <f>D20</f>
@@ -7529,7 +8779,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C32)</f>
-        <v>-393384.73</v>
+        <v>-340506.02999999997</v>
       </c>
       <c r="D20" s="12">
         <f>SUM(D21:D32)</f>
@@ -7685,10 +8935,13 @@
       </c>
       <c r="C30" s="16">
         <f t="shared" si="2"/>
-        <v>-52100</v>
+        <v>0</v>
       </c>
       <c r="D30" s="17">
         <v>-52100</v>
+      </c>
+      <c r="E30" s="18">
+        <v>52100</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="18" customFormat="1">
@@ -7711,15 +8964,17 @@
       </c>
       <c r="C32" s="16">
         <f t="shared" si="2"/>
-        <v>-778.7</v>
+        <v>0</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="18">
         <v>-778.7</v>
       </c>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:30" s="13" customFormat="1">
+      <c r="F32" s="25">
+        <v>778.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
@@ -7732,7 +8987,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:30" s="18" customFormat="1">
+    <row r="34" spans="1:33" s="18" customFormat="1">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>40</v>
@@ -7745,7 +9000,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:30" s="18" customFormat="1">
+    <row r="35" spans="1:33" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>39</v>
@@ -7756,7 +9011,7 @@
       </c>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:30" s="13" customFormat="1">
+    <row r="36" spans="1:33" s="13" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -7765,11 +9020,11 @@
       </c>
       <c r="C36" s="9">
         <f>SUM(C37:C43)</f>
-        <v>-160294.26</v>
+        <v>-165649.04999999999</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:30" s="18" customFormat="1">
+    <row r="37" spans="1:33" s="18" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
         <v>8</v>
@@ -7788,7 +9043,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="18" customFormat="1">
+    <row r="38" spans="1:33" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -7807,7 +9062,7 @@
         <v>-14648.4</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="18" customFormat="1">
+    <row r="39" spans="1:33" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>9</v>
@@ -7820,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="18" customFormat="1">
+    <row r="40" spans="1:33" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>5</v>
@@ -7836,14 +9091,14 @@
         <v>-16281.65</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="18" customFormat="1">
+    <row r="41" spans="1:33" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-350</v>
+        <v>-450</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -7863,15 +9118,18 @@
       <c r="I41" s="18">
         <v>-100</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" s="18" customFormat="1">
+      <c r="J41" s="18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-73824.179999999993</v>
+        <v>-79078.969999999987</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
@@ -7954,8 +9212,17 @@
       <c r="AD42" s="18">
         <v>-1420.33</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" s="18" customFormat="1">
+      <c r="AE42" s="18">
+        <v>-713</v>
+      </c>
+      <c r="AF42" s="18">
+        <v>-978.84</v>
+      </c>
+      <c r="AG42" s="18">
+        <v>-3562.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -7971,7 +9238,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="13" customFormat="1">
+    <row r="44" spans="1:33" s="13" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
@@ -7980,11 +9247,11 @@
       </c>
       <c r="C44" s="9">
         <f>SUM(C45:C56)</f>
-        <v>61290.07</v>
+        <v>65701.070000000007</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:30" s="18" customFormat="1">
+    <row r="45" spans="1:33" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>12</v>
@@ -8021,14 +9288,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:30" s="18" customFormat="1">
+    <row r="46" spans="1:33" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="16">
         <f t="shared" ref="C46:C56" si="4">SUM(D46:AAA46)</f>
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="D46" s="17">
         <v>0</v>
@@ -8036,8 +9303,14 @@
       <c r="E46" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" s="18" customFormat="1">
+      <c r="F46" s="18">
+        <v>148</v>
+      </c>
+      <c r="G46" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -8056,7 +9329,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="18" customFormat="1">
+    <row r="48" spans="1:33" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>17</v>
@@ -8075,14 +9348,14 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="18" customFormat="1">
+    <row r="49" spans="1:38" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>15275</v>
+        <v>16375</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -8123,8 +9396,14 @@
       <c r="P49" s="18">
         <v>250</v>
       </c>
-    </row>
-    <row r="50" spans="1:34" s="18" customFormat="1">
+      <c r="Q49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="R49" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>21</v>
@@ -8161,7 +9440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="18" customFormat="1">
+    <row r="51" spans="1:38" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>15</v>
@@ -8186,7 +9465,7 @@
         <v>1028.67</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="18" customFormat="1">
+    <row r="52" spans="1:38" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
@@ -8214,14 +9493,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="18" customFormat="1">
+    <row r="53" spans="1:38" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>12940.33</v>
+        <v>14622.33</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -8316,15 +9595,27 @@
       <c r="AH53" s="18">
         <v>263</v>
       </c>
-    </row>
-    <row r="54" spans="1:34" s="18" customFormat="1">
+      <c r="AI53" s="18">
+        <v>50</v>
+      </c>
+      <c r="AJ53" s="18">
+        <v>727</v>
+      </c>
+      <c r="AK53" s="18">
+        <v>600</v>
+      </c>
+      <c r="AL53" s="18">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>4646</v>
+        <v>5667</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -8395,8 +9686,23 @@
       <c r="Z54" s="18">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:34" s="18" customFormat="1">
+      <c r="AA54" s="18">
+        <v>20</v>
+      </c>
+      <c r="AB54" s="18">
+        <v>400</v>
+      </c>
+      <c r="AC54" s="18">
+        <v>132</v>
+      </c>
+      <c r="AD54" s="18">
+        <v>125</v>
+      </c>
+      <c r="AE54" s="18">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -8422,14 +9728,14 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="18" customFormat="1">
+    <row r="56" spans="1:38" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="16">
         <f t="shared" si="4"/>
-        <v>3275</v>
+        <v>3700</v>
       </c>
       <c r="D56" s="17">
         <v>0</v>
@@ -8458,50 +9764,56 @@
       <c r="L56" s="18">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:34" s="18" customFormat="1">
+      <c r="M56" s="18">
+        <v>400</v>
+      </c>
+      <c r="N56" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:34" s="18" customFormat="1">
+    <row r="58" spans="1:38" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:34" s="18" customFormat="1">
+    <row r="59" spans="1:38" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:34" s="18" customFormat="1">
+    <row r="60" spans="1:38" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:34" s="18" customFormat="1">
+    <row r="61" spans="1:38" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:34" s="18" customFormat="1">
+    <row r="62" spans="1:38" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:34" s="18" customFormat="1">
+    <row r="63" spans="1:38" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:34" s="18" customFormat="1">
+    <row r="64" spans="1:38" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -9510,7 +10822,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1093585.56</v>
+        <v>1041650.6499999999</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -9520,7 +10832,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C33</f>
-        <v>-994581.37</v>
+        <v>-941702.66999999993</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -9529,17 +10841,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C36+contabilidad!C44</f>
-        <v>-99004.19</v>
+        <v>-99947.979999999981</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1093585.56</v>
+        <v>1041650.6499999999</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1093585.56</v>
+        <v>-1041650.6499999999</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -262,6 +262,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago colegio mes 05</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -524,6 +548,30 @@
           </rPr>
           <t xml:space="preserve">
 mes 6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago colegio mes 05</t>
         </r>
       </text>
     </comment>
@@ -8035,7 +8083,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8118,6 +8166,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8594,7 +8655,7 @@
   <dimension ref="A1:BL222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8726,7 +8787,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1117852.98</v>
+        <v>1116952.98</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -8808,7 +8869,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>5842.9499999999971</v>
+        <v>4942.9499999999971</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -8840,7 +8901,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>3832.9499999999971</v>
+        <v>2932.9499999999971</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -8871,6 +8932,9 @@
       </c>
       <c r="M10" s="18">
         <v>-2000</v>
+      </c>
+      <c r="N10" s="18">
+        <v>-900</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -9014,7 +9078,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-347320.58999999997</v>
+        <v>-346420.58999999997</v>
       </c>
       <c r="D19" s="12">
         <v>-340506.02999999997</v>
@@ -9027,7 +9091,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C30)</f>
-        <v>-347320.58999999997</v>
+        <v>-346420.58999999997</v>
       </c>
       <c r="D20" s="12">
         <v>-340506.02999999997</v>
@@ -9089,7 +9153,7 @@
       </c>
       <c r="C24" s="16">
         <f t="shared" si="2"/>
-        <v>-1800</v>
+        <v>-900</v>
       </c>
       <c r="D24" s="17">
         <v>0</v>
@@ -9099,6 +9163,9 @@
       </c>
       <c r="F24" s="18">
         <v>-900</v>
+      </c>
+      <c r="G24" s="18">
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="18" customFormat="1">
@@ -18070,7 +18137,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1117852.98</v>
+        <v>1116952.98</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -18080,7 +18147,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C31</f>
-        <v>-1053589.47</v>
+        <v>-1052689.47</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -18095,11 +18162,11 @@
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1117852.98</v>
+        <v>1116952.98</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1117852.98</v>
+        <v>-1116952.98</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -21,6 +21,222 @@
     <author>Adelson</author>
   </authors>
   <commentList>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago de cuota de yajaira 2000 y ramon manuel 4700</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 compra del hogar y retencion pago de plastico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 compensacion por prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 plastico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 pago de la cuota lala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 inversiones popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago plastico y retenccion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago plastico </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
@@ -42,6 +258,30 @@
           </rPr>
           <t xml:space="preserve">
 02/06 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 para gasto</t>
         </r>
       </text>
     </comment>
@@ -286,6 +526,222 @@
         </r>
       </text>
     </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago de cuota yajaira 2000 y ramon manuel 4700</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 pago de cuota lala el gago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 cerveza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 sobrante</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -379,6 +835,78 @@
           </rPr>
           <t xml:space="preserve">
 02/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 capital</t>
         </r>
       </text>
     </comment>
@@ -503,6 +1031,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E24" authorId="0">
       <text>
         <r>
@@ -575,6 +1127,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 sobrante del cuadre</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E40" authorId="0">
       <text>
         <r>
@@ -620,6 +1196,126 @@
           </rPr>
           <t xml:space="preserve">
 02/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 compensacion por prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago por prestamos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 por inversiones </t>
         </r>
       </text>
     </comment>
@@ -745,6 +1441,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="F47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pasaje de compra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 pago plastico y retencion</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F51" authorId="0">
       <text>
         <r>
@@ -794,6 +1538,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 comprar del hogar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F52" authorId="0">
       <text>
         <r>
@@ -842,6 +1610,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 cerveza</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E54" authorId="0">
       <text>
         <r>
@@ -887,6 +1679,30 @@
           </rPr>
           <t xml:space="preserve">
 02/06 basura</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 yave </t>
         </r>
       </text>
     </comment>
@@ -8654,8 +9470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -8666,16 +9482,16 @@
     <col min="4" max="4" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="34" customWidth="1"/>
+    <col min="10" max="10" width="11" style="34" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="34" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" style="34" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="34" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="34" customWidth="1"/>
@@ -8787,7 +9603,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1116952.98</v>
+        <v>1128764.7400000002</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -8800,7 +9616,7 @@
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>6649.5900000000029</v>
+        <v>371865.73000000004</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
@@ -8813,10 +9629,31 @@
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>6162.8099999999977</v>
+        <v>366466.02</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
+      </c>
+      <c r="E4" s="18">
+        <v>6700</v>
+      </c>
+      <c r="F4" s="18">
+        <v>-3749.31</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="18">
+        <v>-50</v>
+      </c>
+      <c r="I4" s="18">
+        <v>3760</v>
+      </c>
+      <c r="J4" s="18">
+        <v>-7000</v>
+      </c>
+      <c r="K4" s="18">
+        <v>360642.4</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="18" customFormat="1">
@@ -8839,10 +9676,19 @@
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>394.77999999999884</v>
+        <v>5347.7099999999991</v>
       </c>
       <c r="D6" s="17">
         <v>394.77999999999884</v>
+      </c>
+      <c r="E6" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="18">
+        <v>-50.33</v>
+      </c>
+      <c r="G6" s="18">
+        <v>3.26</v>
       </c>
     </row>
     <row r="7" spans="1:64" s="18" customFormat="1" ht="15">
@@ -8852,13 +9698,16 @@
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>43.679999999999382</v>
+        <v>3.6799999999993815</v>
       </c>
       <c r="D7" s="17">
         <v>7743.6799999999994</v>
       </c>
       <c r="E7" s="18">
         <v>-7700</v>
+      </c>
+      <c r="F7" s="18">
+        <v>-40</v>
       </c>
       <c r="BL7" s="35"/>
     </row>
@@ -8869,7 +9718,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>4942.9499999999971</v>
+        <v>24807.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -8882,7 +9731,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2010</v>
+        <v>1445</v>
       </c>
       <c r="D9" s="17">
         <v>815</v>
@@ -8892,6 +9741,9 @@
       </c>
       <c r="F9" s="18">
         <v>2000</v>
+      </c>
+      <c r="G9" s="18">
+        <v>-565</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -8901,7 +9753,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>2932.9499999999971</v>
+        <v>23362.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -8935,6 +9787,33 @@
       </c>
       <c r="N10" s="18">
         <v>-900</v>
+      </c>
+      <c r="O10" s="18">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="18">
+        <v>-11000</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>12900</v>
+      </c>
+      <c r="R10" s="18">
+        <v>-6700</v>
+      </c>
+      <c r="S10" s="18">
+        <v>12340</v>
+      </c>
+      <c r="T10" s="18">
+        <v>-3760</v>
+      </c>
+      <c r="U10" s="18">
+        <v>7000</v>
+      </c>
+      <c r="V10" s="18">
+        <v>-450</v>
+      </c>
+      <c r="W10" s="18">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -8944,7 +9823,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1105360.44</v>
+        <v>732091.06</v>
       </c>
       <c r="D11" s="22">
         <v>987636.37</v>
@@ -8958,7 +9837,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>606817.7300000001</v>
+        <v>598548.35000000009</v>
       </c>
       <c r="D12" s="17">
         <v>558931.89</v>
@@ -8974,6 +9853,15 @@
       </c>
       <c r="H12" s="18">
         <v>-983.33</v>
+      </c>
+      <c r="I12" s="18">
+        <v>11000</v>
+      </c>
+      <c r="J12" s="18">
+        <v>-9614.07</v>
+      </c>
+      <c r="K12" s="18">
+        <v>-9655.31</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
@@ -8983,10 +9871,13 @@
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>78704.479999999981</v>
+        <v>63704.479999999981</v>
       </c>
       <c r="D13" s="17">
         <v>78704.479999999981</v>
+      </c>
+      <c r="E13" s="18">
+        <v>-15000</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="18" customFormat="1">
@@ -8996,10 +9887,13 @@
       </c>
       <c r="C14" s="16">
         <f t="shared" si="1"/>
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="D14" s="17">
         <v>350000</v>
+      </c>
+      <c r="E14" s="18">
+        <v>-350000</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="18" customFormat="1">
@@ -9281,7 +10175,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:6" s="18" customFormat="1">
+    <row r="33" spans="1:8" s="18" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>39</v>
@@ -9294,7 +10188,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="13" customFormat="1">
+    <row r="34" spans="1:8" s="13" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -9303,13 +10197,13 @@
       </c>
       <c r="C34" s="9">
         <f>SUM(C35:C41)</f>
-        <v>-76769.070000000007</v>
+        <v>-93485.470000000016</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="18" customFormat="1">
+    <row r="35" spans="1:8" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>8</v>
@@ -9325,7 +10219,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="18" customFormat="1">
+    <row r="36" spans="1:8" s="18" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>3</v>
@@ -9341,7 +10235,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="18" customFormat="1">
+    <row r="37" spans="1:8" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>9</v>
@@ -9354,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="18" customFormat="1">
+    <row r="38" spans="1:8" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -9367,27 +10261,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="18" customFormat="1">
+    <row r="39" spans="1:8" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D39" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="18" customFormat="1">
+      <c r="E39" s="18">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-6930.84</v>
+        <v>-12901.460000000001</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -9398,21 +10295,36 @@
       <c r="F40" s="18">
         <v>-416.67</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="18" customFormat="1">
+      <c r="G40" s="18">
+        <v>-3285.93</v>
+      </c>
+      <c r="H40" s="18">
+        <v>-2684.69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-10645.779999999999</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="13" customFormat="1">
+      <c r="E41" s="18">
+        <v>-0.12</v>
+      </c>
+      <c r="F41" s="18">
+        <v>-3.26</v>
+      </c>
+      <c r="G41" s="18">
+        <v>-10642.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="13" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -9421,13 +10333,13 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C43:C54)</f>
-        <v>12505.56</v>
+        <v>17410.199999999997</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="18" customFormat="1">
+    <row r="43" spans="1:8" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>12</v>
@@ -9440,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="18" customFormat="1">
+    <row r="44" spans="1:8" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
@@ -9456,7 +10368,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="18" customFormat="1">
+    <row r="45" spans="1:8" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
@@ -9475,7 +10387,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="18" customFormat="1">
+    <row r="46" spans="1:8" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>17</v>
@@ -9491,14 +10403,14 @@
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="18" customFormat="1">
+    <row r="47" spans="1:8" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="D47" s="17">
         <v>0</v>
@@ -9506,21 +10418,27 @@
       <c r="E47" s="18">
         <v>150</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="18" customFormat="1">
+      <c r="F47" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>190.34</v>
       </c>
       <c r="D48" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" s="18" customFormat="1">
+      <c r="E48" s="18">
+        <v>190.34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>15</v>
@@ -9533,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>14</v>
@@ -9546,14 +10464,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>6790</v>
+        <v>10764.3</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
@@ -9567,15 +10485,21 @@
       <c r="G51" s="18">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" s="18" customFormat="1">
+      <c r="H51" s="18">
+        <v>3699.3</v>
+      </c>
+      <c r="I51" s="18">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>955</v>
+        <v>1580</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -9589,8 +10513,14 @@
       <c r="G52" s="18">
         <v>270</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" s="18" customFormat="1">
+      <c r="H52" s="18">
+        <v>175</v>
+      </c>
+      <c r="I52" s="18">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
@@ -9603,14 +10533,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -9621,8 +10551,11 @@
       <c r="F54" s="18">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" s="18" customFormat="1">
+      <c r="G54" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>65</v>
@@ -9635,55 +10568,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:7" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:7" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:7" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:7" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:7" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:7" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:7" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -18137,7 +19070,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1116952.98</v>
+        <v>1128764.7400000002</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -18156,17 +19089,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-64263.510000000009</v>
+        <v>-76075.270000000019</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1116952.98</v>
+        <v>1128764.7400000002</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1116952.98</v>
+        <v>-1128764.74</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -41,7 +41,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-03/06 pago de cuota de yajaira 2000 y ramon manuel 4700</t>
+03/06 pago cuota manuel</t>
         </r>
       </text>
     </comment>
@@ -65,7 +65,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-03/06 compra del hogar y retencion pago de plastico</t>
+03/06  retencion  </t>
         </r>
       </text>
     </comment>
@@ -113,7 +113,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-04/06 plastico</t>
+03/06 pastico</t>
         </r>
       </text>
     </comment>
@@ -137,7 +137,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-04/06 pago de la cuota lala</t>
+03/06 pago de cuota yajaira</t>
         </r>
       </text>
     </comment>
@@ -165,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,55 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-04/06 inversiones popular</t>
+04/06 pago cuota lala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 inversiones </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+compra </t>
         </r>
       </text>
     </comment>
@@ -213,6 +261,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 pago cuota y impuesto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 357000  para invertir fondo BHD &amp; 12000 para prestar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F7" authorId="0">
       <text>
         <r>
@@ -282,6 +378,54 @@
           </rPr>
           <t xml:space="preserve">
 03/06 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 gasto</t>
         </r>
       </text>
     </comment>
@@ -738,7 +882,79 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-04/06 sobrante</t>
+04/06 GASTO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 cobrado</t>
         </r>
       </text>
     </comment>
@@ -907,6 +1123,78 @@
           </rPr>
           <t xml:space="preserve">
 04/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+  02/06 prestado</t>
         </r>
       </text>
     </comment>
@@ -1127,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1435,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-04/06 sobrante del cuadre</t>
+05/06 capital por prestamos bhd adel</t>
         </r>
       </text>
     </comment>
@@ -1244,6 +1532,30 @@
           </rPr>
           <t xml:space="preserve">
 04/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06</t>
         </r>
       </text>
     </comment>
@@ -1465,6 +1777,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="G47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 areclo del carro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+04/06 pasaje</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E48" authorId="0">
       <text>
         <r>
@@ -1485,7 +1845,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-03/06 pago plastico y retencion</t>
+03/06 pago plastico y retencion y impuesto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+05/06 interes bhd adel</t>
         </r>
       </text>
     </comment>
@@ -1631,6 +2015,30 @@
           </rPr>
           <t xml:space="preserve">
 04/06 cerveza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+yoqen 04/06</t>
         </r>
       </text>
     </comment>
@@ -9470,8 +9878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -9481,23 +9889,23 @@
     <col min="3" max="3" width="12.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="34" customWidth="1"/>
     <col min="9" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="10" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="34" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" style="34" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="34" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="34" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="11" style="34" customWidth="1"/>
-    <col min="22" max="23" width="9.7109375" style="34" customWidth="1"/>
+    <col min="17" max="18" width="9.85546875" style="34" customWidth="1"/>
+    <col min="19" max="19" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="34" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="34" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="34" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" style="34" customWidth="1"/>
@@ -9603,7 +10011,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1128764.7400000002</v>
+        <v>1125878.3400000001</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -9616,7 +10024,7 @@
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>371865.73000000004</v>
+        <v>377.56000000005042</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
@@ -9629,16 +10037,16 @@
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>366466.02</v>
+        <v>16.020000000006803</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
       </c>
       <c r="E4" s="18">
-        <v>6700</v>
+        <v>4700</v>
       </c>
       <c r="F4" s="18">
-        <v>-3749.31</v>
+        <v>-0.01</v>
       </c>
       <c r="G4" s="18">
         <v>0.12</v>
@@ -9647,13 +10055,22 @@
         <v>-50</v>
       </c>
       <c r="I4" s="18">
-        <v>3760</v>
+        <v>2000</v>
       </c>
       <c r="J4" s="18">
         <v>-7000</v>
       </c>
       <c r="K4" s="18">
         <v>360642.4</v>
+      </c>
+      <c r="L4" s="18">
+        <v>3760</v>
+      </c>
+      <c r="M4" s="18">
+        <v>-366500</v>
+      </c>
+      <c r="N4" s="18">
+        <v>-3699.3</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="18" customFormat="1">
@@ -9676,7 +10093,7 @@
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>5347.7099999999991</v>
+        <v>309.54000000003725</v>
       </c>
       <c r="D6" s="17">
         <v>394.77999999999884</v>
@@ -9689,6 +10106,15 @@
       </c>
       <c r="G6" s="18">
         <v>3.26</v>
+      </c>
+      <c r="H6" s="18">
+        <v>366500</v>
+      </c>
+      <c r="I6" s="18">
+        <v>-2538.17</v>
+      </c>
+      <c r="J6" s="18">
+        <v>-369000</v>
       </c>
     </row>
     <row r="7" spans="1:64" s="18" customFormat="1" ht="15">
@@ -9718,7 +10144,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>24807.949999999997</v>
+        <v>11623.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -9731,7 +10157,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>1445</v>
+        <v>2336</v>
       </c>
       <c r="D9" s="17">
         <v>815</v>
@@ -9744,6 +10170,15 @@
       </c>
       <c r="G9" s="18">
         <v>-565</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="18">
+        <v>-870</v>
+      </c>
+      <c r="J9" s="18">
+        <v>-239</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -9753,7 +10188,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>23362.949999999997</v>
+        <v>9287.9499999999971</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -9813,7 +10248,16 @@
         <v>-450</v>
       </c>
       <c r="W10" s="18">
-        <v>100</v>
+        <v>-2000</v>
+      </c>
+      <c r="X10" s="18">
+        <v>12000</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>-29000</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>5025</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -9823,7 +10267,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>732091.06</v>
+        <v>1113876.83</v>
       </c>
       <c r="D11" s="22">
         <v>987636.37</v>
@@ -9837,7 +10281,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>598548.35000000009</v>
+        <v>623334.12000000011</v>
       </c>
       <c r="D12" s="17">
         <v>558931.89</v>
@@ -9862,6 +10306,12 @@
       </c>
       <c r="K12" s="18">
         <v>-9655.31</v>
+      </c>
+      <c r="L12" s="18">
+        <v>29000</v>
+      </c>
+      <c r="M12" s="18">
+        <v>-4214.2299999999996</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
@@ -9871,13 +10321,16 @@
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>63704.479999999981</v>
+        <v>420704.48</v>
       </c>
       <c r="D13" s="17">
         <v>78704.479999999981</v>
       </c>
       <c r="E13" s="18">
         <v>-15000</v>
+      </c>
+      <c r="F13" s="18">
+        <v>357000</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="18" customFormat="1">
@@ -9972,7 +10425,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-346420.58999999997</v>
+        <v>-344913.5</v>
       </c>
       <c r="D19" s="12">
         <v>-340506.02999999997</v>
@@ -9985,7 +10438,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C30)</f>
-        <v>-346420.58999999997</v>
+        <v>-344913.5</v>
       </c>
       <c r="D20" s="12">
         <v>-340506.02999999997</v>
@@ -10109,10 +10562,13 @@
       </c>
       <c r="C28" s="16">
         <f t="shared" si="2"/>
-        <v>-67020.86</v>
+        <v>-65513.770000000004</v>
       </c>
       <c r="D28" s="17">
         <v>-67020.86</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1507.09</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="18" customFormat="1">
@@ -10175,7 +10631,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:8" s="18" customFormat="1">
+    <row r="33" spans="1:9" s="18" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>39</v>
@@ -10188,7 +10644,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="13" customFormat="1">
+    <row r="34" spans="1:9" s="13" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -10197,13 +10653,13 @@
       </c>
       <c r="C34" s="9">
         <f>SUM(C35:C41)</f>
-        <v>-93485.470000000016</v>
+        <v>-94196.24</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="18" customFormat="1">
+    <row r="35" spans="1:9" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>8</v>
@@ -10219,7 +10675,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="18" customFormat="1">
+    <row r="36" spans="1:9" s="18" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>3</v>
@@ -10235,7 +10691,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="18" customFormat="1">
+    <row r="37" spans="1:9" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>9</v>
@@ -10248,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="18" customFormat="1">
+    <row r="38" spans="1:9" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -10261,30 +10717,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="18" customFormat="1">
+    <row r="39" spans="1:9" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D39" s="17">
         <v>0</v>
       </c>
-      <c r="E39" s="18">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="18" customFormat="1">
+    </row>
+    <row r="40" spans="1:9" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-12901.460000000001</v>
+        <v>-13712.230000000001</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -10301,8 +10754,11 @@
       <c r="H40" s="18">
         <v>-2684.69</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="18" customFormat="1">
+      <c r="I40" s="18">
+        <v>-810.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -10324,7 +10780,7 @@
         <v>-10642.4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="13" customFormat="1">
+    <row r="42" spans="1:9" s="13" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -10333,13 +10789,13 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C43:C54)</f>
-        <v>17410.199999999997</v>
+        <v>19500.28</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="18" customFormat="1">
+    <row r="43" spans="1:9" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>12</v>
@@ -10352,14 +10808,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="16">
         <f t="shared" ref="C44:C55" si="4">SUM(D44:AAA44)</f>
-        <v>1800</v>
+        <v>1880</v>
       </c>
       <c r="D44" s="17">
         <v>0</v>
@@ -10367,8 +10823,11 @@
       <c r="E44" s="18">
         <v>1800</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="18" customFormat="1">
+      <c r="F44" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
@@ -10387,7 +10846,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="18" customFormat="1">
+    <row r="46" spans="1:9" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>17</v>
@@ -10403,14 +10862,14 @@
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="4"/>
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="D47" s="17">
         <v>0</v>
@@ -10421,37 +10880,46 @@
       <c r="F47" s="18">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="18" customFormat="1">
+      <c r="G47" s="18">
+        <v>100</v>
+      </c>
+      <c r="H47" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="4"/>
-        <v>190.34</v>
+        <v>144.13999999999999</v>
       </c>
       <c r="D48" s="17">
         <v>0</v>
       </c>
       <c r="E48" s="18">
-        <v>190.34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+        <v>144.13999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1027.28</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+      <c r="E49" s="18">
+        <v>1027.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>14</v>
@@ -10464,14 +10932,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:11" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>10764.3</v>
+        <v>11451.3</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
@@ -10491,15 +10959,21 @@
       <c r="I51" s="18">
         <v>275</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+      <c r="J51" s="18">
+        <v>505</v>
+      </c>
+      <c r="K51" s="18">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>1580</v>
+        <v>1747</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -10519,8 +10993,14 @@
       <c r="I52" s="18">
         <v>450</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+      <c r="J52" s="18">
+        <v>110</v>
+      </c>
+      <c r="K52" s="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
@@ -10533,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:11" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>13</v>
@@ -10555,7 +11035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1">
+    <row r="55" spans="1:11" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>65</v>
@@ -10568,55 +11048,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:11" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:11" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:11" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:11" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:11" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:11" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:11" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:11" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:11" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -11581,13 +12061,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DA57"/>
   <sheetViews>
-    <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="DH10" sqref="DH10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
@@ -19039,7 +19519,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19070,7 +19550,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1128764.7400000002</v>
+        <v>1125878.3400000001</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -19080,7 +19560,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C31</f>
-        <v>-1052689.47</v>
+        <v>-1051182.3799999999</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -19089,17 +19569,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-76075.270000000019</v>
+        <v>-74695.960000000006</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1128764.7400000002</v>
+        <v>1125878.3400000001</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1128764.74</v>
+        <v>-1125878.3399999999</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -237,6 +237,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 pago cuota extra credito</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0">
       <text>
         <r>
@@ -426,6 +450,54 @@
           </rPr>
           <t xml:space="preserve">
 05/06 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 para el BP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 para gasto</t>
         </r>
       </text>
     </comment>
@@ -958,6 +1030,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 para el BP para pago de cuota extra credito</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -1171,6 +1291,30 @@
           </rPr>
           <t xml:space="preserve">
 05/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 capital</t>
         </r>
       </text>
     </comment>
@@ -1339,7 +1483,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+mes 05</t>
         </r>
       </text>
     </comment>
@@ -1556,6 +1700,30 @@
           </rPr>
           <t xml:space="preserve">
 05/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 </t>
         </r>
       </text>
     </comment>
@@ -1656,6 +1824,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tijera</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E45" authorId="0">
       <text>
         <r>
@@ -2039,6 +2231,30 @@
           </rPr>
           <t xml:space="preserve">
 yoqen 04/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+06/06 cerveza y chicharon</t>
         </r>
       </text>
     </comment>
@@ -9878,8 +10094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -9891,15 +10107,15 @@
     <col min="5" max="5" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="34" customWidth="1"/>
     <col min="11" max="11" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="34" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" style="34" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.85546875" style="34" customWidth="1"/>
     <col min="19" max="19" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" style="34" customWidth="1"/>
@@ -10011,7 +10227,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1125878.3400000001</v>
+        <v>1125478.29</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -10024,7 +10240,7 @@
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>377.56000000005042</v>
+        <v>9427.5600000000522</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
@@ -10037,7 +10253,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>16.020000000006803</v>
+        <v>9066.0200000000077</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
@@ -10071,6 +10287,12 @@
       </c>
       <c r="N4" s="18">
         <v>-3699.3</v>
+      </c>
+      <c r="O4" s="18">
+        <v>8500</v>
+      </c>
+      <c r="P4" s="18">
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="18" customFormat="1">
@@ -10144,7 +10366,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>11623.949999999997</v>
+        <v>5647.9499999999971</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -10157,7 +10379,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2336</v>
+        <v>695</v>
       </c>
       <c r="D9" s="17">
         <v>815</v>
@@ -10179,6 +10401,12 @@
       </c>
       <c r="J9" s="18">
         <v>-239</v>
+      </c>
+      <c r="K9" s="18">
+        <v>-550</v>
+      </c>
+      <c r="L9" s="18">
+        <v>-1091</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -10188,7 +10416,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>9287.9499999999971</v>
+        <v>4952.9499999999971</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -10258,6 +10486,12 @@
       </c>
       <c r="Z10" s="18">
         <v>5025</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>-8500</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>4165</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -10267,7 +10501,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1113876.83</v>
+        <v>1110402.78</v>
       </c>
       <c r="D11" s="22">
         <v>987636.37</v>
@@ -10281,7 +10515,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>623334.12000000011</v>
+        <v>619860.07000000007</v>
       </c>
       <c r="D12" s="17">
         <v>558931.89</v>
@@ -10312,6 +10546,9 @@
       </c>
       <c r="M12" s="18">
         <v>-4214.2299999999996</v>
+      </c>
+      <c r="N12" s="18">
+        <v>-3474.05</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
@@ -10631,7 +10868,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1">
+    <row r="33" spans="1:10" s="18" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>39</v>
@@ -10644,7 +10881,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="13" customFormat="1">
+    <row r="34" spans="1:10" s="13" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -10653,13 +10890,13 @@
       </c>
       <c r="C34" s="9">
         <f>SUM(C35:C41)</f>
-        <v>-94196.24</v>
+        <v>-94887.190000000017</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1">
+    <row r="35" spans="1:10" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>8</v>
@@ -10675,7 +10912,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1">
+    <row r="36" spans="1:10" s="18" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>3</v>
@@ -10691,7 +10928,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1">
+    <row r="37" spans="1:10" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>9</v>
@@ -10704,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1">
+    <row r="38" spans="1:10" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -10717,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1">
+    <row r="39" spans="1:10" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>4</v>
@@ -10730,14 +10967,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1">
+    <row r="40" spans="1:10" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-13712.230000000001</v>
+        <v>-14403.180000000002</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -10757,8 +10994,11 @@
       <c r="I40" s="18">
         <v>-810.77</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="18" customFormat="1">
+      <c r="J40" s="18">
+        <v>-690.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -10780,7 +11020,7 @@
         <v>-10642.4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1">
+    <row r="42" spans="1:10" s="13" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -10789,13 +11029,13 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C43:C54)</f>
-        <v>19500.28</v>
+        <v>20591.28</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1">
+    <row r="43" spans="1:10" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>12</v>
@@ -10808,14 +11048,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:10" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="16">
         <f t="shared" ref="C44:C55" si="4">SUM(D44:AAA44)</f>
-        <v>1880</v>
+        <v>1914</v>
       </c>
       <c r="D44" s="17">
         <v>0</v>
@@ -10826,8 +11066,11 @@
       <c r="F44" s="18">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+      <c r="G44" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
@@ -10846,7 +11089,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1">
+    <row r="46" spans="1:10" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>17</v>
@@ -10862,7 +11105,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:10" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>11</v>
@@ -10887,7 +11130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:10" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>21</v>
@@ -10903,7 +11146,7 @@
         <v>144.13999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="18" customFormat="1">
+    <row r="49" spans="1:12" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>15</v>
@@ -10919,7 +11162,7 @@
         <v>1027.28</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="18" customFormat="1">
+    <row r="50" spans="1:12" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>14</v>
@@ -10932,14 +11175,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="18" customFormat="1">
+    <row r="51" spans="1:12" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>11451.3</v>
+        <v>11829.3</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
@@ -10965,15 +11208,18 @@
       <c r="K51" s="18">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="18" customFormat="1">
+      <c r="L51" s="18">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>1747</v>
+        <v>2426</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -10999,8 +11245,11 @@
       <c r="K52" s="18">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="18" customFormat="1">
+      <c r="L52" s="18">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
@@ -11013,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="18" customFormat="1">
+    <row r="54" spans="1:12" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>13</v>
@@ -11035,7 +11284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="18" customFormat="1">
+    <row r="55" spans="1:12" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>65</v>
@@ -11048,55 +11297,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="18" customFormat="1">
+    <row r="56" spans="1:12" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:11" s="18" customFormat="1">
+    <row r="57" spans="1:12" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:11" s="18" customFormat="1">
+    <row r="58" spans="1:12" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:11" s="18" customFormat="1">
+    <row r="59" spans="1:12" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:11" s="18" customFormat="1">
+    <row r="60" spans="1:12" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:11" s="18" customFormat="1">
+    <row r="61" spans="1:12" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:11" s="18" customFormat="1">
+    <row r="62" spans="1:12" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:11" s="18" customFormat="1">
+    <row r="63" spans="1:12" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:11" s="18" customFormat="1">
+    <row r="64" spans="1:12" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -19550,7 +19799,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1125878.3400000001</v>
+        <v>1125478.29</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -19569,17 +19818,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-74695.960000000006</v>
+        <v>-74295.910000000018</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1125878.3400000001</v>
+        <v>1125478.29</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1125878.3399999999</v>
+        <v>-1125478.2899999998</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -501,6 +501,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="M9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06 gasto del hogar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0">
       <text>
         <r>
@@ -1078,6 +1126,222 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06 para gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06 sobraron en el cuadre del domingo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06 gasto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -1315,6 +1579,126 @@
           </rPr>
           <t xml:space="preserve">
 06/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06 capital</t>
         </r>
       </text>
     </comment>
@@ -1583,6 +1967,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06 sobraron en el cuadre</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E40" authorId="0">
       <text>
         <r>
@@ -1727,6 +2135,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="K40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/06</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E41" authorId="0">
       <text>
         <r>
@@ -1796,6 +2276,30 @@
           </rPr>
           <t xml:space="preserve">
 04/06 por inversiones </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06 gasto del hogar</t>
         </r>
       </text>
     </comment>
@@ -2017,6 +2521,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/06 pasaje y limpia de cristal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 gas carro</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E48" authorId="0">
       <text>
         <r>
@@ -2255,6 +2807,54 @@
           </rPr>
           <t xml:space="preserve">
 06/06 cerveza y chicharon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 yogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/06 cerveza ,vino ,pollo entre otros</t>
         </r>
       </text>
     </comment>
@@ -10094,8 +10694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -10124,12 +10724,12 @@
     <col min="23" max="23" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="34" customWidth="1"/>
     <col min="27" max="27" width="9.42578125" style="34" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="34" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="34" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="34" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" style="34" customWidth="1"/>
     <col min="30" max="30" width="9.42578125" style="34" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="34" customWidth="1"/>
+    <col min="31" max="31" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.42578125" style="34" customWidth="1"/>
     <col min="33" max="33" width="11" style="34" customWidth="1"/>
     <col min="34" max="34" width="10.42578125" style="34" customWidth="1"/>
@@ -10227,7 +10827,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1125478.29</v>
+        <v>1124212.56</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -10366,7 +10966,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>5647.9499999999971</v>
+        <v>19842.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -10379,7 +10979,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>695</v>
+        <v>2035</v>
       </c>
       <c r="D9" s="17">
         <v>815</v>
@@ -10407,6 +11007,21 @@
       </c>
       <c r="L9" s="18">
         <v>-1091</v>
+      </c>
+      <c r="M9" s="18">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="18">
+        <v>-320</v>
+      </c>
+      <c r="O9" s="18">
+        <v>-1435</v>
+      </c>
+      <c r="P9" s="18">
+        <v>-505</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -10416,7 +11031,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>4952.9499999999971</v>
+        <v>17807.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -10492,6 +11107,33 @@
       </c>
       <c r="AB10" s="18">
         <v>4165</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>-1500</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>-2000</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>13445</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>-3325</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>10840</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>-5000</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>1975</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>20</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>-1600</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -10501,7 +11143,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1110402.78</v>
+        <v>1094942.05</v>
       </c>
       <c r="D11" s="22">
         <v>987636.37</v>
@@ -10515,7 +11157,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>619860.07000000007</v>
+        <v>604399.34000000008</v>
       </c>
       <c r="D12" s="17">
         <v>558931.89</v>
@@ -10549,6 +11191,21 @@
       </c>
       <c r="N12" s="18">
         <v>-3474.05</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1500</v>
+      </c>
+      <c r="P12" s="18">
+        <v>-11054.74</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>-9354.33</v>
+      </c>
+      <c r="R12" s="18">
+        <v>5000</v>
+      </c>
+      <c r="S12" s="18">
+        <v>-1551.66</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
@@ -10868,7 +11525,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:10" s="18" customFormat="1">
+    <row r="33" spans="1:13" s="18" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>39</v>
@@ -10881,7 +11538,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="13" customFormat="1">
+    <row r="34" spans="1:13" s="13" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -10890,13 +11547,13 @@
       </c>
       <c r="C34" s="9">
         <f>SUM(C35:C41)</f>
-        <v>-94887.190000000017</v>
+        <v>-99206.46</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="18" customFormat="1">
+    <row r="35" spans="1:13" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>8</v>
@@ -10912,7 +11569,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="18" customFormat="1">
+    <row r="36" spans="1:13" s="18" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>3</v>
@@ -10928,7 +11585,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="18" customFormat="1">
+    <row r="37" spans="1:13" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>9</v>
@@ -10941,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="18" customFormat="1">
+    <row r="38" spans="1:13" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -10954,27 +11611,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="18" customFormat="1">
+    <row r="39" spans="1:13" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D39" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" s="18" customFormat="1">
+      <c r="E39" s="18">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-14403.180000000002</v>
+        <v>-18702.45</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -10997,8 +11657,17 @@
       <c r="J40" s="18">
         <v>-690.95</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" s="18" customFormat="1">
+      <c r="K40" s="18">
+        <v>-2390.2600000000002</v>
+      </c>
+      <c r="L40" s="18">
+        <v>-1485.67</v>
+      </c>
+      <c r="M40" s="18">
+        <v>-423.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -11020,7 +11689,7 @@
         <v>-10642.4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="13" customFormat="1">
+    <row r="42" spans="1:13" s="13" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -11029,26 +11698,29 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C43:C54)</f>
-        <v>20591.28</v>
+        <v>26176.28</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="18" customFormat="1">
+    <row r="43" spans="1:13" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="16">
         <f>SUM(D43:AAA43)</f>
-        <v>0</v>
+        <v>1435</v>
       </c>
       <c r="D43" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="18" customFormat="1">
+      <c r="E43" s="18">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
@@ -11070,7 +11742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="18" customFormat="1">
+    <row r="45" spans="1:13" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
@@ -11089,7 +11761,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="18" customFormat="1">
+    <row r="46" spans="1:13" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>17</v>
@@ -11105,14 +11777,14 @@
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="18" customFormat="1">
+    <row r="47" spans="1:13" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>1510</v>
       </c>
       <c r="D47" s="17">
         <v>0</v>
@@ -11129,8 +11801,14 @@
       <c r="H47" s="18">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" s="18" customFormat="1">
+      <c r="I47" s="18">
+        <v>110</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>21</v>
@@ -11146,7 +11824,7 @@
         <v>144.13999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="18" customFormat="1">
+    <row r="49" spans="1:15" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>15</v>
@@ -11162,7 +11840,7 @@
         <v>1027.28</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="18" customFormat="1">
+    <row r="50" spans="1:15" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>14</v>
@@ -11175,14 +11853,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="18" customFormat="1">
+    <row r="51" spans="1:15" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>11829.3</v>
+        <v>12404.3</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
@@ -11211,15 +11889,21 @@
       <c r="L51" s="18">
         <v>378</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" s="18" customFormat="1">
+      <c r="M51" s="18">
+        <v>100</v>
+      </c>
+      <c r="N51" s="18">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>2426</v>
+        <v>4891</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -11248,8 +11932,17 @@
       <c r="L52" s="18">
         <v>679</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" s="18" customFormat="1">
+      <c r="M52" s="18">
+        <v>110</v>
+      </c>
+      <c r="N52" s="18">
+        <v>2325</v>
+      </c>
+      <c r="O52" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
@@ -11262,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="18" customFormat="1">
+    <row r="54" spans="1:15" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>13</v>
@@ -11284,7 +11977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="18" customFormat="1">
+    <row r="55" spans="1:15" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>65</v>
@@ -11297,55 +11990,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="18" customFormat="1">
+    <row r="56" spans="1:15" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:12" s="18" customFormat="1">
+    <row r="57" spans="1:15" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:12" s="18" customFormat="1">
+    <row r="58" spans="1:15" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:12" s="18" customFormat="1">
+    <row r="59" spans="1:15" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:12" s="18" customFormat="1">
+    <row r="60" spans="1:15" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:12" s="18" customFormat="1">
+    <row r="61" spans="1:15" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:12" s="18" customFormat="1">
+    <row r="62" spans="1:15" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:12" s="18" customFormat="1">
+    <row r="63" spans="1:15" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:12" s="18" customFormat="1">
+    <row r="64" spans="1:15" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -19799,7 +20492,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1125478.29</v>
+        <v>1124212.56</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -19818,17 +20511,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-74295.910000000018</v>
+        <v>-73030.180000000008</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1125478.29</v>
+        <v>1124212.56</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1125478.2899999998</v>
+        <v>-1124212.5599999998</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -549,6 +549,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="R9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/06 gasto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0">
       <text>
         <r>
@@ -1342,6 +1366,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/06 Cobrado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -1699,6 +1747,30 @@
           </rPr>
           <t xml:space="preserve">
 09/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/06 CAPITAL</t>
         </r>
       </text>
     </comment>
@@ -2204,6 +2276,30 @@
           </rPr>
           <t xml:space="preserve">
 09/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/06</t>
         </r>
       </text>
     </comment>
@@ -10695,7 +10791,7 @@
   <dimension ref="A1:BL222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -10718,7 +10814,7 @@
     <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.85546875" style="34" customWidth="1"/>
     <col min="19" max="19" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="34" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" style="34" customWidth="1"/>
     <col min="22" max="22" width="7.85546875" style="34" customWidth="1"/>
     <col min="23" max="23" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
@@ -10730,12 +10826,12 @@
     <col min="29" max="29" width="9.5703125" style="34" customWidth="1"/>
     <col min="30" max="30" width="9.42578125" style="34" customWidth="1"/>
     <col min="31" max="31" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" style="34" customWidth="1"/>
-    <col min="33" max="33" width="11" style="34" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" style="34" customWidth="1"/>
-    <col min="35" max="35" width="10.28515625" style="34" customWidth="1"/>
-    <col min="36" max="36" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" style="34" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" style="34" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" style="34" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.85546875" style="34" customWidth="1"/>
     <col min="40" max="40" width="10.7109375" style="34" customWidth="1"/>
@@ -10827,7 +10923,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1124212.56</v>
+        <v>1125501.52</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -10966,7 +11062,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>19842.949999999997</v>
+        <v>35107.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -10979,7 +11075,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2035</v>
+        <v>1275</v>
       </c>
       <c r="D9" s="17">
         <v>815</v>
@@ -11022,6 +11118,9 @@
       </c>
       <c r="Q9" s="18">
         <v>1600</v>
+      </c>
+      <c r="R9" s="18">
+        <v>-760</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -11031,7 +11130,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>17807.949999999997</v>
+        <v>33832.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -11134,6 +11233,9 @@
       </c>
       <c r="AK10" s="18">
         <v>-1600</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>16025</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -11143,7 +11245,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1094942.05</v>
+        <v>1080966.01</v>
       </c>
       <c r="D11" s="22">
         <v>987636.37</v>
@@ -11157,7 +11259,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>604399.34000000008</v>
+        <v>590423.30000000005</v>
       </c>
       <c r="D12" s="17">
         <v>558931.89</v>
@@ -11206,6 +11308,9 @@
       </c>
       <c r="S12" s="18">
         <v>-1551.66</v>
+      </c>
+      <c r="T12" s="18">
+        <v>-13976.04</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
@@ -11525,7 +11630,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1">
+    <row r="33" spans="1:14" s="18" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>39</v>
@@ -11538,7 +11643,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="13" customFormat="1">
+    <row r="34" spans="1:14" s="13" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -11547,13 +11652,13 @@
       </c>
       <c r="C34" s="9">
         <f>SUM(C35:C41)</f>
-        <v>-99206.46</v>
+        <v>-101255.42000000001</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1">
+    <row r="35" spans="1:14" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>8</v>
@@ -11569,7 +11674,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1">
+    <row r="36" spans="1:14" s="18" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>3</v>
@@ -11585,7 +11690,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1">
+    <row r="37" spans="1:14" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>9</v>
@@ -11598,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1">
+    <row r="38" spans="1:14" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -11611,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1">
+    <row r="39" spans="1:14" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>4</v>
@@ -11627,14 +11732,14 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1">
+    <row r="40" spans="1:14" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-18702.45</v>
+        <v>-20751.41</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -11666,8 +11771,11 @@
       <c r="M40" s="18">
         <v>-423.34</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" s="18" customFormat="1">
+      <c r="N40" s="18">
+        <v>-2048.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -11689,7 +11797,7 @@
         <v>-10642.4</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="13" customFormat="1">
+    <row r="42" spans="1:14" s="13" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -11698,13 +11806,13 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C43:C54)</f>
-        <v>26176.28</v>
+        <v>26936.28</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1">
+    <row r="43" spans="1:14" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>12</v>
@@ -11720,7 +11828,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1">
+    <row r="44" spans="1:14" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
@@ -11742,7 +11850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1">
+    <row r="45" spans="1:14" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
@@ -11761,7 +11869,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1">
+    <row r="46" spans="1:14" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>17</v>
@@ -11777,7 +11885,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1">
+    <row r="47" spans="1:14" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>11</v>
@@ -11808,7 +11916,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1">
+    <row r="48" spans="1:14" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>21</v>
@@ -11824,7 +11932,7 @@
         <v>144.13999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="18" customFormat="1">
+    <row r="49" spans="1:16" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>15</v>
@@ -11840,7 +11948,7 @@
         <v>1027.28</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="18" customFormat="1">
+    <row r="50" spans="1:16" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>14</v>
@@ -11853,14 +11961,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="18" customFormat="1">
+    <row r="51" spans="1:16" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>12404.3</v>
+        <v>12944.3</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
@@ -11895,15 +12003,18 @@
       <c r="N51" s="18">
         <v>475</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" s="18" customFormat="1">
+      <c r="O51" s="18">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>4891</v>
+        <v>5111</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -11941,8 +12052,11 @@
       <c r="O52" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" s="18" customFormat="1">
+      <c r="P52" s="18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
@@ -11955,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="18" customFormat="1">
+    <row r="54" spans="1:16" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>13</v>
@@ -11977,7 +12091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="18" customFormat="1">
+    <row r="55" spans="1:16" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>65</v>
@@ -11990,55 +12104,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="18" customFormat="1">
+    <row r="56" spans="1:16" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:15" s="18" customFormat="1">
+    <row r="57" spans="1:16" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:15" s="18" customFormat="1">
+    <row r="58" spans="1:16" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:15" s="18" customFormat="1">
+    <row r="59" spans="1:16" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:15" s="18" customFormat="1">
+    <row r="60" spans="1:16" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:15" s="18" customFormat="1">
+    <row r="61" spans="1:16" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:15" s="18" customFormat="1">
+    <row r="62" spans="1:16" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:15" s="18" customFormat="1">
+    <row r="63" spans="1:16" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:15" s="18" customFormat="1">
+    <row r="64" spans="1:16" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -20492,7 +20606,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1124212.56</v>
+        <v>1125501.52</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -20511,17 +20625,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-73030.180000000008</v>
+        <v>-74319.140000000014</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1124212.56</v>
+        <v>1125501.52</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1124212.5599999998</v>
+        <v>-1125501.52</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -10790,8 +10790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -261,6 +261,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/6 pago cuota BP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 pago extra credito cuota</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 SOBRANTE DE LOS 140000 Retirado de fondo bhd adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 pago cuota lala</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0">
       <text>
         <r>
@@ -330,6 +426,30 @@
           </rPr>
           <t xml:space="preserve">
 05/06 357000  para invertir fondo BHD &amp; 12000 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/06 BP</t>
         </r>
       </text>
     </comment>
@@ -1390,6 +1510,246 @@
         </r>
       </text>
     </comment>
+    <comment ref="AM10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/6 pago cuota BP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 pago cuota lala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 PARA BHD ADEL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/06 GASTO</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -1774,6 +2134,150 @@
         </r>
       </text>
     </comment>
+    <comment ref="U12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/06 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
@@ -1795,6 +2299,30 @@
           </rPr>
           <t xml:space="preserve">
   02/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 para saldo de extra credito popular</t>
         </r>
       </text>
     </comment>
@@ -1939,34 +2467,34 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+mes 05 pagado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 mes 05</t>
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-mes 05</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F24" authorId="0">
       <text>
         <r>
@@ -2015,6 +2543,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 extra credito saldado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E28" authorId="0">
       <text>
         <r>
@@ -2300,6 +2876,78 @@
           </rPr>
           <t xml:space="preserve">
 10/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/06</t>
         </r>
       </text>
     </comment>
@@ -2713,6 +3361,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="F49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 BP interes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 interes por extra credito</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F51" authorId="0">
       <text>
         <r>
@@ -2738,7 +3434,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0">
+    <comment ref="F52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+01/06 romo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +3482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="0">
+    <comment ref="H52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2786,31 +3506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-01/06 romo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G52" authorId="0">
+    <comment ref="G53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2834,7 +3530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I52" authorId="0">
+    <comment ref="I53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2858,7 +3554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J52" authorId="0">
+    <comment ref="J53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2882,7 +3578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L52" authorId="0">
+    <comment ref="L53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2906,7 +3602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M52" authorId="0">
+    <comment ref="M53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2930,7 +3626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N52" authorId="0">
+    <comment ref="N53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2974,35 +3670,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+02/06 basura</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 02/06 mary</t>
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-02/06 basura</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G54" authorId="0">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10788,10 +11484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL222"/>
+  <dimension ref="A1:BL223"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -10816,11 +11512,11 @@
     <col min="19" max="19" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" style="34" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="34" customWidth="1"/>
     <col min="23" max="23" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.42578125" style="34" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="34" customWidth="1"/>
     <col min="29" max="29" width="9.5703125" style="34" customWidth="1"/>
@@ -10834,14 +11530,14 @@
     <col min="37" max="37" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.85546875" style="34" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" style="34" customWidth="1"/>
-    <col min="41" max="41" width="10.28515625" style="34" customWidth="1"/>
+    <col min="40" max="40" width="9.28515625" style="34" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" style="34" customWidth="1"/>
     <col min="42" max="42" width="9.42578125" style="34" customWidth="1"/>
-    <col min="43" max="43" width="10.5703125" style="34" customWidth="1"/>
+    <col min="43" max="43" width="9.7109375" style="34" customWidth="1"/>
     <col min="44" max="44" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="34" customWidth="1"/>
-    <col min="46" max="46" width="10.5703125" style="34" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="34" customWidth="1"/>
+    <col min="45" max="45" width="11.140625" style="34" customWidth="1"/>
+    <col min="46" max="46" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.28515625" style="34" customWidth="1"/>
     <col min="48" max="48" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9.42578125" style="34" customWidth="1"/>
@@ -10923,7 +11619,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1125501.52</v>
+        <v>984149.82000000018</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -10936,7 +11632,7 @@
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>9427.5600000000522</v>
+        <v>24492.380000000052</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
@@ -10949,7 +11645,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>9066.0200000000077</v>
+        <v>3230.8400000000074</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
@@ -10989,6 +11685,21 @@
       </c>
       <c r="P4" s="18">
         <v>550</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>2700</v>
+      </c>
+      <c r="R4" s="18">
+        <v>-8460.4500000000007</v>
+      </c>
+      <c r="S4" s="18">
+        <v>5925.27</v>
+      </c>
+      <c r="T4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="U4" s="18">
+        <v>-7000</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="18" customFormat="1">
@@ -11011,7 +11722,7 @@
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>309.54000000003725</v>
+        <v>21209.540000000037</v>
       </c>
       <c r="D6" s="17">
         <v>394.77999999999884</v>
@@ -11033,6 +11744,12 @@
       </c>
       <c r="J6" s="18">
         <v>-369000</v>
+      </c>
+      <c r="K6" s="18">
+        <v>13900</v>
+      </c>
+      <c r="L6" s="18">
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:64" s="18" customFormat="1" ht="15">
@@ -11062,7 +11779,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>35107.949999999997</v>
+        <v>12030.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -11075,7 +11792,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>1275</v>
+        <v>2348</v>
       </c>
       <c r="D9" s="17">
         <v>815</v>
@@ -11121,6 +11838,18 @@
       </c>
       <c r="R9" s="18">
         <v>-760</v>
+      </c>
+      <c r="S9" s="18">
+        <v>-309</v>
+      </c>
+      <c r="T9" s="18">
+        <v>-305</v>
+      </c>
+      <c r="U9" s="18">
+        <v>-313</v>
+      </c>
+      <c r="V9" s="18">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -11130,7 +11859,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>33832.949999999997</v>
+        <v>9682.9499999999971</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -11236,6 +11965,36 @@
       </c>
       <c r="AL10" s="18">
         <v>16025</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>-4000</v>
+      </c>
+      <c r="AN10" s="18">
+        <v>3765</v>
+      </c>
+      <c r="AO10" s="18">
+        <v>-2700</v>
+      </c>
+      <c r="AP10" s="18">
+        <v>-8000</v>
+      </c>
+      <c r="AQ10" s="18">
+        <v>6050</v>
+      </c>
+      <c r="AR10" s="18">
+        <v>-1000</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>-13900</v>
+      </c>
+      <c r="AT10" s="18">
+        <v>-5000</v>
+      </c>
+      <c r="AU10" s="18">
+        <v>2635</v>
+      </c>
+      <c r="AV10" s="18">
+        <v>-2000</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -11245,7 +12004,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>1080966.01</v>
+        <v>947626.49000000011</v>
       </c>
       <c r="D11" s="22">
         <v>987636.37</v>
@@ -11259,7 +12018,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>590423.30000000005</v>
+        <v>597083.78000000014</v>
       </c>
       <c r="D12" s="17">
         <v>558931.89</v>
@@ -11311,6 +12070,24 @@
       </c>
       <c r="T12" s="18">
         <v>-13976.04</v>
+      </c>
+      <c r="U12" s="18">
+        <v>4000</v>
+      </c>
+      <c r="V12" s="18">
+        <v>-3234.23</v>
+      </c>
+      <c r="W12" s="18">
+        <v>8000</v>
+      </c>
+      <c r="X12" s="18">
+        <v>-4944.7</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>5000</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>-2160.59</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
@@ -11320,7 +12097,7 @@
       </c>
       <c r="C13" s="16">
         <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>420704.48</v>
+        <v>280704.48</v>
       </c>
       <c r="D13" s="17">
         <v>78704.479999999981</v>
@@ -11330,6 +12107,9 @@
       </c>
       <c r="F13" s="18">
         <v>357000</v>
+      </c>
+      <c r="G13" s="18">
+        <v>-140000</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="18" customFormat="1">
@@ -11424,7 +12204,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-344913.5</v>
+        <v>-206410.03999999998</v>
       </c>
       <c r="D19" s="12">
         <v>-340506.02999999997</v>
@@ -11437,7 +12217,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C30)</f>
-        <v>-344913.5</v>
+        <v>-206410.03999999998</v>
       </c>
       <c r="D20" s="12">
         <v>-340506.02999999997</v>
@@ -11547,10 +12327,16 @@
       </c>
       <c r="C27" s="16">
         <f t="shared" si="2"/>
-        <v>-138503.46</v>
+        <v>0</v>
       </c>
       <c r="D27" s="17">
         <v>-138503.46</v>
+      </c>
+      <c r="E27" s="18">
+        <v>4888.22</v>
+      </c>
+      <c r="F27" s="18">
+        <v>133615.24</v>
       </c>
       <c r="H27" s="26"/>
     </row>
@@ -11630,7 +12416,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:14" s="18" customFormat="1">
+    <row r="33" spans="1:17" s="18" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>39</v>
@@ -11643,7 +12429,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="13" customFormat="1">
+    <row r="34" spans="1:17" s="13" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -11652,13 +12438,13 @@
       </c>
       <c r="C34" s="9">
         <f>SUM(C35:C41)</f>
-        <v>-101255.42000000001</v>
+        <v>-103365.90000000001</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="18" customFormat="1">
+    <row r="35" spans="1:17" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>8</v>
@@ -11674,7 +12460,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="18" customFormat="1">
+    <row r="36" spans="1:17" s="18" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>3</v>
@@ -11690,7 +12476,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="18" customFormat="1">
+    <row r="37" spans="1:17" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>9</v>
@@ -11703,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="18" customFormat="1">
+    <row r="38" spans="1:17" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -11716,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="18" customFormat="1">
+    <row r="39" spans="1:17" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>4</v>
@@ -11732,14 +12518,14 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="18" customFormat="1">
+    <row r="40" spans="1:17" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-20751.41</v>
+        <v>-22861.89</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -11774,8 +12560,17 @@
       <c r="N40" s="18">
         <v>-2048.96</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" s="18" customFormat="1">
+      <c r="O40" s="18">
+        <v>-530.77</v>
+      </c>
+      <c r="P40" s="18">
+        <v>-1105.3</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>-474.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -11797,7 +12592,7 @@
         <v>-10642.4</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="13" customFormat="1">
+    <row r="42" spans="1:17" s="13" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -11805,14 +12600,14 @@
         <v>22</v>
       </c>
       <c r="C42" s="9">
-        <f>SUM(C43:C54)</f>
-        <v>26936.28</v>
+        <f>SUM(C43:C55)</f>
+        <v>31895</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="18" customFormat="1">
+    <row r="43" spans="1:17" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>12</v>
@@ -11828,13 +12623,13 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="18" customFormat="1">
+    <row r="44" spans="1:17" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" ref="C44:C55" si="4">SUM(D44:AAA44)</f>
+        <f t="shared" ref="C44:C56" si="4">SUM(D44:AAA44)</f>
         <v>1914</v>
       </c>
       <c r="D44" s="17">
@@ -11850,7 +12645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="18" customFormat="1">
+    <row r="45" spans="1:17" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
@@ -11869,7 +12664,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="18" customFormat="1">
+    <row r="46" spans="1:17" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>17</v>
@@ -11885,7 +12680,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="18" customFormat="1">
+    <row r="47" spans="1:17" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>11</v>
@@ -11916,7 +12711,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="18" customFormat="1">
+    <row r="48" spans="1:17" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>21</v>
@@ -11932,23 +12727,27 @@
         <v>144.13999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="18" customFormat="1">
+    <row r="49" spans="1:18" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>1027.28</v>
-      </c>
-      <c r="D49" s="17">
-        <v>0</v>
-      </c>
+        <v>5059</v>
+      </c>
+      <c r="D49" s="17"/>
       <c r="E49" s="18">
         <v>1027.28</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" s="18" customFormat="1">
+      <c r="F49" s="18">
+        <v>3572.23</v>
+      </c>
+      <c r="G49" s="18">
+        <v>459.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>14</v>
@@ -11961,198 +12760,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="18" customFormat="1">
+    <row r="51" spans="1:18" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>12944.3</v>
+        <v>6000</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
       </c>
-      <c r="E51" s="18">
-        <v>660</v>
-      </c>
       <c r="F51" s="18">
         <v>6000</v>
       </c>
-      <c r="G51" s="18">
-        <v>130</v>
-      </c>
-      <c r="H51" s="18">
-        <v>3699.3</v>
-      </c>
-      <c r="I51" s="18">
-        <v>275</v>
-      </c>
-      <c r="J51" s="18">
-        <v>505</v>
-      </c>
-      <c r="K51" s="18">
-        <v>182</v>
-      </c>
-      <c r="L51" s="18">
-        <v>378</v>
-      </c>
-      <c r="M51" s="18">
-        <v>100</v>
-      </c>
-      <c r="N51" s="18">
-        <v>475</v>
-      </c>
-      <c r="O51" s="18">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="18" customFormat="1">
+    </row>
+    <row r="52" spans="1:18" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>5111</v>
+        <v>8286.2999999999993</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
       </c>
       <c r="E52" s="18">
-        <v>50</v>
+        <v>660</v>
       </c>
       <c r="F52" s="18">
         <v>635</v>
       </c>
       <c r="G52" s="18">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="H52" s="18">
-        <v>175</v>
+        <v>3699.3</v>
       </c>
       <c r="I52" s="18">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="J52" s="18">
-        <v>110</v>
+        <v>505</v>
       </c>
       <c r="K52" s="18">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="L52" s="18">
-        <v>679</v>
+        <v>378</v>
       </c>
       <c r="M52" s="18">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N52" s="18">
-        <v>2325</v>
+        <v>475</v>
       </c>
       <c r="O52" s="18">
-        <v>30</v>
+        <v>540</v>
       </c>
       <c r="P52" s="18">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="18" customFormat="1">
+        <v>199</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>285</v>
+      </c>
+      <c r="R52" s="18">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="16">
-        <f>SUM(D53:ZZ53)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4696</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" s="18" customFormat="1">
+      <c r="E53" s="18">
+        <v>50</v>
+      </c>
+      <c r="F53" s="18">
+        <v>20</v>
+      </c>
+      <c r="G53" s="18">
+        <v>270</v>
+      </c>
+      <c r="H53" s="18">
+        <v>175</v>
+      </c>
+      <c r="I53" s="18">
+        <v>450</v>
+      </c>
+      <c r="J53" s="18">
+        <v>110</v>
+      </c>
+      <c r="K53" s="18">
+        <v>57</v>
+      </c>
+      <c r="L53" s="18">
+        <v>679</v>
+      </c>
+      <c r="M53" s="18">
+        <v>110</v>
+      </c>
+      <c r="N53" s="18">
+        <v>2325</v>
+      </c>
+      <c r="O53" s="18">
+        <v>30</v>
+      </c>
+      <c r="P53" s="18">
+        <v>220</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>110</v>
+      </c>
+      <c r="R53" s="18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="16">
-        <f t="shared" si="4"/>
-        <v>135</v>
+        <f>SUM(D54:ZZ54)</f>
+        <v>20</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
       </c>
       <c r="E54" s="18">
-        <v>75</v>
-      </c>
-      <c r="F54" s="18">
         <v>20</v>
       </c>
-      <c r="G54" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="18" customFormat="1">
+    </row>
+    <row r="55" spans="1:18" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D55" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" s="18" customFormat="1">
+      <c r="E55" s="18">
+        <v>75</v>
+      </c>
+      <c r="F55" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:16" s="18" customFormat="1">
+      <c r="C56" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:16" s="18" customFormat="1">
+    <row r="58" spans="1:18" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:16" s="18" customFormat="1">
+    <row r="59" spans="1:18" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:16" s="18" customFormat="1">
+    <row r="60" spans="1:18" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:16" s="18" customFormat="1">
+    <row r="61" spans="1:18" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:16" s="18" customFormat="1">
+    <row r="62" spans="1:18" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:16" s="18" customFormat="1">
+    <row r="63" spans="1:18" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:16" s="18" customFormat="1">
+    <row r="64" spans="1:18" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -13022,89 +13844,96 @@
       <c r="C208" s="16"/>
       <c r="D208" s="17"/>
     </row>
-    <row r="209" spans="1:4" s="18" customFormat="1">
+    <row r="209" spans="1:6" s="18" customFormat="1">
       <c r="A209" s="29"/>
       <c r="B209" s="15"/>
       <c r="C209" s="16"/>
       <c r="D209" s="17"/>
     </row>
-    <row r="210" spans="1:4" s="18" customFormat="1">
+    <row r="210" spans="1:6" s="18" customFormat="1">
       <c r="A210" s="29"/>
       <c r="B210" s="15"/>
       <c r="C210" s="16"/>
       <c r="D210" s="17"/>
     </row>
-    <row r="211" spans="1:4" s="18" customFormat="1">
+    <row r="211" spans="1:6" s="18" customFormat="1">
       <c r="A211" s="29"/>
       <c r="B211" s="15"/>
       <c r="C211" s="16"/>
       <c r="D211" s="17"/>
     </row>
-    <row r="212" spans="1:4" s="18" customFormat="1">
+    <row r="212" spans="1:6" s="18" customFormat="1">
       <c r="A212" s="29"/>
       <c r="B212" s="15"/>
       <c r="C212" s="16"/>
       <c r="D212" s="17"/>
     </row>
-    <row r="213" spans="1:4" s="18" customFormat="1">
+    <row r="213" spans="1:6" s="18" customFormat="1">
       <c r="A213" s="29"/>
       <c r="B213" s="15"/>
       <c r="C213" s="16"/>
       <c r="D213" s="17"/>
     </row>
-    <row r="214" spans="1:4" s="18" customFormat="1">
+    <row r="214" spans="1:6" s="18" customFormat="1">
       <c r="A214" s="29"/>
       <c r="B214" s="15"/>
       <c r="C214" s="16"/>
       <c r="D214" s="17"/>
     </row>
-    <row r="215" spans="1:4" s="18" customFormat="1">
+    <row r="215" spans="1:6" s="18" customFormat="1">
       <c r="A215" s="29"/>
       <c r="B215" s="15"/>
       <c r="C215" s="16"/>
       <c r="D215" s="17"/>
     </row>
-    <row r="216" spans="1:4" s="18" customFormat="1">
+    <row r="216" spans="1:6" s="18" customFormat="1">
       <c r="A216" s="29"/>
       <c r="B216" s="15"/>
       <c r="C216" s="16"/>
       <c r="D216" s="17"/>
     </row>
-    <row r="217" spans="1:4" s="18" customFormat="1">
+    <row r="217" spans="1:6" s="18" customFormat="1">
       <c r="A217" s="29"/>
       <c r="B217" s="15"/>
       <c r="C217" s="16"/>
       <c r="D217" s="17"/>
     </row>
-    <row r="218" spans="1:4" s="18" customFormat="1">
+    <row r="218" spans="1:6" s="18" customFormat="1">
       <c r="A218" s="29"/>
       <c r="B218" s="15"/>
       <c r="C218" s="16"/>
       <c r="D218" s="17"/>
     </row>
-    <row r="219" spans="1:4" s="18" customFormat="1">
+    <row r="219" spans="1:6" s="18" customFormat="1">
       <c r="A219" s="29"/>
       <c r="B219" s="15"/>
       <c r="C219" s="16"/>
       <c r="D219" s="17"/>
     </row>
-    <row r="220" spans="1:4" s="18" customFormat="1">
+    <row r="220" spans="1:6" s="18" customFormat="1">
       <c r="A220" s="29"/>
       <c r="B220" s="15"/>
       <c r="C220" s="16"/>
       <c r="D220" s="17"/>
     </row>
-    <row r="221" spans="1:4" s="18" customFormat="1">
+    <row r="221" spans="1:6" s="18" customFormat="1">
       <c r="A221" s="29"/>
       <c r="B221" s="15"/>
       <c r="C221" s="16"/>
       <c r="D221" s="17"/>
     </row>
-    <row r="222" spans="1:4" s="18" customFormat="1">
+    <row r="222" spans="1:6" s="18" customFormat="1">
       <c r="A222" s="29"/>
       <c r="B222" s="15"/>
       <c r="C222" s="16"/>
       <c r="D222" s="17"/>
+    </row>
+    <row r="223" spans="1:6" s="18" customFormat="1">
+      <c r="A223" s="29"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="17"/>
+      <c r="F223" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20574,8 +21403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20606,7 +21435,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1125501.52</v>
+        <v>984149.82000000018</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -20616,7 +21445,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C31</f>
-        <v>-1051182.3799999999</v>
+        <v>-912678.91999999993</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -20625,17 +21454,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-74319.140000000014</v>
+        <v>-71470.900000000009</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1125501.52</v>
+        <v>984149.82000000018</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1125501.52</v>
+        <v>-984149.82</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -357,6 +357,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="V4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 pago cuota yajaira</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 pago cuota bp y impuesto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 rembolso por seguro deudor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 gasto de cerveza y leche ninos</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0">
       <text>
         <r>
@@ -690,6 +786,54 @@
           </rPr>
           <t xml:space="preserve">
 10/06 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 gasto</t>
         </r>
       </text>
     </comment>
@@ -1750,6 +1894,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="AW10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 cobardo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 pago cuota yajaira</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/6 adelson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -2278,6 +2614,150 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 pestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/06 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
@@ -2371,6 +2851,30 @@
           </rPr>
           <t xml:space="preserve">
 30/06 segunda quincena</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 primera  quincena</t>
         </r>
       </text>
     </comment>
@@ -2543,6 +3047,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 capital </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0">
       <text>
         <r>
@@ -2951,6 +3479,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="R40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/06</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E41" authorId="0">
       <text>
         <r>
@@ -3020,6 +3620,30 @@
           </rPr>
           <t xml:space="preserve">
 04/06 por inversiones </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 rembolso por seguro deudor</t>
         </r>
       </text>
     </comment>
@@ -3309,7 +3933,55 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-07/06 gas carro</t>
+8/6 gas caeeo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 manquera y mano de obra</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/06 gas carro</t>
         </r>
       </text>
     </comment>
@@ -3337,6 +4009,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 impuesto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E49" authorId="0">
       <text>
         <r>
@@ -3409,7 +4105,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0">
+    <comment ref="H49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 interes BP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3434,6 +4154,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03/06 comprar del hogar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F52" authorId="0">
       <text>
         <r>
@@ -3478,59 +4222,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-01/06 comida adel</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H52" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-03/06 comprar del hogar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G53" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
 01/06 coco y cerveza</t>
         </r>
       </text>
     </comment>
-    <comment ref="I53" authorId="0">
+    <comment ref="J52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3554,7 +4250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J53" authorId="0">
+    <comment ref="K52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3578,7 +4274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L53" authorId="0">
+    <comment ref="M52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3602,7 +4298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M53" authorId="0">
+    <comment ref="N52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3626,7 +4322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N53" authorId="0">
+    <comment ref="O52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3650,6 +4346,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/06 cerveza y quezo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 cerveza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/06 cerveza</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E54" authorId="0">
       <text>
         <r>
@@ -3671,6 +4439,30 @@
           </rPr>
           <t xml:space="preserve">
 02/06 basura</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/06 leche pamper del ninos</t>
         </r>
       </text>
     </comment>
@@ -11487,7 +12279,7 @@
   <dimension ref="A1:BL223"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -11518,9 +12310,9 @@
     <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.42578125" style="34" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="34" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" style="34" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="34" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.7109375" style="34" customWidth="1"/>
@@ -11538,13 +12330,12 @@
     <col min="45" max="45" width="11.140625" style="34" customWidth="1"/>
     <col min="46" max="46" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="9.28515625" style="34" customWidth="1"/>
-    <col min="48" max="48" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" style="34" customWidth="1"/>
+    <col min="48" max="48" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10" style="34" customWidth="1"/>
+    <col min="52" max="52" width="10.42578125" style="34" customWidth="1"/>
     <col min="53" max="53" width="9.7109375" style="34" customWidth="1"/>
-    <col min="54" max="54" width="10.5703125" style="34" customWidth="1"/>
+    <col min="54" max="54" width="9.42578125" style="34" customWidth="1"/>
     <col min="55" max="55" width="9.85546875" style="34" customWidth="1"/>
     <col min="56" max="56" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="10" style="34" customWidth="1"/>
@@ -11619,7 +12410,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>984149.82000000018</v>
+        <v>987353.6100000001</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -11632,7 +12423,7 @@
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>24492.380000000052</v>
+        <v>29310.310000000049</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
@@ -11645,7 +12436,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>3230.8400000000074</v>
+        <v>724.57000000000744</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
@@ -11700,6 +12491,21 @@
       </c>
       <c r="U4" s="18">
         <v>-7000</v>
+      </c>
+      <c r="V4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="W4" s="18">
+        <v>-2626.61</v>
+      </c>
+      <c r="X4" s="18">
+        <v>1482.81</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>-0.27</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>-2362.1999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="18" customFormat="1">
@@ -11759,7 +12565,7 @@
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>3.6799999999993815</v>
+        <v>7327.8799999999992</v>
       </c>
       <c r="D7" s="17">
         <v>7743.6799999999994</v>
@@ -11769,6 +12575,9 @@
       </c>
       <c r="F7" s="18">
         <v>-40</v>
+      </c>
+      <c r="G7" s="18">
+        <v>7324.2</v>
       </c>
       <c r="BL7" s="35"/>
     </row>
@@ -11779,7 +12588,7 @@
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C10)</f>
-        <v>12030.949999999997</v>
+        <v>21720.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -11792,7 +12601,7 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2348</v>
+        <v>2778</v>
       </c>
       <c r="D9" s="17">
         <v>815</v>
@@ -11850,6 +12659,18 @@
       </c>
       <c r="V9" s="18">
         <v>2000</v>
+      </c>
+      <c r="W9" s="18">
+        <v>-1030</v>
+      </c>
+      <c r="X9" s="18">
+        <v>-1440</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>4000</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>-1100</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -11859,7 +12680,7 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>9682.9499999999971</v>
+        <v>18942.949999999997</v>
       </c>
       <c r="D10" s="17">
         <v>43973.95</v>
@@ -11995,6 +12816,30 @@
       </c>
       <c r="AV10" s="18">
         <v>-2000</v>
+      </c>
+      <c r="AW10" s="18">
+        <v>-6000</v>
+      </c>
+      <c r="AX10" s="18">
+        <v>17180</v>
+      </c>
+      <c r="AY10" s="18">
+        <v>-1000</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>-17200</v>
+      </c>
+      <c r="BA10" s="18">
+        <v>17580</v>
+      </c>
+      <c r="BB10" s="18">
+        <v>-4000</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>-500</v>
+      </c>
+      <c r="BD10" s="18">
+        <v>3200</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="23" customFormat="1">
@@ -12004,7 +12849,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>947626.49000000011</v>
+        <v>936322.35000000009</v>
       </c>
       <c r="D11" s="22">
         <v>987636.37</v>
@@ -12018,7 +12863,7 @@
       </c>
       <c r="C12" s="16">
         <f>SUM(D12:AAA12)</f>
-        <v>597083.78000000014</v>
+        <v>593103.8400000002</v>
       </c>
       <c r="D12" s="17">
         <v>558931.89</v>
@@ -12088,6 +12933,24 @@
       </c>
       <c r="Z12" s="18">
         <v>-2160.59</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>6000</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>-12906.73</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>17200</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>-12473.21</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>500</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>-2300</v>
       </c>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
@@ -12183,7 +13046,7 @@
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
-        <v>14648.4</v>
+        <v>7324.2</v>
       </c>
       <c r="D18" s="17">
         <v>0</v>
@@ -12193,6 +13056,9 @@
       </c>
       <c r="F18" s="18">
         <v>7324.2</v>
+      </c>
+      <c r="G18" s="18">
+        <v>-7324.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1">
@@ -12204,7 +13070,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(C20)</f>
-        <v>-206410.03999999998</v>
+        <v>-205484.22999999998</v>
       </c>
       <c r="D19" s="12">
         <v>-340506.02999999997</v>
@@ -12217,7 +13083,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21:C30)</f>
-        <v>-206410.03999999998</v>
+        <v>-205484.22999999998</v>
       </c>
       <c r="D20" s="12">
         <v>-340506.02999999997</v>
@@ -12314,10 +13180,13 @@
       </c>
       <c r="C26" s="16">
         <f t="shared" si="2"/>
-        <v>-72347.289999999994</v>
+        <v>-71421.48</v>
       </c>
       <c r="D26" s="17">
         <v>-72347.289999999994</v>
+      </c>
+      <c r="E26" s="18">
+        <v>925.81</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="18" customFormat="1">
@@ -12416,7 +13285,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:17" s="18" customFormat="1">
+    <row r="33" spans="1:20" s="18" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>39</v>
@@ -12429,7 +13298,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="13" customFormat="1">
+    <row r="34" spans="1:20" s="13" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -12438,13 +13307,13 @@
       </c>
       <c r="C34" s="9">
         <f>SUM(C35:C41)</f>
-        <v>-103365.90000000001</v>
+        <v>-115128.77</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="18" customFormat="1">
+    <row r="35" spans="1:20" s="18" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
         <v>8</v>
@@ -12460,7 +13329,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="18" customFormat="1">
+    <row r="36" spans="1:20" s="18" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>3</v>
@@ -12476,7 +13345,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="18" customFormat="1">
+    <row r="37" spans="1:20" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>9</v>
@@ -12489,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="18" customFormat="1">
+    <row r="38" spans="1:20" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>5</v>
@@ -12502,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="18" customFormat="1">
+    <row r="39" spans="1:20" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>4</v>
@@ -12518,14 +13387,14 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="18" customFormat="1">
+    <row r="40" spans="1:20" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-22861.89</v>
+        <v>-33141.949999999997</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -12569,15 +13438,24 @@
       <c r="Q40" s="18">
         <v>-474.41</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="18" customFormat="1">
+      <c r="R40" s="18">
+        <v>-4273.2700000000004</v>
+      </c>
+      <c r="S40" s="18">
+        <v>-5106.79</v>
+      </c>
+      <c r="T40" s="18">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-10645.779999999999</v>
+        <v>-12128.589999999998</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -12591,8 +13469,11 @@
       <c r="G41" s="18">
         <v>-10642.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="13" customFormat="1">
+      <c r="H41" s="18">
+        <v>-1482.81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="13" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -12601,20 +13482,20 @@
       </c>
       <c r="C42" s="9">
         <f>SUM(C43:C55)</f>
-        <v>31895</v>
+        <v>39528.269999999997</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="18" customFormat="1">
+    <row r="43" spans="1:20" s="18" customFormat="1">
       <c r="A43" s="29"/>
       <c r="B43" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="16">
         <f>SUM(D43:AAA43)</f>
-        <v>1435</v>
+        <v>1485</v>
       </c>
       <c r="D43" s="17">
         <v>0</v>
@@ -12622,8 +13503,11 @@
       <c r="E43" s="18">
         <v>1435</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="18" customFormat="1">
+      <c r="F43" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
@@ -12645,7 +13529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="18" customFormat="1">
+    <row r="45" spans="1:20" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>18</v>
@@ -12664,7 +13548,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="18" customFormat="1">
+    <row r="46" spans="1:20" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>17</v>
@@ -12680,14 +13564,14 @@
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="18" customFormat="1">
+    <row r="47" spans="1:20" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="4"/>
-        <v>1510</v>
+        <v>3110</v>
       </c>
       <c r="D47" s="17">
         <v>0</v>
@@ -12710,15 +13594,21 @@
       <c r="J47" s="18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="18" customFormat="1">
+      <c r="K47" s="18">
+        <v>600</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="4"/>
-        <v>144.13999999999999</v>
+        <v>157.1</v>
       </c>
       <c r="D48" s="17">
         <v>0</v>
@@ -12726,15 +13616,18 @@
       <c r="E48" s="18">
         <v>144.13999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" s="18" customFormat="1">
+      <c r="F48" s="18">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>5059</v>
+        <v>6747.11</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="18">
@@ -12746,8 +13639,11 @@
       <c r="G49" s="18">
         <v>459.49</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" s="18" customFormat="1">
+      <c r="H49" s="18">
+        <v>1688.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>14</v>
@@ -12760,30 +13656,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="18" customFormat="1">
+    <row r="51" spans="1:22" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>14176.3</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
       </c>
+      <c r="E51" s="18">
+        <v>6000</v>
+      </c>
       <c r="F51" s="18">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="18" customFormat="1">
+        <v>130</v>
+      </c>
+      <c r="G51" s="18">
+        <v>3699.3</v>
+      </c>
+      <c r="H51" s="18">
+        <v>505</v>
+      </c>
+      <c r="I51" s="18">
+        <v>182</v>
+      </c>
+      <c r="J51" s="18">
+        <v>378</v>
+      </c>
+      <c r="K51" s="18">
+        <v>100</v>
+      </c>
+      <c r="L51" s="18">
+        <v>475</v>
+      </c>
+      <c r="M51" s="18">
+        <v>540</v>
+      </c>
+      <c r="N51" s="18">
+        <v>199</v>
+      </c>
+      <c r="O51" s="18">
+        <v>285</v>
+      </c>
+      <c r="P51" s="18">
+        <v>223</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>370</v>
+      </c>
+      <c r="R51" s="18">
+        <v>250</v>
+      </c>
+      <c r="S51" s="18">
+        <v>220</v>
+      </c>
+      <c r="T51" s="18">
+        <v>110</v>
+      </c>
+      <c r="U51" s="18">
+        <v>90</v>
+      </c>
+      <c r="V51" s="18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>8286.2999999999993</v>
+        <v>7911.25</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -12795,105 +13742,69 @@
         <v>635</v>
       </c>
       <c r="G52" s="18">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="H52" s="18">
-        <v>3699.3</v>
+        <v>245</v>
       </c>
       <c r="I52" s="18">
         <v>275</v>
       </c>
       <c r="J52" s="18">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="K52" s="18">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="L52" s="18">
-        <v>378</v>
+        <v>57</v>
       </c>
       <c r="M52" s="18">
+        <v>679</v>
+      </c>
+      <c r="N52" s="18">
+        <v>110</v>
+      </c>
+      <c r="O52" s="18">
+        <v>2325</v>
+      </c>
+      <c r="P52" s="18">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>660</v>
+      </c>
+      <c r="R52" s="18">
+        <v>1185.25</v>
+      </c>
+      <c r="S52" s="18">
+        <v>120</v>
+      </c>
+      <c r="T52" s="18">
         <v>100</v>
       </c>
-      <c r="N52" s="18">
-        <v>475</v>
-      </c>
-      <c r="O52" s="18">
-        <v>540</v>
-      </c>
-      <c r="P52" s="18">
-        <v>199</v>
-      </c>
-      <c r="Q52" s="18">
-        <v>285</v>
-      </c>
-      <c r="R52" s="18">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="18" customFormat="1">
+    </row>
+    <row r="53" spans="1:22" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>4696</v>
+        <v>0</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
       </c>
-      <c r="E53" s="18">
-        <v>50</v>
-      </c>
-      <c r="F53" s="18">
-        <v>20</v>
-      </c>
-      <c r="G53" s="18">
-        <v>270</v>
-      </c>
-      <c r="H53" s="18">
-        <v>175</v>
-      </c>
-      <c r="I53" s="18">
-        <v>450</v>
-      </c>
-      <c r="J53" s="18">
-        <v>110</v>
-      </c>
-      <c r="K53" s="18">
-        <v>57</v>
-      </c>
-      <c r="L53" s="18">
-        <v>679</v>
-      </c>
-      <c r="M53" s="18">
-        <v>110</v>
-      </c>
-      <c r="N53" s="18">
-        <v>2325</v>
-      </c>
-      <c r="O53" s="18">
-        <v>30</v>
-      </c>
-      <c r="P53" s="18">
-        <v>220</v>
-      </c>
-      <c r="Q53" s="18">
-        <v>110</v>
-      </c>
-      <c r="R53" s="18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="18" customFormat="1">
+    </row>
+    <row r="54" spans="1:22" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="16">
         <f>SUM(D54:ZZ54)</f>
-        <v>20</v>
+        <v>1196.95</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
@@ -12901,8 +13812,11 @@
       <c r="E54" s="18">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" s="18" customFormat="1">
+      <c r="F54" s="18">
+        <v>1176.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>65</v>
@@ -12921,7 +13835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="18" customFormat="1">
+    <row r="56" spans="1:22" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16">
@@ -12932,49 +13846,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="18" customFormat="1">
+    <row r="57" spans="1:22" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:18" s="18" customFormat="1">
+    <row r="58" spans="1:22" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:18" s="18" customFormat="1">
+    <row r="59" spans="1:22" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:18" s="18" customFormat="1">
+    <row r="60" spans="1:22" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:18" s="18" customFormat="1">
+    <row r="61" spans="1:22" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:18" s="18" customFormat="1">
+    <row r="62" spans="1:22" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:18" s="18" customFormat="1">
+    <row r="63" spans="1:22" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:18" s="18" customFormat="1">
+    <row r="64" spans="1:22" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -21403,8 +22317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21435,7 +22349,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>984149.82000000018</v>
+        <v>987353.6100000001</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -21445,7 +22359,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C19+contabilidad!C31</f>
-        <v>-912678.91999999993</v>
+        <v>-911753.11</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -21454,17 +22368,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-71470.900000000009</v>
+        <v>-75600.5</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>984149.82000000018</v>
+        <v>987353.6100000001</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-984149.82</v>
+        <v>-987353.61</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -453,6 +453,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 pago cesar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0">
       <text>
         <r>
@@ -573,6 +597,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1706 pago cuota bhd rosalis y impuesto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
@@ -593,11 +641,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+18/06 para devolver a los clientes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 02/06 gasto</t>
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="L10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -717,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0">
+    <comment ref="M10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -741,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0">
+    <comment ref="O10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0">
+    <comment ref="R10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="0">
+    <comment ref="W10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X9" authorId="0">
+    <comment ref="X10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -837,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -861,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -885,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0">
+    <comment ref="H11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
+    <comment ref="I11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -958,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -982,7 +1054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0">
+    <comment ref="K11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1006,7 +1078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0">
+    <comment ref="L11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0">
+    <comment ref="M11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0">
+    <comment ref="N11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0">
+    <comment ref="O11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0">
+    <comment ref="P11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q10" authorId="0">
+    <comment ref="Q11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0">
+    <comment ref="R11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0">
+    <comment ref="S11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="0">
+    <comment ref="T11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="0">
+    <comment ref="U11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="0">
+    <comment ref="V11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="0">
+    <comment ref="W11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X10" authorId="0">
+    <comment ref="X11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1318,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y10" authorId="0">
+    <comment ref="Y11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1342,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z10" authorId="0">
+    <comment ref="Z11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA10" authorId="0">
+    <comment ref="AA11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB10" authorId="0">
+    <comment ref="AB11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1414,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC10" authorId="0">
+    <comment ref="AC11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1438,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD10" authorId="0">
+    <comment ref="AD11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1462,7 +1534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE10" authorId="0">
+    <comment ref="AE11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF10" authorId="0">
+    <comment ref="AF11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG10" authorId="0">
+    <comment ref="AG11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1534,7 +1606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH10" authorId="0">
+    <comment ref="AH11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1558,7 +1630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI10" authorId="0">
+    <comment ref="AI11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1582,7 +1654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ10" authorId="0">
+    <comment ref="AJ11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1606,7 +1678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK10" authorId="0">
+    <comment ref="AK11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1630,7 +1702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL10" authorId="0">
+    <comment ref="AL11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1654,7 +1726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM10" authorId="0">
+    <comment ref="AM11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1678,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN10" authorId="0">
+    <comment ref="AN11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1702,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO10" authorId="0">
+    <comment ref="AO11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1726,7 +1798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP10" authorId="0">
+    <comment ref="AP11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1750,7 +1822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ10" authorId="0">
+    <comment ref="AQ11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR10" authorId="0">
+    <comment ref="AR11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1798,7 +1870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS10" authorId="0">
+    <comment ref="AS11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1822,7 +1894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT10" authorId="0">
+    <comment ref="AT11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1846,7 +1918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU10" authorId="0">
+    <comment ref="AU11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1870,7 +1942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV10" authorId="0">
+    <comment ref="AV11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1894,7 +1966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW10" authorId="0">
+    <comment ref="AW11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1918,7 +1990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX10" authorId="0">
+    <comment ref="AX11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1942,7 +2014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY10" authorId="0">
+    <comment ref="AY11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1966,7 +2038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ10" authorId="0">
+    <comment ref="AZ11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1990,7 +2062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA10" authorId="0">
+    <comment ref="BA11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2014,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB10" authorId="0">
+    <comment ref="BB11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2038,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC10" authorId="0">
+    <comment ref="BC11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2062,7 +2134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD10" authorId="0">
+    <comment ref="BD11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2158,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="BE11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 pago de cesar en el popular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 para devolver</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2110,7 +2278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2134,7 +2302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0">
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2158,7 +2326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0">
+    <comment ref="H13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2182,7 +2350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2206,7 +2374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2230,7 +2398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0">
+    <comment ref="K13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2254,7 +2422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0">
+    <comment ref="L13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2278,7 +2446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="M13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2302,7 +2470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="0">
+    <comment ref="N13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2326,7 +2494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0">
+    <comment ref="O13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2350,7 +2518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0">
+    <comment ref="P13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2374,7 +2542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0">
+    <comment ref="Q13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0">
+    <comment ref="R13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2422,7 +2590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0">
+    <comment ref="S13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2446,7 +2614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0">
+    <comment ref="T13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2470,7 +2638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U12" authorId="0">
+    <comment ref="U13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2494,7 +2662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V12" authorId="0">
+    <comment ref="V13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2518,7 +2686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W12" authorId="0">
+    <comment ref="W13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2542,7 +2710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X12" authorId="0">
+    <comment ref="X13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2566,7 +2734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y12" authorId="0">
+    <comment ref="Y13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2590,7 +2758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z12" authorId="0">
+    <comment ref="Z13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2614,7 +2782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA12" authorId="0">
+    <comment ref="AA13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2638,7 +2806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB12" authorId="0">
+    <comment ref="AB13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2662,7 +2830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC12" authorId="0">
+    <comment ref="AC13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2686,7 +2854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD12" authorId="0">
+    <comment ref="AD13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2710,7 +2878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE12" authorId="0">
+    <comment ref="AE13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2734,7 +2902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF12" authorId="0">
+    <comment ref="AF13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2758,7 +2926,56 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="AG13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 capital cobrado
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2782,7 +2999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2806,7 +3023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2830,7 +3047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="F19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2854,7 +3071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0">
+    <comment ref="G19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2878,7 +3095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2903,7 +3120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2927,7 +3144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2951,7 +3168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2975,7 +3192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2999,7 +3216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3023,7 +3240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0">
+    <comment ref="G25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3047,7 +3264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="E27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3071,7 +3288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3095,7 +3312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0">
+    <comment ref="F28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3119,7 +3336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3143,7 +3360,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="E30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3167,7 +3408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0">
+    <comment ref="E41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3191,7 +3432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0">
+    <comment ref="F41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3215,7 +3456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3239,7 +3480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0">
+    <comment ref="H41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3263,7 +3504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0">
+    <comment ref="I41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3287,7 +3528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J40" authorId="0">
+    <comment ref="J41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3311,7 +3552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K40" authorId="0">
+    <comment ref="K41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3335,7 +3576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L40" authorId="0">
+    <comment ref="L41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3359,7 +3600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M40" authorId="0">
+    <comment ref="M41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3383,7 +3624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N40" authorId="0">
+    <comment ref="N41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3407,7 +3648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0">
+    <comment ref="O41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3431,7 +3672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P40" authorId="0">
+    <comment ref="P41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3455,7 +3696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q40" authorId="0">
+    <comment ref="Q41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3479,7 +3720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R40" authorId="0">
+    <comment ref="R41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3503,7 +3744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S40" authorId="0">
+    <comment ref="S41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3527,7 +3768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T40" authorId="0">
+    <comment ref="T41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3551,7 +3792,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0">
+    <comment ref="U41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3575,7 +3840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0">
+    <comment ref="F42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3599,7 +3864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3623,7 +3888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="0">
+    <comment ref="H42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3647,7 +3912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0">
+    <comment ref="E44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3671,7 +3936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0">
+    <comment ref="E45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3696,7 +3961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G44" authorId="0">
+    <comment ref="G45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3720,7 +3985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0">
+    <comment ref="E46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3745,7 +4010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="F46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3769,7 +4034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0">
+    <comment ref="E47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3793,7 +4058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0">
+    <comment ref="E48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3817,7 +4082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0">
+    <comment ref="F48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3841,7 +4106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="0">
+    <comment ref="G48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3865,7 +4130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="0">
+    <comment ref="H48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3889,7 +4154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0">
+    <comment ref="I48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3913,7 +4178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="0">
+    <comment ref="J48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3937,7 +4202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0">
+    <comment ref="K48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3961,7 +4226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L47" authorId="0">
+    <comment ref="L48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3985,7 +4250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
+    <comment ref="E49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4009,7 +4274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0">
+    <comment ref="F49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4033,7 +4298,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0">
+    <comment ref="G49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 impuesto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4057,7 +4346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F49" authorId="0">
+    <comment ref="F50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4081,31 +4370,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-12/06 interes por extra credito</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H49" authorId="0">
+    <comment ref="G50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12/06 interes por extra credito por saldo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4129,7 +4418,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="I50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/06 interes bhd rosalis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4154,7 +4467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0">
+    <comment ref="G52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4178,7 +4491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
+    <comment ref="F53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4202,7 +4515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="0">
+    <comment ref="G53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4226,7 +4539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J52" authorId="0">
+    <comment ref="J53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4250,7 +4563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K52" authorId="0">
+    <comment ref="K53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4274,7 +4587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M52" authorId="0">
+    <comment ref="M53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4298,7 +4611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N52" authorId="0">
+    <comment ref="N53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4322,7 +4635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O52" authorId="0">
+    <comment ref="O53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4346,7 +4659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q52" authorId="0">
+    <comment ref="Q53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4370,7 +4683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R52" authorId="0">
+    <comment ref="R53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4394,7 +4707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T52" authorId="0">
+    <comment ref="T53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4418,7 +4731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4442,7 +4755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4466,7 +4779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="E56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4490,7 +4803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0">
+    <comment ref="F56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11491,7 +11804,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>Nombre</t>
   </si>
@@ -11698,6 +12011,9 @@
   </si>
   <si>
     <t>Gasto del hogar</t>
+  </si>
+  <si>
+    <t>Caja para cambio</t>
   </si>
 </sst>
 </file>
@@ -12276,10 +12592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL223"/>
+  <dimension ref="A1:BL224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -12316,7 +12632,7 @@
     <col min="31" max="31" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.7109375" style="34" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" style="34" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.85546875" style="34" customWidth="1"/>
     <col min="36" max="36" width="6.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
@@ -12340,8 +12656,7 @@
     <col min="56" max="56" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="10" style="34" customWidth="1"/>
     <col min="58" max="58" width="10.5703125" style="34" customWidth="1"/>
-    <col min="59" max="59" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="34" customWidth="1"/>
     <col min="62" max="62" width="7.42578125" style="34" customWidth="1"/>
     <col min="63" max="63" width="11.140625" style="34" customWidth="1"/>
@@ -12409,8 +12724,8 @@
         <v>50</v>
       </c>
       <c r="C2" s="9">
-        <f>SUM(C3,C8,C11)</f>
-        <v>987353.6100000001</v>
+        <f>SUM(C3,C8,C12)</f>
+        <v>988245.79</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -12423,7 +12738,7 @@
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>29310.310000000049</v>
+        <v>26870.910000000051</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
@@ -12436,7 +12751,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>724.57000000000744</v>
+        <v>1824.5700000000074</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
@@ -12506,6 +12821,9 @@
       </c>
       <c r="Z4" s="18">
         <v>-2362.1999999999998</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="18" customFormat="1">
@@ -12565,7 +12883,7 @@
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>7327.8799999999992</v>
+        <v>3788.4799999999991</v>
       </c>
       <c r="D7" s="17">
         <v>7743.6799999999994</v>
@@ -12578,6 +12896,9 @@
       </c>
       <c r="G7" s="18">
         <v>7324.2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>-3539.4</v>
       </c>
       <c r="BL7" s="35"/>
     </row>
@@ -12587,8 +12908,8 @@
         <v>42</v>
       </c>
       <c r="C8" s="9">
-        <f>SUM(C9:C10)</f>
-        <v>21720.949999999997</v>
+        <f>SUM(C10:C11)</f>
+        <v>27695.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -12597,771 +12918,793 @@
     <row r="9" spans="1:64" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2778</v>
-      </c>
-      <c r="D9" s="17">
-        <v>815</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="18">
-        <v>-805</v>
-      </c>
-      <c r="F9" s="18">
         <v>2000</v>
-      </c>
-      <c r="G9" s="18">
-        <v>-565</v>
-      </c>
-      <c r="H9" s="18">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="18">
-        <v>-870</v>
-      </c>
-      <c r="J9" s="18">
-        <v>-239</v>
-      </c>
-      <c r="K9" s="18">
-        <v>-550</v>
-      </c>
-      <c r="L9" s="18">
-        <v>-1091</v>
-      </c>
-      <c r="M9" s="18">
-        <v>2000</v>
-      </c>
-      <c r="N9" s="18">
-        <v>-320</v>
-      </c>
-      <c r="O9" s="18">
-        <v>-1435</v>
-      </c>
-      <c r="P9" s="18">
-        <v>-505</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>1600</v>
-      </c>
-      <c r="R9" s="18">
-        <v>-760</v>
-      </c>
-      <c r="S9" s="18">
-        <v>-309</v>
-      </c>
-      <c r="T9" s="18">
-        <v>-305</v>
-      </c>
-      <c r="U9" s="18">
-        <v>-313</v>
-      </c>
-      <c r="V9" s="18">
-        <v>2000</v>
-      </c>
-      <c r="W9" s="18">
-        <v>-1030</v>
-      </c>
-      <c r="X9" s="18">
-        <v>-1440</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>4000</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>-1100</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>18942.949999999997</v>
+        <v>2778</v>
       </c>
       <c r="D10" s="17">
+        <v>815</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-805</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="18">
+        <v>-565</v>
+      </c>
+      <c r="H10" s="18">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="18">
+        <v>-870</v>
+      </c>
+      <c r="J10" s="18">
+        <v>-239</v>
+      </c>
+      <c r="K10" s="18">
+        <v>-550</v>
+      </c>
+      <c r="L10" s="18">
+        <v>-1091</v>
+      </c>
+      <c r="M10" s="18">
+        <v>2000</v>
+      </c>
+      <c r="N10" s="18">
+        <v>-320</v>
+      </c>
+      <c r="O10" s="18">
+        <v>-1435</v>
+      </c>
+      <c r="P10" s="18">
+        <v>-505</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>1600</v>
+      </c>
+      <c r="R10" s="18">
+        <v>-760</v>
+      </c>
+      <c r="S10" s="18">
+        <v>-309</v>
+      </c>
+      <c r="T10" s="18">
+        <v>-305</v>
+      </c>
+      <c r="U10" s="18">
+        <v>-313</v>
+      </c>
+      <c r="V10" s="18">
+        <v>2000</v>
+      </c>
+      <c r="W10" s="18">
+        <v>-1030</v>
+      </c>
+      <c r="X10" s="18">
+        <v>-1440</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>4000</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" s="18" customFormat="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="16">
+        <f>SUM(D11:AAA11)</f>
+        <v>24917.949999999997</v>
+      </c>
+      <c r="D11" s="17">
         <v>43973.95</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E11" s="18">
         <v>7700</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F11" s="18">
         <v>25645</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G11" s="18">
         <v>-53000</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="18">
         <v>-3000</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="18">
         <v>-1185</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J11" s="18">
         <v>-701</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K11" s="18">
         <v>-15000</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L11" s="18">
         <v>1400</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M11" s="18">
         <v>-2000</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N11" s="18">
         <v>-900</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O11" s="18">
         <v>10000</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P11" s="18">
         <v>-11000</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q11" s="18">
         <v>12900</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R11" s="18">
         <v>-6700</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S11" s="18">
         <v>12340</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T11" s="18">
         <v>-3760</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U11" s="18">
         <v>7000</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V11" s="18">
         <v>-450</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W11" s="18">
         <v>-2000</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X11" s="18">
         <v>12000</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y11" s="18">
         <v>-29000</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z11" s="18">
         <v>5025</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA11" s="18">
         <v>-8500</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AB11" s="18">
         <v>4165</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC11" s="18">
         <v>-1500</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD11" s="18">
         <v>-2000</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE11" s="18">
         <v>13445</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF11" s="18">
         <v>-3325</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG11" s="18">
         <v>10840</v>
       </c>
-      <c r="AH10" s="18">
+      <c r="AH11" s="18">
         <v>-5000</v>
       </c>
-      <c r="AI10" s="18">
+      <c r="AI11" s="18">
         <v>1975</v>
       </c>
-      <c r="AJ10" s="18">
+      <c r="AJ11" s="18">
         <v>20</v>
       </c>
-      <c r="AK10" s="18">
+      <c r="AK11" s="18">
         <v>-1600</v>
       </c>
-      <c r="AL10" s="18">
+      <c r="AL11" s="18">
         <v>16025</v>
       </c>
-      <c r="AM10" s="18">
+      <c r="AM11" s="18">
         <v>-4000</v>
       </c>
-      <c r="AN10" s="18">
+      <c r="AN11" s="18">
         <v>3765</v>
       </c>
-      <c r="AO10" s="18">
+      <c r="AO11" s="18">
         <v>-2700</v>
       </c>
-      <c r="AP10" s="18">
+      <c r="AP11" s="18">
         <v>-8000</v>
       </c>
-      <c r="AQ10" s="18">
+      <c r="AQ11" s="18">
         <v>6050</v>
       </c>
-      <c r="AR10" s="18">
+      <c r="AR11" s="18">
         <v>-1000</v>
       </c>
-      <c r="AS10" s="18">
+      <c r="AS11" s="18">
         <v>-13900</v>
       </c>
-      <c r="AT10" s="18">
+      <c r="AT11" s="18">
         <v>-5000</v>
       </c>
-      <c r="AU10" s="18">
+      <c r="AU11" s="18">
         <v>2635</v>
       </c>
-      <c r="AV10" s="18">
+      <c r="AV11" s="18">
         <v>-2000</v>
       </c>
-      <c r="AW10" s="18">
+      <c r="AW11" s="18">
         <v>-6000</v>
       </c>
-      <c r="AX10" s="18">
+      <c r="AX11" s="18">
         <v>17180</v>
       </c>
-      <c r="AY10" s="18">
+      <c r="AY11" s="18">
         <v>-1000</v>
       </c>
-      <c r="AZ10" s="18">
+      <c r="AZ11" s="18">
         <v>-17200</v>
       </c>
-      <c r="BA10" s="18">
+      <c r="BA11" s="18">
         <v>17580</v>
       </c>
-      <c r="BB10" s="18">
+      <c r="BB11" s="18">
         <v>-4000</v>
       </c>
-      <c r="BC10" s="18">
+      <c r="BC11" s="18">
         <v>-500</v>
       </c>
-      <c r="BD10" s="18">
+      <c r="BD11" s="18">
         <v>3200</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" s="23" customFormat="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="BE11" s="18">
+        <v>24075</v>
+      </c>
+      <c r="BF11" s="18">
+        <v>-1100</v>
+      </c>
+      <c r="BG11" s="18">
+        <v>-15000</v>
+      </c>
+      <c r="BH11" s="18">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" s="23" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="21">
-        <f>SUM(C12:C18)</f>
-        <v>936322.35000000009</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C12" s="21">
+        <f>SUM(C13:C19)</f>
+        <v>933678.93</v>
+      </c>
+      <c r="D12" s="22">
         <v>987636.37</v>
       </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:64" s="18" customFormat="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="16">
-        <f>SUM(D12:AAA12)</f>
-        <v>593103.8400000002</v>
-      </c>
-      <c r="D12" s="17">
-        <v>558931.89</v>
-      </c>
-      <c r="E12" s="18">
-        <v>-19130.830000000002</v>
-      </c>
-      <c r="F12" s="18">
-        <v>53000</v>
-      </c>
-      <c r="G12" s="18">
-        <v>15000</v>
-      </c>
-      <c r="H12" s="18">
-        <v>-983.33</v>
-      </c>
-      <c r="I12" s="18">
-        <v>11000</v>
-      </c>
-      <c r="J12" s="18">
-        <v>-9614.07</v>
-      </c>
-      <c r="K12" s="18">
-        <v>-9655.31</v>
-      </c>
-      <c r="L12" s="18">
-        <v>29000</v>
-      </c>
-      <c r="M12" s="18">
-        <v>-4214.2299999999996</v>
-      </c>
-      <c r="N12" s="18">
-        <v>-3474.05</v>
-      </c>
-      <c r="O12" s="18">
-        <v>1500</v>
-      </c>
-      <c r="P12" s="18">
-        <v>-11054.74</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>-9354.33</v>
-      </c>
-      <c r="R12" s="18">
-        <v>5000</v>
-      </c>
-      <c r="S12" s="18">
-        <v>-1551.66</v>
-      </c>
-      <c r="T12" s="18">
-        <v>-13976.04</v>
-      </c>
-      <c r="U12" s="18">
-        <v>4000</v>
-      </c>
-      <c r="V12" s="18">
-        <v>-3234.23</v>
-      </c>
-      <c r="W12" s="18">
-        <v>8000</v>
-      </c>
-      <c r="X12" s="18">
-        <v>-4944.7</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>5000</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>-2160.59</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>6000</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>-12906.73</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>17200</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>-12473.21</v>
-      </c>
-      <c r="AE12" s="18">
-        <v>500</v>
-      </c>
-      <c r="AF12" s="18">
-        <v>-2300</v>
-      </c>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:64" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="16">
-        <f t="shared" ref="C13:C18" si="1">SUM(D13:AAA13)</f>
-        <v>280704.48</v>
+        <f>SUM(D13:AAA13)</f>
+        <v>590460.42000000016</v>
       </c>
       <c r="D13" s="17">
-        <v>78704.479999999981</v>
+        <v>558931.89</v>
       </c>
       <c r="E13" s="18">
-        <v>-15000</v>
+        <v>-19130.830000000002</v>
       </c>
       <c r="F13" s="18">
-        <v>357000</v>
+        <v>53000</v>
       </c>
       <c r="G13" s="18">
-        <v>-140000</v>
+        <v>15000</v>
+      </c>
+      <c r="H13" s="18">
+        <v>-983.33</v>
+      </c>
+      <c r="I13" s="18">
+        <v>11000</v>
+      </c>
+      <c r="J13" s="18">
+        <v>-9614.07</v>
+      </c>
+      <c r="K13" s="18">
+        <v>-9655.31</v>
+      </c>
+      <c r="L13" s="18">
+        <v>29000</v>
+      </c>
+      <c r="M13" s="18">
+        <v>-4214.2299999999996</v>
+      </c>
+      <c r="N13" s="18">
+        <v>-3474.05</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1500</v>
+      </c>
+      <c r="P13" s="18">
+        <v>-11054.74</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>-9354.33</v>
+      </c>
+      <c r="R13" s="18">
+        <v>5000</v>
+      </c>
+      <c r="S13" s="18">
+        <v>-1551.66</v>
+      </c>
+      <c r="T13" s="18">
+        <v>-13976.04</v>
+      </c>
+      <c r="U13" s="18">
+        <v>4000</v>
+      </c>
+      <c r="V13" s="18">
+        <v>-3234.23</v>
+      </c>
+      <c r="W13" s="18">
+        <v>8000</v>
+      </c>
+      <c r="X13" s="18">
+        <v>-4944.7</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>5000</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>-2160.59</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>6000</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>-12906.73</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>17200</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>-12473.21</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>500</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>-2300</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>-17643.419999999998</v>
+      </c>
+      <c r="AH13" s="18">
+        <v>15000</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="C14:C19" si="1">SUM(D14:AAA14)</f>
+        <v>280704.48</v>
       </c>
       <c r="D14" s="17">
-        <v>350000</v>
+        <v>78704.479999999981</v>
       </c>
       <c r="E14" s="18">
-        <v>-350000</v>
+        <v>-15000</v>
+      </c>
+      <c r="F14" s="18">
+        <v>357000</v>
+      </c>
+      <c r="G14" s="18">
+        <v>-140000</v>
       </c>
     </row>
     <row r="15" spans="1:64" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D15" s="17">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="E15" s="18">
-        <v>3500</v>
+        <v>-350000</v>
       </c>
     </row>
     <row r="16" spans="1:64" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
       </c>
       <c r="E16" s="18">
-        <v>2500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="18" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="1"/>
-        <v>49189.83</v>
+        <v>2500</v>
       </c>
       <c r="D17" s="17">
         <v>0</v>
       </c>
       <c r="E17" s="18">
-        <v>49189.83</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="18" customFormat="1">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
-        <v>7324.2</v>
+        <v>49189.83</v>
       </c>
       <c r="D18" s="17">
         <v>0</v>
       </c>
       <c r="E18" s="18">
+        <v>49189.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="1"/>
         <v>7324.2</v>
       </c>
-      <c r="F18" s="18">
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
         <v>7324.2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="F19" s="18">
+        <v>7324.2</v>
+      </c>
+      <c r="G19" s="18">
         <v>-7324.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="13" customFormat="1">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:8" s="13" customFormat="1">
+      <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="9">
-        <f>SUM(C20)</f>
-        <v>-205484.22999999998</v>
-      </c>
-      <c r="D19" s="12">
-        <v>-340506.02999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="13" customFormat="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C20" s="9">
-        <f>SUM(C21:C30)</f>
-        <v>-205484.22999999998</v>
+        <f>SUM(C21)</f>
+        <v>-202972.2</v>
       </c>
       <c r="D20" s="12">
         <v>-340506.02999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="18" customFormat="1">
+    <row r="21" spans="1:8" s="13" customFormat="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="16">
-        <f>SUM(D21:AAA21)</f>
-        <v>-1235.8599999999999</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>-1235.8599999999999</v>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="9">
+        <f>SUM(C22:C31)</f>
+        <v>-202972.2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-340506.02999999997</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="18" customFormat="1">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="16">
         <f>SUM(D22:AAA22)</f>
-        <v>-3000</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>-1235.8599999999999</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
       <c r="E22" s="18">
-        <v>-3000</v>
-      </c>
-      <c r="F22" s="18">
-        <v>-3000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>3000</v>
+        <v>-1235.8599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="18" customFormat="1">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" ref="C23:C30" si="2">SUM(D23:AAA23)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
+        <f>SUM(D23:AAA23)</f>
+        <v>-3000</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="18">
+        <v>-3000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>3000</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="18" customFormat="1">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="2"/>
-        <v>-900</v>
+        <f t="shared" ref="C24:C31" si="2">SUM(D24:AAA24)</f>
+        <v>0</v>
       </c>
       <c r="D24" s="17">
         <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>-900</v>
-      </c>
-      <c r="F24" s="18">
-        <v>-900</v>
-      </c>
-      <c r="G24" s="18">
-        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="18" customFormat="1">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D25" s="17">
         <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>-900</v>
+      </c>
+      <c r="F25" s="18">
+        <v>-900</v>
+      </c>
+      <c r="G25" s="18">
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="18" customFormat="1">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16">
         <f t="shared" si="2"/>
-        <v>-71421.48</v>
+        <v>0</v>
       </c>
       <c r="D26" s="17">
-        <v>-72347.289999999994</v>
-      </c>
-      <c r="E26" s="18">
-        <v>925.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="18" customFormat="1">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-71421.48</v>
       </c>
       <c r="D27" s="17">
-        <v>-138503.46</v>
+        <v>-72347.289999999994</v>
       </c>
       <c r="E27" s="18">
-        <v>4888.22</v>
-      </c>
-      <c r="F27" s="18">
-        <v>133615.24</v>
-      </c>
-      <c r="H27" s="26"/>
+        <v>925.81</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="18" customFormat="1">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="16">
         <f t="shared" si="2"/>
-        <v>-65513.770000000004</v>
+        <v>0</v>
       </c>
       <c r="D28" s="17">
-        <v>-67020.86</v>
+        <v>-138503.46</v>
       </c>
       <c r="E28" s="18">
-        <v>1507.09</v>
-      </c>
+        <v>4888.22</v>
+      </c>
+      <c r="F28" s="18">
+        <v>133615.24</v>
+      </c>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" s="18" customFormat="1">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="16">
         <f t="shared" si="2"/>
-        <v>-62634.42</v>
+        <v>-65513.770000000004</v>
       </c>
       <c r="D29" s="17">
-        <v>-62634.42</v>
+        <v>-67020.86</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1507.09</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="18" customFormat="1">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="16">
         <f t="shared" si="2"/>
+        <v>-60122.39</v>
+      </c>
+      <c r="D30" s="17">
+        <v>-62634.42</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2512.0300000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="18" customFormat="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="2"/>
         <v>-778.7</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <v>0</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="18">
         <v>-778.7</v>
       </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:8" s="13" customFormat="1">
-      <c r="A31" s="7" t="s">
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" s="13" customFormat="1">
+      <c r="A32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="9">
-        <f>SUM(C32:C33)</f>
+      <c r="C32" s="9">
+        <f>SUM(C33:C34)</f>
         <v>-706268.88</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <v>-706268.88</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="18" customFormat="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28" t="s">
+    <row r="33" spans="1:21" s="18" customFormat="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C33" s="16">
         <v>-601196.64</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <v>-601196.64</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:20" s="18" customFormat="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:21" s="18" customFormat="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="16">
-        <f>SUM(D33:ZZ33)</f>
+      <c r="C34" s="16">
+        <f>SUM(D34:ZZ34)</f>
         <v>-105072.24000000002</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D34" s="17">
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="13" customFormat="1">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:21" s="13" customFormat="1">
+      <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="9">
-        <f>SUM(C35:C41)</f>
-        <v>-115128.77</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C35" s="9">
+        <f>SUM(C36:C42)</f>
+        <v>-121560.35</v>
+      </c>
+      <c r="D35" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="18" customFormat="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
+    <row r="36" spans="1:21" s="18" customFormat="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="16">
-        <f>SUM(D35:AAA35)</f>
+      <c r="C36" s="16">
+        <f>SUM(D36:AAA36)</f>
         <v>-6000</v>
-      </c>
-      <c r="D35" s="17">
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <v>-6000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="18" customFormat="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="16">
-        <f t="shared" ref="C36:C41" si="3">SUM(D36:AAA36)</f>
-        <v>-63838.23</v>
       </c>
       <c r="D36" s="17">
         <v>0</v>
       </c>
       <c r="E36" s="18">
-        <v>-63838.23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" s="18" customFormat="1">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="C37:C42" si="3">SUM(D37:AAA37)</f>
+        <v>-63838.23</v>
       </c>
       <c r="D37" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" s="18" customFormat="1">
+      <c r="E37" s="18">
+        <v>-63838.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" s="16">
         <f t="shared" si="3"/>
@@ -13371,486 +13714,502 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="18" customFormat="1">
+    <row r="39" spans="1:21" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D39" s="17">
         <v>0</v>
       </c>
-      <c r="E39" s="18">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="18" customFormat="1">
+    </row>
+    <row r="40" spans="1:21" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C40" s="16">
         <f t="shared" si="3"/>
-        <v>-33141.949999999997</v>
+        <v>-20</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
       </c>
       <c r="E40" s="18">
-        <v>-6514.17</v>
-      </c>
-      <c r="F40" s="18">
-        <v>-416.67</v>
-      </c>
-      <c r="G40" s="18">
-        <v>-3285.93</v>
-      </c>
-      <c r="H40" s="18">
-        <v>-2684.69</v>
-      </c>
-      <c r="I40" s="18">
-        <v>-810.77</v>
-      </c>
-      <c r="J40" s="18">
-        <v>-690.95</v>
-      </c>
-      <c r="K40" s="18">
-        <v>-2390.2600000000002</v>
-      </c>
-      <c r="L40" s="18">
-        <v>-1485.67</v>
-      </c>
-      <c r="M40" s="18">
-        <v>-423.34</v>
-      </c>
-      <c r="N40" s="18">
-        <v>-2048.96</v>
-      </c>
-      <c r="O40" s="18">
-        <v>-530.77</v>
-      </c>
-      <c r="P40" s="18">
-        <v>-1105.3</v>
-      </c>
-      <c r="Q40" s="18">
-        <v>-474.41</v>
-      </c>
-      <c r="R40" s="18">
-        <v>-4273.2700000000004</v>
-      </c>
-      <c r="S40" s="18">
-        <v>-5106.79</v>
-      </c>
-      <c r="T40" s="18">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="18" customFormat="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-12128.589999999998</v>
+        <v>-39573.53</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
       </c>
       <c r="E41" s="18">
+        <v>-6514.17</v>
+      </c>
+      <c r="F41" s="18">
+        <v>-416.67</v>
+      </c>
+      <c r="G41" s="18">
+        <v>-3285.93</v>
+      </c>
+      <c r="H41" s="18">
+        <v>-2684.69</v>
+      </c>
+      <c r="I41" s="18">
+        <v>-810.77</v>
+      </c>
+      <c r="J41" s="18">
+        <v>-690.95</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-2390.2600000000002</v>
+      </c>
+      <c r="L41" s="18">
+        <v>-1485.67</v>
+      </c>
+      <c r="M41" s="18">
+        <v>-423.34</v>
+      </c>
+      <c r="N41" s="18">
+        <v>-2048.96</v>
+      </c>
+      <c r="O41" s="18">
+        <v>-530.77</v>
+      </c>
+      <c r="P41" s="18">
+        <v>-1105.3</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>-474.41</v>
+      </c>
+      <c r="R41" s="18">
+        <v>-4273.2700000000004</v>
+      </c>
+      <c r="S41" s="18">
+        <v>-5106.79</v>
+      </c>
+      <c r="T41" s="18">
+        <v>-900</v>
+      </c>
+      <c r="U41" s="18">
+        <v>-6431.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="18" customFormat="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" si="3"/>
+        <v>-12128.589999999998</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
         <v>-0.12</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F42" s="18">
         <v>-3.26</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G42" s="18">
         <v>-10642.4</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H42" s="18">
         <v>-1482.81</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="13" customFormat="1">
-      <c r="A42" s="7" t="s">
+    <row r="43" spans="1:21" s="13" customFormat="1">
+      <c r="A43" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="9">
-        <f>SUM(C43:C55)</f>
-        <v>39528.269999999997</v>
-      </c>
-      <c r="D42" s="12">
+      <c r="C43" s="9">
+        <f>SUM(C44:C56)</f>
+        <v>40555.64</v>
+      </c>
+      <c r="D43" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="18" customFormat="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="16">
-        <f>SUM(D43:AAA43)</f>
-        <v>1485</v>
-      </c>
-      <c r="D43" s="17">
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <v>1435</v>
-      </c>
-      <c r="F43" s="18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="18" customFormat="1">
+    <row r="44" spans="1:21" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" ref="C44:C56" si="4">SUM(D44:AAA44)</f>
-        <v>1914</v>
+        <f>SUM(D44:AAA44)</f>
+        <v>1485</v>
       </c>
       <c r="D44" s="17">
         <v>0</v>
       </c>
       <c r="E44" s="18">
-        <v>1800</v>
+        <v>1435</v>
       </c>
       <c r="F44" s="18">
-        <v>80</v>
-      </c>
-      <c r="G44" s="18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="18" customFormat="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="16">
+        <f t="shared" ref="C45:C57" si="4">SUM(D45:AAA45)</f>
+        <v>1914</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="18">
+        <v>80</v>
+      </c>
+      <c r="G45" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="18" customFormat="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C46" s="16">
         <f t="shared" si="4"/>
         <v>2014.56</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>0</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E46" s="18">
         <v>1235.8599999999999</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F46" s="18">
         <v>778.7</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="18" customFormat="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="15" t="s">
+    <row r="47" spans="1:21" s="18" customFormat="1">
+      <c r="A47" s="29"/>
+      <c r="B47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C47" s="16">
         <f t="shared" si="4"/>
         <v>701</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <v>0</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="18">
         <v>701</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="18" customFormat="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="15" t="s">
+    <row r="48" spans="1:21" s="18" customFormat="1">
+      <c r="A48" s="29"/>
+      <c r="B48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C48" s="16">
         <f t="shared" si="4"/>
         <v>3110</v>
       </c>
-      <c r="D47" s="17">
-        <v>0</v>
-      </c>
-      <c r="E47" s="18">
-        <v>150</v>
-      </c>
-      <c r="F47" s="18">
-        <v>75</v>
-      </c>
-      <c r="G47" s="18">
-        <v>100</v>
-      </c>
-      <c r="H47" s="18">
-        <v>75</v>
-      </c>
-      <c r="I47" s="18">
-        <v>110</v>
-      </c>
-      <c r="J47" s="18">
-        <v>1000</v>
-      </c>
-      <c r="K47" s="18">
-        <v>600</v>
-      </c>
-      <c r="L47" s="18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="18" customFormat="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="16">
-        <f t="shared" si="4"/>
-        <v>157.1</v>
-      </c>
       <c r="D48" s="17">
         <v>0</v>
       </c>
       <c r="E48" s="18">
-        <v>144.13999999999999</v>
+        <v>150</v>
       </c>
       <c r="F48" s="18">
-        <v>12.96</v>
+        <v>75</v>
+      </c>
+      <c r="G48" s="18">
+        <v>100</v>
+      </c>
+      <c r="H48" s="18">
+        <v>75</v>
+      </c>
+      <c r="I48" s="18">
+        <v>110</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="18">
+        <v>600</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:22" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>6747.11</v>
-      </c>
-      <c r="D49" s="17"/>
+        <v>162.4</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
       <c r="E49" s="18">
-        <v>1027.28</v>
+        <v>144.13999999999999</v>
       </c>
       <c r="F49" s="18">
-        <v>3572.23</v>
+        <v>12.96</v>
       </c>
       <c r="G49" s="18">
-        <v>459.49</v>
-      </c>
-      <c r="H49" s="18">
-        <v>1688.11</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="17">
-        <v>0</v>
+        <v>7769.1799999999994</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18">
+        <v>1027.28</v>
+      </c>
+      <c r="F50" s="18">
+        <v>3572.23</v>
+      </c>
+      <c r="G50" s="18">
+        <v>459.49</v>
+      </c>
+      <c r="H50" s="18">
+        <v>1688.11</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1022.07</v>
       </c>
     </row>
     <row r="51" spans="1:22" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>14176.3</v>
+        <v>0</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
-      </c>
-      <c r="E51" s="18">
-        <v>6000</v>
-      </c>
-      <c r="F51" s="18">
-        <v>130</v>
-      </c>
-      <c r="G51" s="18">
-        <v>3699.3</v>
-      </c>
-      <c r="H51" s="18">
-        <v>505</v>
-      </c>
-      <c r="I51" s="18">
-        <v>182</v>
-      </c>
-      <c r="J51" s="18">
-        <v>378</v>
-      </c>
-      <c r="K51" s="18">
-        <v>100</v>
-      </c>
-      <c r="L51" s="18">
-        <v>475</v>
-      </c>
-      <c r="M51" s="18">
-        <v>540</v>
-      </c>
-      <c r="N51" s="18">
-        <v>199</v>
-      </c>
-      <c r="O51" s="18">
-        <v>285</v>
-      </c>
-      <c r="P51" s="18">
-        <v>223</v>
-      </c>
-      <c r="Q51" s="18">
-        <v>370</v>
-      </c>
-      <c r="R51" s="18">
-        <v>250</v>
-      </c>
-      <c r="S51" s="18">
-        <v>220</v>
-      </c>
-      <c r="T51" s="18">
-        <v>110</v>
-      </c>
-      <c r="U51" s="18">
-        <v>90</v>
-      </c>
-      <c r="V51" s="18">
-        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:22" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>7911.25</v>
+        <v>14176.3</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
       </c>
       <c r="E52" s="18">
-        <v>660</v>
+        <v>6000</v>
       </c>
       <c r="F52" s="18">
-        <v>635</v>
+        <v>130</v>
       </c>
       <c r="G52" s="18">
-        <v>270</v>
+        <v>3699.3</v>
       </c>
       <c r="H52" s="18">
-        <v>245</v>
+        <v>505</v>
       </c>
       <c r="I52" s="18">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="J52" s="18">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="K52" s="18">
+        <v>100</v>
+      </c>
+      <c r="L52" s="18">
+        <v>475</v>
+      </c>
+      <c r="M52" s="18">
+        <v>540</v>
+      </c>
+      <c r="N52" s="18">
+        <v>199</v>
+      </c>
+      <c r="O52" s="18">
+        <v>285</v>
+      </c>
+      <c r="P52" s="18">
+        <v>223</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>370</v>
+      </c>
+      <c r="R52" s="18">
+        <v>250</v>
+      </c>
+      <c r="S52" s="18">
+        <v>220</v>
+      </c>
+      <c r="T52" s="18">
         <v>110</v>
       </c>
-      <c r="L52" s="18">
-        <v>57</v>
-      </c>
-      <c r="M52" s="18">
-        <v>679</v>
-      </c>
-      <c r="N52" s="18">
-        <v>110</v>
-      </c>
-      <c r="O52" s="18">
-        <v>2325</v>
-      </c>
-      <c r="P52" s="18">
-        <v>30</v>
-      </c>
-      <c r="Q52" s="18">
-        <v>660</v>
-      </c>
-      <c r="R52" s="18">
-        <v>1185.25</v>
-      </c>
-      <c r="S52" s="18">
-        <v>120</v>
-      </c>
-      <c r="T52" s="18">
-        <v>100</v>
+      <c r="U52" s="18">
+        <v>90</v>
+      </c>
+      <c r="V52" s="18">
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:22" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7911.25</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
+      </c>
+      <c r="E53" s="18">
+        <v>660</v>
+      </c>
+      <c r="F53" s="18">
+        <v>635</v>
+      </c>
+      <c r="G53" s="18">
+        <v>270</v>
+      </c>
+      <c r="H53" s="18">
+        <v>245</v>
+      </c>
+      <c r="I53" s="18">
+        <v>275</v>
+      </c>
+      <c r="J53" s="18">
+        <v>450</v>
+      </c>
+      <c r="K53" s="18">
+        <v>110</v>
+      </c>
+      <c r="L53" s="18">
+        <v>57</v>
+      </c>
+      <c r="M53" s="18">
+        <v>679</v>
+      </c>
+      <c r="N53" s="18">
+        <v>110</v>
+      </c>
+      <c r="O53" s="18">
+        <v>2325</v>
+      </c>
+      <c r="P53" s="18">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>660</v>
+      </c>
+      <c r="R53" s="18">
+        <v>1185.25</v>
+      </c>
+      <c r="S53" s="18">
+        <v>120</v>
+      </c>
+      <c r="T53" s="18">
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:22" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C54" s="16">
-        <f>SUM(D54:ZZ54)</f>
-        <v>1196.95</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D54" s="17">
         <v>0</v>
-      </c>
-      <c r="E54" s="18">
-        <v>20</v>
-      </c>
-      <c r="F54" s="18">
-        <v>1176.95</v>
       </c>
     </row>
     <row r="55" spans="1:22" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="16">
+        <f>SUM(D55:ZZ55)</f>
+        <v>1196.95</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <v>20</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1176.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="18" customFormat="1">
+      <c r="A56" s="29"/>
+      <c r="B56" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C56" s="16">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="D55" s="17">
-        <v>0</v>
-      </c>
-      <c r="E55" s="18">
-        <v>75</v>
-      </c>
-      <c r="F55" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="18" customFormat="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="D56" s="17">
         <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <v>75</v>
+      </c>
+      <c r="F56" s="18">
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:22" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:22" s="18" customFormat="1">
       <c r="A58" s="29"/>
@@ -14847,7 +15206,13 @@
       <c r="B223" s="15"/>
       <c r="C223" s="16"/>
       <c r="D223" s="17"/>
-      <c r="F223" s="34"/>
+    </row>
+    <row r="224" spans="1:6" s="18" customFormat="1">
+      <c r="A224" s="29"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="17"/>
+      <c r="F224" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22349,7 +22714,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>987353.6100000001</v>
+        <v>988245.79</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -22358,8 +22723,8 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>contabilidad!C19+contabilidad!C31</f>
-        <v>-911753.11</v>
+        <f>contabilidad!C20+contabilidad!C32</f>
+        <v>-909241.08000000007</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -22367,18 +22732,18 @@
         <v>58</v>
       </c>
       <c r="D6" s="1">
-        <f>contabilidad!C34+contabilidad!C42</f>
-        <v>-75600.5</v>
+        <f>contabilidad!C35+contabilidad!C43</f>
+        <v>-81004.710000000006</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>987353.6100000001</v>
+        <v>988245.79</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-987353.61</v>
+        <v>-990245.79</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -22387,7 +22752,7 @@
       </c>
       <c r="D9" s="3">
         <f>C7+D7</f>
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="10" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="contabilidad" sheetId="2" r:id="rId1"/>
-    <sheet name="mes de mayo " sheetId="5" r:id="rId2"/>
-    <sheet name="balanza comprobacion" sheetId="4" r:id="rId3"/>
+    <sheet name="balanza comprobacion" sheetId="4" r:id="rId2"/>
+    <sheet name="mes de mayo " sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -477,6 +477,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 
+pago internet altices</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 paga de NC</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0">
       <text>
         <r>
@@ -2254,6 +2303,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="BI11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ 18/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
@@ -2975,6 +3072,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E14" authorId="0">
       <text>
         <r>
@@ -3120,6 +3265,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0">
       <text>
         <r>
@@ -3428,7 +3597,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-01/06</t>
+01/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3452,7 +3621,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-02/06</t>
+02/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3476,7 +3645,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-03/06</t>
+03/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3500,7 +3669,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-04/06</t>
+04/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3548,7 +3717,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-06/06 </t>
+06/06  ganancia</t>
         </r>
       </text>
     </comment>
@@ -3572,7 +3741,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-07/06</t>
+07/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3596,7 +3765,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-08/06</t>
+08/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3620,7 +3789,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-09/06</t>
+09/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3644,7 +3813,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-10/06</t>
+10/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3668,7 +3837,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-11/06</t>
+11/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3692,7 +3861,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-12/06</t>
+12/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3716,7 +3885,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-13/06</t>
+13/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3740,7 +3909,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-14/06</t>
+14/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3764,7 +3933,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-15/06</t>
+15/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -3788,7 +3957,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-16/06</t>
+16/06 Ganancia</t>
         </r>
       </text>
     </comment>
@@ -3812,7 +3981,32 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-17/06</t>
+17/06 ganancia
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 ganancia</t>
         </r>
       </text>
     </comment>
@@ -4322,6 +4516,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18/06 itbis popular por pagar internet altice</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E50" authorId="0">
       <text>
         <r>
@@ -4779,7 +4997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0">
+    <comment ref="G55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4803,7 +5021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0">
+    <comment ref="H55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12594,8 +12812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -12605,60 +12823,59 @@
     <col min="3" max="3" width="12.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="34" customWidth="1"/>
     <col min="8" max="8" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="34" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="11" style="34" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="34" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" style="34" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.85546875" style="34" customWidth="1"/>
     <col min="19" max="19" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="34" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="34" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="10" style="34" customWidth="1"/>
+    <col min="22" max="23" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.42578125" style="34" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" style="34" customWidth="1"/>
+    <col min="29" max="29" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" style="34" customWidth="1"/>
     <col min="32" max="32" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.7109375" style="34" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" style="34" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" style="34" customWidth="1"/>
+    <col min="36" max="37" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" style="34" customWidth="1"/>
-    <col min="40" max="40" width="9.28515625" style="34" customWidth="1"/>
-    <col min="41" max="41" width="9.5703125" style="34" customWidth="1"/>
-    <col min="42" max="42" width="9.42578125" style="34" customWidth="1"/>
-    <col min="43" max="43" width="9.7109375" style="34" customWidth="1"/>
-    <col min="44" max="44" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.140625" style="34" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" style="34" customWidth="1"/>
+    <col min="40" max="40" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="34" customWidth="1"/>
+    <col min="42" max="42" width="9" style="34" customWidth="1"/>
+    <col min="43" max="43" width="8.42578125" style="34" customWidth="1"/>
+    <col min="44" max="44" width="9" style="34" customWidth="1"/>
+    <col min="45" max="45" width="10" style="34" customWidth="1"/>
     <col min="46" max="46" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.28515625" style="34" customWidth="1"/>
-    <col min="48" max="48" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.42578125" style="34" customWidth="1"/>
-    <col min="53" max="53" width="9.7109375" style="34" customWidth="1"/>
-    <col min="54" max="54" width="9.42578125" style="34" customWidth="1"/>
-    <col min="55" max="55" width="9.85546875" style="34" customWidth="1"/>
-    <col min="56" max="56" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10" style="34" customWidth="1"/>
-    <col min="58" max="58" width="10.5703125" style="34" customWidth="1"/>
-    <col min="59" max="60" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8" style="34" customWidth="1"/>
-    <col min="62" max="62" width="7.42578125" style="34" customWidth="1"/>
+    <col min="47" max="47" width="8.5703125" style="34" customWidth="1"/>
+    <col min="48" max="49" width="8.85546875" style="34" customWidth="1"/>
+    <col min="50" max="50" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" style="34" customWidth="1"/>
+    <col min="52" max="52" width="10" style="34" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" style="34" customWidth="1"/>
+    <col min="54" max="54" width="8.7109375" style="34" customWidth="1"/>
+    <col min="55" max="55" width="7.7109375" style="34" customWidth="1"/>
+    <col min="56" max="56" width="8.42578125" style="34" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" style="34" customWidth="1"/>
+    <col min="58" max="58" width="9.85546875" style="34" customWidth="1"/>
+    <col min="59" max="59" width="10.140625" style="34" customWidth="1"/>
+    <col min="60" max="60" width="9.28515625" style="34" customWidth="1"/>
+    <col min="61" max="61" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.28515625" style="34" customWidth="1"/>
     <col min="63" max="63" width="11.140625" style="34" customWidth="1"/>
     <col min="64" max="64" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="7.85546875" style="34" customWidth="1"/>
@@ -12725,7 +12942,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C12)</f>
-        <v>988245.79</v>
+        <v>991011.07000000018</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
@@ -12738,7 +12955,7 @@
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>26870.910000000051</v>
+        <v>28135.050000000087</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
@@ -12751,7 +12968,7 @@
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>1824.5700000000074</v>
+        <v>3088.7100000000428</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
@@ -12763,7 +12980,7 @@
         <v>-0.01</v>
       </c>
       <c r="G4" s="18">
-        <v>0.12</v>
+        <v>1.97</v>
       </c>
       <c r="H4" s="18">
         <v>-50</v>
@@ -12824,6 +13041,13 @@
       </c>
       <c r="AA4" s="18">
         <v>1100</v>
+      </c>
+      <c r="AB4" s="18">
+        <f>-1.85-1235.86</f>
+        <v>-1237.7099999999998</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:64" s="18" customFormat="1">
@@ -12908,8 +13132,8 @@
         <v>42</v>
       </c>
       <c r="C8" s="9">
-        <f>SUM(C10:C11)</f>
-        <v>27695.949999999997</v>
+        <f>SUM(C9:C11)</f>
+        <v>32120.949999999997</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
@@ -13015,7 +13239,7 @@
       </c>
       <c r="C11" s="16">
         <f>SUM(D11:AAA11)</f>
-        <v>24917.949999999997</v>
+        <v>27342.949999999997</v>
       </c>
       <c r="D11" s="17">
         <v>43973.95</v>
@@ -13187,6 +13411,12 @@
       </c>
       <c r="BH11" s="18">
         <v>-2000</v>
+      </c>
+      <c r="BI11" s="18">
+        <v>-5000</v>
+      </c>
+      <c r="BJ11" s="18">
+        <v>7425</v>
       </c>
     </row>
     <row r="12" spans="1:64" s="23" customFormat="1">
@@ -13196,7 +13426,7 @@
       </c>
       <c r="C12" s="21">
         <f>SUM(C13:C19)</f>
-        <v>933678.93</v>
+        <v>930755.07000000007</v>
       </c>
       <c r="D12" s="22">
         <v>987636.37</v>
@@ -13210,7 +13440,7 @@
       </c>
       <c r="C13" s="16">
         <f>SUM(D13:AAA13)</f>
-        <v>590460.42000000016</v>
+        <v>590036.56000000017</v>
       </c>
       <c r="D13" s="17">
         <v>558931.89</v>
@@ -13304,6 +13534,12 @@
       </c>
       <c r="AH13" s="18">
         <v>15000</v>
+      </c>
+      <c r="AI13" s="18">
+        <v>5000</v>
+      </c>
+      <c r="AJ13" s="18">
+        <v>-5423.86</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="18" customFormat="1">
@@ -13367,13 +13603,16 @@
       </c>
       <c r="C17" s="16">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D17" s="17">
         <v>0</v>
       </c>
       <c r="E17" s="18">
         <v>2500</v>
+      </c>
+      <c r="F17" s="18">
+        <v>-2500</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="18" customFormat="1">
@@ -13423,7 +13662,7 @@
       </c>
       <c r="C20" s="9">
         <f>SUM(C21)</f>
-        <v>-202972.2</v>
+        <v>-201736.34000000003</v>
       </c>
       <c r="D20" s="12">
         <v>-340506.02999999997</v>
@@ -13436,7 +13675,7 @@
       </c>
       <c r="C21" s="9">
         <f>SUM(C22:C31)</f>
-        <v>-202972.2</v>
+        <v>-201736.34000000003</v>
       </c>
       <c r="D21" s="12">
         <v>-340506.02999999997</v>
@@ -13449,13 +13688,16 @@
       </c>
       <c r="C22" s="16">
         <f>SUM(D22:AAA22)</f>
-        <v>-1235.8599999999999</v>
+        <v>0</v>
       </c>
       <c r="D22" s="17">
         <v>0</v>
       </c>
       <c r="E22" s="18">
         <v>-1235.8599999999999</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1235.8599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="18" customFormat="1">
@@ -13626,7 +13868,7 @@
         <v>-706268.88</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="18" customFormat="1">
+    <row r="33" spans="1:22" s="18" customFormat="1">
       <c r="A33" s="27"/>
       <c r="B33" s="28" t="s">
         <v>40</v>
@@ -13641,7 +13883,7 @@
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:21" s="18" customFormat="1">
+    <row r="34" spans="1:22" s="18" customFormat="1">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>39</v>
@@ -13654,7 +13896,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="13" customFormat="1">
+    <row r="35" spans="1:22" s="13" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
@@ -13663,13 +13905,13 @@
       </c>
       <c r="C35" s="9">
         <f>SUM(C36:C42)</f>
-        <v>-121560.35</v>
+        <v>-123563.34000000001</v>
       </c>
       <c r="D35" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="18" customFormat="1">
+    <row r="36" spans="1:22" s="18" customFormat="1">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
         <v>8</v>
@@ -13685,7 +13927,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="18" customFormat="1">
+    <row r="37" spans="1:22" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -13701,7 +13943,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="18" customFormat="1">
+    <row r="38" spans="1:22" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>9</v>
@@ -13714,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="18" customFormat="1">
+    <row r="39" spans="1:22" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>5</v>
@@ -13727,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="18" customFormat="1">
+    <row r="40" spans="1:22" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>4</v>
@@ -13743,14 +13985,14 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="18" customFormat="1">
+    <row r="41" spans="1:22" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-39573.53</v>
+        <v>-41574.67</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -13806,21 +14048,24 @@
       <c r="U41" s="18">
         <v>-6431.58</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" s="18" customFormat="1">
+      <c r="V41" s="18">
+        <v>-2001.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="3"/>
-        <v>-12128.589999999998</v>
+        <v>-12130.439999999999</v>
       </c>
       <c r="D42" s="17">
         <v>0</v>
       </c>
       <c r="E42" s="18">
-        <v>-0.12</v>
+        <v>-1.97</v>
       </c>
       <c r="F42" s="18">
         <v>-3.26</v>
@@ -13832,7 +14077,7 @@
         <v>-1482.81</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="13" customFormat="1">
+    <row r="43" spans="1:22" s="13" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>52</v>
       </c>
@@ -13841,13 +14086,13 @@
       </c>
       <c r="C43" s="9">
         <f>SUM(C44:C56)</f>
-        <v>40555.64</v>
+        <v>40557.489999999991</v>
       </c>
       <c r="D43" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="18" customFormat="1">
+    <row r="44" spans="1:22" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>12</v>
@@ -13866,7 +14111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="18" customFormat="1">
+    <row r="45" spans="1:22" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>20</v>
@@ -13888,7 +14133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="18" customFormat="1">
+    <row r="46" spans="1:22" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>18</v>
@@ -13907,7 +14152,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="18" customFormat="1">
+    <row r="47" spans="1:22" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>17</v>
@@ -13923,7 +14168,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="18" customFormat="1">
+    <row r="48" spans="1:22" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>11</v>
@@ -13967,7 +14212,7 @@
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>162.4</v>
+        <v>164.25</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -13980,6 +14225,9 @@
       </c>
       <c r="G49" s="18">
         <v>5.3</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1.85</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="18" customFormat="1">
@@ -14169,7 +14417,7 @@
       </c>
       <c r="C55" s="16">
         <f>SUM(D55:ZZ55)</f>
-        <v>1196.95</v>
+        <v>1311.95</v>
       </c>
       <c r="D55" s="17">
         <v>0</v>
@@ -14179,6 +14427,12 @@
       </c>
       <c r="F55" s="18">
         <v>1176.95</v>
+      </c>
+      <c r="G55" s="18">
+        <v>75</v>
+      </c>
+      <c r="H55" s="18">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:22" s="18" customFormat="1">
@@ -14187,17 +14441,11 @@
         <v>65</v>
       </c>
       <c r="C56" s="16">
-        <f t="shared" si="4"/>
-        <v>115</v>
+        <f>SUM(D56:AAA56)</f>
+        <v>0</v>
       </c>
       <c r="D56" s="17">
         <v>0</v>
-      </c>
-      <c r="E56" s="18">
-        <v>75</v>
-      </c>
-      <c r="F56" s="18">
-        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:22" s="18" customFormat="1">
@@ -15222,6 +15470,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1">
+        <f>contabilidad!C2</f>
+        <v>991011.07000000018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>contabilidad!C20+contabilidad!C32</f>
+        <v>-908005.22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1">
+        <f>contabilidad!C35+contabilidad!C43</f>
+        <v>-83005.85000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="1">
+        <f>SUM(C4:C6)</f>
+        <v>991011.07000000018</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(D5:D6)</f>
+        <v>-991011.07</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C7+D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DA57"/>
   <sheetViews>
@@ -22676,93 +23013,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1">
-        <f>contabilidad!C2</f>
-        <v>988245.79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <f>contabilidad!C20+contabilidad!C32</f>
-        <v>-909241.08000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1">
-        <f>contabilidad!C35+contabilidad!C43</f>
-        <v>-81004.710000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="C7" s="1">
-        <f>SUM(C4:C6)</f>
-        <v>988245.79</v>
-      </c>
-      <c r="D7" s="1">
-        <f>SUM(D5:D6)</f>
-        <v>-990245.79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3">
-        <f>C7+D7</f>
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="D10" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -694,6 +694,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06  transferencia</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0">
       <text>
         <r>
@@ -2348,6 +2372,30 @@
           </rPr>
           <t xml:space="preserve">
  18/06 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06  transferencia</t>
         </r>
       </text>
     </comment>
@@ -12812,8 +12860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -13146,11 +13194,14 @@
       </c>
       <c r="C9" s="16">
         <f>SUM(D9:AAA9)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
         <v>2000</v>
+      </c>
+      <c r="F9" s="18">
+        <v>-2000</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="18" customFormat="1">
@@ -13239,7 +13290,7 @@
       </c>
       <c r="C11" s="16">
         <f>SUM(D11:AAA11)</f>
-        <v>27342.949999999997</v>
+        <v>29342.949999999997</v>
       </c>
       <c r="D11" s="17">
         <v>43973.95</v>
@@ -13417,6 +13468,9 @@
       </c>
       <c r="BJ11" s="18">
         <v>7425</v>
+      </c>
+      <c r="BK11" s="18">
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:64" s="23" customFormat="1">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -526,6 +526,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/06 cargo</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F6" authorId="0">
       <text>
         <r>
@@ -622,6 +646,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="M6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 para fondo bhd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 para cerveza</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F7" authorId="0">
       <text>
         <r>
@@ -670,6 +742,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/06 compra del hogar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
@@ -979,6 +1075,30 @@
           </rPr>
           <t xml:space="preserve">
 15/06 gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 gasto</t>
         </r>
       </text>
     </comment>
@@ -2399,6 +2519,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="BL11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 cobardo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 areglo de carro y medicamento ninos</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
@@ -3168,6 +3360,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E14" authorId="0">
       <text>
         <r>
@@ -4058,6 +4298,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="W41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 ganancia</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E42" authorId="0">
       <text>
         <r>
@@ -4492,6 +4756,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="M48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 areglo del carro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06pasaje conpra</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E49" authorId="0">
       <text>
         <r>
@@ -4588,6 +4900,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/06 cargo BP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E50" authorId="0">
       <text>
         <r>
@@ -4705,6 +5041,30 @@
           </rPr>
           <t xml:space="preserve">
 17/06 interes bhd rosalis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 100 consulta y 1300 mediicamento</t>
         </r>
       </text>
     </comment>
@@ -4757,6 +5117,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="X52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/06 compra del hogar</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F53" authorId="0">
       <text>
         <r>
@@ -4994,6 +5378,54 @@
           </rPr>
           <t xml:space="preserve">
 16/06 cerveza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 quezo y galletica</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/06 cerveza</t>
         </r>
       </text>
     </comment>
@@ -12858,10 +13290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL224"/>
+  <dimension ref="A1:BN224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -12884,7 +13316,7 @@
     <col min="16" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.85546875" style="34" customWidth="1"/>
     <col min="19" max="19" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="34" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="34" customWidth="1"/>
     <col min="22" max="23" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
@@ -12896,38 +13328,37 @@
     <col min="30" max="30" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.42578125" style="34" customWidth="1"/>
     <col min="32" max="32" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.7109375" style="34" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" style="34" customWidth="1"/>
     <col min="34" max="34" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.28515625" style="34" customWidth="1"/>
     <col min="36" max="37" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.5703125" style="34" customWidth="1"/>
     <col min="40" max="40" width="9" style="34" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" style="34" customWidth="1"/>
-    <col min="42" max="42" width="9" style="34" customWidth="1"/>
+    <col min="41" max="42" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="8.42578125" style="34" customWidth="1"/>
-    <col min="44" max="44" width="9" style="34" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10" style="34" customWidth="1"/>
     <col min="46" max="46" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5703125" style="34" customWidth="1"/>
-    <col min="48" max="49" width="8.85546875" style="34" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="34" customWidth="1"/>
+    <col min="48" max="49" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9.140625" style="34" customWidth="1"/>
     <col min="52" max="52" width="10" style="34" customWidth="1"/>
-    <col min="53" max="53" width="9.140625" style="34" customWidth="1"/>
-    <col min="54" max="54" width="8.7109375" style="34" customWidth="1"/>
+    <col min="53" max="53" width="9.85546875" style="34" customWidth="1"/>
+    <col min="54" max="54" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="7.7109375" style="34" customWidth="1"/>
     <col min="56" max="56" width="8.42578125" style="34" customWidth="1"/>
-    <col min="57" max="57" width="9.140625" style="34" customWidth="1"/>
+    <col min="57" max="57" width="10.140625" style="34" customWidth="1"/>
     <col min="58" max="58" width="9.85546875" style="34" customWidth="1"/>
     <col min="59" max="59" width="10.140625" style="34" customWidth="1"/>
     <col min="60" max="60" width="9.28515625" style="34" customWidth="1"/>
     <col min="61" max="61" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.28515625" style="34" customWidth="1"/>
+    <col min="62" max="62" width="9" style="34" customWidth="1"/>
     <col min="63" max="63" width="11.140625" style="34" customWidth="1"/>
     <col min="64" max="64" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.85546875" style="34" customWidth="1"/>
-    <col min="66" max="66" width="11.42578125" style="34"/>
+    <col min="65" max="65" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.42578125" style="34" customWidth="1"/>
     <col min="67" max="67" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10.5703125" style="34" customWidth="1"/>
     <col min="69" max="69" width="9.28515625" style="34" customWidth="1"/>
@@ -12969,7 +13400,7 @@
     <col min="105" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="6" customFormat="1">
+    <row r="1" spans="1:66" s="6" customFormat="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -12981,7 +13412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="11" customFormat="1">
+    <row r="2" spans="1:66" s="11" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -12990,33 +13421,33 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C12)</f>
-        <v>991011.07000000018</v>
+        <v>983501.64000000025</v>
       </c>
       <c r="D2" s="10">
         <v>1046774.91</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="13" customFormat="1">
+    <row r="3" spans="1:66" s="13" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="9">
         <f>SUM(C4:C7)</f>
-        <v>28135.050000000087</v>
+        <v>3481.6200000000863</v>
       </c>
       <c r="D3" s="12">
         <v>14349.590000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:64" s="18" customFormat="1">
+    <row r="4" spans="1:66" s="18" customFormat="1">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
         <f>SUM(D4:AAA4)</f>
-        <v>3088.7100000000428</v>
+        <v>3033.7100000000428</v>
       </c>
       <c r="D4" s="17">
         <v>6162.8099999999977</v>
@@ -13097,8 +13528,11 @@
       <c r="AC4" s="18">
         <v>2500</v>
       </c>
-    </row>
-    <row r="5" spans="1:64" s="18" customFormat="1">
+      <c r="AD4" s="18">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" s="18" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -13111,14 +13545,14 @@
         <v>48.320000000006985</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="18" customFormat="1">
+    <row r="6" spans="1:66" s="18" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>21209.540000000037</v>
+        <v>241.54000000003725</v>
       </c>
       <c r="D6" s="17">
         <v>394.77999999999884</v>
@@ -13147,15 +13581,21 @@
       <c r="L6" s="18">
         <v>7000</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" s="18" customFormat="1" ht="15">
+      <c r="M6" s="18">
+        <v>-20000</v>
+      </c>
+      <c r="N6" s="18">
+        <v>-968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="18" customFormat="1" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v>3788.4799999999991</v>
+        <v>158.04999999999927</v>
       </c>
       <c r="D7" s="17">
         <v>7743.6799999999994</v>
@@ -13172,22 +13612,25 @@
       <c r="H7" s="18">
         <v>-3539.4</v>
       </c>
+      <c r="I7" s="18">
+        <v>-3630.43</v>
+      </c>
       <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:64" s="13" customFormat="1">
+    <row r="8" spans="1:66" s="13" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
         <f>SUM(C9:C11)</f>
-        <v>32120.949999999997</v>
+        <v>27815.899999999998</v>
       </c>
       <c r="D8" s="12">
         <v>44788.95</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="18" customFormat="1">
+    <row r="9" spans="1:66" s="18" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>69</v>
@@ -13204,14 +13647,14 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="10" spans="1:64" s="18" customFormat="1">
+    <row r="10" spans="1:66" s="18" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(D10:AAA10)</f>
-        <v>2778</v>
+        <v>2018</v>
       </c>
       <c r="D10" s="17">
         <v>815</v>
@@ -13282,15 +13725,21 @@
       <c r="Z10" s="18">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" s="18" customFormat="1">
+      <c r="AA10" s="18">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>-860</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" s="18" customFormat="1">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="16">
         <f>SUM(D11:AAA11)</f>
-        <v>29342.949999999997</v>
+        <v>25797.899999999998</v>
       </c>
       <c r="D11" s="17">
         <v>43973.95</v>
@@ -13472,29 +13921,38 @@
       <c r="BK11" s="18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:64" s="23" customFormat="1">
+      <c r="BL11" s="18">
+        <v>-7000</v>
+      </c>
+      <c r="BM11" s="18">
+        <v>6454.95</v>
+      </c>
+      <c r="BN11" s="18">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" s="23" customFormat="1">
       <c r="A12" s="19"/>
       <c r="B12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="21">
         <f>SUM(C13:C19)</f>
-        <v>930755.07000000007</v>
+        <v>952204.12000000011</v>
       </c>
       <c r="D12" s="22">
         <v>987636.37</v>
       </c>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:64" s="18" customFormat="1">
+    <row r="13" spans="1:66" s="18" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="16">
         <f>SUM(D13:AAA13)</f>
-        <v>590036.56000000017</v>
+        <v>591485.61000000022</v>
       </c>
       <c r="D13" s="17">
         <v>558931.89</v>
@@ -13595,15 +14053,21 @@
       <c r="AJ13" s="18">
         <v>-5423.86</v>
       </c>
-    </row>
-    <row r="14" spans="1:64" s="18" customFormat="1">
+      <c r="AK13" s="18">
+        <v>7000</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>-5550.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" s="18" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" ref="C14:C19" si="1">SUM(D14:AAA14)</f>
-        <v>280704.48</v>
+        <v>300704.48</v>
       </c>
       <c r="D14" s="17">
         <v>78704.479999999981</v>
@@ -13617,8 +14081,11 @@
       <c r="G14" s="18">
         <v>-140000</v>
       </c>
-    </row>
-    <row r="15" spans="1:64" s="18" customFormat="1">
+      <c r="H14" s="18">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" s="18" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>34</v>
@@ -13634,7 +14101,7 @@
         <v>-350000</v>
       </c>
     </row>
-    <row r="16" spans="1:64" s="18" customFormat="1">
+    <row r="16" spans="1:66" s="18" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>36</v>
@@ -13922,7 +14389,7 @@
         <v>-706268.88</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="18" customFormat="1">
+    <row r="33" spans="1:23" s="18" customFormat="1">
       <c r="A33" s="27"/>
       <c r="B33" s="28" t="s">
         <v>40</v>
@@ -13937,7 +14404,7 @@
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:22" s="18" customFormat="1">
+    <row r="34" spans="1:23" s="18" customFormat="1">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>39</v>
@@ -13950,7 +14417,7 @@
         <v>-105072.24000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="13" customFormat="1">
+    <row r="35" spans="1:23" s="13" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
@@ -13959,13 +14426,13 @@
       </c>
       <c r="C35" s="9">
         <f>SUM(C36:C42)</f>
-        <v>-123563.34000000001</v>
+        <v>-124467.34000000001</v>
       </c>
       <c r="D35" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="18" customFormat="1">
+    <row r="36" spans="1:23" s="18" customFormat="1">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
         <v>8</v>
@@ -13981,7 +14448,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="18" customFormat="1">
+    <row r="37" spans="1:23" s="18" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
         <v>3</v>
@@ -13997,7 +14464,7 @@
         <v>-63838.23</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="18" customFormat="1">
+    <row r="38" spans="1:23" s="18" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="15" t="s">
         <v>9</v>
@@ -14010,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="18" customFormat="1">
+    <row r="39" spans="1:23" s="18" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>5</v>
@@ -14023,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="18" customFormat="1">
+    <row r="40" spans="1:23" s="18" customFormat="1">
       <c r="A40" s="29"/>
       <c r="B40" s="15" t="s">
         <v>4</v>
@@ -14039,14 +14506,14 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="18" customFormat="1">
+    <row r="41" spans="1:23" s="18" customFormat="1">
       <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="3"/>
-        <v>-41574.67</v>
+        <v>-42478.67</v>
       </c>
       <c r="D41" s="17">
         <v>0</v>
@@ -14105,8 +14572,11 @@
       <c r="V41" s="18">
         <v>-2001.14</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" s="18" customFormat="1">
+      <c r="W41" s="18">
+        <v>-904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="18" customFormat="1">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
         <v>6</v>
@@ -14131,7 +14601,7 @@
         <v>-1482.81</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="13" customFormat="1">
+    <row r="43" spans="1:23" s="13" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>52</v>
       </c>
@@ -14140,13 +14610,13 @@
       </c>
       <c r="C43" s="9">
         <f>SUM(C44:C56)</f>
-        <v>40557.489999999991</v>
+        <v>48970.92</v>
       </c>
       <c r="D43" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="18" customFormat="1">
+    <row r="44" spans="1:23" s="18" customFormat="1">
       <c r="A44" s="29"/>
       <c r="B44" s="15" t="s">
         <v>12</v>
@@ -14165,7 +14635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="18" customFormat="1">
+    <row r="45" spans="1:23" s="18" customFormat="1">
       <c r="A45" s="29"/>
       <c r="B45" s="15" t="s">
         <v>20</v>
@@ -14187,7 +14657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="18" customFormat="1">
+    <row r="46" spans="1:23" s="18" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="15" t="s">
         <v>18</v>
@@ -14206,7 +14676,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="18" customFormat="1">
+    <row r="47" spans="1:23" s="18" customFormat="1">
       <c r="A47" s="29"/>
       <c r="B47" s="15" t="s">
         <v>17</v>
@@ -14222,14 +14692,14 @@
         <v>701</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="18" customFormat="1">
+    <row r="48" spans="1:23" s="18" customFormat="1">
       <c r="A48" s="29"/>
       <c r="B48" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="4"/>
-        <v>3110</v>
+        <v>4660</v>
       </c>
       <c r="D48" s="17">
         <v>0</v>
@@ -14258,15 +14728,21 @@
       <c r="L48" s="18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" s="18" customFormat="1">
+      <c r="M48" s="18">
+        <v>1500</v>
+      </c>
+      <c r="N48" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="18" customFormat="1">
       <c r="A49" s="29"/>
       <c r="B49" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="4"/>
-        <v>164.25</v>
+        <v>219.25</v>
       </c>
       <c r="D49" s="17">
         <v>0</v>
@@ -14283,8 +14759,11 @@
       <c r="H49" s="18">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" s="18" customFormat="1">
+      <c r="I49" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" s="18" customFormat="1">
       <c r="A50" s="29"/>
       <c r="B50" s="15" t="s">
         <v>15</v>
@@ -14310,27 +14789,30 @@
         <v>1022.07</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="18" customFormat="1">
+    <row r="51" spans="1:24" s="18" customFormat="1">
       <c r="A51" s="29"/>
       <c r="B51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D51" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" s="18" customFormat="1">
+      <c r="E51" s="18">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="18" customFormat="1">
       <c r="A52" s="29"/>
       <c r="B52" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="4"/>
-        <v>14176.3</v>
+        <v>18461.73</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -14389,15 +14871,21 @@
       <c r="V52" s="18">
         <v>420</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" s="18" customFormat="1">
+      <c r="W52" s="18">
+        <v>655</v>
+      </c>
+      <c r="X52" s="18">
+        <v>3630.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="18" customFormat="1">
       <c r="A53" s="29"/>
       <c r="B53" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="4"/>
-        <v>7911.25</v>
+        <v>9034.25</v>
       </c>
       <c r="D53" s="17">
         <v>0</v>
@@ -14450,8 +14938,14 @@
       <c r="T53" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" s="18" customFormat="1">
+      <c r="U53" s="18">
+        <v>155</v>
+      </c>
+      <c r="V53" s="18">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" s="18" customFormat="1">
       <c r="A54" s="29"/>
       <c r="B54" s="15" t="s">
         <v>66</v>
@@ -14464,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="18" customFormat="1">
+    <row r="55" spans="1:24" s="18" customFormat="1">
       <c r="A55" s="29"/>
       <c r="B55" s="15" t="s">
         <v>13</v>
@@ -14489,7 +14983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="18" customFormat="1">
+    <row r="56" spans="1:24" s="18" customFormat="1">
       <c r="A56" s="29"/>
       <c r="B56" s="15" t="s">
         <v>65</v>
@@ -14502,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="18" customFormat="1">
+    <row r="57" spans="1:24" s="18" customFormat="1">
       <c r="A57" s="29"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16">
@@ -14513,43 +15007,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="18" customFormat="1">
+    <row r="58" spans="1:24" s="18" customFormat="1">
       <c r="A58" s="29"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:22" s="18" customFormat="1">
+    <row r="59" spans="1:24" s="18" customFormat="1">
       <c r="A59" s="29"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:22" s="18" customFormat="1">
+    <row r="60" spans="1:24" s="18" customFormat="1">
       <c r="A60" s="29"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:22" s="18" customFormat="1">
+    <row r="61" spans="1:24" s="18" customFormat="1">
       <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:22" s="18" customFormat="1">
+    <row r="62" spans="1:24" s="18" customFormat="1">
       <c r="A62" s="29"/>
       <c r="B62" s="15"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:22" s="18" customFormat="1">
+    <row r="63" spans="1:24" s="18" customFormat="1">
       <c r="A63" s="29"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:22" s="18" customFormat="1">
+    <row r="64" spans="1:24" s="18" customFormat="1">
       <c r="A64" s="29"/>
       <c r="B64" s="15"/>
       <c r="C64" s="16"/>
@@ -15559,7 +16053,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>991011.07000000018</v>
+        <v>983501.64000000025</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -15578,17 +16072,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C35+contabilidad!C43</f>
-        <v>-83005.85000000002</v>
+        <v>-75496.420000000013</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>991011.07000000018</v>
+        <v>983501.64000000025</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-991011.07</v>
+        <v>-983501.64</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -22,6 +22,356 @@
     <author>Adelson</author>
   </authors>
   <commentList>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+01/07 minuto celular</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/07 pago de  cesar alexande</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ cobrado el 01/07   y  02/07</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:pago de cuota cesae alexander</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+01/07 02/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:01/07 02/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2/07 pago mes 06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/07 pago del mes 06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/07 pago del mes 06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ 01/07  02/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/07 champoo y juego</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/01 sabana</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/07 pasaje</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02/07 plastico</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Adelson</author>
+  </authors>
+  <commentList>
     <comment ref="H4" authorId="0">
       <text>
         <r>
@@ -6988,7 +7338,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Adelson</author>
@@ -15263,8 +15613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CR224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -15480,7 +15830,7 @@
       </c>
       <c r="C2" s="42">
         <f>SUM(C3,C8,C12)</f>
-        <v>987923.46000000008</v>
+        <v>1059220.3400000001</v>
       </c>
       <c r="D2" s="43">
         <v>987923.46000000008</v>
@@ -15585,7 +15935,7 @@
       </c>
       <c r="C3" s="42">
         <f>SUM(C4:C7)</f>
-        <v>13870.780000000086</v>
+        <v>59170.360000000088</v>
       </c>
       <c r="D3" s="45">
         <v>13870.780000000086</v>
@@ -15690,13 +16040,17 @@
       </c>
       <c r="C4" s="49">
         <f>SUM(D4:AAA4)</f>
-        <v>6096.7800000000425</v>
+        <v>7518.0800000000427</v>
       </c>
       <c r="D4" s="50">
         <v>6096.7800000000425</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="51">
+        <v>-778.7</v>
+      </c>
+      <c r="F4" s="51">
+        <v>2200</v>
+      </c>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -15795,13 +16149,17 @@
       </c>
       <c r="C5" s="49">
         <f>SUM(D5:AAA5)</f>
-        <v>48.320000000006985</v>
+        <v>98.310000000012224</v>
       </c>
       <c r="D5" s="50">
         <v>48.320000000006985</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="51">
+        <v>49189.83</v>
+      </c>
+      <c r="F5" s="51">
+        <v>-49139.839999999997</v>
+      </c>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
@@ -15900,13 +16258,17 @@
       </c>
       <c r="C6" s="49">
         <f>SUM(D6:AAA6)</f>
-        <v>243.43000000003724</v>
+        <v>49333.270000000033</v>
       </c>
       <c r="D6" s="50">
         <v>243.43000000003724</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="51">
+        <v>49139.839999999997</v>
+      </c>
+      <c r="F6" s="51">
+        <v>-50</v>
+      </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
@@ -16005,12 +16367,14 @@
       </c>
       <c r="C7" s="49">
         <f>SUM(D7:AAA7)</f>
-        <v>7482.2499999999991</v>
+        <v>2220.6999999999989</v>
       </c>
       <c r="D7" s="50">
         <v>7482.2499999999991</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="51">
+        <v>-5261.55</v>
+      </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
@@ -16110,7 +16474,7 @@
       </c>
       <c r="C8" s="42">
         <f>SUM(C9:C11)</f>
-        <v>33609.89</v>
+        <v>28674.559999999998</v>
       </c>
       <c r="D8" s="45">
         <v>33609.89</v>
@@ -16320,12 +16684,14 @@
       </c>
       <c r="C10" s="49">
         <f>SUM(D10:AAA10)</f>
-        <v>2305</v>
+        <v>890</v>
       </c>
       <c r="D10" s="50">
         <v>2305</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="51">
+        <v>-1415</v>
+      </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
@@ -16425,14 +16791,20 @@
       </c>
       <c r="C11" s="49">
         <f>SUM(D11:AAA11)</f>
-        <v>31304.89</v>
+        <v>27784.559999999998</v>
       </c>
       <c r="D11" s="50">
         <v>31304.89</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="E11" s="51">
+        <v>36679.67</v>
+      </c>
+      <c r="F11" s="51">
+        <v>-38000</v>
+      </c>
+      <c r="G11" s="51">
+        <v>-2200</v>
+      </c>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
@@ -16530,7 +16902,7 @@
       </c>
       <c r="C12" s="55">
         <f>SUM(C13:C19)</f>
-        <v>940442.79</v>
+        <v>971375.42</v>
       </c>
       <c r="D12" s="56">
         <v>940442.79</v>
@@ -16635,13 +17007,17 @@
       </c>
       <c r="C13" s="49">
         <f>SUM(D13:AAA13)</f>
-        <v>590548.4800000001</v>
+        <v>600832.71000000008</v>
       </c>
       <c r="D13" s="50">
         <v>590548.4800000001</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="51">
+        <v>38000</v>
+      </c>
+      <c r="F13" s="51">
+        <v>-27715.77</v>
+      </c>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -16950,12 +17326,14 @@
       </c>
       <c r="C16" s="49">
         <f>SUM(D16:AAA16)</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="50">
         <v>0</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="51">
+        <v>3500</v>
+      </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -17055,12 +17433,14 @@
       </c>
       <c r="C17" s="49">
         <f>SUM(D17:AAA17)</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D17" s="50">
         <v>0</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="51">
+        <v>2500</v>
+      </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -17165,8 +17545,12 @@
       <c r="D18" s="50">
         <v>49189.83</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="51">
+        <v>49189.83</v>
+      </c>
+      <c r="F18" s="51">
+        <v>-49189.83</v>
+      </c>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
@@ -17265,12 +17649,14 @@
       </c>
       <c r="C19" s="49">
         <f>SUM(D19:AAA19)</f>
-        <v>0</v>
+        <v>14648.4</v>
       </c>
       <c r="D19" s="50">
         <v>0</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="51">
+        <v>14648.4</v>
+      </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
@@ -17372,7 +17758,7 @@
       </c>
       <c r="C20" s="42">
         <f>SUM(C21)</f>
-        <v>-201736.34000000003</v>
+        <v>-198472.64</v>
       </c>
       <c r="D20" s="45">
         <v>-201736.34000000003</v>
@@ -17477,7 +17863,7 @@
       </c>
       <c r="C21" s="42">
         <f>SUM(C22:C31)</f>
-        <v>-201736.34000000003</v>
+        <v>-198472.64</v>
       </c>
       <c r="D21" s="45">
         <v>-201736.34000000003</v>
@@ -17582,12 +17968,14 @@
       </c>
       <c r="C22" s="49">
         <f>SUM(D22:AAA22)</f>
-        <v>0</v>
+        <v>-1415</v>
       </c>
       <c r="D22" s="50">
         <v>0</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="51">
+        <v>-1415</v>
+      </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
@@ -17687,12 +18075,14 @@
       </c>
       <c r="C23" s="49">
         <f>SUM(D23:AAA23)</f>
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="50">
         <v>-3000</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="51">
+        <v>3000</v>
+      </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
@@ -17897,12 +18287,14 @@
       </c>
       <c r="C25" s="49">
         <f>SUM(D25:AAA25)</f>
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="D25" s="50">
         <v>-900</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="51">
+        <v>900</v>
+      </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
@@ -18527,12 +18919,14 @@
       </c>
       <c r="C31" s="49">
         <f>SUM(D31:AAA31)</f>
-        <v>-778.7</v>
+        <v>0</v>
       </c>
       <c r="D31" s="50">
         <v>-778.7</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="51">
+        <v>778.7</v>
+      </c>
       <c r="F31" s="60"/>
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
@@ -18950,7 +19344,7 @@
       </c>
       <c r="C35" s="42">
         <f>SUM(C36:C42)</f>
-        <v>0</v>
+        <v>-78802.13</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="46"/>
@@ -19053,11 +19447,15 @@
       </c>
       <c r="C36" s="49">
         <f>SUM(D36:AAA36)</f>
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="E36" s="51">
+        <v>-3500</v>
+      </c>
+      <c r="F36" s="51">
+        <v>-2500</v>
+      </c>
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
@@ -19156,11 +19554,15 @@
       </c>
       <c r="C37" s="49">
         <f>SUM(D37:AAA37)</f>
-        <v>0</v>
+        <v>-63838.23</v>
       </c>
       <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="E37" s="51">
+        <v>-14648.4</v>
+      </c>
+      <c r="F37" s="51">
+        <v>-49189.83</v>
+      </c>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
@@ -19568,10 +19970,12 @@
       </c>
       <c r="C41" s="49">
         <f>SUM(D41:AAA41)</f>
-        <v>0</v>
+        <v>-8963.9</v>
       </c>
       <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
+      <c r="E41" s="51">
+        <v>-8963.9</v>
+      </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
@@ -19776,7 +20180,7 @@
       </c>
       <c r="C43" s="42">
         <f>SUM(C44:C56)</f>
-        <v>0</v>
+        <v>4241.55</v>
       </c>
       <c r="D43" s="45"/>
       <c r="E43" s="46"/>
@@ -19879,11 +20283,15 @@
       </c>
       <c r="C44" s="49">
         <f>SUM(D44:AAA44)</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="E44" s="51">
+        <v>270</v>
+      </c>
+      <c r="F44" s="51">
+        <v>450</v>
+      </c>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
@@ -20085,10 +20493,12 @@
       </c>
       <c r="C46" s="49">
         <f>SUM(D46:AAA46)</f>
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
+      <c r="E46" s="51">
+        <v>1415</v>
+      </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
@@ -20291,10 +20701,12 @@
       </c>
       <c r="C48" s="49">
         <f>SUM(D48:AAA48)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D48" s="50"/>
-      <c r="E48" s="51"/>
+      <c r="E48" s="51">
+        <v>75</v>
+      </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
@@ -20394,10 +20806,12 @@
       </c>
       <c r="C49" s="49">
         <f>SUM(D49:AAA49)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D49" s="50"/>
-      <c r="E49" s="51"/>
+      <c r="E49" s="51">
+        <v>90</v>
+      </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
@@ -20703,11 +21117,15 @@
       </c>
       <c r="C52" s="49">
         <f>SUM(D52:AAA52)</f>
-        <v>0</v>
+        <v>1444</v>
       </c>
       <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
+      <c r="E52" s="51">
+        <v>770</v>
+      </c>
+      <c r="F52" s="51">
+        <v>674</v>
+      </c>
       <c r="G52" s="51"/>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
@@ -20806,11 +21224,15 @@
       </c>
       <c r="C53" s="49">
         <f>SUM(D53:AAA53)</f>
-        <v>0</v>
+        <v>497.55</v>
       </c>
       <c r="D53" s="50"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="E53" s="51">
+        <v>281.55</v>
+      </c>
+      <c r="F53" s="51">
+        <v>216</v>
+      </c>
       <c r="G53" s="51"/>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
@@ -22318,6 +22740,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22357,7 +22780,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>987923.46000000008</v>
+        <v>1059220.3400000001</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -22367,7 +22790,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C20+contabilidad!C32</f>
-        <v>-987923.4600000002</v>
+        <v>-984659.76000000013</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -22376,17 +22799,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C35+contabilidad!C43</f>
-        <v>0</v>
+        <v>-74560.58</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>987923.46000000008</v>
+        <v>1059220.3400000001</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-987923.4600000002</v>
+        <v>-1059220.3400000001</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -22414,8 +22837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DA57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22545,7 +22968,7 @@
       </c>
       <c r="C2" s="9">
         <f>SUM(C3,C8,C11)</f>
-        <v>1046774.91</v>
+        <v>1095964.74</v>
       </c>
       <c r="D2" s="10">
         <f>SUM(D8,D11,D3)</f>
@@ -23995,7 +24418,7 @@
       </c>
       <c r="C11" s="21">
         <f>SUM(C12:C18)</f>
-        <v>987636.37</v>
+        <v>1036826.2</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D12:D18)</f>
@@ -24834,7 +25257,7 @@
       </c>
       <c r="C17" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49189.83</v>
       </c>
       <c r="D17" s="17">
         <v>0</v>
@@ -24842,9 +25265,7 @@
       <c r="E17" s="18">
         <v>49189.83</v>
       </c>
-      <c r="F17" s="18">
-        <v>-49189.83</v>
-      </c>
+      <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -29871,8 +30292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CR224"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -94,6 +94,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9/07 comida adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 comida adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+plastico 11/07</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G6" authorId="0">
       <text>
         <r>
@@ -115,6 +187,30 @@
           </rPr>
           <t xml:space="preserve">
 05/07 pago cuota adel BHD Y IMPUESTO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 gasto de teclado y impresora</t>
         </r>
       </text>
     </comment>
@@ -541,6 +637,318 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/07 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07/08 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/07 COBRADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/07 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 imcripcion de la ninas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
@@ -795,6 +1203,246 @@
         </r>
       </text>
     </comment>
+    <comment ref="P13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/07 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/07 CAPITAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+09/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F18" authorId="0">
       <text>
         <r>
@@ -1059,6 +1707,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="K41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+08/07 GANANCIA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+11/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E42" authorId="0">
       <text>
         <r>
@@ -1083,6 +1851,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 sobrante </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E44" authorId="0">
       <text>
         <r>
@@ -1224,6 +2016,30 @@
           </rPr>
           <t xml:space="preserve">
 04/07 cuidado de lo ninos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 incripcion de la nina</t>
         </r>
       </text>
     </comment>
@@ -1300,6 +2116,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pasaje</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E49" authorId="0">
       <text>
         <r>
@@ -1348,6 +2188,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 palstico</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E50" authorId="0">
       <text>
         <r>
@@ -1420,6 +2284,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+comida adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+comida adel</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H53" authorId="0">
       <text>
         <r>
@@ -1444,6 +2356,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="J53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+helado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/07 CERVEZA</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E55" authorId="0">
       <text>
         <r>
@@ -1489,6 +2449,54 @@
           </rPr>
           <t xml:space="preserve">
 08/07 regalo a mario</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+9/07 inpresion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/07 impresora y teclado</t>
         </r>
       </text>
     </comment>
@@ -16744,7 +17752,7 @@
   <dimension ref="A1:CR224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I24" activeCellId="1" sqref="J58 I24"/>
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -16756,37 +17764,37 @@
     <col min="5" max="5" width="9" style="33" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="34" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="9" style="34" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="34" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="34" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" style="34" customWidth="1"/>
     <col min="13" max="13" width="8" style="34" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" style="34" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="34" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="34" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="34" customWidth="1"/>
     <col min="18" max="18" width="8.140625" style="34" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="34" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="10" style="34" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="34" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="34" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="34" customWidth="1"/>
     <col min="22" max="22" width="8.28515625" style="34" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="34" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" style="34" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="34" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="34" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" style="34" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" style="34" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" style="34" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" style="34" customWidth="1"/>
-    <col min="36" max="37" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5703125" style="34" customWidth="1"/>
+    <col min="23" max="23" width="8" style="34" customWidth="1"/>
+    <col min="24" max="25" width="8.140625" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="34" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="34" customWidth="1"/>
+    <col min="28" max="28" width="8" style="34" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" style="34" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="34" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="34" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" style="34" customWidth="1"/>
+    <col min="34" max="34" width="8" style="34" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" style="34" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" style="34" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" style="34" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" style="34" customWidth="1"/>
+    <col min="39" max="39" width="6.85546875" style="34" customWidth="1"/>
     <col min="40" max="41" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13.140625" style="34" bestFit="1" customWidth="1"/>
@@ -16962,7 +17970,7 @@
       </c>
       <c r="C2" s="41">
         <f>SUM(C3,C8,C12)</f>
-        <v>1057078.3600000001</v>
+        <v>1059688.8300000003</v>
       </c>
       <c r="D2" s="42">
         <v>987923.46000000008</v>
@@ -17067,7 +18075,7 @@
       </c>
       <c r="C3" s="41">
         <f>SUM(C4:C7)</f>
-        <v>54427.770000000084</v>
+        <v>10457.490000000089</v>
       </c>
       <c r="D3" s="44">
         <v>13870.780000000086</v>
@@ -17172,7 +18180,7 @@
       </c>
       <c r="C4" s="48">
         <f>SUM(D4:AAA4)</f>
-        <v>7516.9100000000426</v>
+        <v>7111.9100000000426</v>
       </c>
       <c r="D4" s="49">
         <v>6096.7800000000425</v>
@@ -17186,9 +18194,15 @@
       <c r="G4" s="50">
         <v>-1.17</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="H4" s="50">
+        <v>-117</v>
+      </c>
+      <c r="I4" s="50">
+        <v>-238</v>
+      </c>
+      <c r="J4" s="50">
+        <v>-50</v>
+      </c>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
@@ -17392,7 +18406,7 @@
       </c>
       <c r="C6" s="48">
         <f>SUM(D6:AAA6)</f>
-        <v>46795.100000000035</v>
+        <v>3229.8200000000352</v>
       </c>
       <c r="D6" s="49">
         <v>243.43000000003724</v>
@@ -17406,11 +18420,21 @@
       <c r="G6" s="50">
         <v>-2538.17</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="H6" s="50">
+        <v>-30000</v>
+      </c>
+      <c r="I6" s="50">
+        <v>-10000</v>
+      </c>
+      <c r="J6" s="50">
+        <v>-2207</v>
+      </c>
+      <c r="K6" s="50">
+        <v>-113.24</v>
+      </c>
+      <c r="L6" s="50">
+        <v>-1245.04</v>
+      </c>
       <c r="M6" s="50"/>
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
@@ -17614,7 +18638,7 @@
       </c>
       <c r="C8" s="41">
         <f>SUM(C9:C11)</f>
-        <v>16804.539999999994</v>
+        <v>25341.539999999994</v>
       </c>
       <c r="D8" s="44">
         <v>33609.89</v>
@@ -17824,7 +18848,7 @@
       </c>
       <c r="C10" s="48">
         <f>SUM(D10:AAA10)</f>
-        <v>2015</v>
+        <v>1277</v>
       </c>
       <c r="D10" s="49">
         <v>2305</v>
@@ -17853,13 +18877,27 @@
       <c r="L10" s="50">
         <v>2000</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
+      <c r="M10" s="50">
+        <v>-758</v>
+      </c>
+      <c r="N10" s="50">
+        <v>-535</v>
+      </c>
+      <c r="O10" s="50">
+        <v>1300</v>
+      </c>
+      <c r="P10" s="50">
+        <v>-215</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>-583</v>
+      </c>
+      <c r="R10" s="50">
+        <v>500</v>
+      </c>
+      <c r="S10" s="50">
+        <v>-447</v>
+      </c>
       <c r="T10" s="50"/>
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
@@ -17945,7 +18983,7 @@
       </c>
       <c r="C11" s="48">
         <f>SUM(D11:AAA11)</f>
-        <v>14789.539999999994</v>
+        <v>24064.539999999994</v>
       </c>
       <c r="D11" s="49">
         <v>31304.89</v>
@@ -18010,21 +19048,51 @@
       <c r="X11" s="50">
         <v>-1000</v>
       </c>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
+      <c r="Y11" s="50">
+        <v>30000</v>
+      </c>
+      <c r="Z11" s="50">
+        <v>-15000</v>
+      </c>
+      <c r="AA11" s="50">
+        <v>10690</v>
+      </c>
+      <c r="AB11" s="50">
+        <v>10000</v>
+      </c>
+      <c r="AC11" s="50">
+        <v>-40000</v>
+      </c>
+      <c r="AD11" s="50">
+        <v>6750</v>
+      </c>
+      <c r="AE11" s="50">
+        <v>-1300</v>
+      </c>
+      <c r="AF11" s="50">
+        <v>-3000</v>
+      </c>
+      <c r="AG11" s="50">
+        <v>12005</v>
+      </c>
+      <c r="AH11" s="50">
+        <v>-3000</v>
+      </c>
+      <c r="AI11" s="50">
+        <v>5980</v>
+      </c>
+      <c r="AJ11" s="50">
+        <v>-1500</v>
+      </c>
+      <c r="AK11" s="50">
+        <v>-14000</v>
+      </c>
+      <c r="AL11" s="50">
+        <v>11525</v>
+      </c>
+      <c r="AM11" s="50">
+        <v>125</v>
+      </c>
       <c r="AN11" s="50"/>
       <c r="AO11" s="50"/>
       <c r="AP11" s="50"/>
@@ -18090,7 +19158,7 @@
       </c>
       <c r="C12" s="54">
         <f>SUM(C13:C19)</f>
-        <v>985846.05</v>
+        <v>1023889.8000000002</v>
       </c>
       <c r="D12" s="55">
         <v>940442.79</v>
@@ -18195,7 +19263,7 @@
       </c>
       <c r="C13" s="48">
         <f t="shared" ref="C13:C19" si="0">SUM(D13:AAA13)</f>
-        <v>615303.34000000008</v>
+        <v>653347.0900000002</v>
       </c>
       <c r="D13" s="49">
         <v>590548.4800000001</v>
@@ -18233,16 +19301,36 @@
       <c r="O13" s="50">
         <v>-2621.67</v>
       </c>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
+      <c r="P13" s="50">
+        <v>15000</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>-8813.25</v>
+      </c>
+      <c r="R13" s="50">
+        <v>40000</v>
+      </c>
+      <c r="S13" s="50">
+        <v>-4235.84</v>
+      </c>
+      <c r="T13" s="50">
+        <v>3000</v>
+      </c>
+      <c r="U13" s="50">
+        <v>-9947.4599999999991</v>
+      </c>
+      <c r="V13" s="50">
+        <v>3000</v>
+      </c>
+      <c r="W13" s="50">
+        <v>-5028.84</v>
+      </c>
+      <c r="X13" s="50">
+        <v>14000</v>
+      </c>
+      <c r="Y13" s="50">
+        <v>-8930.86</v>
+      </c>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
       <c r="AB13" s="50"/>
@@ -20552,7 +21640,7 @@
       </c>
       <c r="C35" s="41">
         <f>SUM(C36:C42)</f>
-        <v>-87352.74000000002</v>
+        <v>-97451.830000000016</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
@@ -21178,7 +22266,7 @@
       </c>
       <c r="C41" s="48">
         <f t="shared" si="2"/>
-        <v>-17489.510000000002</v>
+        <v>-27483.600000000002</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="50">
@@ -21199,11 +22287,21 @@
       <c r="J41" s="50">
         <v>-558.33000000000004</v>
       </c>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
+      <c r="K41" s="50">
+        <v>-1876.75</v>
+      </c>
+      <c r="L41" s="50">
+        <v>-2514.5</v>
+      </c>
+      <c r="M41" s="50">
+        <v>-2057.54</v>
+      </c>
+      <c r="N41" s="50">
+        <v>-951.16</v>
+      </c>
+      <c r="O41" s="50">
+        <v>-2594.14</v>
+      </c>
       <c r="P41" s="50"/>
       <c r="Q41" s="50"/>
       <c r="R41" s="50"/>
@@ -21293,14 +22391,18 @@
       </c>
       <c r="C42" s="48">
         <f t="shared" si="2"/>
-        <v>-25</v>
+        <v>-130</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="50">
         <v>-25</v>
       </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
+      <c r="F42" s="50">
+        <v>20</v>
+      </c>
+      <c r="G42" s="50">
+        <v>-125</v>
+      </c>
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
       <c r="J42" s="50"/>
@@ -21400,7 +22502,7 @@
       </c>
       <c r="C43" s="41">
         <f>SUM(C44:C56)</f>
-        <v>13371.56</v>
+        <v>20860.18</v>
       </c>
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
@@ -21503,7 +22605,7 @@
       </c>
       <c r="C44" s="48">
         <f t="shared" ref="C44:C54" si="3">SUM(D44:AAA44)</f>
-        <v>1940</v>
+        <v>2515</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="50">
@@ -21524,9 +22626,15 @@
       <c r="J44" s="50">
         <v>295</v>
       </c>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
+      <c r="K44" s="50">
+        <v>215</v>
+      </c>
+      <c r="L44" s="50">
+        <v>305</v>
+      </c>
+      <c r="M44" s="50">
+        <v>55</v>
+      </c>
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
       <c r="P44" s="50"/>
@@ -21618,14 +22726,18 @@
       </c>
       <c r="C45" s="48">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="50">
         <v>700</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="F45" s="50">
+        <v>100</v>
+      </c>
+      <c r="G45" s="50">
+        <v>1000</v>
+      </c>
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
       <c r="J45" s="50"/>
@@ -21933,7 +23045,7 @@
       </c>
       <c r="C48" s="48">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="50">
@@ -21942,7 +23054,9 @@
       <c r="F48" s="50">
         <v>100</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="50">
+        <v>50</v>
+      </c>
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
@@ -22040,7 +23154,7 @@
       </c>
       <c r="C49" s="48">
         <f t="shared" si="3"/>
-        <v>94.97</v>
+        <v>144.97</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="50">
@@ -22049,7 +23163,9 @@
       <c r="F49" s="50">
         <v>4.97</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="50">
+        <v>50</v>
+      </c>
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
       <c r="J49" s="50"/>
@@ -22357,7 +23473,7 @@
       </c>
       <c r="C52" s="48">
         <f t="shared" si="3"/>
-        <v>5042.25</v>
+        <v>7100.87</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="50">
@@ -22390,16 +23506,36 @@
       <c r="N52" s="50">
         <v>450</v>
       </c>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
+      <c r="O52" s="50">
+        <v>443</v>
+      </c>
+      <c r="P52" s="50">
+        <v>265.33999999999997</v>
+      </c>
+      <c r="Q52" s="50">
+        <v>117</v>
+      </c>
+      <c r="R52" s="50">
+        <v>238</v>
+      </c>
+      <c r="S52" s="50">
+        <v>215</v>
+      </c>
+      <c r="T52" s="50">
+        <v>168</v>
+      </c>
+      <c r="U52" s="50">
+        <v>93.24</v>
+      </c>
+      <c r="V52" s="50">
+        <v>281</v>
+      </c>
+      <c r="W52" s="50">
+        <v>81</v>
+      </c>
+      <c r="X52" s="50">
+        <v>157.04</v>
+      </c>
       <c r="Y52" s="50"/>
       <c r="Z52" s="50"/>
       <c r="AA52" s="50"/>
@@ -22480,7 +23616,7 @@
       </c>
       <c r="C53" s="48">
         <f t="shared" si="3"/>
-        <v>1912.55</v>
+        <v>3240.55</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="50">
@@ -22498,10 +23634,18 @@
       <c r="I53" s="50">
         <v>210</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
+      <c r="J53" s="50">
+        <v>100</v>
+      </c>
+      <c r="K53" s="50">
+        <v>110</v>
+      </c>
+      <c r="L53" s="50">
+        <v>30</v>
+      </c>
+      <c r="M53" s="50">
+        <v>1088</v>
+      </c>
       <c r="N53" s="50"/>
       <c r="O53" s="50"/>
       <c r="P53" s="50"/>
@@ -22696,7 +23840,7 @@
       </c>
       <c r="C55" s="48">
         <f>SUM(D55:ZZ55)</f>
-        <v>1025</v>
+        <v>3352</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="50">
@@ -22705,8 +23849,12 @@
       <c r="F55" s="50">
         <v>1000</v>
       </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
+      <c r="G55" s="50">
+        <v>120</v>
+      </c>
+      <c r="H55" s="50">
+        <v>2207</v>
+      </c>
       <c r="I55" s="50"/>
       <c r="J55" s="50"/>
       <c r="K55" s="50"/>
@@ -24015,7 +25163,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24046,7 +25194,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1057078.3600000001</v>
+        <v>1059688.8300000003</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -24065,17 +25213,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C35+contabilidad!C43</f>
-        <v>-73981.180000000022</v>
+        <v>-76591.650000000023</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1057078.3600000001</v>
+        <v>1059688.8300000003</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1057078.3600000001</v>
+        <v>-1059688.83</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -166,6 +166,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 pago cuota cesar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 pago cuota prestamo adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 pago imternet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 pago de NG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+147/07 POLOCHE </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G6" authorId="0">
       <text>
         <r>
@@ -214,6 +334,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="M6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 comida y gas casa y carro</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J10" authorId="0">
       <text>
         <r>
@@ -235,6 +379,30 @@
           </rPr>
           <t xml:space="preserve">
 05/07gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/07/ gasto</t>
         </r>
       </text>
     </comment>
@@ -949,6 +1117,462 @@
         </r>
       </text>
     </comment>
+    <comment ref="AN11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 pago cuota cesar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gasto 14/7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07 para prestar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07para el abogado angel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 PARA PRESTAR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 cobrado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/07 COBRADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/07 REGALO A FELLA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/0 7 PRESTAFO </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/07 COBRADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/07 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/07 COBRADO</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
@@ -1443,6 +2067,366 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16   /07 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/07prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/07/07 capital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1907 prestado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/07 CAPITAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/07 PRESTADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/07 CAPITAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F18" authorId="0">
       <text>
         <r>
@@ -1467,6 +2451,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07 primera quincena</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0">
       <text>
         <r>
@@ -1515,6 +2523,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E29" authorId="0">
       <text>
         <r>
@@ -1539,6 +2571,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 capital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E31" authorId="0">
       <text>
         <r>
@@ -1827,6 +2883,198 @@
         </r>
       </text>
     </comment>
+    <comment ref="P41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/07ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 GANAMCIA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 ganncia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/07 GANANCIA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19/07 ganancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20/07 GANANCIA</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E42" authorId="0">
       <text>
         <r>
@@ -1992,6 +3240,54 @@
           </rPr>
           <t xml:space="preserve">
 05/07 acesorio del hogar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 compra poloche adel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+franela</t>
         </r>
       </text>
     </comment>
@@ -2140,6 +3436,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 gas carro</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E49" authorId="0">
       <text>
         <r>
@@ -2212,6 +3532,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 impuesto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E50" authorId="0">
       <text>
         <r>
@@ -2236,6 +3580,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="F50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 interes adel BP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 interes bhd rosalis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/07 pago de comision cristian</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H52" authorId="0">
       <text>
         <r>
@@ -2332,6 +3748,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+13/07 comoda comprada en calle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 gas casa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 comida </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H53" authorId="0">
       <text>
         <r>
@@ -2404,6 +3892,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="O53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+piza</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E55" authorId="0">
       <text>
         <r>
@@ -2497,6 +4009,103 @@
           </rPr>
           <t xml:space="preserve">
 10/07 impresora y teclado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/07 para el abogado angel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16/07 panpaer ,leche</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17/07 tinta impresora
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adelson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ojo ajuste del cuadre</t>
         </r>
       </text>
     </comment>
@@ -17752,7 +19361,7 @@
   <dimension ref="A1:CR224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -17763,20 +19372,20 @@
     <col min="4" max="4" width="15.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="33" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="34" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="34" customWidth="1"/>
     <col min="9" max="9" width="9" style="34" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="34" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="34" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="8" style="34" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="34" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" style="34" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="34" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="34" customWidth="1"/>
     <col min="18" max="18" width="8.140625" style="34" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="34" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="34" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="34" customWidth="1"/>
     <col min="21" max="21" width="8.140625" style="34" customWidth="1"/>
     <col min="22" max="22" width="8.28515625" style="34" customWidth="1"/>
     <col min="23" max="23" width="8" style="34" customWidth="1"/>
@@ -17786,36 +19395,35 @@
     <col min="28" max="28" width="8" style="34" customWidth="1"/>
     <col min="29" max="29" width="8.85546875" style="34" customWidth="1"/>
     <col min="30" max="30" width="8.7109375" style="34" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" style="34" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" style="34" customWidth="1"/>
     <col min="33" max="33" width="8.85546875" style="34" customWidth="1"/>
     <col min="34" max="34" width="8" style="34" customWidth="1"/>
-    <col min="35" max="35" width="7.5703125" style="34" customWidth="1"/>
-    <col min="36" max="36" width="8.140625" style="34" customWidth="1"/>
-    <col min="37" max="37" width="9.42578125" style="34" customWidth="1"/>
-    <col min="38" max="38" width="8.28515625" style="34" customWidth="1"/>
-    <col min="39" max="39" width="6.85546875" style="34" customWidth="1"/>
-    <col min="40" max="41" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" style="34" customWidth="1"/>
+    <col min="36" max="37" width="9.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="8.28515625" style="34" customWidth="1"/>
+    <col min="40" max="40" width="8" style="34" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="34" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" style="34" customWidth="1"/>
+    <col min="43" max="43" width="8.42578125" style="34" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" style="34" customWidth="1"/>
     <col min="45" max="45" width="10" style="34" customWidth="1"/>
-    <col min="46" max="46" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5703125" style="34" customWidth="1"/>
     <col min="47" max="47" width="9.140625" style="34" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="13.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9" style="34" customWidth="1"/>
+    <col min="49" max="49" width="8.5703125" style="34" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" style="34" customWidth="1"/>
     <col min="51" max="51" width="9.140625" style="34" customWidth="1"/>
-    <col min="52" max="52" width="10" style="34" customWidth="1"/>
-    <col min="53" max="53" width="9.85546875" style="34" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.28515625" style="34" customWidth="1"/>
-    <col min="56" max="56" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5703125" style="34" customWidth="1"/>
+    <col min="53" max="54" width="8.7109375" style="34" customWidth="1"/>
+    <col min="55" max="55" width="7.7109375" style="34" customWidth="1"/>
+    <col min="56" max="56" width="8.85546875" style="34" customWidth="1"/>
     <col min="57" max="57" width="10.140625" style="34" customWidth="1"/>
     <col min="58" max="58" width="10.5703125" style="34" customWidth="1"/>
     <col min="59" max="59" width="10.140625" style="34" customWidth="1"/>
     <col min="60" max="60" width="9.28515625" style="34" customWidth="1"/>
-    <col min="61" max="61" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9" style="34" customWidth="1"/>
+    <col min="62" max="62" width="8.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="9.42578125" style="34" customWidth="1"/>
     <col min="64" max="64" width="9.28515625" style="34" customWidth="1"/>
     <col min="65" max="65" width="8.7109375" style="34" customWidth="1"/>
@@ -17970,7 +19578,7 @@
       </c>
       <c r="C2" s="41">
         <f>SUM(C3,C8,C12)</f>
-        <v>1059688.8300000003</v>
+        <v>1060405.4400000002</v>
       </c>
       <c r="D2" s="42">
         <v>987923.46000000008</v>
@@ -18075,7 +19683,7 @@
       </c>
       <c r="C3" s="41">
         <f>SUM(C4:C7)</f>
-        <v>10457.490000000089</v>
+        <v>9699.3700000000899</v>
       </c>
       <c r="D3" s="44">
         <v>13870.780000000086</v>
@@ -18180,7 +19788,7 @@
       </c>
       <c r="C4" s="48">
         <f>SUM(D4:AAA4)</f>
-        <v>7111.9100000000426</v>
+        <v>1863.3500000000447</v>
       </c>
       <c r="D4" s="49">
         <v>6096.7800000000425</v>
@@ -18203,12 +19811,24 @@
       <c r="J4" s="50">
         <v>-50</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="K4" s="50">
+        <v>3200</v>
+      </c>
+      <c r="L4" s="50">
+        <v>-2613.92</v>
+      </c>
+      <c r="M4" s="50">
+        <v>-1495.86</v>
+      </c>
+      <c r="N4" s="50">
+        <v>2500</v>
+      </c>
+      <c r="O4" s="50">
+        <v>-6810</v>
+      </c>
+      <c r="P4" s="50">
+        <v>-28.78</v>
+      </c>
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="50"/>
@@ -18406,7 +20026,7 @@
       </c>
       <c r="C6" s="48">
         <f>SUM(D6:AAA6)</f>
-        <v>3229.8200000000352</v>
+        <v>6144.7400000000353</v>
       </c>
       <c r="D6" s="49">
         <v>243.43000000003724</v>
@@ -18435,9 +20055,15 @@
       <c r="L6" s="50">
         <v>-1245.04</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="M6" s="50">
+        <v>-1803.54</v>
+      </c>
+      <c r="N6" s="50">
+        <v>5000</v>
+      </c>
+      <c r="O6" s="50">
+        <v>-281.54000000000002</v>
+      </c>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
       <c r="R6" s="50"/>
@@ -18527,7 +20153,7 @@
       </c>
       <c r="C7" s="48">
         <f>SUM(D7:AAA7)</f>
-        <v>17.449999999998909</v>
+        <v>1592.9699999999984</v>
       </c>
       <c r="D7" s="49">
         <v>7482.2499999999991</v>
@@ -18541,10 +20167,18 @@
       <c r="G7" s="50">
         <v>-641</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="H7" s="50">
+        <v>7324.2</v>
+      </c>
+      <c r="I7" s="50">
+        <v>-939.17</v>
+      </c>
+      <c r="J7" s="50">
+        <v>-932.47</v>
+      </c>
+      <c r="K7" s="50">
+        <v>-3877.04</v>
+      </c>
       <c r="L7" s="50"/>
       <c r="M7" s="50"/>
       <c r="N7" s="50"/>
@@ -18638,7 +20272,7 @@
       </c>
       <c r="C8" s="41">
         <f>SUM(C9:C11)</f>
-        <v>25341.539999999994</v>
+        <v>31124.169999999987</v>
       </c>
       <c r="D8" s="44">
         <v>33609.89</v>
@@ -18848,7 +20482,7 @@
       </c>
       <c r="C10" s="48">
         <f>SUM(D10:AAA10)</f>
-        <v>1277</v>
+        <v>991.61999999999989</v>
       </c>
       <c r="D10" s="49">
         <v>2305</v>
@@ -18898,16 +20532,36 @@
       <c r="S10" s="50">
         <v>-447</v>
       </c>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
+      <c r="T10" s="50">
+        <v>800</v>
+      </c>
+      <c r="U10" s="50">
+        <v>-1975</v>
+      </c>
+      <c r="V10" s="50">
+        <v>2000</v>
+      </c>
+      <c r="W10" s="50">
+        <v>-525</v>
+      </c>
+      <c r="X10" s="50">
+        <v>-245</v>
+      </c>
+      <c r="Y10" s="50">
+        <v>-320</v>
+      </c>
+      <c r="Z10" s="50">
+        <v>-150.38</v>
+      </c>
+      <c r="AA10" s="50">
+        <v>-611</v>
+      </c>
+      <c r="AB10" s="50">
+        <v>2000</v>
+      </c>
+      <c r="AC10" s="50">
+        <v>-1259</v>
+      </c>
       <c r="AD10" s="50"/>
       <c r="AE10" s="50"/>
       <c r="AF10" s="50"/>
@@ -18983,7 +20637,7 @@
       </c>
       <c r="C11" s="48">
         <f>SUM(D11:AAA11)</f>
-        <v>24064.539999999994</v>
+        <v>30132.549999999988</v>
       </c>
       <c r="D11" s="49">
         <v>31304.89</v>
@@ -19088,34 +20742,81 @@
         <v>-14000</v>
       </c>
       <c r="AL11" s="50">
-        <v>11525</v>
+        <v>11425</v>
       </c>
       <c r="AM11" s="50">
         <v>125</v>
       </c>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="50"/>
+      <c r="AN11" s="50">
+        <v>6549.98</v>
+      </c>
+      <c r="AO11" s="50">
+        <v>-3200</v>
+      </c>
+      <c r="AP11" s="50">
+        <v>-800</v>
+      </c>
+      <c r="AQ11" s="50">
+        <v>-2000</v>
+      </c>
+      <c r="AR11" s="50">
+        <v>2650</v>
+      </c>
+      <c r="AS11" s="50">
+        <v>10000</v>
+      </c>
+      <c r="AT11" s="50">
+        <v>-40000</v>
+      </c>
+      <c r="AU11" s="50">
+        <v>25575</v>
+      </c>
+      <c r="AV11" s="50">
+        <v>-2500</v>
+      </c>
+      <c r="AW11" s="50">
+        <v>10000</v>
+      </c>
+      <c r="AX11" s="50">
+        <v>-46000</v>
+      </c>
+      <c r="AY11" s="50">
+        <v>49041.31</v>
+      </c>
+      <c r="AZ11" s="50">
+        <v>-6000</v>
+      </c>
+      <c r="BA11" s="50">
+        <v>-2000</v>
+      </c>
+      <c r="BB11" s="50">
+        <v>4350</v>
+      </c>
+      <c r="BC11" s="50">
+        <v>3160</v>
+      </c>
+      <c r="BD11" s="50">
+        <f>BE14-1500</f>
+        <v>-1500</v>
+      </c>
+      <c r="BE11" s="50">
+        <v>-2000</v>
+      </c>
+      <c r="BF11" s="50">
+        <v>-18000</v>
+      </c>
+      <c r="BG11" s="50">
+        <v>15166.72</v>
+      </c>
+      <c r="BH11" s="50">
+        <v>-5000</v>
+      </c>
+      <c r="BI11" s="50">
+        <v>10975</v>
+      </c>
+      <c r="BJ11" s="50">
+        <v>-2300</v>
+      </c>
       <c r="BK11" s="50"/>
       <c r="BL11" s="50"/>
       <c r="BM11" s="50"/>
@@ -19158,7 +20859,7 @@
       </c>
       <c r="C12" s="54">
         <f>SUM(C13:C19)</f>
-        <v>1023889.8000000002</v>
+        <v>1019581.9000000001</v>
       </c>
       <c r="D12" s="55">
         <v>940442.79</v>
@@ -19263,7 +20964,7 @@
       </c>
       <c r="C13" s="48">
         <f t="shared" ref="C13:C19" si="0">SUM(D13:AAA13)</f>
-        <v>653347.0900000002</v>
+        <v>698863.39000000025</v>
       </c>
       <c r="D13" s="49">
         <v>590548.4800000001</v>
@@ -19311,7 +21012,7 @@
         <v>40000</v>
       </c>
       <c r="S13" s="50">
-        <v>-4235.84</v>
+        <v>-440.54</v>
       </c>
       <c r="T13" s="50">
         <v>3000</v>
@@ -19329,22 +21030,50 @@
         <v>14000</v>
       </c>
       <c r="Y13" s="50">
-        <v>-8930.86</v>
-      </c>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
+        <v>-8830.86</v>
+      </c>
+      <c r="Z13" s="50">
+        <v>-4469.1899999999996</v>
+      </c>
+      <c r="AA13" s="50">
+        <v>-2137.09</v>
+      </c>
+      <c r="AB13" s="50">
+        <v>40000</v>
+      </c>
+      <c r="AC13" s="50">
+        <v>-19677.189999999999</v>
+      </c>
+      <c r="AD13" s="50">
+        <v>46000</v>
+      </c>
+      <c r="AE13" s="50">
+        <v>-35467.300000000003</v>
+      </c>
+      <c r="AF13" s="50">
+        <v>21000</v>
+      </c>
+      <c r="AG13" s="50">
+        <v>-2976.32</v>
+      </c>
+      <c r="AH13" s="50">
+        <v>1000</v>
+      </c>
+      <c r="AI13" s="50">
+        <v>-2583.59</v>
+      </c>
+      <c r="AJ13" s="50">
+        <v>18000</v>
+      </c>
+      <c r="AK13" s="50">
+        <v>-13130.02</v>
+      </c>
+      <c r="AL13" s="50">
+        <v>5000</v>
+      </c>
+      <c r="AM13" s="50">
+        <v>-8938.2999999999993</v>
+      </c>
       <c r="AN13" s="50"/>
       <c r="AO13" s="50"/>
       <c r="AP13" s="50"/>
@@ -19410,14 +21139,20 @@
       </c>
       <c r="C14" s="48">
         <f t="shared" si="0"/>
-        <v>300704.48</v>
+        <v>260704.47999999998</v>
       </c>
       <c r="D14" s="49">
         <v>300704.48</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="E14" s="50">
+        <v>-10000</v>
+      </c>
+      <c r="F14" s="50">
+        <v>-10000</v>
+      </c>
+      <c r="G14" s="50">
+        <v>-20000</v>
+      </c>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
@@ -19727,7 +21462,7 @@
       </c>
       <c r="C17" s="48">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D17" s="49">
         <v>0</v>
@@ -19735,7 +21470,9 @@
       <c r="E17" s="50">
         <v>2500</v>
       </c>
-      <c r="F17" s="50"/>
+      <c r="F17" s="50">
+        <v>-2500</v>
+      </c>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
@@ -19943,7 +21680,7 @@
       </c>
       <c r="C19" s="48">
         <f t="shared" si="0"/>
-        <v>14648.4</v>
+        <v>7324.2</v>
       </c>
       <c r="D19" s="49">
         <v>0</v>
@@ -19951,7 +21688,9 @@
       <c r="E19" s="50">
         <v>14648.4</v>
       </c>
-      <c r="F19" s="50"/>
+      <c r="F19" s="50">
+        <v>-7324.2</v>
+      </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -20052,7 +21791,7 @@
       </c>
       <c r="C20" s="41">
         <f>SUM(C21)</f>
-        <v>-196910.06</v>
+        <v>-191984.58</v>
       </c>
       <c r="D20" s="44">
         <v>-201736.34000000003</v>
@@ -20157,7 +21896,7 @@
       </c>
       <c r="C21" s="41">
         <f>SUM(C22:C31)</f>
-        <v>-196910.06</v>
+        <v>-191984.58</v>
       </c>
       <c r="D21" s="44">
         <v>-201736.34000000003</v>
@@ -20262,14 +22001,12 @@
       </c>
       <c r="C22" s="48">
         <f t="shared" ref="C22:C31" si="1">SUM(D22:AAA22)</f>
-        <v>-1415</v>
+        <v>0</v>
       </c>
       <c r="D22" s="49">
         <v>0</v>
       </c>
-      <c r="E22" s="50">
-        <v>-1415</v>
-      </c>
+      <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="50"/>
@@ -20793,12 +22530,14 @@
       </c>
       <c r="C27" s="48">
         <f t="shared" si="1"/>
-        <v>-71421.48</v>
+        <v>-70495.67</v>
       </c>
       <c r="D27" s="49">
         <v>-71421.48</v>
       </c>
-      <c r="E27" s="50"/>
+      <c r="E27" s="50">
+        <v>925.81</v>
+      </c>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
@@ -21110,12 +22849,14 @@
       </c>
       <c r="C30" s="48">
         <f t="shared" si="1"/>
-        <v>-60122.39</v>
+        <v>-57537.72</v>
       </c>
       <c r="D30" s="49">
         <v>-60122.39</v>
       </c>
-      <c r="E30" s="50"/>
+      <c r="E30" s="50">
+        <v>2584.67</v>
+      </c>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
       <c r="H30" s="50"/>
@@ -21640,7 +23381,7 @@
       </c>
       <c r="C35" s="41">
         <f>SUM(C36:C42)</f>
-        <v>-97451.830000000016</v>
+        <v>-126964.01000000001</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
@@ -21789,7 +23530,6 @@
       <c r="AO36" s="50"/>
       <c r="AP36" s="50"/>
       <c r="AQ36" s="50"/>
-      <c r="AR36" s="50"/>
       <c r="AS36" s="50"/>
       <c r="AT36" s="50"/>
       <c r="AU36" s="50"/>
@@ -22266,7 +24006,7 @@
       </c>
       <c r="C41" s="48">
         <f t="shared" si="2"/>
-        <v>-27483.600000000002</v>
+        <v>-56995.780000000006</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="50">
@@ -22302,15 +24042,33 @@
       <c r="O41" s="50">
         <v>-2594.14</v>
       </c>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
+      <c r="P41" s="50">
+        <v>-2080.79</v>
+      </c>
+      <c r="Q41" s="50">
+        <v>-512.91</v>
+      </c>
+      <c r="R41" s="50">
+        <v>-5897.81</v>
+      </c>
+      <c r="S41" s="50">
+        <v>-13574.01</v>
+      </c>
+      <c r="T41" s="50">
+        <v>-1373.68</v>
+      </c>
+      <c r="U41" s="50">
+        <v>-576.41</v>
+      </c>
+      <c r="V41" s="50">
+        <v>-3359.87</v>
+      </c>
+      <c r="W41" s="50">
+        <v>-2036.7</v>
+      </c>
+      <c r="X41" s="50">
+        <v>-100</v>
+      </c>
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
       <c r="AA41" s="50"/>
@@ -22502,7 +24260,7 @@
       </c>
       <c r="C43" s="41">
         <f>SUM(C44:C56)</f>
-        <v>20860.18</v>
+        <v>44011.270000000004</v>
       </c>
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
@@ -22605,7 +24363,7 @@
       </c>
       <c r="C44" s="48">
         <f t="shared" ref="C44:C54" si="3">SUM(D44:AAA44)</f>
-        <v>2515</v>
+        <v>9575</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="50">
@@ -22635,8 +24393,12 @@
       <c r="M44" s="50">
         <v>55</v>
       </c>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
+      <c r="N44" s="50">
+        <v>6810</v>
+      </c>
+      <c r="O44" s="50">
+        <v>250</v>
+      </c>
       <c r="P44" s="50"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
@@ -22726,7 +24488,7 @@
       </c>
       <c r="C45" s="48">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>2065</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="50">
@@ -22738,8 +24500,12 @@
       <c r="G45" s="50">
         <v>1000</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
+      <c r="H45" s="50">
+        <v>15</v>
+      </c>
+      <c r="I45" s="50">
+        <v>250</v>
+      </c>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
       <c r="L45" s="50"/>
@@ -23045,7 +24811,7 @@
       </c>
       <c r="C48" s="48">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>1460</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="50">
@@ -23057,10 +24823,18 @@
       <c r="G48" s="50">
         <v>50</v>
       </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
+      <c r="H48" s="50">
+        <v>100</v>
+      </c>
+      <c r="I48" s="50">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="50">
+        <v>85</v>
+      </c>
+      <c r="K48" s="50">
+        <v>50</v>
+      </c>
       <c r="L48" s="50"/>
       <c r="M48" s="50"/>
       <c r="N48" s="50"/>
@@ -23154,7 +24928,7 @@
       </c>
       <c r="C49" s="48">
         <f t="shared" si="3"/>
-        <v>144.97</v>
+        <v>150.27000000000001</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="50">
@@ -23166,7 +24940,9 @@
       <c r="G49" s="50">
         <v>50</v>
       </c>
-      <c r="H49" s="50"/>
+      <c r="H49" s="50">
+        <v>5.3</v>
+      </c>
       <c r="I49" s="50"/>
       <c r="J49" s="50"/>
       <c r="K49" s="50"/>
@@ -23263,15 +25039,21 @@
       </c>
       <c r="C50" s="48">
         <f t="shared" si="3"/>
-        <v>971.79</v>
+        <v>3834.3299999999995</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="50">
         <v>971.79</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
+      <c r="F50" s="50">
+        <v>1688.11</v>
+      </c>
+      <c r="G50" s="50">
+        <v>949.43</v>
+      </c>
+      <c r="H50" s="50">
+        <v>225</v>
+      </c>
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
       <c r="K50" s="50"/>
@@ -23368,13 +25150,15 @@
       </c>
       <c r="C51" s="48">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="50">
         <v>20</v>
       </c>
-      <c r="F51" s="50"/>
+      <c r="F51" s="50">
+        <v>90</v>
+      </c>
       <c r="G51" s="50"/>
       <c r="H51" s="50"/>
       <c r="I51" s="50"/>
@@ -23473,7 +25257,7 @@
       </c>
       <c r="C52" s="48">
         <f t="shared" si="3"/>
-        <v>7100.87</v>
+        <v>12688.359999999999</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="50">
@@ -23483,7 +25267,7 @@
         <v>674</v>
       </c>
       <c r="G52" s="50">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="H52" s="50">
         <v>1000</v>
@@ -23501,7 +25285,7 @@
         <v>365</v>
       </c>
       <c r="M52" s="50">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N52" s="50">
         <v>450</v>
@@ -23510,7 +25294,7 @@
         <v>443</v>
       </c>
       <c r="P52" s="50">
-        <v>265.33999999999997</v>
+        <v>265</v>
       </c>
       <c r="Q52" s="50">
         <v>117</v>
@@ -23536,20 +25320,48 @@
       <c r="X52" s="50">
         <v>157.04</v>
       </c>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
-      <c r="AD52" s="50"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="50"/>
-      <c r="AJ52" s="50"/>
-      <c r="AK52" s="50"/>
-      <c r="AL52" s="50"/>
+      <c r="Y52" s="50">
+        <v>750</v>
+      </c>
+      <c r="Z52" s="50">
+        <v>615</v>
+      </c>
+      <c r="AA52" s="50">
+        <v>510</v>
+      </c>
+      <c r="AB52" s="50">
+        <v>600</v>
+      </c>
+      <c r="AC52" s="50">
+        <v>203.64</v>
+      </c>
+      <c r="AD52" s="50">
+        <v>245</v>
+      </c>
+      <c r="AE52" s="50">
+        <v>430.97</v>
+      </c>
+      <c r="AF52" s="50">
+        <v>65.38</v>
+      </c>
+      <c r="AG52" s="50">
+        <v>281.54000000000002</v>
+      </c>
+      <c r="AH52" s="50">
+        <v>337.64</v>
+      </c>
+      <c r="AI52" s="50">
+        <v>281.54000000000002</v>
+      </c>
+      <c r="AJ52" s="50">
+        <v>265.33999999999997</v>
+      </c>
+      <c r="AK52" s="50">
+        <v>521</v>
+      </c>
+      <c r="AL52" s="50">
+        <v>280.77999999999997</v>
+      </c>
       <c r="AM52" s="50"/>
       <c r="AN52" s="50"/>
       <c r="AO52" s="50"/>
@@ -23616,7 +25428,7 @@
       </c>
       <c r="C53" s="48">
         <f t="shared" si="3"/>
-        <v>3240.55</v>
+        <v>4260.55</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="50">
@@ -23638,7 +25450,7 @@
         <v>100</v>
       </c>
       <c r="K53" s="50">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="L53" s="50">
         <v>30</v>
@@ -23646,9 +25458,15 @@
       <c r="M53" s="50">
         <v>1088</v>
       </c>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
+      <c r="N53" s="50">
+        <v>530</v>
+      </c>
+      <c r="O53" s="50">
+        <v>300</v>
+      </c>
+      <c r="P53" s="50">
+        <v>90</v>
+      </c>
       <c r="Q53" s="50"/>
       <c r="R53" s="50"/>
       <c r="S53" s="50"/>
@@ -23840,7 +25658,7 @@
       </c>
       <c r="C55" s="48">
         <f>SUM(D55:ZZ55)</f>
-        <v>3352</v>
+        <v>8377.76</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="50">
@@ -23855,11 +25673,21 @@
       <c r="H55" s="50">
         <v>2207</v>
       </c>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
+      <c r="I55" s="50">
+        <v>2500</v>
+      </c>
+      <c r="J55" s="50">
+        <v>939.17</v>
+      </c>
+      <c r="K55" s="50">
+        <v>501.5</v>
+      </c>
+      <c r="L55" s="50">
+        <v>2000</v>
+      </c>
+      <c r="M55" s="50">
+        <v>-914.91</v>
+      </c>
       <c r="N55" s="50"/>
       <c r="O55" s="50"/>
       <c r="P55" s="50"/>
@@ -25162,8 +26990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25194,7 +27022,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1059688.8300000003</v>
+        <v>1060405.4400000002</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -25204,7 +27032,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>contabilidad!C20+contabilidad!C32</f>
-        <v>-983097.18000000017</v>
+        <v>-978171.70000000007</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -25213,27 +27041,24 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C35+contabilidad!C43</f>
-        <v>-76591.650000000023</v>
+        <v>-82952.740000000005</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1059688.8300000003</v>
+        <v>1060405.4400000002</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1059688.83</v>
+        <v>-1061124.4400000002</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="3">
-        <f>C7+D7</f>
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="D10" s="1"/>
@@ -25251,7 +27076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DA57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -32706,7 +34531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CR224"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -4082,30 +4082,6 @@
           <t xml:space="preserve">
 17/07 tinta impresora
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Adelson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-ojo ajuste del cuadre</t>
         </r>
       </text>
     </comment>
@@ -19361,7 +19337,7 @@
   <dimension ref="A1:CR224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -19578,7 +19554,7 @@
       </c>
       <c r="C2" s="41">
         <f>SUM(C3,C8,C12)</f>
-        <v>1060405.4400000002</v>
+        <v>1059638.7700000003</v>
       </c>
       <c r="D2" s="42">
         <v>987923.46000000008</v>
@@ -20272,7 +20248,7 @@
       </c>
       <c r="C8" s="41">
         <f>SUM(C9:C11)</f>
-        <v>31124.169999999987</v>
+        <v>30024.169999999987</v>
       </c>
       <c r="D8" s="44">
         <v>33609.89</v>
@@ -20637,7 +20613,7 @@
       </c>
       <c r="C11" s="48">
         <f>SUM(D11:AAA11)</f>
-        <v>30132.549999999988</v>
+        <v>29032.549999999988</v>
       </c>
       <c r="D11" s="49">
         <v>31304.89</v>
@@ -20781,7 +20757,7 @@
         <v>-46000</v>
       </c>
       <c r="AY11" s="50">
-        <v>49041.31</v>
+        <v>47941.31</v>
       </c>
       <c r="AZ11" s="50">
         <v>-6000</v>
@@ -20859,7 +20835,7 @@
       </c>
       <c r="C12" s="54">
         <f>SUM(C13:C19)</f>
-        <v>1019581.9000000001</v>
+        <v>1019915.2300000002</v>
       </c>
       <c r="D12" s="55">
         <v>940442.79</v>
@@ -20964,7 +20940,7 @@
       </c>
       <c r="C13" s="48">
         <f t="shared" ref="C13:C19" si="0">SUM(D13:AAA13)</f>
-        <v>698863.39000000025</v>
+        <v>699196.72000000032</v>
       </c>
       <c r="D13" s="49">
         <v>590548.4800000001</v>
@@ -21048,7 +21024,7 @@
         <v>46000</v>
       </c>
       <c r="AE13" s="50">
-        <v>-35467.300000000003</v>
+        <v>-35133.97</v>
       </c>
       <c r="AF13" s="50">
         <v>21000</v>
@@ -23381,7 +23357,7 @@
       </c>
       <c r="C35" s="41">
         <f>SUM(C36:C42)</f>
-        <v>-126964.01000000001</v>
+        <v>-125698.41000000002</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
@@ -24006,7 +23982,7 @@
       </c>
       <c r="C41" s="48">
         <f t="shared" si="2"/>
-        <v>-56995.780000000006</v>
+        <v>-55730.180000000008</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="50">
@@ -24052,7 +24028,7 @@
         <v>-5897.81</v>
       </c>
       <c r="S41" s="50">
-        <v>-13574.01</v>
+        <v>-12308.41</v>
       </c>
       <c r="T41" s="50">
         <v>-1373.68</v>
@@ -24260,7 +24236,7 @@
       </c>
       <c r="C43" s="41">
         <f>SUM(C44:C56)</f>
-        <v>44011.270000000004</v>
+        <v>44926.18</v>
       </c>
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
@@ -25658,7 +25634,7 @@
       </c>
       <c r="C55" s="48">
         <f>SUM(D55:ZZ55)</f>
-        <v>8377.76</v>
+        <v>9292.67</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="50">
@@ -25685,9 +25661,7 @@
       <c r="L55" s="50">
         <v>2000</v>
       </c>
-      <c r="M55" s="50">
-        <v>-914.91</v>
-      </c>
+      <c r="M55" s="50"/>
       <c r="N55" s="50"/>
       <c r="O55" s="50"/>
       <c r="P55" s="50"/>
@@ -27022,7 +26996,7 @@
       </c>
       <c r="C4" s="1">
         <f>contabilidad!C2</f>
-        <v>1060405.4400000002</v>
+        <v>1059638.7700000003</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -27041,17 +27015,17 @@
       </c>
       <c r="D6" s="1">
         <f>contabilidad!C35+contabilidad!C43</f>
-        <v>-82952.740000000005</v>
+        <v>-80772.23000000001</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>1060405.4400000002</v>
+        <v>1059638.7700000003</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D5:D6)</f>
-        <v>-1061124.4400000002</v>
+        <v>-1058943.9300000002</v>
       </c>
     </row>
     <row r="9" spans="2:5">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="11610" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="11610" tabRatio="655"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja de saldo" sheetId="6" r:id="rId1"/>
-    <sheet name="Estado financiero" sheetId="13" r:id="rId2"/>
-    <sheet name="Apalancamiento" sheetId="3" r:id="rId3"/>
-    <sheet name="bienes" sheetId="10" r:id="rId4"/>
-    <sheet name="recoleta" sheetId="9" r:id="rId5"/>
-    <sheet name="leyenda" sheetId="11" r:id="rId6"/>
+    <sheet name="Estado financiero" sheetId="13" r:id="rId1"/>
+    <sheet name="Apalancamiento" sheetId="3" r:id="rId2"/>
+    <sheet name="bienes" sheetId="10" r:id="rId3"/>
+    <sheet name="recoleta" sheetId="9" r:id="rId4"/>
+    <sheet name="leyenda" sheetId="11" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
   <si>
     <t>ACTIVOS</t>
   </si>
@@ -222,24 +222,9 @@
     <t>Carro toyota tercel 87  2/PTAS</t>
   </si>
   <si>
-    <t>Prestamos Sanchito</t>
-  </si>
-  <si>
-    <t>Prestamo BHD Leon Rosalis</t>
-  </si>
-  <si>
     <t>Colegio Ercilia Pepin</t>
   </si>
   <si>
-    <t>Familia</t>
-  </si>
-  <si>
-    <t>Tarjeta Credito 6405 BHD Leon</t>
-  </si>
-  <si>
-    <t>ESTADO FINANCIERO</t>
-  </si>
-  <si>
     <t>INGRESOS</t>
   </si>
   <si>
@@ -249,37 +234,13 @@
     <t>MONTO</t>
   </si>
   <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>ORIGEN</t>
-  </si>
-  <si>
-    <t>DETALLE</t>
-  </si>
-  <si>
     <t>TOTAL PASIVOS</t>
   </si>
   <si>
     <t>TOTAL ACTIVOS</t>
   </si>
   <si>
-    <t>Cuenta BHD Leon y Tarjeta Debito</t>
-  </si>
-  <si>
-    <t>Cuenta Banco Popular y Tarjeta Debito</t>
-  </si>
-  <si>
     <t>Caja</t>
-  </si>
-  <si>
-    <t>Fondo mutuo renta fija Nacional 6348</t>
-  </si>
-  <si>
-    <t>Compra comida la sirena</t>
-  </si>
-  <si>
-    <t>ExtraCredito Banco popular</t>
   </si>
   <si>
     <r>
@@ -348,18 +309,6 @@
     <t xml:space="preserve">cantidad*cotiz. cierre. &gt;&gt; total de la venta  </t>
   </si>
   <si>
-    <t>Compra colmado</t>
-  </si>
-  <si>
-    <t>Broker Plus500 CFD  10,800 USD  a $55.4646</t>
-  </si>
-  <si>
-    <t>Cargo por transferencia internacional bhd leon</t>
-  </si>
-  <si>
-    <t>Perdida en plus500</t>
-  </si>
-  <si>
     <t>extra credito popular</t>
   </si>
   <si>
@@ -396,54 +345,9 @@
     <t>hecho</t>
   </si>
   <si>
-    <t>TOTAL GASTOS</t>
-  </si>
-  <si>
-    <t>compra en la sirena</t>
-  </si>
-  <si>
-    <t>PAGO SEGURO DEUDOR</t>
-  </si>
-  <si>
-    <t>empleo</t>
-  </si>
-  <si>
-    <t>pago impuesto tss,sfs y otros</t>
-  </si>
-  <si>
-    <t>beneficio fondo mutuo bhd leon</t>
-  </si>
-  <si>
-    <t>Puntos siremas</t>
-  </si>
-  <si>
-    <t>sobrante en cuenta bhd leon</t>
-  </si>
-  <si>
-    <t>avance de efectivo bhd leon</t>
-  </si>
-  <si>
-    <t>interes prestamo rosalis</t>
-  </si>
-  <si>
-    <t>diferencia, comision y otros cargos</t>
-  </si>
-  <si>
-    <t>386.87 </t>
-  </si>
-  <si>
-    <t>intereses</t>
-  </si>
-  <si>
-    <t>Depositos de la casa</t>
-  </si>
-  <si>
     <t>ejemplos</t>
   </si>
   <si>
-    <t>TOTAL INGRESOS</t>
-  </si>
-  <si>
     <t>Hoja balance</t>
   </si>
   <si>
@@ -558,9 +462,6 @@
     <t>FLUJO DE CAJA:</t>
   </si>
   <si>
-    <t>HOLA DE BALANCE</t>
-  </si>
-  <si>
     <t>celular LG-M153 100 minutos</t>
   </si>
   <si>
@@ -630,9 +531,6 @@
     <t>Claro dominicana el 30</t>
   </si>
   <si>
-    <t>Plus500   7469.62 USD</t>
-  </si>
-  <si>
     <t>BHD Leon Tarjeta Credito 6405 membresia</t>
   </si>
   <si>
@@ -646,6 +544,12 @@
   </si>
   <si>
     <t>Servicios</t>
+  </si>
+  <si>
+    <t>perdido en plus500</t>
+  </si>
+  <si>
+    <t>Plus500   24,700 USD</t>
   </si>
 </sst>
 </file>
@@ -657,7 +561,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,13 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color theme="0"/>
@@ -779,45 +676,6 @@
     <font>
       <sz val="14"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -891,6 +749,14 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1320,51 +1186,25 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,20 +1226,9 @@
     <xf numFmtId="10" fontId="12" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,12 +1238,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1428,13 +1251,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1450,9 +1271,6 @@
     <xf numFmtId="164" fontId="11" fillId="9" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1465,13 +1283,13 @@
     <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1479,64 +1297,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,13 +1308,10 @@
     <xf numFmtId="164" fontId="10" fillId="9" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,16 +1320,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1581,10 +1335,10 @@
     <xf numFmtId="164" fontId="2" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1594,6 +1348,76 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1878,7 +1702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1886,1182 +1710,757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J19"/>
+  <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="9"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="23"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="2:10" ht="31.5" customHeight="1">
-      <c r="B2" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="2:10" ht="18.75">
-      <c r="B3" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.75">
-      <c r="B4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="7">
-        <v>31</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="15">
-        <v>55000</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="7">
-        <v>23</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1825.4</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="7">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="12">
-        <v>187.56000000005588</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="7">
-        <v>26</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="15">
-        <v>412</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="7">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1495</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="7">
-        <v>26</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="15">
-        <v>412</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="7">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="17">
-        <v>70.819999999999993</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="7">
-        <v>25</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="15">
-        <v>8286.18</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="G9" s="7">
-        <v>27</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="15">
-        <v>599018.75</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="C10" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="51">
-        <f>SUM(D5:D9)</f>
-        <v>56753.380000000056</v>
-      </c>
-      <c r="G10" s="7">
-        <v>28</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1026.27</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="G11" s="7">
-        <v>31</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="G12" s="7">
-        <v>31</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="15">
-        <v>5850</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="G13" s="7">
-        <v>28</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="15">
-        <v>8375</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="G14" s="7">
-        <v>28</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1825.4</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="G15" s="7">
-        <v>31</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="15">
-        <v>134.08000000000001</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="D16" s="38"/>
-      <c r="G16" s="7">
-        <v>31</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="15">
-        <v>4315.7</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10">
-      <c r="G17" s="7">
-        <v>31</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="15">
-        <v>5810.11</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10">
-      <c r="H19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="44">
-        <f>SUM(I5:I17)</f>
-        <v>637290.8899999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H59"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="13"/>
-    <col min="2" max="2" width="49.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="109" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="109" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="109" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="109" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="43" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="67" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="67" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.25">
-      <c r="B2" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-    </row>
-    <row r="3" spans="2:8" ht="6.75" customHeight="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-    </row>
+      <c r="B2" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="2:8" ht="6.75" customHeight="1"/>
     <row r="4" spans="2:8">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="F4" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="F5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <v>55000</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="63"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38">
+        <v>10</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="43">
+        <f>SUM(D7:D7)</f>
+        <v>55000</v>
+      </c>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="43">
+        <f>SUM(D9:D12)</f>
+        <v>2610</v>
+      </c>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
+        <v>800</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="48">
+        <f>G9+G10</f>
+        <v>57610</v>
+      </c>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="32"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="F12" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="45">
+        <f>SUM(D14:D32)</f>
+        <v>56013.234166666669</v>
+      </c>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="47">
+        <f>G11-G12</f>
+        <v>1596.7658333333311</v>
+      </c>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
+        <v>5810.11</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="73">
+        <f>D37+G13</f>
+        <v>26284.765833333331</v>
+      </c>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="55">
+        <v>518</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="55">
+        <f>SUM(C17:C19)</f>
+        <v>3016.66</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="64">
+        <v>191.66</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="64">
+        <v>325</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="64">
+        <v>2500</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="55">
+        <v>4940.8999999999996</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76">
+        <v>4232.3975</v>
+      </c>
+      <c r="E22" s="70"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="70"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="55">
+        <v>5250</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55">
+        <v>3445</v>
+      </c>
+      <c r="E25" s="70"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="60">
+        <f>SUM(C27:C29)</f>
+        <v>11300</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="76">
+        <v>10500</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="76">
+        <v>600</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="64">
+        <v>200</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="55">
+        <v>1358.5</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="55">
+        <v>141.666666666666</v>
+      </c>
+      <c r="E31" s="68"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="32"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="F34" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+    </row>
+    <row r="35" spans="1:8" s="8" customFormat="1">
+      <c r="A35" s="66"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="6"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" customHeight="1">
+      <c r="B36" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62">
+        <f>SUM(C38:C43)</f>
+        <v>24688</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62">
+        <f>SUM(G38:G42)</f>
+        <v>437224.08999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="38">
+        <v>774</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="F38" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="64">
+        <v>16929.59</v>
+      </c>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="38">
+        <v>1871</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="64">
+        <v>146951.62</v>
+      </c>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="38">
+        <v>109</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="F40" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="64">
+        <v>35502.54</v>
+      </c>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="38">
+        <v>111.25</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="64">
+        <v>150000</v>
+      </c>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4"/>
-      <c r="F4" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="56"/>
-      <c r="E5"/>
-      <c r="F5" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="69"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="69"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57">
-        <v>55000</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="105"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57">
-        <v>10</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="63">
-        <f>SUM(D7)</f>
-        <v>55000</v>
-      </c>
-      <c r="H9" s="63"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57">
-        <v>9000</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="63">
-        <f>SUM(D9:D13)</f>
-        <v>11610</v>
-      </c>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57">
-        <v>1800</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="68">
-        <f>G9+G10</f>
-        <v>66610</v>
-      </c>
-      <c r="H11" s="68"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57">
-        <v>800</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="65">
-        <f>SUM(D15:D33)</f>
-        <v>69936.14416666668</v>
-      </c>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="49"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13"/>
-      <c r="F13" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="66">
-        <f>G11-G12</f>
-        <v>-3326.1441666666797</v>
-      </c>
-      <c r="H13" s="66"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="67">
-        <f>D38+G13</f>
-        <v>434995.06583333336</v>
-      </c>
-      <c r="H14" s="67"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="49" t="s">
+      <c r="C42" s="40">
+        <v>21822.75</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="F42" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="64">
+        <v>87840.34</v>
+      </c>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="59"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="F43" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62">
+        <f>SUM(G44:G53)</f>
+        <v>27477.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57">
-        <v>5810.11</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57">
+      <c r="G44" s="64">
         <v>518</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="104">
-        <f>SUM(C18:C20)</f>
-        <v>3016.66</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="106">
-        <v>191.66</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="106">
-        <v>325</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="106">
-        <v>2500</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="96">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="96">
-        <v>4940.8999999999996</v>
-      </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="96">
-        <v>4232.3975</v>
-      </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="96">
-        <v>29138.639999999999</v>
-      </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="96">
-        <v>5250</v>
-      </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="96">
-        <v>3445</v>
-      </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="101">
-        <f>SUM(C28:C30)</f>
-        <v>11084.27</v>
-      </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="106">
-        <v>10500</v>
-      </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="106">
-        <v>384.27</v>
-      </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="106">
-        <v>200</v>
-      </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="96">
-        <v>1358.5</v>
-      </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="96">
-        <v>141.666666666666</v>
-      </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="49"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1">
-      <c r="A35" s="108"/>
-      <c r="B35" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35"/>
-      <c r="F35" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-    </row>
-    <row r="36" spans="1:8" ht="6" customHeight="1">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104">
-        <f>SUM(C39:C45)</f>
-        <v>438321.21</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104">
-        <f>SUM(G39:G43)</f>
-        <v>437224.08999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="57">
-        <v>774</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="106">
-        <v>16929.59</v>
-      </c>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="57">
-        <v>1871</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40"/>
-      <c r="F40" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="106">
-        <v>146951.62</v>
-      </c>
-      <c r="H40" s="57"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="57">
-        <v>9</v>
-      </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="106">
-        <v>35502.54</v>
-      </c>
-      <c r="H41" s="57"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="57">
-        <v>111.25</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42"/>
-      <c r="F42" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="106">
-        <v>150000</v>
-      </c>
-      <c r="H42" s="57"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="59">
-        <v>414555.96</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="E43"/>
-      <c r="F43" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="106">
-        <v>87840.34</v>
-      </c>
-      <c r="H43" s="57"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="57">
-        <v>21000</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44"/>
-      <c r="F44" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104">
-        <f>SUM(G45:G55)</f>
-        <v>27477.43</v>
-      </c>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" s="100"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45"/>
-      <c r="F45" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="106">
-        <v>518</v>
-      </c>
-      <c r="H45" s="57"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="106">
+      <c r="B45" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="38">
+        <v>1830.46</v>
+      </c>
+      <c r="D45" s="38">
+        <v>1830.46</v>
+      </c>
+      <c r="F45" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="64">
         <f>21000+384.27+200</f>
         <v>21584.27</v>
       </c>
-      <c r="H46" s="57"/>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="32"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="F46" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="64">
+        <v>1358.5</v>
+      </c>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="57">
-        <v>1830.46</v>
-      </c>
-      <c r="D47" s="57">
-        <v>1830.46</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="106">
-        <v>1358.5</v>
-      </c>
-      <c r="H47" s="57"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="F47" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="64">
+        <v>3016.66</v>
+      </c>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="49"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48"/>
-      <c r="F48" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="106">
-        <v>3016.66</v>
-      </c>
-      <c r="H48" s="57"/>
+      <c r="B48" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="64">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="106">
-        <v>1000</v>
-      </c>
-      <c r="H49" s="57"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="49"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="49"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
+      <c r="B51" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
+      <c r="B52" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="38">
+        <v>500</v>
+      </c>
+      <c r="D52" s="38">
+        <v>500</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="61">
-        <v>43446.44</v>
-      </c>
-      <c r="D53" s="57">
-        <v>43446.44</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="57">
-        <v>800</v>
-      </c>
-      <c r="D54" s="57">
-        <v>800</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="49"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="93">
-        <f>SUM(D38:D55)</f>
-        <v>484398.11000000004</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94">
-        <f>SUM(H38:H55)</f>
+      <c r="B54" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="53">
+        <f>SUM(D37:D53)</f>
+        <v>27018.46</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54">
+        <f>SUM(H37:H53)</f>
         <v>464701.51999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
-      <c r="F59" s="110"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
+    <row r="57" spans="2:8">
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>
@@ -3071,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E22"/>
   <sheetViews>
@@ -3081,204 +2480,204 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="89.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:5" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B2" s="85" t="str">
+      <c r="B2" s="93" t="str">
         <f>IF(C4="v","VENTA","COMPRA")</f>
         <v>COMPRA</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
+      <c r="B3" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>55</v>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="17">
         <v>1.08589</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>54</v>
+      <c r="D5" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="18">
         <v>70000</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="18">
         <v>300</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>57</v>
+      <c r="D7" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="14">
         <f>100/C7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>58</v>
+      <c r="D8" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="15">
         <f>C6*C5</f>
         <v>76012.3</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>59</v>
+      <c r="D9" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="15">
         <f>C8*C9/100</f>
         <v>253.37433333333334</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>60</v>
+      <c r="D10" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="19">
         <f>C9-C10</f>
         <v>75758.925666666662</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>56</v>
+      <c r="D11" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B12" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="17">
         <v>1.08599</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="15">
         <f>C6*C13</f>
         <v>76019.3</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>64</v>
+      <c r="D14" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="24">
         <f>C14-C9</f>
         <v>7</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>61</v>
+      <c r="D15" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="20">
         <f>C15/C10</f>
         <v>2.7627107718092993E-2</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>62</v>
+      <c r="D16" s="22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="39" customHeight="1">
-      <c r="B17" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
+      <c r="B17" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3298,7 +2697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3313,167 +2712,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="46">
+      <c r="A1" s="29">
         <v>43678</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="31">
         <v>-2000</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="46">
+      <c r="A2" s="29">
         <v>43497</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="31">
         <v>-4000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="46">
+      <c r="A3" s="29">
         <v>43466</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="31">
         <v>-2500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="46">
+      <c r="A4" s="29">
         <v>43467</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="31">
         <v>-1500</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="46">
+      <c r="A5" s="29">
         <v>43822</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="31">
         <v>-1900</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="46">
+      <c r="A6" s="29">
         <v>43525</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="31">
         <v>-1900</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="46">
+      <c r="A7" s="29">
         <v>42370</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="31">
         <v>-11000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="46">
+      <c r="A8" s="29">
         <v>43770</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="31">
         <v>-13995</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="46">
+      <c r="A9" s="29">
         <v>43770</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="31">
         <v>-14990</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="46">
+      <c r="A10" s="29">
         <v>43221</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="31">
         <v>-6000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="46">
+      <c r="A11" s="29">
         <v>43831</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="31">
         <v>-4500</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="46">
+      <c r="A12" s="29">
         <v>41640</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="31">
         <v>-10000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="46">
+      <c r="A13" s="29">
         <v>42370</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="31">
         <v>-6000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="46">
+      <c r="A14" s="29">
         <v>43678</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="31">
         <v>-2000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="46">
+      <c r="A15" s="29">
         <v>43221</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="31">
         <v>-600</v>
       </c>
     </row>
@@ -3482,116 +2881,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="27" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="40">
+      <c r="A1" s="25">
         <v>150000</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C1">
         <v>5850</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="40">
+      <c r="A2" s="25">
         <v>50000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>3125</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="40">
+      <c r="A3" s="25">
         <v>150000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>-5250</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="40">
+      <c r="A4" s="25">
         <v>86400</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="40">
+      <c r="A5" s="25">
         <v>10300</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="40">
+      <c r="A6" s="25">
         <v>50000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="40">
+      <c r="A7" s="25">
         <v>20000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="41">
+      <c r="A8" s="26">
         <f>SUM(A1:A7)</f>
         <v>516700</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>75</v>
+      <c r="B8" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="74">
+        <v>24300</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B8"/>
   <sheetViews>
@@ -3614,43 +3021,255 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50" t="s">
-        <v>95</v>
+      <c r="A4" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50" t="s">
-        <v>99</v>
+      <c r="A7" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50" t="s">
-        <v>100</v>
+      <c r="A8" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38">
+        <v>5810.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="62">
+        <f>SUM(B5:B7)</f>
+        <v>3016.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="64">
+        <v>191.66</v>
+      </c>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="64">
+        <v>325</v>
+      </c>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="64">
+        <v>2500</v>
+      </c>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="55">
+        <v>4940.8999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="55">
+        <v>4232.3975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="55">
+        <v>29138.639999999999</v>
+      </c>
+      <c r="C11" s="55">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="55">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="55">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="60">
+        <f>SUM(B15:B17)</f>
+        <v>11084.27</v>
+      </c>
+      <c r="D14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="64">
+        <v>10500</v>
+      </c>
+      <c r="C15" s="55"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="64">
+        <v>384.27</v>
+      </c>
+      <c r="C16" s="55"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="64">
+        <v>200</v>
+      </c>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="55">
+        <v>1358.5</v>
+      </c>
+      <c r="D18">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="55">
+        <v>141.666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" s="75">
+        <f>SUM(C2:C20)</f>
+        <v>45797.504166666673</v>
       </c>
     </row>
   </sheetData>

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>ACTIVOS</t>
   </si>
@@ -1186,7 +1186,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1418,6 +1418,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1702,7 +1705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1712,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="G12" s="45">
         <f>SUM(D14:D32)</f>
-        <v>56013.234166666669</v>
+        <v>51780.836666666662</v>
       </c>
       <c r="H12" s="45"/>
     </row>
@@ -1894,7 +1897,7 @@
       </c>
       <c r="G13" s="47">
         <f>G11-G12</f>
-        <v>1596.7658333333311</v>
+        <v>5829.1633333333375</v>
       </c>
       <c r="H13" s="46"/>
     </row>
@@ -1911,7 +1914,7 @@
       </c>
       <c r="G14" s="73">
         <f>D37+G13</f>
-        <v>26284.765833333331</v>
+        <v>30872.163333333338</v>
       </c>
       <c r="H14" s="47"/>
     </row>
@@ -1993,7 +1996,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="56"/>
-      <c r="D21" s="55">
+      <c r="D21" s="76">
         <v>4940.8999999999996</v>
       </c>
       <c r="E21" s="70"/>
@@ -2006,8 +2009,8 @@
         <v>120</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="D22" s="76">
-        <v>4232.3975</v>
+      <c r="D22" s="55">
+        <v>0</v>
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="35"/>
@@ -2058,7 +2061,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="76"/>
-      <c r="D26" s="60">
+      <c r="D26" s="96">
         <f>SUM(C27:C29)</f>
         <v>11300</v>
       </c>
@@ -2071,7 +2074,7 @@
       <c r="B27" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="55">
         <v>10500</v>
       </c>
       <c r="D27" s="55"/>
@@ -2084,7 +2087,7 @@
       <c r="B28" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="55">
         <v>600</v>
       </c>
       <c r="D28" s="55"/>
@@ -2196,7 +2199,7 @@
       <c r="C37" s="62"/>
       <c r="D37" s="62">
         <f>SUM(C38:C43)</f>
-        <v>24688</v>
+        <v>25043</v>
       </c>
       <c r="F37" s="57" t="s">
         <v>129</v>
@@ -2204,7 +2207,7 @@
       <c r="G37" s="62"/>
       <c r="H37" s="62">
         <f>SUM(G38:G42)</f>
-        <v>437224.08999999997</v>
+        <v>435202.54000000004</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2212,14 +2215,14 @@
         <v>36</v>
       </c>
       <c r="C38" s="38">
-        <v>774</v>
+        <v>3000</v>
       </c>
       <c r="D38" s="38"/>
       <c r="F38" s="72" t="s">
         <v>104</v>
       </c>
       <c r="G38" s="64">
-        <v>16929.59</v>
+        <v>700</v>
       </c>
       <c r="H38" s="38"/>
     </row>
@@ -2228,7 +2231,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="38">
-        <v>1871</v>
+        <v>0</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="8"/>
@@ -2236,7 +2239,7 @@
         <v>69</v>
       </c>
       <c r="G39" s="64">
-        <v>146951.62</v>
+        <v>152000</v>
       </c>
       <c r="H39" s="38"/>
     </row>
@@ -2285,7 +2288,7 @@
         <v>70</v>
       </c>
       <c r="G42" s="64">
-        <v>87840.34</v>
+        <v>97000</v>
       </c>
       <c r="H42" s="38"/>
     </row>
@@ -2299,7 +2302,7 @@
       <c r="G43" s="62"/>
       <c r="H43" s="62">
         <f>SUM(G44:G53)</f>
-        <v>27477.43</v>
+        <v>16593.16</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2334,8 +2337,7 @@
         <v>113</v>
       </c>
       <c r="G45" s="64">
-        <f>21000+384.27+200</f>
-        <v>21584.27</v>
+        <v>10700</v>
       </c>
       <c r="H45" s="38"/>
     </row>
@@ -2412,15 +2414,9 @@
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="38">
-        <v>500</v>
-      </c>
-      <c r="D52" s="38">
-        <v>500</v>
-      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
       <c r="F52" s="32"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
@@ -2440,7 +2436,7 @@
       <c r="C54" s="41"/>
       <c r="D54" s="53">
         <f>SUM(D37:D53)</f>
-        <v>27018.46</v>
+        <v>26873.46</v>
       </c>
       <c r="F54" s="51" t="s">
         <v>34</v>
@@ -2448,7 +2444,7 @@
       <c r="G54" s="54"/>
       <c r="H54" s="54">
         <f>SUM(H37:H53)</f>
-        <v>464701.51999999996</v>
+        <v>451795.7</v>
       </c>
     </row>
     <row r="57" spans="2:8">

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>ACTIVOS</t>
   </si>
@@ -549,7 +549,10 @@
     <t>perdido en plus500</t>
   </si>
   <si>
-    <t>Plus500   24,700 USD</t>
+    <t>TASA DOLAR</t>
+  </si>
+  <si>
+    <t>Plus500   1100 USD   Tasa promedio: 57.42086363636364</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1189,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1368,6 +1371,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1418,9 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1705,7 +1711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1713,48 +1719,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H57"/>
+  <dimension ref="A2:H56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="43" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="67" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="67" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="67" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="67" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="2:8" ht="6.75" customHeight="1"/>
     <row r="4" spans="2:8">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="F4" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="50" t="s">
@@ -1877,8 +1883,8 @@
         <v>79</v>
       </c>
       <c r="G12" s="45">
-        <f>SUM(D14:D32)</f>
-        <v>51780.836666666662</v>
+        <f>SUM(D14:D31)</f>
+        <v>51262.836666666662</v>
       </c>
       <c r="H12" s="45"/>
     </row>
@@ -1897,7 +1903,7 @@
       </c>
       <c r="G13" s="47">
         <f>G11-G12</f>
-        <v>5829.1633333333375</v>
+        <v>6347.1633333333375</v>
       </c>
       <c r="H13" s="46"/>
     </row>
@@ -1913,8 +1919,8 @@
         <v>88</v>
       </c>
       <c r="G14" s="73">
-        <f>D37+G13</f>
-        <v>30872.163333333338</v>
+        <f>D36+G13</f>
+        <v>71930.363333333342</v>
       </c>
       <c r="H14" s="47"/>
     </row>
@@ -1924,17 +1930,24 @@
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="55">
-        <v>518</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="43">
+        <v>59.23</v>
+      </c>
       <c r="H15" s="43"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="55">
+        <f>SUM(B17:B19)</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="55">
         <f>SUM(C17:C19)</f>
         <v>3016.66</v>
@@ -2005,12 +2018,12 @@
       <c r="H21" s="43"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="76"/>
+      <c r="B22" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="55"/>
       <c r="D22" s="55">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="35"/>
@@ -2019,11 +2032,11 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="55"/>
+        <v>118</v>
+      </c>
+      <c r="C23" s="56"/>
       <c r="D23" s="55">
-        <v>15000</v>
+        <v>5250</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="35"/>
@@ -2032,11 +2045,11 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="55">
-        <v>5250</v>
+        <v>3445</v>
       </c>
       <c r="E24" s="70"/>
       <c r="F24" s="35"/>
@@ -2044,12 +2057,13 @@
       <c r="H24" s="43"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="55">
-        <v>3445</v>
+      <c r="B25" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="79">
+        <f>SUM(C26:C28)</f>
+        <v>11300</v>
       </c>
       <c r="E25" s="70"/>
       <c r="F25" s="35"/>
@@ -2057,14 +2071,13 @@
       <c r="H25" s="43"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="96">
-        <f>SUM(C27:C29)</f>
-        <v>11300</v>
-      </c>
+      <c r="B26" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="55">
+        <v>10500</v>
+      </c>
+      <c r="D26" s="55"/>
       <c r="E26" s="70"/>
       <c r="F26" s="35"/>
       <c r="G26" s="43"/>
@@ -2072,10 +2085,10 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="55">
-        <v>10500</v>
+        <v>600</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="70"/>
@@ -2085,10 +2098,10 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="55">
-        <v>600</v>
+        <v>114</v>
+      </c>
+      <c r="C28" s="64">
+        <v>200</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="70"/>
@@ -2097,25 +2110,25 @@
       <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="64">
-        <v>200</v>
-      </c>
-      <c r="D29" s="55"/>
+      <c r="B29" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="55">
+        <v>1358.5</v>
+      </c>
       <c r="E29" s="70"/>
       <c r="F29" s="35"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="76"/>
+      <c r="B30" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="61"/>
       <c r="D30" s="55">
-        <v>1358.5</v>
+        <v>141.666666666666</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="35"/>
@@ -2123,221 +2136,221 @@
       <c r="H30" s="43"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="32" t="s">
-        <v>126</v>
-      </c>
+      <c r="B31" s="32"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="55">
-        <v>141.666666666666</v>
-      </c>
+      <c r="D31" s="55"/>
       <c r="E31" s="68"/>
       <c r="F31" s="35"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="32"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="68"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="68"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="79" t="s">
+      <c r="B33" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="F34" s="79" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="F33" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-    </row>
-    <row r="35" spans="1:8" s="8" customFormat="1">
-      <c r="A35" s="66"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="6"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1">
-      <c r="B36" s="36" t="s">
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1">
+      <c r="A34" s="66"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="6"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1">
+      <c r="B35" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C35" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D35" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F35" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G35" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H35" s="39" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62">
+        <f>SUM(C37:C42)</f>
+        <v>65583.200000000012</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62">
+        <f>SUM(G37:G41)</f>
+        <v>429502.54000000004</v>
+      </c>
+    </row>
     <row r="37" spans="1:8">
-      <c r="B37" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62">
-        <f>SUM(C38:C43)</f>
-        <v>25043</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62">
-        <f>SUM(G38:G42)</f>
-        <v>435202.54000000004</v>
-      </c>
+      <c r="B37" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="38">
+        <v>2200</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="F37" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="64">
+        <v>0</v>
+      </c>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" s="59" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C38" s="38">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D38" s="38"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="72" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G38" s="64">
-        <v>700</v>
+        <v>147000</v>
       </c>
       <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" s="59" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C39" s="38">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D39" s="38"/>
-      <c r="E39" s="8"/>
       <c r="F39" s="72" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="G39" s="64">
-        <v>152000</v>
+        <v>35502.54</v>
       </c>
       <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="38">
-        <v>109</v>
+        <v>111.25</v>
       </c>
       <c r="D40" s="38"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G40" s="64">
-        <v>35502.54</v>
+        <v>150000</v>
       </c>
       <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="38">
-        <v>111.25</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="71"/>
+      <c r="B41" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="40">
+        <f>21822.75+23568.3+17771.9</f>
+        <v>63162.950000000004</v>
+      </c>
+      <c r="D41" s="40"/>
       <c r="F41" s="72" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G41" s="64">
-        <v>150000</v>
+        <v>97000</v>
       </c>
       <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="B42" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="40">
-        <v>21822.75</v>
-      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="38"/>
-      <c r="F42" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="64">
-        <v>97000</v>
-      </c>
-      <c r="H42" s="38"/>
+      <c r="F42" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62">
+        <f>SUM(G43:G52)</f>
+        <v>16075.16</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" s="59"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="F43" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62">
-        <f>SUM(G44:G53)</f>
-        <v>16593.16</v>
-      </c>
+      <c r="B43" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="64">
+        <v>0</v>
+      </c>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="B44" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>66</v>
+      <c r="B44" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="38">
+        <v>1830.46</v>
+      </c>
+      <c r="D44" s="38">
+        <v>1830.46</v>
       </c>
       <c r="F44" s="72" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G44" s="64">
-        <v>518</v>
+        <v>10700</v>
       </c>
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="38">
-        <v>1830.46</v>
-      </c>
-      <c r="D45" s="38">
-        <v>1830.46</v>
-      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="F45" s="72" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G45" s="64">
-        <v>10700</v>
+        <v>1358.5</v>
       </c>
       <c r="H45" s="38"/>
     </row>
@@ -2346,41 +2359,37 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="F46" s="72" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="G46" s="64">
-        <v>1358.5</v>
+        <v>3016.66</v>
       </c>
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="32"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="F47" s="72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" s="64">
-        <v>3016.66</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="64">
-        <v>1000</v>
-      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="2:8">
@@ -2392,23 +2401,23 @@
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="32"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="F50" s="32"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>66</v>
-      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="F51" s="32"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
@@ -2422,41 +2431,33 @@
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="32"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="52" t="s">
+      <c r="B53" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="53">
-        <f>SUM(D37:D53)</f>
-        <v>26873.46</v>
-      </c>
-      <c r="F54" s="51" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="53">
+        <f>SUM(D36:D52)</f>
+        <v>67413.660000000018</v>
+      </c>
+      <c r="F53" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54">
-        <f>SUM(H37:H53)</f>
-        <v>451795.7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54">
+        <f>SUM(H36:H52)</f>
+        <v>445577.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>
@@ -2486,19 +2487,19 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:5" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="95" t="str">
         <f>IF(C4="v","VENTA","COMPRA")</f>
         <v>COMPRA</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="10" t="s">
@@ -2595,11 +2596,11 @@
       <c r="E11"/>
     </row>
     <row r="12" spans="2:5" ht="19.5" customHeight="1">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="2:5" ht="19.5" customHeight="1">
@@ -2651,26 +2652,26 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="39" customHeight="1">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" s="5"/>

--- a/Contabilidad/contabilidad.xlsx
+++ b/Contabilidad/contabilidad.xlsx
@@ -656,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="305">
   <si>
     <t>ACTIVOS</t>
   </si>
@@ -1490,6 +1490,87 @@
   </si>
   <si>
     <t>Intereses prestamos sanchito</t>
+  </si>
+  <si>
+    <t>Cargador para el celular de adel</t>
+  </si>
+  <si>
+    <t>Salami</t>
+  </si>
+  <si>
+    <t>yuca</t>
+  </si>
+  <si>
+    <t>Auyama</t>
+  </si>
+  <si>
+    <t>Poloche de rosmarlin y lele</t>
+  </si>
+  <si>
+    <t>Agua y anis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huevo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manzana </t>
+  </si>
+  <si>
+    <t>mandarina</t>
+  </si>
+  <si>
+    <t>Compra de Boxer ,panti,sonbrilla y media</t>
+  </si>
+  <si>
+    <t>Prestamo popular</t>
+  </si>
+  <si>
+    <t>internet claro</t>
+  </si>
+  <si>
+    <t>Hot dog</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>Cloro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra en la sirena </t>
+  </si>
+  <si>
+    <t>C ompra en la sirena</t>
+  </si>
+  <si>
+    <t>Manzana</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>Curita</t>
+  </si>
+  <si>
+    <t>Aji y verdura</t>
+  </si>
+  <si>
+    <t>Pago Agua casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ace </t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>Empanada</t>
+  </si>
+  <si>
+    <t>Roca por pintar la pared</t>
+  </si>
+  <si>
+    <t>pasaje de mercancia mariano</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1584,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1595,13 +1676,6 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1761,7 +1835,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1839,7 +1913,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1848,10 +1922,10 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1866,10 +1940,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1907,7 +1981,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1919,7 +1993,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1946,12 +2020,6 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1973,6 +2041,24 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1991,12 +2077,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2281,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2299,28 +2386,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="3" spans="2:8" ht="6.75" customHeight="1"/>
     <row r="4" spans="2:8">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="F4" s="81" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="F4" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="23" t="s">
@@ -2355,18 +2442,18 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="79" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32">
         <f>SUM(C8:C10)</f>
-        <v>56344.89</v>
+        <v>52744.89</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="74" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="33"/>
@@ -2388,8 +2475,8 @@
         <v>245</v>
       </c>
       <c r="C9" s="11">
-        <f>7725-570</f>
-        <v>7155</v>
+        <f>7725-570-3600</f>
+        <v>3555</v>
       </c>
       <c r="D9" s="11"/>
       <c r="F9" s="15" t="s">
@@ -2397,7 +2484,7 @@
       </c>
       <c r="G9" s="16">
         <f>D7</f>
-        <v>56344.89</v>
+        <v>52744.89</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -2429,12 +2516,12 @@
       </c>
       <c r="G11" s="21">
         <f>G9+G10</f>
-        <v>58854.89</v>
+        <v>55254.89</v>
       </c>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="79" t="s">
         <v>226</v>
       </c>
       <c r="C12" s="32"/>
@@ -2464,7 +2551,7 @@
       </c>
       <c r="G13" s="20">
         <f>G11-G12</f>
-        <v>24947.269999999997</v>
+        <v>21347.269999999997</v>
       </c>
       <c r="H13" s="19"/>
     </row>
@@ -2481,7 +2568,7 @@
       </c>
       <c r="G14" s="43">
         <f>D31+G13</f>
-        <v>14531.549999999996</v>
+        <v>8746.0799999999945</v>
       </c>
       <c r="H14" s="20"/>
     </row>
@@ -2528,7 +2615,7 @@
       <c r="C18" s="61">
         <v>2638.2</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="87">
         <f>SUM(C18:C19)</f>
         <v>20304.580000000002</v>
       </c>
@@ -2544,7 +2631,7 @@
       <c r="C19" s="28">
         <v>17666.38</v>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="40"/>
       <c r="F19" s="8"/>
       <c r="G19" s="16"/>
@@ -2557,7 +2644,7 @@
       <c r="C20" s="61">
         <v>2963.09</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="89">
         <f>SUM(C20:C21)</f>
         <v>7732.94</v>
       </c>
@@ -2573,7 +2660,7 @@
       <c r="C21" s="28">
         <v>4769.8499999999995</v>
       </c>
-      <c r="D21" s="86"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="38"/>
       <c r="F21" s="8"/>
       <c r="G21" s="16"/>
@@ -2586,7 +2673,7 @@
       <c r="C22" s="61">
         <v>1623.6</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="89">
         <f>SUM(C22:C23)</f>
         <v>4750.1000000000004</v>
       </c>
@@ -2602,7 +2689,7 @@
       <c r="C23" s="28">
         <v>3126.5</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="1"/>
       <c r="F23" s="8"/>
       <c r="G23" s="16"/>
@@ -2615,7 +2702,7 @@
       <c r="C24" s="61">
         <v>0</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="89">
         <f>SUM(C24:C25)</f>
         <v>1120</v>
       </c>
@@ -2630,7 +2717,7 @@
       <c r="C25" s="28">
         <v>1120</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="90"/>
       <c r="F25" s="8"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -2638,7 +2725,7 @@
     <row r="26" spans="1:8">
       <c r="B26" s="30"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="78"/>
       <c r="F26" s="8"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -2649,17 +2736,17 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="81" t="s">
+      <c r="F28" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
     </row>
     <row r="29" spans="1:8">
       <c r="B29"/>
@@ -2696,7 +2783,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="32">
         <f>SUM(C32:C38)</f>
-        <v>-10415.720000000001</v>
+        <v>-12601.190000000002</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>44</v>
@@ -2704,7 +2791,7 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32">
         <f>SUM(G32:G36)</f>
-        <v>190302.15</v>
+        <v>184463.82</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2712,8 +2799,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="11">
-        <f>7725+1800</f>
-        <v>9525</v>
+        <v>1260</v>
       </c>
       <c r="D32" s="11"/>
       <c r="F32" s="42" t="s">
@@ -2729,14 +2815,14 @@
         <v>40</v>
       </c>
       <c r="C33" s="11">
-        <v>78833.11</v>
+        <v>84912.639999999999</v>
       </c>
       <c r="D33" s="11"/>
       <c r="F33" s="42" t="s">
         <v>52</v>
       </c>
       <c r="G33" s="34">
-        <v>177638.33</v>
+        <v>171800</v>
       </c>
       <c r="H33" s="11"/>
     </row>
@@ -2760,7 +2846,7 @@
       <c r="B35" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="77">
+      <c r="C35" s="75">
         <v>109</v>
       </c>
       <c r="D35" s="11"/>
@@ -2899,10 +2985,12 @@
         <v>245</v>
       </c>
       <c r="C46" s="11">
-        <v>23000</v>
+        <f>23000+14000</f>
+        <v>37000</v>
       </c>
       <c r="D46" s="11">
-        <v>23000</v>
+        <f>23000+14000</f>
+        <v>37000</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="11"/>
@@ -2937,7 +3025,7 @@
       <c r="C49" s="14"/>
       <c r="D49" s="26">
         <f>SUM(D31:D48)</f>
-        <v>19789.28</v>
+        <v>31603.809999999998</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>5</v>
@@ -2945,26 +3033,26 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27">
         <f>SUM(H31:H48)</f>
-        <v>201702.15</v>
+        <v>195863.82</v>
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="75"/>
+      <c r="B52" s="73"/>
       <c r="F52" s="38"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="75"/>
+      <c r="B53" s="73"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="75"/>
+      <c r="B54" s="73"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="75"/>
+      <c r="B55" s="73"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="75"/>
+      <c r="B56" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2986,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P118"/>
+  <dimension ref="B2:P88"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3000,41 +3088,41 @@
     <col min="4" max="4" width="10.28515625" style="62" customWidth="1"/>
     <col min="5" max="5" width="2.5703125" style="49" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="58" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="62" customWidth="1"/>
     <col min="9" max="9" width="2.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" style="58" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="62" customWidth="1"/>
     <col min="13" max="13" width="2.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="3.85546875" style="58" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" style="62" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="57"/>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="J2" s="87" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="J2" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="N2" s="87" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="N2" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="59" t="s">
@@ -3077,32 +3165,32 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="D4" s="65">
-        <v>1358.5</v>
+        <v>6976.82</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="H4" s="65">
-        <v>39.86</v>
+        <v>1446.04</v>
       </c>
       <c r="J4" s="60">
         <v>23</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="L4" s="66">
-        <v>388.4</v>
+        <v>985</v>
       </c>
       <c r="N4" s="60"/>
       <c r="O4" s="46"/>
@@ -3110,32 +3198,32 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="60">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="D5" s="65">
-        <v>719</v>
+        <v>1398.36</v>
       </c>
       <c r="E5" s="56"/>
-      <c r="F5" s="60">
-        <v>28</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="65">
-        <v>718.89</v>
+      <c r="F5" s="54">
+        <v>30</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="64">
+        <v>736.65</v>
       </c>
       <c r="J5" s="60">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="L5" s="66">
-        <v>131.19999999999999</v>
+        <v>502.47</v>
       </c>
       <c r="N5" s="60"/>
       <c r="O5" s="46"/>
@@ -3143,66 +3231,36 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="60">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="D6" s="65">
-        <v>102.7</v>
+        <v>557</v>
       </c>
       <c r="E6" s="56"/>
-      <c r="F6" s="60">
-        <v>2</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="65">
-        <v>1298.21</v>
-      </c>
-      <c r="J6" s="60">
-        <v>2</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="L6" s="66">
-        <v>497</v>
-      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="65"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="66"/>
       <c r="N6" s="60"/>
       <c r="O6" s="46"/>
       <c r="P6" s="66"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="60">
-        <v>17</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="65">
-        <v>458</v>
-      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="51"/>
-      <c r="F7" s="60">
-        <v>10</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="65">
-        <v>473.13</v>
-      </c>
-      <c r="J7" s="60">
-        <v>15</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="L7" s="66">
-        <v>378</v>
-      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="65"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="66"/>
       <c r="N7" s="60"/>
       <c r="O7" s="46"/>
       <c r="P7" s="66"/>
@@ -3212,24 +3270,12 @@
       <c r="C8" s="46"/>
       <c r="D8" s="65"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="60">
-        <v>17</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="65">
-        <v>433</v>
-      </c>
-      <c r="J8" s="60">
-        <v>17</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="L8" s="66">
-        <v>229</v>
-      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="65"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="66"/>
       <c r="N8" s="60"/>
       <c r="O8" s="46"/>
       <c r="P8" s="66"/>
@@ -3451,7 +3497,7 @@
       </c>
       <c r="D23" s="68">
         <f>SUM(D4:D22)</f>
-        <v>2638.2</v>
+        <v>8932.18</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="60"/>
@@ -3460,7 +3506,7 @@
       </c>
       <c r="H23" s="68">
         <f>SUM(H4:H22)</f>
-        <v>2963.09</v>
+        <v>2182.69</v>
       </c>
       <c r="J23" s="60"/>
       <c r="K23" s="47" t="s">
@@ -3468,7 +3514,7 @@
       </c>
       <c r="L23" s="69">
         <f>SUM(L4:L22)</f>
-        <v>1623.6</v>
+        <v>1487.47</v>
       </c>
       <c r="N23" s="60"/>
       <c r="O23" s="47" t="s">
@@ -3483,27 +3529,27 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="57"/>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="J25" s="87" t="s">
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="J25" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="N25" s="87" t="s">
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="N25" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="59" t="s">
@@ -3545,89 +3591,89 @@
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="78">
-        <v>29</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>117</v>
+      <c r="B27" s="54">
+        <v>30</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>119</v>
       </c>
       <c r="D27" s="64">
-        <v>10500</v>
+        <v>6966.38</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="60">
         <v>22</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="H27" s="65">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="J27" s="60">
         <v>22</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" s="65">
-        <v>25</v>
+        <v>282</v>
+      </c>
+      <c r="L27" s="66">
+        <v>625</v>
       </c>
       <c r="N27" s="60">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O27" s="46" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="P27" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="54">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="78">
-        <v>29</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>119</v>
+      <c r="C28" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="D28" s="64">
-        <v>6966.38</v>
+        <v>10500</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="60">
         <v>23</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="H28" s="65">
-        <v>40</v>
-      </c>
-      <c r="J28" s="60">
+        <v>60</v>
+      </c>
+      <c r="J28" s="80">
         <v>22</v>
       </c>
-      <c r="K28" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="L28" s="65">
-        <v>10</v>
+      <c r="K28" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="82">
+        <v>150</v>
       </c>
       <c r="N28" s="60">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O28" s="46" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="P28" s="65">
-        <v>450</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="D29" s="64">
         <v>200</v>
@@ -3637,85 +3683,73 @@
         <v>23</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="H29" s="65">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J29" s="60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L29" s="65">
-        <v>25</v>
-      </c>
-      <c r="N29" s="60">
-        <v>12</v>
-      </c>
-      <c r="O29" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="P29" s="65">
-        <v>140</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N29" s="60"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="65"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="78"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="53"/>
       <c r="D30" s="64"/>
       <c r="E30" s="56"/>
       <c r="F30" s="60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="H30" s="65">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J30" s="60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="L30" s="65">
-        <v>10</v>
-      </c>
-      <c r="N30" s="60">
-        <v>12</v>
-      </c>
-      <c r="O30" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="P30" s="65">
-        <v>500</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N30" s="60"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="65"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="60"/>
-      <c r="C31" s="79"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="65"/>
       <c r="E31" s="56"/>
       <c r="F31" s="60">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="H31" s="65">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J31" s="60">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L31" s="65">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="N31" s="60"/>
       <c r="O31" s="46"/>
@@ -3727,22 +3761,22 @@
       <c r="D32" s="65"/>
       <c r="E32" s="56"/>
       <c r="F32" s="60">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="H32" s="65">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="J32" s="60">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K32" s="46" t="s">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="L32" s="65">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="46"/>
@@ -3754,22 +3788,22 @@
       <c r="D33" s="65"/>
       <c r="E33" s="56"/>
       <c r="F33" s="60">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="H33" s="65">
+        <v>37</v>
+      </c>
+      <c r="J33" s="60">
+        <v>24</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" s="65">
         <v>10</v>
-      </c>
-      <c r="J33" s="60">
-        <v>26</v>
-      </c>
-      <c r="K33" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="L33" s="65">
-        <v>5</v>
       </c>
       <c r="N33" s="60"/>
       <c r="O33" s="46"/>
@@ -3781,19 +3815,19 @@
       <c r="D34" s="65"/>
       <c r="E34" s="56"/>
       <c r="F34" s="60">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="H34" s="65">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J34" s="60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="46" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="L34" s="65">
         <v>10</v>
@@ -3808,22 +3842,22 @@
       <c r="D35" s="65"/>
       <c r="E35" s="51"/>
       <c r="F35" s="60">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="H35" s="65">
         <v>20</v>
       </c>
       <c r="J35" s="60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="L35" s="65">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N35" s="60"/>
       <c r="O35" s="46"/>
@@ -3835,22 +3869,22 @@
       <c r="D36" s="65"/>
       <c r="E36" s="51"/>
       <c r="F36" s="60">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="H36" s="65">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J36" s="60">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K36" s="46" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="L36" s="65">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N36" s="60"/>
       <c r="O36" s="46"/>
@@ -3862,22 +3896,22 @@
       <c r="D37" s="65"/>
       <c r="E37" s="51"/>
       <c r="F37" s="60">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="H37" s="65">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J37" s="60">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="L37" s="65">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N37" s="60"/>
       <c r="O37" s="46"/>
@@ -3889,22 +3923,22 @@
       <c r="D38" s="65"/>
       <c r="E38" s="51"/>
       <c r="F38" s="60">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="H38" s="65">
-        <v>343.35</v>
+        <v>36</v>
       </c>
       <c r="J38" s="60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K38" s="46" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="L38" s="65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N38" s="60"/>
       <c r="O38" s="46"/>
@@ -3921,22 +3955,22 @@
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="60">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="H39" s="65">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J39" s="60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K39" s="46" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="L39" s="65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N39" s="60"/>
       <c r="O39" s="46"/>
@@ -3945,22 +3979,22 @@
     <row r="40" spans="2:16">
       <c r="E40" s="51"/>
       <c r="F40" s="60">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H40" s="65">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J40" s="60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K40" s="46" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="L40" s="65">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="N40" s="60"/>
       <c r="O40" s="46"/>
@@ -3969,22 +4003,22 @@
     <row r="41" spans="2:16">
       <c r="E41" s="51"/>
       <c r="F41" s="60">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="H41" s="65">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J41" s="60">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K41" s="46" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L41" s="65">
-        <v>1810</v>
+        <v>20</v>
       </c>
       <c r="N41" s="60"/>
       <c r="O41" s="46"/>
@@ -3993,22 +4027,22 @@
     <row r="42" spans="2:16">
       <c r="E42" s="51"/>
       <c r="F42" s="60">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="H42" s="65">
-        <v>217.5</v>
+        <v>50</v>
       </c>
       <c r="J42" s="60">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K42" s="46" t="s">
         <v>231</v>
       </c>
       <c r="L42" s="65">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N42" s="60"/>
       <c r="O42" s="46"/>
@@ -4017,22 +4051,22 @@
     <row r="43" spans="2:16">
       <c r="E43" s="51"/>
       <c r="F43" s="60">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43" s="46" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="H43" s="65">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="J43" s="60">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K43" s="46" t="s">
         <v>247</v>
       </c>
       <c r="L43" s="65">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N43" s="60"/>
       <c r="O43" s="46"/>
@@ -4041,22 +4075,22 @@
     <row r="44" spans="2:16">
       <c r="E44" s="51"/>
       <c r="F44" s="60">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="H44" s="65">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="J44" s="60">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K44" s="46" t="s">
         <v>231</v>
       </c>
       <c r="L44" s="65">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N44" s="60"/>
       <c r="O44" s="46"/>
@@ -4065,22 +4099,22 @@
     <row r="45" spans="2:16">
       <c r="E45" s="51"/>
       <c r="F45" s="60">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="H45" s="65">
+        <v>25</v>
+      </c>
+      <c r="J45" s="60">
         <v>30</v>
       </c>
-      <c r="J45" s="60">
-        <v>3</v>
-      </c>
       <c r="K45" s="46" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="L45" s="65">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N45" s="60"/>
       <c r="O45" s="46"/>
@@ -4089,22 +4123,22 @@
     <row r="46" spans="2:16">
       <c r="E46" s="51"/>
       <c r="F46" s="60">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="H46" s="65">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J46" s="60">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K46" s="46" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="L46" s="65">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N46" s="60"/>
       <c r="O46" s="46"/>
@@ -4113,22 +4147,22 @@
     <row r="47" spans="2:16">
       <c r="E47" s="51"/>
       <c r="F47" s="60">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="H47" s="65">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J47" s="60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K47" s="46" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="L47" s="65">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="N47" s="60"/>
       <c r="O47" s="46"/>
@@ -4137,22 +4171,22 @@
     <row r="48" spans="2:16">
       <c r="E48" s="51"/>
       <c r="F48" s="60">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="H48" s="65">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J48" s="60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K48" s="46" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="L48" s="65">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N48" s="60"/>
       <c r="O48" s="46"/>
@@ -4161,22 +4195,22 @@
     <row r="49" spans="5:16">
       <c r="E49" s="51"/>
       <c r="F49" s="60">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="H49" s="65">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J49" s="60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K49" s="46" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="L49" s="65">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="N49" s="60"/>
       <c r="O49" s="46"/>
@@ -4185,22 +4219,22 @@
     <row r="50" spans="5:16">
       <c r="E50" s="51"/>
       <c r="F50" s="60">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="H50" s="65">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J50" s="60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K50" s="46" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c r="L50" s="65">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N50" s="60"/>
       <c r="O50" s="46"/>
@@ -4209,1097 +4243,559 @@
     <row r="51" spans="5:16">
       <c r="E51" s="51"/>
       <c r="F51" s="60">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G51" s="46" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="H51" s="65">
         <v>50</v>
       </c>
       <c r="J51" s="60">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K51" s="46" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="L51" s="65">
-        <v>6.5</v>
+        <v>25</v>
       </c>
       <c r="N51" s="60"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="65"/>
+      <c r="O51" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="P51" s="68">
+        <f>SUM(P27:P50)</f>
+        <v>220</v>
+      </c>
     </row>
     <row r="52" spans="5:16">
       <c r="E52" s="51"/>
       <c r="F52" s="60">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H52" s="65">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J52" s="60">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K52" s="46" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="L52" s="65">
-        <v>5</v>
-      </c>
-      <c r="N52" s="60"/>
-      <c r="O52" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="P52" s="68">
-        <f>SUM(P27:P51)</f>
-        <v>1120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="5:16">
       <c r="E53" s="51"/>
       <c r="F53" s="60">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G53" s="46" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="H53" s="65">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J53" s="60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K53" s="46" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="L53" s="65">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="5:16">
       <c r="E54" s="51"/>
       <c r="F54" s="60">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H54" s="65">
         <v>20</v>
       </c>
       <c r="J54" s="60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K54" s="46" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="L54" s="65">
-        <v>69</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="5:16">
       <c r="E55" s="51"/>
       <c r="F55" s="60">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="H55" s="65">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="J55" s="60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K55" s="46" t="s">
         <v>231</v>
       </c>
       <c r="L55" s="65">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="5:16">
       <c r="E56" s="51"/>
       <c r="F56" s="60">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G56" s="46" t="s">
         <v>239</v>
       </c>
       <c r="H56" s="65">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J56" s="60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K56" s="46" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="L56" s="65">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="5:16">
       <c r="E57" s="51"/>
       <c r="F57" s="60">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G57" s="46" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="H57" s="65">
-        <v>45</v>
-      </c>
-      <c r="J57" s="60">
-        <v>8</v>
-      </c>
-      <c r="K57" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L57" s="65">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J57" s="60"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="5:16">
       <c r="E58" s="51"/>
       <c r="F58" s="60">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H58" s="65">
-        <v>86</v>
-      </c>
-      <c r="J58" s="60">
-        <v>8</v>
-      </c>
-      <c r="K58" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="L58" s="65">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J58" s="60"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="5:16">
       <c r="E59" s="51"/>
       <c r="F59" s="60">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G59" s="46" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="H59" s="65">
-        <v>46</v>
-      </c>
-      <c r="J59" s="60">
-        <v>9</v>
-      </c>
-      <c r="K59" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="L59" s="65">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J59" s="60"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="65"/>
     </row>
     <row r="60" spans="5:16">
       <c r="E60" s="51"/>
       <c r="F60" s="60">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="H60" s="65">
-        <v>30</v>
-      </c>
-      <c r="J60" s="60">
-        <v>9</v>
-      </c>
-      <c r="K60" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="L60" s="65">
-        <v>6.5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J60" s="60"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="65"/>
     </row>
     <row r="61" spans="5:16">
       <c r="E61" s="51"/>
       <c r="F61" s="60">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="H61" s="65">
-        <v>85</v>
-      </c>
-      <c r="J61" s="60">
-        <v>9</v>
-      </c>
-      <c r="K61" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L61" s="65">
-        <v>30</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J61" s="60"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="65"/>
     </row>
     <row r="62" spans="5:16">
       <c r="E62" s="51"/>
       <c r="F62" s="60">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G62" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="65">
+        <v>40</v>
+      </c>
+      <c r="J62" s="60"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="65"/>
+    </row>
+    <row r="63" spans="5:16">
+      <c r="F63" s="60">
+        <v>1</v>
+      </c>
+      <c r="G63" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="H63" s="65">
+        <v>10</v>
+      </c>
+      <c r="J63" s="60"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="65"/>
+    </row>
+    <row r="64" spans="5:16">
+      <c r="F64" s="60">
+        <v>1</v>
+      </c>
+      <c r="G64" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="65">
+        <v>100</v>
+      </c>
+      <c r="J64" s="60"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="65"/>
+    </row>
+    <row r="65" spans="6:12">
+      <c r="F65" s="60">
+        <v>1</v>
+      </c>
+      <c r="G65" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="65">
+        <v>50</v>
+      </c>
+      <c r="J65" s="60"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="65"/>
+    </row>
+    <row r="66" spans="6:12">
+      <c r="F66" s="60">
+        <v>1</v>
+      </c>
+      <c r="G66" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H66" s="65">
+        <v>100</v>
+      </c>
+      <c r="J66" s="60"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="6:12">
+      <c r="F67" s="60">
+        <v>2</v>
+      </c>
+      <c r="G67" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="H62" s="65">
-        <v>43</v>
-      </c>
-      <c r="J62" s="60">
-        <v>10</v>
-      </c>
-      <c r="K62" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="L62" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="5:16">
-      <c r="E63" s="51"/>
-      <c r="F63" s="60">
-        <v>8</v>
-      </c>
-      <c r="G63" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="H63" s="65">
+      <c r="H67" s="65">
+        <v>50</v>
+      </c>
+      <c r="J67" s="60"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="6:12">
+      <c r="F68" s="60">
+        <v>2</v>
+      </c>
+      <c r="G68" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="65">
         <v>25</v>
       </c>
-      <c r="J63" s="60">
-        <v>10</v>
-      </c>
-      <c r="K63" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L63" s="65">
+      <c r="J68" s="60"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="65"/>
+    </row>
+    <row r="69" spans="6:12">
+      <c r="F69" s="60">
+        <v>2</v>
+      </c>
+      <c r="G69" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H69" s="65">
+        <v>110</v>
+      </c>
+      <c r="J69" s="60"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="65"/>
+    </row>
+    <row r="70" spans="6:12">
+      <c r="F70" s="60">
+        <v>2</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H70" s="65">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="5:16">
-      <c r="E64" s="51"/>
-      <c r="F64" s="60">
-        <v>8</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="H64" s="65">
-        <v>75</v>
-      </c>
-      <c r="J64" s="60">
-        <v>10</v>
-      </c>
-      <c r="K64" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L64" s="65">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="5:12">
-      <c r="E65" s="51"/>
-      <c r="F65" s="60">
-        <v>8</v>
-      </c>
-      <c r="G65" s="46" t="s">
+      <c r="J70" s="60"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="65"/>
+    </row>
+    <row r="71" spans="6:12">
+      <c r="F71" s="60">
+        <v>2</v>
+      </c>
+      <c r="G71" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H65" s="65">
-        <v>10</v>
-      </c>
-      <c r="J65" s="60">
-        <v>11</v>
-      </c>
-      <c r="K65" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="L65" s="65">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="5:12">
-      <c r="E66" s="51"/>
-      <c r="F66" s="60">
-        <v>8</v>
-      </c>
-      <c r="G66" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="H66" s="65">
-        <v>106</v>
-      </c>
-      <c r="J66" s="60">
-        <v>11</v>
-      </c>
-      <c r="K66" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="L66" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="5:12">
-      <c r="E67" s="51"/>
-      <c r="F67" s="60">
-        <v>8</v>
-      </c>
-      <c r="G67" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="65">
-        <v>36</v>
-      </c>
-      <c r="J67" s="60">
-        <v>11</v>
-      </c>
-      <c r="K67" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L67" s="65">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="5:12">
-      <c r="E68" s="51"/>
-      <c r="F68" s="60">
-        <v>8</v>
-      </c>
-      <c r="G68" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="H68" s="65">
-        <v>40</v>
-      </c>
-      <c r="J68" s="60">
-        <v>12</v>
-      </c>
-      <c r="K68" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="L68" s="65">
+      <c r="H71" s="65">
+        <v>15</v>
+      </c>
+      <c r="J71" s="60"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="65"/>
+    </row>
+    <row r="72" spans="6:12">
+      <c r="F72" s="60">
+        <v>3</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="65">
+        <v>65</v>
+      </c>
+      <c r="J72" s="60"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="65"/>
+    </row>
+    <row r="73" spans="6:12">
+      <c r="F73" s="60">
+        <v>3</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H73" s="65">
+        <v>35</v>
+      </c>
+      <c r="J73" s="60"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="65"/>
+    </row>
+    <row r="74" spans="6:12">
+      <c r="F74" s="60">
+        <v>3</v>
+      </c>
+      <c r="G74" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="65">
+        <v>15</v>
+      </c>
+      <c r="J74" s="60"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="65"/>
+    </row>
+    <row r="75" spans="6:12">
+      <c r="F75" s="60">
+        <v>3</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="65">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="5:12">
-      <c r="E69" s="51"/>
-      <c r="F69" s="60">
-        <v>8</v>
-      </c>
-      <c r="G69" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H69" s="65">
-        <v>75</v>
-      </c>
-      <c r="J69" s="60">
-        <v>12</v>
-      </c>
-      <c r="K69" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="L69" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="5:12">
-      <c r="E70" s="51"/>
-      <c r="F70" s="60">
-        <v>9</v>
-      </c>
-      <c r="G70" s="46" t="s">
+      <c r="J75" s="60"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="65"/>
+    </row>
+    <row r="76" spans="6:12">
+      <c r="F76" s="60">
+        <v>3</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H76" s="65">
+        <v>20</v>
+      </c>
+      <c r="J76" s="60"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="65"/>
+    </row>
+    <row r="77" spans="6:12">
+      <c r="F77" s="60">
+        <v>3</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="H77" s="65">
+        <v>70</v>
+      </c>
+      <c r="J77" s="60"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="65"/>
+    </row>
+    <row r="78" spans="6:12">
+      <c r="F78" s="60">
+        <v>4</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" s="65">
+        <v>15</v>
+      </c>
+      <c r="J78" s="60"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="65"/>
+    </row>
+    <row r="79" spans="6:12">
+      <c r="F79" s="60">
+        <v>4</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H79" s="65">
+        <v>50</v>
+      </c>
+      <c r="J79" s="60"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="65"/>
+    </row>
+    <row r="80" spans="6:12">
+      <c r="F80" s="60">
+        <v>4</v>
+      </c>
+      <c r="G80" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H70" s="65">
-        <v>26</v>
-      </c>
-      <c r="J70" s="60">
-        <v>12</v>
-      </c>
-      <c r="K70" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="L70" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="5:12">
-      <c r="E71" s="51"/>
-      <c r="F71" s="60">
-        <v>9</v>
-      </c>
-      <c r="G71" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="H71" s="65">
-        <v>40</v>
-      </c>
-      <c r="J71" s="60">
-        <v>13</v>
-      </c>
-      <c r="K71" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="L71" s="65">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="5:12">
-      <c r="E72" s="51"/>
-      <c r="F72" s="60">
-        <v>9</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="H72" s="65">
-        <v>18</v>
-      </c>
-      <c r="J72" s="60">
-        <v>13</v>
-      </c>
-      <c r="K72" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="L72" s="65">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="73" spans="5:12">
-      <c r="F73" s="60">
-        <v>9</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="H73" s="65">
-        <v>60</v>
-      </c>
-      <c r="J73" s="60">
-        <v>14</v>
-      </c>
-      <c r="K73" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="L73" s="65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="5:12">
-      <c r="F74" s="60">
-        <v>9</v>
-      </c>
-      <c r="G74" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="H74" s="65">
+      <c r="H80" s="65">
         <v>50</v>
       </c>
-      <c r="J74" s="60">
-        <v>14</v>
-      </c>
-      <c r="K74" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="L74" s="65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="5:12">
-      <c r="F75" s="60">
-        <v>9</v>
-      </c>
-      <c r="G75" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="H75" s="65">
-        <v>8</v>
-      </c>
-      <c r="J75" s="60">
-        <v>14</v>
-      </c>
-      <c r="K75" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="L75" s="65">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="76" spans="5:12">
-      <c r="F76" s="60">
-        <v>9</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="65">
-        <v>13</v>
-      </c>
-      <c r="J76" s="60">
-        <v>15</v>
-      </c>
-      <c r="K76" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L76" s="65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="5:12">
-      <c r="F77" s="60">
-        <v>9</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="H77" s="65">
-        <v>15</v>
-      </c>
-      <c r="J77" s="60">
-        <v>16</v>
-      </c>
-      <c r="K77" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="L77" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="5:12">
-      <c r="F78" s="60">
-        <v>10</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H78" s="65">
-        <v>10</v>
-      </c>
-      <c r="J78" s="60">
-        <v>18</v>
-      </c>
-      <c r="K78" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="L78" s="65">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="5:12">
-      <c r="F79" s="60">
-        <v>10</v>
-      </c>
-      <c r="G79" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="H79" s="65">
-        <v>20</v>
-      </c>
-      <c r="J79" s="60">
-        <v>18</v>
-      </c>
-      <c r="K79" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L79" s="65">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="5:12">
-      <c r="F80" s="60">
-        <v>11</v>
-      </c>
-      <c r="G80" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="H80" s="65">
-        <v>20</v>
-      </c>
-      <c r="J80" s="60">
-        <v>18</v>
-      </c>
-      <c r="K80" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="L80" s="65">
-        <v>15</v>
-      </c>
+      <c r="J80" s="60"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="65"/>
     </row>
     <row r="81" spans="6:12">
       <c r="F81" s="60">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G81" s="46" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="H81" s="65">
-        <v>30</v>
-      </c>
-      <c r="J81" s="60">
-        <v>19</v>
-      </c>
-      <c r="K81" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L81" s="65">
-        <v>45</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J81" s="60"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="65"/>
     </row>
     <row r="82" spans="6:12">
-      <c r="F82" s="60">
-        <v>11</v>
-      </c>
-      <c r="G82" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="H82" s="65">
-        <v>60</v>
-      </c>
-      <c r="J82" s="60">
-        <v>20</v>
-      </c>
-      <c r="K82" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="L82" s="65">
-        <v>5</v>
-      </c>
+      <c r="F82" s="60"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="65"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="65"/>
     </row>
     <row r="83" spans="6:12">
-      <c r="F83" s="60">
-        <v>12</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="H83" s="65">
-        <v>46</v>
-      </c>
-      <c r="J83" s="60">
-        <v>21</v>
-      </c>
-      <c r="K83" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="L83" s="65">
-        <v>20</v>
-      </c>
+      <c r="F83" s="60"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="65"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="65"/>
     </row>
     <row r="84" spans="6:12">
-      <c r="F84" s="60">
-        <v>12</v>
-      </c>
-      <c r="G84" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H84" s="65">
-        <v>28</v>
-      </c>
-      <c r="J84" s="60">
-        <v>21</v>
-      </c>
-      <c r="K84" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="L84" s="65">
-        <v>30</v>
-      </c>
+      <c r="F84" s="60"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="65"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="65"/>
     </row>
     <row r="85" spans="6:12">
-      <c r="F85" s="60">
-        <v>12</v>
-      </c>
-      <c r="G85" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H85" s="65">
-        <v>50</v>
-      </c>
-      <c r="J85" s="60">
-        <v>21</v>
-      </c>
-      <c r="K85" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="L85" s="65">
-        <v>5</v>
-      </c>
+      <c r="F85" s="60"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="65"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="65"/>
     </row>
     <row r="86" spans="6:12">
-      <c r="F86" s="60">
-        <v>12</v>
-      </c>
-      <c r="G86" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H86" s="65">
-        <v>31</v>
-      </c>
+      <c r="F86" s="60"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="65"/>
       <c r="J86" s="60"/>
       <c r="K86" s="46"/>
       <c r="L86" s="65"/>
     </row>
     <row r="87" spans="6:12">
-      <c r="F87" s="60">
-        <v>13</v>
-      </c>
-      <c r="G87" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="H87" s="65">
-        <v>100</v>
-      </c>
+      <c r="F87" s="60"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="65"/>
       <c r="J87" s="60"/>
       <c r="K87" s="46"/>
       <c r="L87" s="65"/>
     </row>
     <row r="88" spans="6:12">
-      <c r="F88" s="60">
-        <v>13</v>
-      </c>
-      <c r="G88" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="H88" s="65">
-        <v>10</v>
-      </c>
-      <c r="J88" s="60"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="65"/>
-    </row>
-    <row r="89" spans="6:12">
-      <c r="F89" s="60">
-        <v>14</v>
-      </c>
-      <c r="G89" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H89" s="65">
-        <v>54</v>
-      </c>
-      <c r="J89" s="60"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="65"/>
-    </row>
-    <row r="90" spans="6:12">
-      <c r="F90" s="60">
-        <v>14</v>
-      </c>
-      <c r="G90" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H90" s="65">
-        <v>17</v>
-      </c>
-      <c r="J90" s="60"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="65"/>
-    </row>
-    <row r="91" spans="6:12">
-      <c r="F91" s="60">
-        <v>14</v>
-      </c>
-      <c r="G91" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="H91" s="65">
-        <v>60.6</v>
-      </c>
-      <c r="J91" s="60"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="65"/>
-    </row>
-    <row r="92" spans="6:12">
-      <c r="F92" s="60">
-        <v>15</v>
-      </c>
-      <c r="G92" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="H92" s="65">
-        <v>60.6</v>
-      </c>
-      <c r="J92" s="60"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="65"/>
-    </row>
-    <row r="93" spans="6:12">
-      <c r="F93" s="60">
-        <v>15</v>
-      </c>
-      <c r="G93" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="H93" s="65">
-        <v>30</v>
-      </c>
-      <c r="J93" s="60"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="65"/>
-    </row>
-    <row r="94" spans="6:12">
-      <c r="F94" s="60">
-        <v>15</v>
-      </c>
-      <c r="G94" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H94" s="65">
-        <v>13.16</v>
-      </c>
-      <c r="J94" s="60"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="65"/>
-    </row>
-    <row r="95" spans="6:12">
-      <c r="F95" s="60">
-        <v>16</v>
-      </c>
-      <c r="G95" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="H95" s="65">
-        <v>30</v>
-      </c>
-      <c r="J95" s="60"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="65"/>
-    </row>
-    <row r="96" spans="6:12">
-      <c r="F96" s="60">
-        <v>16</v>
-      </c>
-      <c r="G96" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H96" s="65">
-        <v>30</v>
-      </c>
-      <c r="J96" s="60"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="65"/>
-    </row>
-    <row r="97" spans="6:12">
-      <c r="F97" s="60">
-        <v>16</v>
-      </c>
-      <c r="G97" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H97" s="65">
-        <v>13.16</v>
-      </c>
-      <c r="J97" s="60"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="65"/>
-    </row>
-    <row r="98" spans="6:12">
-      <c r="F98" s="60">
-        <v>17</v>
-      </c>
-      <c r="G98" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="H98" s="65">
-        <v>50</v>
-      </c>
-      <c r="J98" s="67"/>
-      <c r="K98" s="47" t="s">
+      <c r="F88" s="60"/>
+      <c r="G88" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" s="68">
+        <f>SUM(H27:H73)</f>
+        <v>1905</v>
+      </c>
+      <c r="I88" s="38"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="L98" s="68">
-        <f>SUM(L27:L58)</f>
-        <v>3126.5</v>
-      </c>
-    </row>
-    <row r="99" spans="6:12">
-      <c r="F99" s="60">
-        <v>17</v>
-      </c>
-      <c r="G99" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H99" s="65">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="100" spans="6:12">
-      <c r="F100" s="60">
-        <v>17</v>
-      </c>
-      <c r="G100" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="H100" s="65">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="6:12">
-      <c r="F101" s="60">
-        <v>17</v>
-      </c>
-      <c r="G101" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="65">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="102" spans="6:12">
-      <c r="F102" s="60">
-        <v>18</v>
-      </c>
-      <c r="G102" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="H102" s="65">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="6:12">
-      <c r="F103" s="60">
-        <v>18</v>
-      </c>
-      <c r="G103" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H103" s="65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="6:12">
-      <c r="F104" s="60">
-        <v>18</v>
-      </c>
-      <c r="G104" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="H104" s="65">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="6:12">
-      <c r="F105" s="60">
-        <v>18</v>
-      </c>
-      <c r="G105" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H105" s="65">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="106" spans="6:12">
-      <c r="F106" s="60">
-        <v>19</v>
-      </c>
-      <c r="G106" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="H106" s="65">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="6:12">
-      <c r="F107" s="60">
-        <v>20</v>
-      </c>
-      <c r="G107" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="H107" s="65">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="6:12">
-      <c r="F108" s="60">
-        <v>21</v>
-      </c>
-      <c r="G108" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="H108" s="65">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="6:12">
-      <c r="F109" s="60">
-        <v>21</v>
-      </c>
-      <c r="G109" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="H109" s="65">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="6:12">
-      <c r="F110" s="60">
-        <v>21</v>
-      </c>
-      <c r="G110" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H110" s="65">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="6:12">
-      <c r="F111" s="60"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="65"/>
-    </row>
-    <row r="112" spans="6:12">
-      <c r="F112" s="60"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="65"/>
-    </row>
-    <row r="113" spans="6:9">
-      <c r="F113" s="60"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="65"/>
-    </row>
-    <row r="114" spans="6:9">
-      <c r="F114" s="60"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="65"/>
-    </row>
-    <row r="115" spans="6:9">
-      <c r="F115" s="60"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="65"/>
-    </row>
-    <row r="116" spans="6:9">
-      <c r="F116" s="60"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="65"/>
-    </row>
-    <row r="117" spans="6:9">
-      <c r="F117" s="60"/>
-      <c r="G117" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="H117" s="68">
-        <f>SUM(H27:H116)</f>
-        <v>4769.8499999999995</v>
-      </c>
-    </row>
-    <row r="118" spans="6:9">
-      <c r="I118" s="38"/>
+      <c r="L88" s="68">
+        <f>SUM(L28:L55)</f>
+        <v>1283</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5323,7 +4819,7 @@
   <dimension ref="B2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5331,16 +4827,16 @@
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="72" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="50" t="s">
@@ -5354,200 +4850,200 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="54">
+      <c r="B4" s="48">
         <v>30</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="64">
-        <v>700</v>
+      <c r="D4" s="84">
+        <v>736.65</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="54">
+      <c r="B5" s="48">
         <v>30</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="72">
-        <v>21676</v>
+      <c r="D5" s="93">
+        <v>12000</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="54">
+      <c r="B6" s="48">
         <v>15</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7">
+      <c r="B7" s="48">
         <v>30</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="84">
         <v>6966.38</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8">
+      <c r="B8" s="48">
         <v>30</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="84">
         <v>10500</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9">
+      <c r="B9" s="48">
         <v>30</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="84">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10">
+      <c r="B10" s="48">
         <v>30</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="84">
         <v>1358.5</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="72"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="2:4">
       <c r="B12"/>
       <c r="C12"/>
-      <c r="D12" s="72"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="2:4">
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" s="72"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="72"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="2:4">
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="72"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="72"/>
+      <c r="D16" s="70"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="72"/>
+      <c r="D17" s="70"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="72"/>
+      <c r="D18" s="70"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="72"/>
+      <c r="D19" s="70"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="72"/>
+      <c r="D20" s="70"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="72"/>
+      <c r="D21" s="70"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="72"/>
+      <c r="D22" s="70"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="72"/>
+      <c r="D23" s="70"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="72"/>
+      <c r="D24" s="70"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="72"/>
+      <c r="D25" s="70"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="72"/>
+      <c r="D26" s="70"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="72"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="72"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="70"/>
     </row>
     <row r="30" spans="2:4">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="72"/>
+      <c r="D30" s="70"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="72"/>
+      <c r="D31" s="70"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="72"/>
+      <c r="D32" s="70"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33"/>
       <c r="C33" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="71">
         <f>SUM(D4:D32)</f>
-        <v>41400.880000000005</v>
+        <v>31761.53</v>
       </c>
     </row>
   </sheetData>
@@ -5558,6 +5054,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5698,27 +5195,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="57"/>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="J2" s="87" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="J2" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="N2" s="87" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="N2" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="59" t="s">
@@ -6023,27 +5520,27 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="57"/>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="J17" s="87" t="s">
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="J17" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="N17" s="87" t="s">
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="N17" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="59" t="s">
@@ -7253,7 +6750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P120"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -7279,27 +6776,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="57"/>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="J2" s="87" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="J2" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="N2" s="87" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="N2" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="59" t="s">
@@ -7985,27 +7482,27 @@
       <c r="E29" s="51"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="J30" s="87" t="s">
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="J30" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="N30" s="87" t="s">
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="N30" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="59" t="s">
@@ -8047,7 +7544,7 @@
       </c>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="78">
+      <c r="B32" s="76">
         <v>30</v>
       </c>
       <c r="C32" s="52" t="s">
@@ -8086,7 +7583,7 @@
       </c>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="78">
+      <c r="B33" s="76">
         <v>1</v>
       </c>
       <c r="C33" s="53" t="s">
@@ -8164,7 +7661,7 @@
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="78"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="53"/>
       <c r="D35" s="64"/>
       <c r="E35" s="56"/>
@@ -8198,7 +7695,7 @@
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="60"/>
-      <c r="C36" s="79"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="65"/>
       <c r="E36" s="56"/>
       <c r="F36" s="60">
@@ -9706,7 +9203,7 @@
   <dimension ref="B2:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9731,27 +9228,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="57"/>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="J2" s="87" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="J2" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="N2" s="87" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="N2" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="59" t="s">
@@ -10200,27 +9697,27 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="57"/>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="J25" s="87" t="s">
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="J25" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="N25" s="87" t="s">
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="N25" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="59" t="s">
@@ -10262,7 +9759,7 @@
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="78">
+      <c r="B27" s="76">
         <v>29</v>
       </c>
       <c r="C27" s="52" t="s">
@@ -10301,7 +9798,7 @@
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="78">
+      <c r="B28" s="76">
         <v>29</v>
       </c>
       <c r="C28" s="52" t="s">
@@ -10379,7 +9876,7 @@
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="78"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="53"/>
       <c r="D30" s="64"/>
       <c r="E30" s="56"/>
@@ -10413,7 +9910,7 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="60"/>
-      <c r="C31" s="79"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="65"/>
       <c r="E31" s="56"/>
       <c r="F31" s="60">
